--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D94F284-4DD2-4D6F-BDCB-9E5657681D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F0310-2AAD-4BEE-9FFC-869F2457A1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="525" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15331,9 +15331,9 @@
   <dimension ref="B1:Y1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="M597" sqref="M597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46258,7 +46258,7 @@
         <v>0</v>
       </c>
       <c r="M511" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N511" s="84">
         <v>1</v>
@@ -46319,7 +46319,7 @@
         <v>0</v>
       </c>
       <c r="M512" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N512" s="84">
         <v>1</v>
@@ -46380,7 +46380,7 @@
         <v>0</v>
       </c>
       <c r="M513" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N513" s="84">
         <v>1</v>
@@ -46441,7 +46441,7 @@
         <v>0</v>
       </c>
       <c r="M514" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N514" s="84">
         <v>1</v>
@@ -46502,7 +46502,7 @@
         <v>0</v>
       </c>
       <c r="M515" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N515" s="84">
         <v>1</v>
@@ -46563,7 +46563,7 @@
         <v>0</v>
       </c>
       <c r="M516" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N516" s="84">
         <v>1</v>
@@ -46624,7 +46624,7 @@
         <v>0</v>
       </c>
       <c r="M517" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N517" s="84">
         <v>1</v>
@@ -46685,7 +46685,7 @@
         <v>0</v>
       </c>
       <c r="M518" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N518" s="84">
         <v>1</v>
@@ -46746,7 +46746,7 @@
         <v>0</v>
       </c>
       <c r="M519" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N519" s="84">
         <v>1</v>
@@ -46807,7 +46807,7 @@
         <v>0</v>
       </c>
       <c r="M520" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N520" s="84">
         <v>1</v>
@@ -46868,7 +46868,7 @@
         <v>0</v>
       </c>
       <c r="M521" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N521" s="84">
         <v>1</v>
@@ -46929,7 +46929,7 @@
         <v>0</v>
       </c>
       <c r="M522" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N522" s="84">
         <v>1</v>
@@ -46990,7 +46990,7 @@
         <v>0</v>
       </c>
       <c r="M523" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N523" s="84">
         <v>1</v>
@@ -47051,7 +47051,7 @@
         <v>0</v>
       </c>
       <c r="M524" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N524" s="84">
         <v>1</v>
@@ -47112,7 +47112,7 @@
         <v>0</v>
       </c>
       <c r="M525" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N525" s="84">
         <v>1</v>
@@ -47173,7 +47173,7 @@
         <v>0</v>
       </c>
       <c r="M526" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N526" s="84">
         <v>1</v>
@@ -47234,7 +47234,7 @@
         <v>0</v>
       </c>
       <c r="M527" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N527" s="84">
         <v>1</v>
@@ -47295,7 +47295,7 @@
         <v>0</v>
       </c>
       <c r="M528" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N528" s="84">
         <v>1</v>
@@ -47356,7 +47356,7 @@
         <v>0</v>
       </c>
       <c r="M529" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N529" s="84">
         <v>1</v>
@@ -47417,7 +47417,7 @@
         <v>0</v>
       </c>
       <c r="M530" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N530" s="84">
         <v>1</v>
@@ -47478,7 +47478,7 @@
         <v>0</v>
       </c>
       <c r="M531" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N531" s="84">
         <v>1</v>
@@ -47539,7 +47539,7 @@
         <v>0</v>
       </c>
       <c r="M532" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N532" s="84">
         <v>1</v>
@@ -47600,7 +47600,7 @@
         <v>0</v>
       </c>
       <c r="M533" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N533" s="84">
         <v>1</v>
@@ -47661,7 +47661,7 @@
         <v>0</v>
       </c>
       <c r="M534" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N534" s="84">
         <v>1</v>
@@ -47722,7 +47722,7 @@
         <v>0</v>
       </c>
       <c r="M535" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N535" s="84">
         <v>1</v>
@@ -47783,7 +47783,7 @@
         <v>0</v>
       </c>
       <c r="M536" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N536" s="84">
         <v>1</v>
@@ -47844,7 +47844,7 @@
         <v>0</v>
       </c>
       <c r="M537" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N537" s="84">
         <v>1</v>
@@ -47905,7 +47905,7 @@
         <v>0</v>
       </c>
       <c r="M538" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N538" s="84">
         <v>1</v>
@@ -47966,7 +47966,7 @@
         <v>0</v>
       </c>
       <c r="M539" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N539" s="84">
         <v>1</v>
@@ -48027,7 +48027,7 @@
         <v>0</v>
       </c>
       <c r="M540" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N540" s="84">
         <v>1</v>
@@ -48088,7 +48088,7 @@
         <v>0</v>
       </c>
       <c r="M541" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N541" s="84">
         <v>1</v>
@@ -48149,7 +48149,7 @@
         <v>0</v>
       </c>
       <c r="M542" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N542" s="84">
         <v>1</v>
@@ -48210,7 +48210,7 @@
         <v>0</v>
       </c>
       <c r="M543" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N543" s="84">
         <v>1</v>
@@ -48271,7 +48271,7 @@
         <v>0</v>
       </c>
       <c r="M544" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N544" s="84">
         <v>1</v>
@@ -48332,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N545" s="84">
         <v>1</v>
@@ -48393,7 +48393,7 @@
         <v>0</v>
       </c>
       <c r="M546" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N546" s="84">
         <v>1</v>
@@ -48454,7 +48454,7 @@
         <v>0</v>
       </c>
       <c r="M547" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N547" s="84">
         <v>1</v>
@@ -48515,7 +48515,7 @@
         <v>0</v>
       </c>
       <c r="M548" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N548" s="84">
         <v>1</v>
@@ -48576,7 +48576,7 @@
         <v>0</v>
       </c>
       <c r="M549" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N549" s="84">
         <v>1</v>
@@ -48637,7 +48637,7 @@
         <v>0</v>
       </c>
       <c r="M550" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N550" s="84">
         <v>1</v>
@@ -48698,7 +48698,7 @@
         <v>0</v>
       </c>
       <c r="M551" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N551" s="84">
         <v>1</v>
@@ -48759,7 +48759,7 @@
         <v>0</v>
       </c>
       <c r="M552" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N552" s="84">
         <v>1</v>
@@ -48820,7 +48820,7 @@
         <v>0</v>
       </c>
       <c r="M553" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N553" s="84">
         <v>1</v>
@@ -48881,7 +48881,7 @@
         <v>0</v>
       </c>
       <c r="M554" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N554" s="84">
         <v>1</v>
@@ -48942,7 +48942,7 @@
         <v>0</v>
       </c>
       <c r="M555" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N555" s="84">
         <v>1</v>
@@ -49003,7 +49003,7 @@
         <v>0</v>
       </c>
       <c r="M556" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N556" s="84">
         <v>1</v>
@@ -49064,7 +49064,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N557" s="84">
         <v>1</v>
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="M558" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N558" s="84">
         <v>1</v>
@@ -49186,7 +49186,7 @@
         <v>0</v>
       </c>
       <c r="M559" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N559" s="84">
         <v>1</v>
@@ -49247,7 +49247,7 @@
         <v>0</v>
       </c>
       <c r="M560" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N560" s="84">
         <v>1</v>
@@ -49308,7 +49308,7 @@
         <v>0</v>
       </c>
       <c r="M561" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N561" s="84">
         <v>1</v>
@@ -49369,7 +49369,7 @@
         <v>0</v>
       </c>
       <c r="M562" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N562" s="84">
         <v>1</v>
@@ -49430,7 +49430,7 @@
         <v>0</v>
       </c>
       <c r="M563" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N563" s="84">
         <v>1</v>
@@ -49491,7 +49491,7 @@
         <v>0</v>
       </c>
       <c r="M564" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N564" s="84">
         <v>1</v>
@@ -49552,7 +49552,7 @@
         <v>0</v>
       </c>
       <c r="M565" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N565" s="84">
         <v>1</v>
@@ -49613,7 +49613,7 @@
         <v>0</v>
       </c>
       <c r="M566" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N566" s="84">
         <v>1</v>
@@ -49674,7 +49674,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N567" s="84">
         <v>1</v>
@@ -49735,7 +49735,7 @@
         <v>0</v>
       </c>
       <c r="M568" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N568" s="84">
         <v>1</v>
@@ -49796,7 +49796,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N569" s="84">
         <v>1</v>
@@ -49857,7 +49857,7 @@
         <v>0</v>
       </c>
       <c r="M570" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N570" s="84">
         <v>1</v>
@@ -49918,7 +49918,7 @@
         <v>0</v>
       </c>
       <c r="M571" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N571" s="84">
         <v>1</v>
@@ -49979,7 +49979,7 @@
         <v>0</v>
       </c>
       <c r="M572" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N572" s="84">
         <v>1</v>
@@ -50040,7 +50040,7 @@
         <v>0</v>
       </c>
       <c r="M573" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N573" s="84">
         <v>1</v>
@@ -50101,7 +50101,7 @@
         <v>0</v>
       </c>
       <c r="M574" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N574" s="84">
         <v>1</v>
@@ -50162,7 +50162,7 @@
         <v>0</v>
       </c>
       <c r="M575" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N575" s="84">
         <v>1</v>
@@ -50223,7 +50223,7 @@
         <v>0</v>
       </c>
       <c r="M576" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N576" s="84">
         <v>1</v>
@@ -50284,7 +50284,7 @@
         <v>0</v>
       </c>
       <c r="M577" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N577" s="84">
         <v>1</v>
@@ -50345,7 +50345,7 @@
         <v>0</v>
       </c>
       <c r="M578" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N578" s="84">
         <v>1</v>
@@ -50406,7 +50406,7 @@
         <v>0</v>
       </c>
       <c r="M579" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N579" s="84">
         <v>1</v>
@@ -50467,7 +50467,7 @@
         <v>0</v>
       </c>
       <c r="M580" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N580" s="84">
         <v>1</v>
@@ -50528,7 +50528,7 @@
         <v>0</v>
       </c>
       <c r="M581" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N581" s="84">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         <v>0</v>
       </c>
       <c r="M582" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N582" s="84">
         <v>1</v>
@@ -50650,7 +50650,7 @@
         <v>0</v>
       </c>
       <c r="M583" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N583" s="84">
         <v>1</v>
@@ -50711,7 +50711,7 @@
         <v>0</v>
       </c>
       <c r="M584" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N584" s="84">
         <v>1</v>
@@ -50772,7 +50772,7 @@
         <v>0</v>
       </c>
       <c r="M585" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N585" s="84">
         <v>1</v>
@@ -50833,7 +50833,7 @@
         <v>0</v>
       </c>
       <c r="M586" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N586" s="84">
         <v>1</v>
@@ -50894,7 +50894,7 @@
         <v>0</v>
       </c>
       <c r="M587" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N587" s="84">
         <v>1</v>
@@ -50955,7 +50955,7 @@
         <v>0</v>
       </c>
       <c r="M588" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N588" s="84">
         <v>1</v>
@@ -51016,7 +51016,7 @@
         <v>0</v>
       </c>
       <c r="M589" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N589" s="84">
         <v>1</v>
@@ -51077,7 +51077,7 @@
         <v>0</v>
       </c>
       <c r="M590" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N590" s="84">
         <v>1</v>
@@ -51138,7 +51138,7 @@
         <v>0</v>
       </c>
       <c r="M591" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N591" s="84">
         <v>1</v>
@@ -51199,7 +51199,7 @@
         <v>0</v>
       </c>
       <c r="M592" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N592" s="84">
         <v>1</v>
@@ -51260,7 +51260,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N593" s="84">
         <v>1</v>
@@ -51321,7 +51321,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N594" s="84">
         <v>1</v>
@@ -51382,7 +51382,7 @@
         <v>0</v>
       </c>
       <c r="M595" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N595" s="84">
         <v>1</v>
@@ -51443,7 +51443,7 @@
         <v>0</v>
       </c>
       <c r="M596" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N596" s="84">
         <v>1</v>
@@ -51504,7 +51504,7 @@
         <v>0</v>
       </c>
       <c r="M597" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N597" s="84">
         <v>1</v>
@@ -51565,7 +51565,7 @@
         <v>0</v>
       </c>
       <c r="M598" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N598" s="84">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F0310-2AAD-4BEE-9FFC-869F2457A1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA54A6DB-4F97-40BE-AACE-0E3639129336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28980" yWindow="810" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -6468,10 +6468,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>装备洗练石袋子</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>装备晶石袋子</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -7536,6 +7532,10 @@
   </si>
   <si>
     <t>10010085,13</t>
+  </si>
+  <si>
+    <t>装备洗炼石袋子</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15331,9 +15331,9 @@
   <dimension ref="B1:Y1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M597" sqref="M597"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17151,7 +17151,7 @@
         <v>10000141</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1543</v>
+        <v>1898</v>
       </c>
       <c r="E33" s="20">
         <v>10000141</v>
@@ -17210,7 +17210,7 @@
         <v>10000142</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E34" s="20">
         <v>10000142</v>
@@ -58672,7 +58672,7 @@
         <v>14010001</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E723" s="3">
         <v>14010001</v>
@@ -58717,7 +58717,7 @@
         <v>384</v>
       </c>
       <c r="U723" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V723" s="19" t="str">
         <f>D723&amp;"的描述"</f>
@@ -58729,7 +58729,7 @@
         <v>14010002</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E724" s="3">
         <v>14010002</v>
@@ -58774,7 +58774,7 @@
         <v>384</v>
       </c>
       <c r="U724" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V724" s="19" t="str">
         <f>D724&amp;"的描述"</f>
@@ -58786,7 +58786,7 @@
         <v>14010003</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E725" s="3">
         <v>14010003</v>
@@ -58831,7 +58831,7 @@
         <v>384</v>
       </c>
       <c r="U725" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V725" s="19" t="str">
         <f>D725&amp;"的描述"</f>
@@ -58843,7 +58843,7 @@
         <v>14010004</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E726" s="3">
         <v>14010004</v>
@@ -58888,7 +58888,7 @@
         <v>384</v>
       </c>
       <c r="U726" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V726" s="19"/>
     </row>
@@ -58897,7 +58897,7 @@
         <v>14010005</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E727" s="39">
         <v>14010005</v>
@@ -58942,7 +58942,7 @@
         <v>384</v>
       </c>
       <c r="U727" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V727" s="19" t="str">
         <f>D727&amp;"的描述"</f>
@@ -58954,7 +58954,7 @@
         <v>14010006</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E728" s="39">
         <v>14010006</v>
@@ -58999,7 +58999,7 @@
         <v>384</v>
       </c>
       <c r="U728" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V728" s="19" t="str">
         <f>D728&amp;"的描述"</f>
@@ -59011,7 +59011,7 @@
         <v>14010007</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E729" s="3">
         <v>14010007</v>
@@ -59056,7 +59056,7 @@
         <v>384</v>
       </c>
       <c r="U729" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V729" s="19" t="str">
         <f>D729&amp;"的描述"</f>
@@ -59068,7 +59068,7 @@
         <v>14010008</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E730" s="3">
         <v>14010008</v>
@@ -59113,7 +59113,7 @@
         <v>384</v>
       </c>
       <c r="U730" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V730" s="19"/>
     </row>
@@ -59122,7 +59122,7 @@
         <v>14010009</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E731" s="3">
         <v>14010009</v>
@@ -59167,7 +59167,7 @@
         <v>384</v>
       </c>
       <c r="U731" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V731" s="19" t="str">
         <f>D731&amp;"的描述"</f>
@@ -59224,7 +59224,7 @@
         <v>384</v>
       </c>
       <c r="U732" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V732" s="19" t="str">
         <f>D732&amp;"的描述"</f>
@@ -59236,7 +59236,7 @@
         <v>14010011</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E733" s="39">
         <v>14010011</v>
@@ -59281,7 +59281,7 @@
         <v>384</v>
       </c>
       <c r="U733" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V733" s="19" t="str">
         <f>D733&amp;"的描述"</f>
@@ -59293,7 +59293,7 @@
         <v>14010012</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E734" s="3">
         <v>14010012</v>
@@ -59338,7 +59338,7 @@
         <v>384</v>
       </c>
       <c r="U734" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V734" s="19"/>
     </row>
@@ -59347,7 +59347,7 @@
         <v>14020001</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E735" s="39">
         <v>14020001</v>
@@ -59392,7 +59392,7 @@
         <v>384</v>
       </c>
       <c r="U735" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V735" s="19" t="str">
         <f>D735&amp;"的描述"</f>
@@ -59404,7 +59404,7 @@
         <v>14020002</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E736" s="39">
         <v>14020002</v>
@@ -59449,7 +59449,7 @@
         <v>384</v>
       </c>
       <c r="U736" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V736" s="19" t="str">
         <f>D736&amp;"的描述"</f>
@@ -59461,7 +59461,7 @@
         <v>14020003</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E737" s="39">
         <v>14020003</v>
@@ -59506,7 +59506,7 @@
         <v>384</v>
       </c>
       <c r="U737" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V737" s="19" t="str">
         <f>D737&amp;"的描述"</f>
@@ -59518,7 +59518,7 @@
         <v>14020004</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E738" s="39">
         <v>14020004</v>
@@ -59563,7 +59563,7 @@
         <v>384</v>
       </c>
       <c r="U738" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V738" s="19"/>
     </row>
@@ -59572,7 +59572,7 @@
         <v>14020005</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E739" s="39">
         <v>14020005</v>
@@ -59617,7 +59617,7 @@
         <v>384</v>
       </c>
       <c r="U739" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V739" s="19" t="str">
         <f>D739&amp;"的描述"</f>
@@ -59629,7 +59629,7 @@
         <v>14020006</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E740" s="39">
         <v>14020006</v>
@@ -59674,7 +59674,7 @@
         <v>384</v>
       </c>
       <c r="U740" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V740" s="19" t="str">
         <f>D740&amp;"的描述"</f>
@@ -59686,7 +59686,7 @@
         <v>14020007</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E741" s="39">
         <v>14020007</v>
@@ -59731,7 +59731,7 @@
         <v>384</v>
       </c>
       <c r="U741" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V741" s="19" t="str">
         <f>D741&amp;"的描述"</f>
@@ -59743,7 +59743,7 @@
         <v>14020008</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E742" s="39">
         <v>14020008</v>
@@ -59788,7 +59788,7 @@
         <v>384</v>
       </c>
       <c r="U742" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V742" s="19"/>
     </row>
@@ -59797,7 +59797,7 @@
         <v>14020009</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E743" s="39">
         <v>14020009</v>
@@ -59842,7 +59842,7 @@
         <v>384</v>
       </c>
       <c r="U743" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V743" s="19" t="str">
         <f>D743&amp;"的描述"</f>
@@ -59854,7 +59854,7 @@
         <v>14020010</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E744" s="39">
         <v>14020010</v>
@@ -59899,7 +59899,7 @@
         <v>384</v>
       </c>
       <c r="U744" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V744" s="19" t="str">
         <f>D744&amp;"的描述"</f>
@@ -59911,7 +59911,7 @@
         <v>14020011</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E745" s="39">
         <v>14020011</v>
@@ -59956,7 +59956,7 @@
         <v>384</v>
       </c>
       <c r="U745" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V745" s="19" t="str">
         <f>D745&amp;"的描述"</f>
@@ -59968,7 +59968,7 @@
         <v>14020012</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E746" s="39">
         <v>14020012</v>
@@ -60013,7 +60013,7 @@
         <v>384</v>
       </c>
       <c r="U746" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V746" s="19"/>
     </row>
@@ -60022,7 +60022,7 @@
         <v>14030001</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E747" s="39">
         <v>14030001</v>
@@ -60067,7 +60067,7 @@
         <v>384</v>
       </c>
       <c r="U747" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V747" s="19" t="str">
         <f>D747&amp;"的描述"</f>
@@ -60079,7 +60079,7 @@
         <v>14030002</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E748" s="39">
         <v>14030002</v>
@@ -60124,7 +60124,7 @@
         <v>384</v>
       </c>
       <c r="U748" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V748" s="19" t="str">
         <f>D748&amp;"的描述"</f>
@@ -60136,7 +60136,7 @@
         <v>14030003</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E749" s="39">
         <v>14030003</v>
@@ -60181,7 +60181,7 @@
         <v>384</v>
       </c>
       <c r="U749" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V749" s="19" t="str">
         <f>D749&amp;"的描述"</f>
@@ -60193,7 +60193,7 @@
         <v>14030004</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E750" s="39">
         <v>14030004</v>
@@ -60238,7 +60238,7 @@
         <v>384</v>
       </c>
       <c r="U750" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V750" s="19"/>
     </row>
@@ -60247,7 +60247,7 @@
         <v>14030005</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E751" s="39">
         <v>14030005</v>
@@ -60292,7 +60292,7 @@
         <v>384</v>
       </c>
       <c r="U751" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V751" s="19" t="str">
         <f>D751&amp;"的描述"</f>
@@ -60304,7 +60304,7 @@
         <v>14030006</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E752" s="39">
         <v>14030006</v>
@@ -60349,7 +60349,7 @@
         <v>384</v>
       </c>
       <c r="U752" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V752" s="19" t="str">
         <f>D752&amp;"的描述"</f>
@@ -60361,7 +60361,7 @@
         <v>14030007</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E753" s="39">
         <v>14030007</v>
@@ -60406,7 +60406,7 @@
         <v>384</v>
       </c>
       <c r="U753" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V753" s="19" t="str">
         <f>D753&amp;"的描述"</f>
@@ -60418,7 +60418,7 @@
         <v>14030008</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E754" s="39">
         <v>14030008</v>
@@ -60463,7 +60463,7 @@
         <v>384</v>
       </c>
       <c r="U754" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V754" s="19"/>
     </row>
@@ -60472,7 +60472,7 @@
         <v>14030009</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E755" s="39">
         <v>14030009</v>
@@ -60517,7 +60517,7 @@
         <v>384</v>
       </c>
       <c r="U755" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V755" s="19" t="str">
         <f>D755&amp;"的描述"</f>
@@ -60529,7 +60529,7 @@
         <v>14030010</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E756" s="39">
         <v>14030010</v>
@@ -60574,7 +60574,7 @@
         <v>384</v>
       </c>
       <c r="U756" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V756" s="19" t="str">
         <f>D756&amp;"的描述"</f>
@@ -60586,7 +60586,7 @@
         <v>14030011</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E757" s="39">
         <v>14030011</v>
@@ -60631,7 +60631,7 @@
         <v>384</v>
       </c>
       <c r="U757" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V757" s="19" t="str">
         <f>D757&amp;"的描述"</f>
@@ -60643,7 +60643,7 @@
         <v>14030012</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E758" s="39">
         <v>14030012</v>
@@ -60688,7 +60688,7 @@
         <v>384</v>
       </c>
       <c r="U758" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V758" s="19"/>
     </row>
@@ -60697,7 +60697,7 @@
         <v>14040001</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E759" s="39">
         <v>14040001</v>
@@ -60742,7 +60742,7 @@
         <v>384</v>
       </c>
       <c r="U759" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V759" s="19" t="str">
         <f>D759&amp;"的描述"</f>
@@ -60754,7 +60754,7 @@
         <v>14040002</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E760" s="39">
         <v>14040002</v>
@@ -60799,7 +60799,7 @@
         <v>384</v>
       </c>
       <c r="U760" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V760" s="19" t="str">
         <f>D760&amp;"的描述"</f>
@@ -60811,7 +60811,7 @@
         <v>14040003</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E761" s="3">
         <v>14040003</v>
@@ -60856,7 +60856,7 @@
         <v>384</v>
       </c>
       <c r="U761" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V761" s="19" t="str">
         <f>D761&amp;"的描述"</f>
@@ -60868,7 +60868,7 @@
         <v>14040004</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E762" s="3">
         <v>14040004</v>
@@ -60913,7 +60913,7 @@
         <v>384</v>
       </c>
       <c r="U762" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V762" s="19"/>
     </row>
@@ -60922,7 +60922,7 @@
         <v>14040005</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E763" s="39">
         <v>14040005</v>
@@ -60967,7 +60967,7 @@
         <v>384</v>
       </c>
       <c r="U763" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V763" s="19" t="str">
         <f>D763&amp;"的描述"</f>
@@ -60979,7 +60979,7 @@
         <v>14040006</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E764" s="39">
         <v>14040006</v>
@@ -61024,7 +61024,7 @@
         <v>384</v>
       </c>
       <c r="U764" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V764" s="19" t="str">
         <f>D764&amp;"的描述"</f>
@@ -61036,7 +61036,7 @@
         <v>14040007</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E765" s="3">
         <v>14040007</v>
@@ -61081,7 +61081,7 @@
         <v>384</v>
       </c>
       <c r="U765" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V765" s="19" t="str">
         <f>D765&amp;"的描述"</f>
@@ -61093,7 +61093,7 @@
         <v>14040008</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E766" s="3">
         <v>14040008</v>
@@ -61138,7 +61138,7 @@
         <v>384</v>
       </c>
       <c r="U766" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V766" s="19"/>
     </row>
@@ -61147,7 +61147,7 @@
         <v>14040009</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E767" s="39">
         <v>14040009</v>
@@ -61192,7 +61192,7 @@
         <v>384</v>
       </c>
       <c r="U767" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V767" s="19" t="str">
         <f>D767&amp;"的描述"</f>
@@ -61204,7 +61204,7 @@
         <v>14040010</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E768" s="39">
         <v>14040010</v>
@@ -61249,7 +61249,7 @@
         <v>384</v>
       </c>
       <c r="U768" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V768" s="19" t="str">
         <f>D768&amp;"的描述"</f>
@@ -61261,7 +61261,7 @@
         <v>14040011</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E769" s="3">
         <v>14040011</v>
@@ -61306,7 +61306,7 @@
         <v>384</v>
       </c>
       <c r="U769" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V769" s="19" t="str">
         <f>D769&amp;"的描述"</f>
@@ -61318,7 +61318,7 @@
         <v>14040012</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E770" s="3">
         <v>14040012</v>
@@ -61363,7 +61363,7 @@
         <v>384</v>
       </c>
       <c r="U770" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V770" s="19"/>
     </row>
@@ -61372,7 +61372,7 @@
         <v>14050001</v>
       </c>
       <c r="D771" s="21" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E771" s="21">
         <v>14050001</v>
@@ -61417,7 +61417,7 @@
         <v>384</v>
       </c>
       <c r="U771" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V771" s="27" t="str">
         <f>D771&amp;"的描述"</f>
@@ -61429,7 +61429,7 @@
         <v>14050002</v>
       </c>
       <c r="D772" s="21" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E772" s="40">
         <v>14050002</v>
@@ -61474,7 +61474,7 @@
         <v>384</v>
       </c>
       <c r="U772" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V772" s="27" t="str">
         <f>D772&amp;"的描述"</f>
@@ -61486,7 +61486,7 @@
         <v>14050003</v>
       </c>
       <c r="D773" s="21" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E773" s="40">
         <v>14050003</v>
@@ -61531,7 +61531,7 @@
         <v>384</v>
       </c>
       <c r="U773" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V773" s="27" t="str">
         <f>D773&amp;"的描述"</f>
@@ -61543,7 +61543,7 @@
         <v>14050004</v>
       </c>
       <c r="D774" s="21" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E774" s="21">
         <v>14050004</v>
@@ -61588,7 +61588,7 @@
         <v>384</v>
       </c>
       <c r="U774" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V774" s="27"/>
     </row>
@@ -61597,7 +61597,7 @@
         <v>14050005</v>
       </c>
       <c r="D775" s="21" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E775" s="40">
         <v>14050005</v>
@@ -61642,7 +61642,7 @@
         <v>384</v>
       </c>
       <c r="U775" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V775" s="27" t="str">
         <f>D775&amp;"的描述"</f>
@@ -61654,7 +61654,7 @@
         <v>14050006</v>
       </c>
       <c r="D776" s="21" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E776" s="40">
         <v>14050006</v>
@@ -61699,7 +61699,7 @@
         <v>384</v>
       </c>
       <c r="U776" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V776" s="27" t="str">
         <f>D776&amp;"的描述"</f>
@@ -61711,7 +61711,7 @@
         <v>14050007</v>
       </c>
       <c r="D777" s="21" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E777" s="40">
         <v>14050007</v>
@@ -61756,7 +61756,7 @@
         <v>384</v>
       </c>
       <c r="U777" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V777" s="27" t="str">
         <f>D777&amp;"的描述"</f>
@@ -61768,7 +61768,7 @@
         <v>14050008</v>
       </c>
       <c r="D778" s="21" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E778" s="40">
         <v>14050008</v>
@@ -61813,7 +61813,7 @@
         <v>384</v>
       </c>
       <c r="U778" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V778" s="27"/>
     </row>
@@ -61822,7 +61822,7 @@
         <v>14050009</v>
       </c>
       <c r="D779" s="21" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E779" s="40">
         <v>14050009</v>
@@ -61867,7 +61867,7 @@
         <v>384</v>
       </c>
       <c r="U779" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V779" s="27" t="str">
         <f>D779&amp;"的描述"</f>
@@ -61879,7 +61879,7 @@
         <v>14050010</v>
       </c>
       <c r="D780" s="21" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E780" s="40">
         <v>14050010</v>
@@ -61924,7 +61924,7 @@
         <v>384</v>
       </c>
       <c r="U780" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V780" s="27" t="str">
         <f>D780&amp;"的描述"</f>
@@ -61936,7 +61936,7 @@
         <v>14050011</v>
       </c>
       <c r="D781" s="21" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E781" s="40">
         <v>14050011</v>
@@ -61981,7 +61981,7 @@
         <v>384</v>
       </c>
       <c r="U781" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V781" s="27" t="str">
         <f>D781&amp;"的描述"</f>
@@ -61993,7 +61993,7 @@
         <v>14050012</v>
       </c>
       <c r="D782" s="21" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E782" s="40">
         <v>14050012</v>
@@ -62038,7 +62038,7 @@
         <v>384</v>
       </c>
       <c r="U782" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V782" s="27"/>
     </row>
@@ -62047,7 +62047,7 @@
         <v>14060001</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E783" s="39">
         <v>14060001</v>
@@ -62092,7 +62092,7 @@
         <v>384</v>
       </c>
       <c r="U783" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V783" s="19" t="str">
         <f>D783&amp;"的描述"</f>
@@ -62104,7 +62104,7 @@
         <v>14060002</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E784" s="3">
         <v>14060002</v>
@@ -62149,7 +62149,7 @@
         <v>384</v>
       </c>
       <c r="U784" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V784" s="19" t="str">
         <f>D784&amp;"的描述"</f>
@@ -62161,7 +62161,7 @@
         <v>14060003</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E785" s="39">
         <v>14060003</v>
@@ -62206,7 +62206,7 @@
         <v>384</v>
       </c>
       <c r="U785" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V785" s="19" t="str">
         <f>D785&amp;"的描述"</f>
@@ -62218,7 +62218,7 @@
         <v>14060004</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E786" s="39">
         <v>14060004</v>
@@ -62263,7 +62263,7 @@
         <v>384</v>
       </c>
       <c r="U786" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V786" s="19"/>
     </row>
@@ -62272,7 +62272,7 @@
         <v>14060005</v>
       </c>
       <c r="D787" s="114" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E787" s="113">
         <v>14060005</v>
@@ -62317,7 +62317,7 @@
         <v>384</v>
       </c>
       <c r="U787" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V787" s="116"/>
     </row>
@@ -62326,7 +62326,7 @@
         <v>14070001</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E788" s="39">
         <v>14070001</v>
@@ -62371,7 +62371,7 @@
         <v>384</v>
       </c>
       <c r="U788" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V788" s="19" t="str">
         <f>D788&amp;"的描述"</f>
@@ -62383,7 +62383,7 @@
         <v>14070002</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E789" s="39">
         <v>14070002</v>
@@ -62428,7 +62428,7 @@
         <v>384</v>
       </c>
       <c r="U789" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V789" s="19" t="str">
         <f>D789&amp;"的描述"</f>
@@ -62440,7 +62440,7 @@
         <v>14070003</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E790" s="39">
         <v>14070003</v>
@@ -62485,7 +62485,7 @@
         <v>384</v>
       </c>
       <c r="U790" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V790" s="19" t="str">
         <f>D790&amp;"的描述"</f>
@@ -62497,7 +62497,7 @@
         <v>14070004</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E791" s="39">
         <v>14070004</v>
@@ -62542,7 +62542,7 @@
         <v>384</v>
       </c>
       <c r="U791" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V791" s="19"/>
     </row>
@@ -62551,7 +62551,7 @@
         <v>14080001</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E792" s="39">
         <v>14080001</v>
@@ -62598,7 +62598,7 @@
         <v>384</v>
       </c>
       <c r="U792" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V792" s="19" t="str">
         <f>D792&amp;"的描述"</f>
@@ -62610,7 +62610,7 @@
         <v>14080002</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E793" s="39">
         <v>14080002</v>
@@ -62657,7 +62657,7 @@
         <v>384</v>
       </c>
       <c r="U793" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V793" s="19" t="str">
         <f>D793&amp;"的描述"</f>
@@ -62669,7 +62669,7 @@
         <v>14080003</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E794" s="39">
         <v>14080003</v>
@@ -62716,7 +62716,7 @@
         <v>384</v>
       </c>
       <c r="U794" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V794" s="19"/>
     </row>
@@ -62725,7 +62725,7 @@
         <v>14090001</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E795" s="39">
         <v>14090001</v>
@@ -62770,7 +62770,7 @@
         <v>384</v>
       </c>
       <c r="U795" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V795" s="19" t="str">
         <f>D795&amp;"的描述"</f>
@@ -62782,7 +62782,7 @@
         <v>14090002</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E796" s="39">
         <v>14090002</v>
@@ -62827,7 +62827,7 @@
         <v>384</v>
       </c>
       <c r="U796" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V796" s="19" t="str">
         <f>D796&amp;"的描述"</f>
@@ -62839,7 +62839,7 @@
         <v>14090003</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E797" s="39">
         <v>14090003</v>
@@ -62884,7 +62884,7 @@
         <v>384</v>
       </c>
       <c r="U797" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V797" s="19"/>
     </row>
@@ -62893,7 +62893,7 @@
         <v>14100001</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E798" s="39">
         <v>14100001</v>
@@ -62938,7 +62938,7 @@
         <v>384</v>
       </c>
       <c r="U798" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V798" s="19" t="str">
         <f>D798&amp;"的描述"</f>
@@ -62950,7 +62950,7 @@
         <v>14100002</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E799" s="39">
         <v>14100002</v>
@@ -62995,7 +62995,7 @@
         <v>384</v>
       </c>
       <c r="U799" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V799" s="19" t="str">
         <f>D799&amp;"的描述"</f>
@@ -63007,7 +63007,7 @@
         <v>14100003</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E800" s="39">
         <v>14100003</v>
@@ -63052,7 +63052,7 @@
         <v>384</v>
       </c>
       <c r="U800" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V800" s="19" t="str">
         <f>D800&amp;"的描述"</f>
@@ -63064,7 +63064,7 @@
         <v>14100004</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E801" s="39">
         <v>14100004</v>
@@ -63109,7 +63109,7 @@
         <v>384</v>
       </c>
       <c r="U801" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V801" s="19"/>
     </row>
@@ -63118,7 +63118,7 @@
         <v>14100005</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E802" s="39">
         <v>14100005</v>
@@ -63163,7 +63163,7 @@
         <v>384</v>
       </c>
       <c r="U802" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V802" s="19" t="str">
         <f>D802&amp;"的描述"</f>
@@ -63175,7 +63175,7 @@
         <v>14100006</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E803" s="39">
         <v>14100006</v>
@@ -63220,7 +63220,7 @@
         <v>384</v>
       </c>
       <c r="U803" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V803" s="19" t="str">
         <f>D803&amp;"的描述"</f>
@@ -63232,7 +63232,7 @@
         <v>14100007</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E804" s="39">
         <v>14100007</v>
@@ -63277,7 +63277,7 @@
         <v>384</v>
       </c>
       <c r="U804" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V804" s="19" t="str">
         <f>D804&amp;"的描述"</f>
@@ -63289,7 +63289,7 @@
         <v>14100008</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E805" s="39">
         <v>14100008</v>
@@ -63334,7 +63334,7 @@
         <v>384</v>
       </c>
       <c r="U805" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V805" s="19"/>
     </row>
@@ -63343,7 +63343,7 @@
         <v>14100011</v>
       </c>
       <c r="D806" s="114" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E806" s="39">
         <v>14100011</v>
@@ -63388,7 +63388,7 @@
         <v>384</v>
       </c>
       <c r="U806" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V806" s="116"/>
     </row>
@@ -63397,7 +63397,7 @@
         <v>14100012</v>
       </c>
       <c r="D807" s="114" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E807" s="39">
         <v>14100012</v>
@@ -63442,7 +63442,7 @@
         <v>384</v>
       </c>
       <c r="U807" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V807" s="116"/>
     </row>
@@ -63451,7 +63451,7 @@
         <v>14100101</v>
       </c>
       <c r="D808" s="21" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E808" s="40">
         <v>14100101</v>
@@ -63496,7 +63496,7 @@
         <v>384</v>
       </c>
       <c r="U808" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V808" s="27" t="str">
         <f>D808&amp;"的描述"</f>
@@ -63508,7 +63508,7 @@
         <v>14100102</v>
       </c>
       <c r="D809" s="21" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E809" s="40">
         <v>14100102</v>
@@ -63553,7 +63553,7 @@
         <v>384</v>
       </c>
       <c r="U809" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V809" s="27" t="str">
         <f>D809&amp;"的描述"</f>
@@ -63565,7 +63565,7 @@
         <v>14100103</v>
       </c>
       <c r="D810" s="21" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E810" s="40">
         <v>14100103</v>
@@ -63610,7 +63610,7 @@
         <v>384</v>
       </c>
       <c r="U810" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V810" s="27" t="str">
         <f>D810&amp;"的描述"</f>
@@ -63622,7 +63622,7 @@
         <v>14100104</v>
       </c>
       <c r="D811" s="21" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E811" s="40">
         <v>14100104</v>
@@ -63667,7 +63667,7 @@
         <v>384</v>
       </c>
       <c r="U811" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V811" s="27"/>
     </row>
@@ -63676,7 +63676,7 @@
         <v>14100105</v>
       </c>
       <c r="D812" s="21" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E812" s="40">
         <v>14100105</v>
@@ -63721,7 +63721,7 @@
         <v>384</v>
       </c>
       <c r="U812" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V812" s="27" t="str">
         <f>D812&amp;"的描述"</f>
@@ -63733,7 +63733,7 @@
         <v>14100106</v>
       </c>
       <c r="D813" s="21" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E813" s="40">
         <v>14100106</v>
@@ -63778,7 +63778,7 @@
         <v>384</v>
       </c>
       <c r="U813" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V813" s="27" t="str">
         <f>D813&amp;"的描述"</f>
@@ -63790,7 +63790,7 @@
         <v>14100107</v>
       </c>
       <c r="D814" s="21" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E814" s="40">
         <v>14100107</v>
@@ -63835,7 +63835,7 @@
         <v>384</v>
       </c>
       <c r="U814" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V814" s="27" t="str">
         <f>D814&amp;"的描述"</f>
@@ -63847,7 +63847,7 @@
         <v>14100108</v>
       </c>
       <c r="D815" s="21" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E815" s="40">
         <v>14100108</v>
@@ -63892,7 +63892,7 @@
         <v>384</v>
       </c>
       <c r="U815" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V815" s="27"/>
     </row>
@@ -63901,7 +63901,7 @@
         <v>14100111</v>
       </c>
       <c r="D816" s="114" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E816" s="113">
         <v>14100111</v>
@@ -63946,7 +63946,7 @@
         <v>384</v>
       </c>
       <c r="U816" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V816" s="116"/>
     </row>
@@ -63955,7 +63955,7 @@
         <v>14100112</v>
       </c>
       <c r="D817" s="114" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E817" s="113">
         <v>14100112</v>
@@ -64000,7 +64000,7 @@
         <v>384</v>
       </c>
       <c r="U817" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V817" s="116"/>
     </row>
@@ -64009,7 +64009,7 @@
         <v>14110001</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E818" s="41">
         <v>14110001</v>
@@ -64054,7 +64054,7 @@
         <v>384</v>
       </c>
       <c r="U818" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V818" s="19" t="str">
         <f>D818&amp;"的描述"</f>
@@ -64066,7 +64066,7 @@
         <v>14110002</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E819" s="41">
         <v>14110002</v>
@@ -64111,7 +64111,7 @@
         <v>384</v>
       </c>
       <c r="U819" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V819" s="19" t="str">
         <f>D819&amp;"的描述"</f>
@@ -64123,7 +64123,7 @@
         <v>14110003</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E820" s="41">
         <v>14110003</v>
@@ -64168,7 +64168,7 @@
         <v>384</v>
       </c>
       <c r="U820" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V820" s="19" t="str">
         <f>D820&amp;"的描述"</f>
@@ -64180,7 +64180,7 @@
         <v>14110004</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E821" s="41">
         <v>14110004</v>
@@ -64225,7 +64225,7 @@
         <v>384</v>
       </c>
       <c r="U821" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V821" s="19"/>
     </row>
@@ -64234,7 +64234,7 @@
         <v>14110005</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E822" s="41">
         <v>14110005</v>
@@ -64279,7 +64279,7 @@
         <v>384</v>
       </c>
       <c r="U822" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V822" s="19" t="str">
         <f>D822&amp;"的描述"</f>
@@ -64291,7 +64291,7 @@
         <v>14110006</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E823" s="41">
         <v>14110006</v>
@@ -64336,7 +64336,7 @@
         <v>384</v>
       </c>
       <c r="U823" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V823" s="19" t="str">
         <f>D823&amp;"的描述"</f>
@@ -64348,7 +64348,7 @@
         <v>14110007</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E824" s="41">
         <v>14110007</v>
@@ -64393,7 +64393,7 @@
         <v>384</v>
       </c>
       <c r="U824" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V824" s="19" t="str">
         <f>D824&amp;"的描述"</f>
@@ -64405,7 +64405,7 @@
         <v>14110008</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E825" s="41">
         <v>14110008</v>
@@ -64450,7 +64450,7 @@
         <v>384</v>
       </c>
       <c r="U825" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V825" s="19"/>
     </row>
@@ -64459,7 +64459,7 @@
         <v>14110009</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E826" s="41">
         <v>14110009</v>
@@ -64504,7 +64504,7 @@
         <v>384</v>
       </c>
       <c r="U826" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V826" s="19" t="str">
         <f>D826&amp;"的描述"</f>
@@ -64516,7 +64516,7 @@
         <v>14110010</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E827" s="41">
         <v>14110010</v>
@@ -64561,7 +64561,7 @@
         <v>384</v>
       </c>
       <c r="U827" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V827" s="19" t="str">
         <f>D827&amp;"的描述"</f>
@@ -64573,7 +64573,7 @@
         <v>14110011</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E828" s="41">
         <v>14110011</v>
@@ -64618,7 +64618,7 @@
         <v>384</v>
       </c>
       <c r="U828" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V828" s="19" t="str">
         <f>D828&amp;"的描述"</f>
@@ -64630,7 +64630,7 @@
         <v>14110012</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E829" s="41">
         <v>14110012</v>
@@ -64675,7 +64675,7 @@
         <v>384</v>
       </c>
       <c r="U829" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V829" s="19"/>
     </row>
@@ -64684,7 +64684,7 @@
         <v>14110021</v>
       </c>
       <c r="D830" s="114" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E830" s="113">
         <v>14110021</v>
@@ -64729,7 +64729,7 @@
         <v>384</v>
       </c>
       <c r="U830" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V830" s="116"/>
     </row>
@@ -64738,7 +64738,7 @@
         <v>14110022</v>
       </c>
       <c r="D831" s="114" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E831" s="113">
         <v>14110022</v>
@@ -64783,7 +64783,7 @@
         <v>384</v>
       </c>
       <c r="U831" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V831" s="116"/>
     </row>
@@ -64792,7 +64792,7 @@
         <v>14110023</v>
       </c>
       <c r="D832" s="114" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E832" s="113">
         <v>14110023</v>
@@ -64837,7 +64837,7 @@
         <v>384</v>
       </c>
       <c r="U832" s="114" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="V832" s="116"/>
     </row>
@@ -64846,7 +64846,7 @@
         <v>15201001</v>
       </c>
       <c r="D833" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E833" s="3">
         <v>15201001</v>
@@ -64903,7 +64903,7 @@
         <v>15201002</v>
       </c>
       <c r="D834" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E834" s="3">
         <v>15201002</v>
@@ -64948,7 +64948,7 @@
         <v>384</v>
       </c>
       <c r="U834" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V834" s="19"/>
     </row>
@@ -64957,7 +64957,7 @@
         <v>15201003</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E835" s="3">
         <v>15201003</v>
@@ -65014,7 +65014,7 @@
         <v>15201004</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E836" s="3">
         <v>15201004</v>
@@ -65059,7 +65059,7 @@
         <v>384</v>
       </c>
       <c r="U836" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V836" s="19"/>
     </row>
@@ -65068,7 +65068,7 @@
         <v>15201005</v>
       </c>
       <c r="D837" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E837" s="3">
         <v>15201005</v>
@@ -65125,7 +65125,7 @@
         <v>15201006</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E838" s="3">
         <v>15201006</v>
@@ -65170,7 +65170,7 @@
         <v>384</v>
       </c>
       <c r="U838" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V838" s="19"/>
     </row>
@@ -65179,7 +65179,7 @@
         <v>15202001</v>
       </c>
       <c r="D839" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E839" s="3">
         <v>15202001</v>
@@ -65236,7 +65236,7 @@
         <v>15202002</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E840" s="3">
         <v>15202002</v>
@@ -65281,7 +65281,7 @@
         <v>384</v>
       </c>
       <c r="U840" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V840" s="19"/>
     </row>
@@ -65290,7 +65290,7 @@
         <v>15202003</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E841" s="3">
         <v>15202003</v>
@@ -65347,7 +65347,7 @@
         <v>15202004</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E842" s="3">
         <v>15202004</v>
@@ -65392,7 +65392,7 @@
         <v>384</v>
       </c>
       <c r="U842" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V842" s="19"/>
     </row>
@@ -65401,7 +65401,7 @@
         <v>15202005</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E843" s="3">
         <v>15202005</v>
@@ -65458,7 +65458,7 @@
         <v>15202006</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E844" s="3">
         <v>15202006</v>
@@ -65503,7 +65503,7 @@
         <v>384</v>
       </c>
       <c r="U844" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V844" s="19"/>
     </row>
@@ -65512,7 +65512,7 @@
         <v>15203001</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E845" s="3">
         <v>15203001</v>
@@ -65569,7 +65569,7 @@
         <v>15203002</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E846" s="3">
         <v>15203002</v>
@@ -65614,7 +65614,7 @@
         <v>384</v>
       </c>
       <c r="U846" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V846" s="19"/>
     </row>
@@ -65623,7 +65623,7 @@
         <v>15203003</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E847" s="3">
         <v>15203003</v>
@@ -65680,7 +65680,7 @@
         <v>15203004</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E848" s="3">
         <v>15203004</v>
@@ -65725,7 +65725,7 @@
         <v>384</v>
       </c>
       <c r="U848" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V848" s="19"/>
     </row>
@@ -65791,7 +65791,7 @@
         <v>15203006</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E850" s="3">
         <v>15203006</v>
@@ -65836,7 +65836,7 @@
         <v>384</v>
       </c>
       <c r="U850" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V850" s="19"/>
     </row>
@@ -65845,7 +65845,7 @@
         <v>15204001</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E851" s="3">
         <v>15204001</v>
@@ -65902,7 +65902,7 @@
         <v>15204002</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E852" s="3">
         <v>15204002</v>
@@ -65947,7 +65947,7 @@
         <v>384</v>
       </c>
       <c r="U852" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V852" s="19"/>
     </row>
@@ -65956,7 +65956,7 @@
         <v>15204003</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E853" s="3">
         <v>15204003</v>
@@ -66013,7 +66013,7 @@
         <v>15204004</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E854" s="3">
         <v>15204004</v>
@@ -66058,7 +66058,7 @@
         <v>384</v>
       </c>
       <c r="U854" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V854" s="19"/>
     </row>
@@ -66124,7 +66124,7 @@
         <v>15204006</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E856" s="3">
         <v>15204006</v>
@@ -66169,7 +66169,7 @@
         <v>384</v>
       </c>
       <c r="U856" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V856" s="19"/>
     </row>
@@ -66178,7 +66178,7 @@
         <v>15205001</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E857" s="3">
         <v>15205001</v>
@@ -66235,7 +66235,7 @@
         <v>15205002</v>
       </c>
       <c r="D858" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E858" s="3">
         <v>15205002</v>
@@ -66280,7 +66280,7 @@
         <v>384</v>
       </c>
       <c r="U858" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V858" s="19"/>
     </row>
@@ -66289,7 +66289,7 @@
         <v>15205003</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E859" s="3">
         <v>15205003</v>
@@ -66346,7 +66346,7 @@
         <v>15205004</v>
       </c>
       <c r="D860" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E860" s="3">
         <v>15205004</v>
@@ -66391,7 +66391,7 @@
         <v>384</v>
       </c>
       <c r="U860" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V860" s="19"/>
     </row>
@@ -66400,7 +66400,7 @@
         <v>15205005</v>
       </c>
       <c r="D861" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E861" s="3">
         <v>15205005</v>
@@ -66457,7 +66457,7 @@
         <v>15205006</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E862" s="3">
         <v>15205006</v>
@@ -66502,7 +66502,7 @@
         <v>384</v>
       </c>
       <c r="U862" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V862" s="19"/>
     </row>
@@ -66511,7 +66511,7 @@
         <v>15206001</v>
       </c>
       <c r="D863" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E863" s="3">
         <v>15206001</v>
@@ -66568,7 +66568,7 @@
         <v>15206002</v>
       </c>
       <c r="D864" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E864" s="3">
         <v>15206002</v>
@@ -66613,7 +66613,7 @@
         <v>384</v>
       </c>
       <c r="U864" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V864" s="19"/>
     </row>
@@ -66622,7 +66622,7 @@
         <v>15206003</v>
       </c>
       <c r="D865" s="114" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E865" s="114">
         <v>15206003</v>
@@ -66667,7 +66667,7 @@
         <v>384</v>
       </c>
       <c r="U865" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V865" s="116"/>
     </row>
@@ -66676,7 +66676,7 @@
         <v>15207001</v>
       </c>
       <c r="D866" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E866" s="3">
         <v>15207001</v>
@@ -66733,7 +66733,7 @@
         <v>15207002</v>
       </c>
       <c r="D867" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E867" s="3">
         <v>15207002</v>
@@ -66778,7 +66778,7 @@
         <v>384</v>
       </c>
       <c r="U867" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V867" s="19"/>
     </row>
@@ -66787,7 +66787,7 @@
         <v>15208001</v>
       </c>
       <c r="D868" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E868" s="3">
         <v>15208001</v>
@@ -66846,7 +66846,7 @@
         <v>15208002</v>
       </c>
       <c r="D869" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E869" s="3">
         <v>15208002</v>
@@ -66893,7 +66893,7 @@
         <v>384</v>
       </c>
       <c r="U869" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V869" s="19"/>
     </row>
@@ -66902,7 +66902,7 @@
         <v>15209001</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E870" s="3">
         <v>15209001</v>
@@ -66959,7 +66959,7 @@
         <v>15209002</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E871" s="3">
         <v>15209002</v>
@@ -67004,7 +67004,7 @@
         <v>384</v>
       </c>
       <c r="U871" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V871" s="19"/>
     </row>
@@ -67013,7 +67013,7 @@
         <v>15210001</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E872" s="3">
         <v>15210001</v>
@@ -67070,7 +67070,7 @@
         <v>15210002</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E873" s="3">
         <v>15210002</v>
@@ -67115,7 +67115,7 @@
         <v>384</v>
       </c>
       <c r="U873" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V873" s="19"/>
     </row>
@@ -67124,7 +67124,7 @@
         <v>15210003</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E874" s="3">
         <v>15210003</v>
@@ -67181,7 +67181,7 @@
         <v>15210004</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E875" s="3">
         <v>15210004</v>
@@ -67226,7 +67226,7 @@
         <v>384</v>
       </c>
       <c r="U875" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V875" s="19"/>
     </row>
@@ -67235,7 +67235,7 @@
         <v>15210011</v>
       </c>
       <c r="D876" s="114" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E876" s="114">
         <v>15210011</v>
@@ -67280,7 +67280,7 @@
         <v>384</v>
       </c>
       <c r="U876" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V876" s="116"/>
     </row>
@@ -67289,7 +67289,7 @@
         <v>15210012</v>
       </c>
       <c r="D877" s="114" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E877" s="114">
         <v>15210012</v>
@@ -67334,7 +67334,7 @@
         <v>384</v>
       </c>
       <c r="U877" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V877" s="116"/>
     </row>
@@ -67343,7 +67343,7 @@
         <v>15210101</v>
       </c>
       <c r="D878" s="21" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E878" s="21">
         <v>15210101</v>
@@ -67400,7 +67400,7 @@
         <v>15210102</v>
       </c>
       <c r="D879" s="21" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E879" s="21">
         <v>15210102</v>
@@ -67445,7 +67445,7 @@
         <v>384</v>
       </c>
       <c r="U879" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V879" s="27"/>
     </row>
@@ -67454,7 +67454,7 @@
         <v>15210103</v>
       </c>
       <c r="D880" s="21" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E880" s="21">
         <v>15210103</v>
@@ -67511,7 +67511,7 @@
         <v>15210104</v>
       </c>
       <c r="D881" s="21" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E881" s="21">
         <v>15210104</v>
@@ -67556,7 +67556,7 @@
         <v>384</v>
       </c>
       <c r="U881" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V881" s="27"/>
     </row>
@@ -67565,7 +67565,7 @@
         <v>15210111</v>
       </c>
       <c r="D882" s="114" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E882" s="114">
         <v>15210111</v>
@@ -67610,7 +67610,7 @@
         <v>384</v>
       </c>
       <c r="U882" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V882" s="116"/>
     </row>
@@ -67619,7 +67619,7 @@
         <v>15210112</v>
       </c>
       <c r="D883" s="114" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E883" s="114">
         <v>15210112</v>
@@ -67664,7 +67664,7 @@
         <v>384</v>
       </c>
       <c r="U883" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V883" s="116"/>
     </row>
@@ -67673,7 +67673,7 @@
         <v>15211001</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E884" s="3">
         <v>15211001</v>
@@ -67730,7 +67730,7 @@
         <v>15211002</v>
       </c>
       <c r="D885" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E885" s="3">
         <v>15211002</v>
@@ -67775,7 +67775,7 @@
         <v>384</v>
       </c>
       <c r="U885" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V885" s="19"/>
     </row>
@@ -67784,7 +67784,7 @@
         <v>15211003</v>
       </c>
       <c r="D886" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E886" s="3">
         <v>15211003</v>
@@ -67841,7 +67841,7 @@
         <v>15211004</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E887" s="3">
         <v>15211004</v>
@@ -67886,7 +67886,7 @@
         <v>384</v>
       </c>
       <c r="U887" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V887" s="19"/>
     </row>
@@ -67895,7 +67895,7 @@
         <v>15211005</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E888" s="3">
         <v>15211005</v>
@@ -67952,7 +67952,7 @@
         <v>15211006</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E889" s="3">
         <v>15211006</v>
@@ -67997,7 +67997,7 @@
         <v>384</v>
       </c>
       <c r="U889" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V889" s="19"/>
     </row>
@@ -68006,7 +68006,7 @@
         <v>15211011</v>
       </c>
       <c r="D890" s="114" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E890" s="114">
         <v>15211011</v>
@@ -68051,7 +68051,7 @@
         <v>384</v>
       </c>
       <c r="U890" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V890" s="116"/>
     </row>
@@ -68060,7 +68060,7 @@
         <v>15211012</v>
       </c>
       <c r="D891" s="114" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E891" s="114">
         <v>15211012</v>
@@ -68105,7 +68105,7 @@
         <v>384</v>
       </c>
       <c r="U891" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V891" s="116"/>
     </row>
@@ -68114,7 +68114,7 @@
         <v>15211013</v>
       </c>
       <c r="D892" s="114" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E892" s="114">
         <v>15211013</v>
@@ -68159,7 +68159,7 @@
         <v>384</v>
       </c>
       <c r="U892" s="114" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="V892" s="116"/>
     </row>
@@ -68168,7 +68168,7 @@
         <v>15301001</v>
       </c>
       <c r="D893" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E893" s="3">
         <v>15301001</v>
@@ -68213,7 +68213,7 @@
         <v>384</v>
       </c>
       <c r="U893" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V893" s="19" t="str">
         <f>D893&amp;"的描述"</f>
@@ -68225,7 +68225,7 @@
         <v>15301002</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E894" s="3">
         <v>15301002</v>
@@ -68270,7 +68270,7 @@
         <v>384</v>
       </c>
       <c r="U894" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V894" s="19"/>
     </row>
@@ -68279,7 +68279,7 @@
         <v>15301003</v>
       </c>
       <c r="D895" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E895" s="3">
         <v>15301003</v>
@@ -68324,7 +68324,7 @@
         <v>384</v>
       </c>
       <c r="U895" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V895" s="19" t="str">
         <f>D895&amp;"的描述"</f>
@@ -68336,7 +68336,7 @@
         <v>15301004</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E896" s="3">
         <v>15301004</v>
@@ -68381,7 +68381,7 @@
         <v>384</v>
       </c>
       <c r="U896" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V896" s="19"/>
     </row>
@@ -68390,7 +68390,7 @@
         <v>15301005</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E897" s="3">
         <v>15301005</v>
@@ -68435,7 +68435,7 @@
         <v>384</v>
       </c>
       <c r="U897" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V897" s="19" t="str">
         <f>D897&amp;"的描述"</f>
@@ -68447,7 +68447,7 @@
         <v>15301006</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E898" s="3">
         <v>15301006</v>
@@ -68492,7 +68492,7 @@
         <v>384</v>
       </c>
       <c r="U898" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V898" s="19"/>
     </row>
@@ -68501,7 +68501,7 @@
         <v>15302001</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E899" s="3">
         <v>15302001</v>
@@ -68546,7 +68546,7 @@
         <v>384</v>
       </c>
       <c r="U899" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V899" s="19" t="str">
         <f>D899&amp;"的描述"</f>
@@ -68558,7 +68558,7 @@
         <v>15302002</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E900" s="3">
         <v>15302002</v>
@@ -68603,7 +68603,7 @@
         <v>384</v>
       </c>
       <c r="U900" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V900" s="19"/>
     </row>
@@ -68612,7 +68612,7 @@
         <v>15302003</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E901" s="3">
         <v>15302003</v>
@@ -68657,7 +68657,7 @@
         <v>384</v>
       </c>
       <c r="U901" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V901" s="19" t="str">
         <f>D901&amp;"的描述"</f>
@@ -68669,7 +68669,7 @@
         <v>15302004</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E902" s="3">
         <v>15302004</v>
@@ -68714,7 +68714,7 @@
         <v>384</v>
       </c>
       <c r="U902" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V902" s="19"/>
     </row>
@@ -68723,7 +68723,7 @@
         <v>15302005</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E903" s="3">
         <v>15302005</v>
@@ -68768,7 +68768,7 @@
         <v>384</v>
       </c>
       <c r="U903" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V903" s="19" t="str">
         <f>D903&amp;"的描述"</f>
@@ -68780,7 +68780,7 @@
         <v>15302006</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E904" s="3">
         <v>15302006</v>
@@ -68825,7 +68825,7 @@
         <v>384</v>
       </c>
       <c r="U904" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V904" s="19"/>
     </row>
@@ -68834,7 +68834,7 @@
         <v>15303001</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E905" s="3">
         <v>15303001</v>
@@ -68879,7 +68879,7 @@
         <v>384</v>
       </c>
       <c r="U905" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V905" s="19" t="str">
         <f>D905&amp;"的描述"</f>
@@ -68891,7 +68891,7 @@
         <v>15303002</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E906" s="3">
         <v>15303002</v>
@@ -68936,7 +68936,7 @@
         <v>384</v>
       </c>
       <c r="U906" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V906" s="19"/>
     </row>
@@ -68945,7 +68945,7 @@
         <v>15303003</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E907" s="3">
         <v>15303003</v>
@@ -68990,7 +68990,7 @@
         <v>384</v>
       </c>
       <c r="U907" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V907" s="19" t="str">
         <f>D907&amp;"的描述"</f>
@@ -69002,7 +69002,7 @@
         <v>15303004</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E908" s="3">
         <v>15303004</v>
@@ -69047,7 +69047,7 @@
         <v>384</v>
       </c>
       <c r="U908" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V908" s="19"/>
     </row>
@@ -69056,7 +69056,7 @@
         <v>15303005</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E909" s="3">
         <v>15303005</v>
@@ -69101,7 +69101,7 @@
         <v>384</v>
       </c>
       <c r="U909" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V909" s="19" t="str">
         <f>D909&amp;"的描述"</f>
@@ -69113,7 +69113,7 @@
         <v>15303006</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E910" s="3">
         <v>15303006</v>
@@ -69158,7 +69158,7 @@
         <v>384</v>
       </c>
       <c r="U910" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V910" s="19"/>
     </row>
@@ -69167,7 +69167,7 @@
         <v>15304001</v>
       </c>
       <c r="D911" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E911" s="3">
         <v>15304001</v>
@@ -69212,7 +69212,7 @@
         <v>384</v>
       </c>
       <c r="U911" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V911" s="19" t="str">
         <f>D911&amp;"的描述"</f>
@@ -69224,7 +69224,7 @@
         <v>15304002</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E912" s="3">
         <v>15304002</v>
@@ -69269,7 +69269,7 @@
         <v>384</v>
       </c>
       <c r="U912" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V912" s="19"/>
     </row>
@@ -69278,7 +69278,7 @@
         <v>15304003</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E913" s="3">
         <v>15304003</v>
@@ -69323,7 +69323,7 @@
         <v>384</v>
       </c>
       <c r="U913" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V913" s="19" t="str">
         <f>D913&amp;"的描述"</f>
@@ -69335,7 +69335,7 @@
         <v>15304004</v>
       </c>
       <c r="D914" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E914" s="3">
         <v>15304004</v>
@@ -69380,7 +69380,7 @@
         <v>384</v>
       </c>
       <c r="U914" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V914" s="19"/>
     </row>
@@ -69389,7 +69389,7 @@
         <v>15304005</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E915" s="3">
         <v>15304005</v>
@@ -69434,7 +69434,7 @@
         <v>384</v>
       </c>
       <c r="U915" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V915" s="19" t="str">
         <f>D915&amp;"的描述"</f>
@@ -69446,7 +69446,7 @@
         <v>15304006</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E916" s="3">
         <v>15304006</v>
@@ -69491,7 +69491,7 @@
         <v>384</v>
       </c>
       <c r="U916" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V916" s="19"/>
     </row>
@@ -69500,7 +69500,7 @@
         <v>15305001</v>
       </c>
       <c r="D917" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E917" s="3">
         <v>15305001</v>
@@ -69545,7 +69545,7 @@
         <v>384</v>
       </c>
       <c r="U917" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V917" s="19" t="str">
         <f>D917&amp;"的描述"</f>
@@ -69557,7 +69557,7 @@
         <v>15305002</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E918" s="3">
         <v>15305002</v>
@@ -69602,7 +69602,7 @@
         <v>384</v>
       </c>
       <c r="U918" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V918" s="19"/>
     </row>
@@ -69611,7 +69611,7 @@
         <v>15305003</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E919" s="3">
         <v>15305003</v>
@@ -69656,7 +69656,7 @@
         <v>384</v>
       </c>
       <c r="U919" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V919" s="19" t="str">
         <f>D919&amp;"的描述"</f>
@@ -69668,7 +69668,7 @@
         <v>15305004</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E920" s="3">
         <v>15305004</v>
@@ -69713,7 +69713,7 @@
         <v>384</v>
       </c>
       <c r="U920" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V920" s="19"/>
     </row>
@@ -69722,7 +69722,7 @@
         <v>15305005</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E921" s="3">
         <v>15305005</v>
@@ -69767,7 +69767,7 @@
         <v>384</v>
       </c>
       <c r="U921" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V921" s="19" t="str">
         <f>D921&amp;"的描述"</f>
@@ -69779,7 +69779,7 @@
         <v>15305006</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E922" s="3">
         <v>15305006</v>
@@ -69824,7 +69824,7 @@
         <v>384</v>
       </c>
       <c r="U922" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V922" s="19"/>
     </row>
@@ -69833,7 +69833,7 @@
         <v>15306001</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E923" s="3">
         <v>15306001</v>
@@ -69878,7 +69878,7 @@
         <v>384</v>
       </c>
       <c r="U923" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V923" s="19" t="str">
         <f>D923&amp;"的描述"</f>
@@ -69890,7 +69890,7 @@
         <v>15306002</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E924" s="3">
         <v>15306002</v>
@@ -69935,7 +69935,7 @@
         <v>384</v>
       </c>
       <c r="U924" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V924" s="19"/>
     </row>
@@ -69944,7 +69944,7 @@
         <v>15306003</v>
       </c>
       <c r="D925" s="114" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E925" s="114">
         <v>15306003</v>
@@ -69989,7 +69989,7 @@
         <v>384</v>
       </c>
       <c r="U925" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V925" s="116"/>
     </row>
@@ -69998,7 +69998,7 @@
         <v>15307001</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E926" s="3">
         <v>15307001</v>
@@ -70043,7 +70043,7 @@
         <v>384</v>
       </c>
       <c r="U926" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V926" s="19" t="str">
         <f>D926&amp;"的描述"</f>
@@ -70055,7 +70055,7 @@
         <v>15307002</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E927" s="3">
         <v>15307002</v>
@@ -70100,7 +70100,7 @@
         <v>384</v>
       </c>
       <c r="U927" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V927" s="19"/>
     </row>
@@ -70156,7 +70156,7 @@
         <v>384</v>
       </c>
       <c r="U928" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V928" s="19" t="str">
         <f>D928&amp;"的描述"</f>
@@ -70168,7 +70168,7 @@
         <v>15308002</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E929" s="3">
         <v>15308002</v>
@@ -70215,7 +70215,7 @@
         <v>384</v>
       </c>
       <c r="U929" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V929" s="19"/>
     </row>
@@ -70224,7 +70224,7 @@
         <v>15309001</v>
       </c>
       <c r="D930" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E930" s="3">
         <v>15309001</v>
@@ -70269,7 +70269,7 @@
         <v>384</v>
       </c>
       <c r="U930" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V930" s="19" t="str">
         <f>D930&amp;"的描述"</f>
@@ -70281,7 +70281,7 @@
         <v>15309002</v>
       </c>
       <c r="D931" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E931" s="3">
         <v>15309002</v>
@@ -70326,7 +70326,7 @@
         <v>384</v>
       </c>
       <c r="U931" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V931" s="19"/>
     </row>
@@ -70335,7 +70335,7 @@
         <v>15310001</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E932" s="3">
         <v>15310001</v>
@@ -70380,7 +70380,7 @@
         <v>384</v>
       </c>
       <c r="U932" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V932" s="19" t="str">
         <f>D932&amp;"的描述"</f>
@@ -70392,7 +70392,7 @@
         <v>15310002</v>
       </c>
       <c r="D933" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E933" s="3">
         <v>15310002</v>
@@ -70437,7 +70437,7 @@
         <v>384</v>
       </c>
       <c r="U933" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V933" s="19"/>
     </row>
@@ -70446,7 +70446,7 @@
         <v>15310003</v>
       </c>
       <c r="D934" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E934" s="3">
         <v>15310003</v>
@@ -70491,7 +70491,7 @@
         <v>384</v>
       </c>
       <c r="U934" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V934" s="19" t="str">
         <f>D934&amp;"的描述"</f>
@@ -70503,7 +70503,7 @@
         <v>15310004</v>
       </c>
       <c r="D935" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E935" s="3">
         <v>15310004</v>
@@ -70548,7 +70548,7 @@
         <v>384</v>
       </c>
       <c r="U935" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V935" s="19"/>
     </row>
@@ -70557,7 +70557,7 @@
         <v>15310011</v>
       </c>
       <c r="D936" s="114" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E936" s="114">
         <v>15310011</v>
@@ -70602,7 +70602,7 @@
         <v>384</v>
       </c>
       <c r="U936" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V936" s="116"/>
     </row>
@@ -70611,7 +70611,7 @@
         <v>15310012</v>
       </c>
       <c r="D937" s="114" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E937" s="114">
         <v>15310012</v>
@@ -70656,7 +70656,7 @@
         <v>384</v>
       </c>
       <c r="U937" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V937" s="116"/>
     </row>
@@ -70665,7 +70665,7 @@
         <v>15310101</v>
       </c>
       <c r="D938" s="21" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E938" s="21">
         <v>15310101</v>
@@ -70710,7 +70710,7 @@
         <v>384</v>
       </c>
       <c r="U938" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V938" s="27" t="str">
         <f>D938&amp;"的描述"</f>
@@ -70722,7 +70722,7 @@
         <v>15310102</v>
       </c>
       <c r="D939" s="21" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E939" s="21">
         <v>15310102</v>
@@ -70767,7 +70767,7 @@
         <v>384</v>
       </c>
       <c r="U939" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V939" s="27"/>
     </row>
@@ -70776,7 +70776,7 @@
         <v>15310103</v>
       </c>
       <c r="D940" s="21" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E940" s="21">
         <v>15310103</v>
@@ -70821,7 +70821,7 @@
         <v>384</v>
       </c>
       <c r="U940" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V940" s="27" t="str">
         <f>D940&amp;"的描述"</f>
@@ -70833,7 +70833,7 @@
         <v>15310104</v>
       </c>
       <c r="D941" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E941" s="21">
         <v>15310104</v>
@@ -70878,7 +70878,7 @@
         <v>384</v>
       </c>
       <c r="U941" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V941" s="27"/>
     </row>
@@ -70887,7 +70887,7 @@
         <v>15310111</v>
       </c>
       <c r="D942" s="114" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E942" s="114">
         <v>15310111</v>
@@ -70932,7 +70932,7 @@
         <v>384</v>
       </c>
       <c r="U942" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V942" s="116"/>
     </row>
@@ -70941,7 +70941,7 @@
         <v>15310112</v>
       </c>
       <c r="D943" s="114" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E943" s="114">
         <v>15310112</v>
@@ -70986,7 +70986,7 @@
         <v>384</v>
       </c>
       <c r="U943" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V943" s="116"/>
     </row>
@@ -70995,7 +70995,7 @@
         <v>15311001</v>
       </c>
       <c r="D944" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E944" s="3">
         <v>15311001</v>
@@ -71040,7 +71040,7 @@
         <v>384</v>
       </c>
       <c r="U944" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V944" s="19" t="str">
         <f>D944&amp;"的描述"</f>
@@ -71052,7 +71052,7 @@
         <v>15311002</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E945" s="3">
         <v>15311002</v>
@@ -71097,7 +71097,7 @@
         <v>384</v>
       </c>
       <c r="U945" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V945" s="19"/>
     </row>
@@ -71106,7 +71106,7 @@
         <v>15311003</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E946" s="3">
         <v>15311003</v>
@@ -71151,7 +71151,7 @@
         <v>384</v>
       </c>
       <c r="U946" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V946" s="19" t="str">
         <f>D946&amp;"的描述"</f>
@@ -71163,7 +71163,7 @@
         <v>15311004</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E947" s="3">
         <v>15311004</v>
@@ -71208,7 +71208,7 @@
         <v>384</v>
       </c>
       <c r="U947" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V947" s="19"/>
     </row>
@@ -71217,7 +71217,7 @@
         <v>15311005</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E948" s="3">
         <v>15311005</v>
@@ -71262,7 +71262,7 @@
         <v>384</v>
       </c>
       <c r="U948" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V948" s="19" t="str">
         <f>D948&amp;"的描述"</f>
@@ -71274,7 +71274,7 @@
         <v>15311006</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E949" s="3">
         <v>15311006</v>
@@ -71319,7 +71319,7 @@
         <v>384</v>
       </c>
       <c r="U949" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V949" s="19"/>
     </row>
@@ -71328,7 +71328,7 @@
         <v>15311011</v>
       </c>
       <c r="D950" s="114" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E950" s="114">
         <v>15311011</v>
@@ -71373,7 +71373,7 @@
         <v>384</v>
       </c>
       <c r="U950" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V950" s="116"/>
     </row>
@@ -71382,7 +71382,7 @@
         <v>15311012</v>
       </c>
       <c r="D951" s="114" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E951" s="114">
         <v>15311012</v>
@@ -71427,7 +71427,7 @@
         <v>384</v>
       </c>
       <c r="U951" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V951" s="116"/>
     </row>
@@ -71436,7 +71436,7 @@
         <v>15311013</v>
       </c>
       <c r="D952" s="114" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E952" s="114">
         <v>15311013</v>
@@ -71481,7 +71481,7 @@
         <v>384</v>
       </c>
       <c r="U952" s="114" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="V952" s="116"/>
     </row>
@@ -71490,7 +71490,7 @@
         <v>15401001</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E953" s="3">
         <v>15401001</v>
@@ -71535,7 +71535,7 @@
         <v>384</v>
       </c>
       <c r="U953" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V953" s="19" t="str">
         <f>D953&amp;"的描述"</f>
@@ -71547,7 +71547,7 @@
         <v>15401002</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E954" s="3">
         <v>15401002</v>
@@ -71592,7 +71592,7 @@
         <v>384</v>
       </c>
       <c r="U954" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V954" s="19"/>
     </row>
@@ -71601,7 +71601,7 @@
         <v>15401003</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E955" s="3">
         <v>15401003</v>
@@ -71646,7 +71646,7 @@
         <v>384</v>
       </c>
       <c r="U955" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V955" s="19" t="str">
         <f>D955&amp;"的描述"</f>
@@ -71658,7 +71658,7 @@
         <v>15401004</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E956" s="3">
         <v>15401004</v>
@@ -71703,7 +71703,7 @@
         <v>384</v>
       </c>
       <c r="U956" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V956" s="19"/>
     </row>
@@ -71712,7 +71712,7 @@
         <v>15401005</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E957" s="3">
         <v>15401005</v>
@@ -71757,7 +71757,7 @@
         <v>384</v>
       </c>
       <c r="U957" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V957" s="19" t="str">
         <f>D957&amp;"的描述"</f>
@@ -71769,7 +71769,7 @@
         <v>15401006</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E958" s="3">
         <v>15401006</v>
@@ -71814,7 +71814,7 @@
         <v>384</v>
       </c>
       <c r="U958" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V958" s="19"/>
     </row>
@@ -71823,7 +71823,7 @@
         <v>15402001</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E959" s="3">
         <v>15402001</v>
@@ -71868,7 +71868,7 @@
         <v>384</v>
       </c>
       <c r="U959" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V959" s="19" t="str">
         <f>D959&amp;"的描述"</f>
@@ -71880,7 +71880,7 @@
         <v>15402002</v>
       </c>
       <c r="D960" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E960" s="3">
         <v>15402002</v>
@@ -71925,7 +71925,7 @@
         <v>384</v>
       </c>
       <c r="U960" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V960" s="19"/>
     </row>
@@ -71934,7 +71934,7 @@
         <v>15402003</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E961" s="3">
         <v>15402003</v>
@@ -71979,7 +71979,7 @@
         <v>384</v>
       </c>
       <c r="U961" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V961" s="19" t="str">
         <f>D961&amp;"的描述"</f>
@@ -71991,7 +71991,7 @@
         <v>15402004</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E962" s="3">
         <v>15402004</v>
@@ -72036,7 +72036,7 @@
         <v>384</v>
       </c>
       <c r="U962" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V962" s="19"/>
     </row>
@@ -72045,7 +72045,7 @@
         <v>15402005</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E963" s="3">
         <v>15402005</v>
@@ -72090,7 +72090,7 @@
         <v>384</v>
       </c>
       <c r="U963" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V963" s="19" t="str">
         <f>D963&amp;"的描述"</f>
@@ -72102,7 +72102,7 @@
         <v>15402006</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E964" s="3">
         <v>15402006</v>
@@ -72147,7 +72147,7 @@
         <v>384</v>
       </c>
       <c r="U964" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V964" s="19"/>
     </row>
@@ -72156,7 +72156,7 @@
         <v>15403001</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E965" s="3">
         <v>15403001</v>
@@ -72201,7 +72201,7 @@
         <v>384</v>
       </c>
       <c r="U965" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V965" s="19" t="str">
         <f>D965&amp;"的描述"</f>
@@ -72213,7 +72213,7 @@
         <v>15403002</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E966" s="3">
         <v>15403002</v>
@@ -72258,7 +72258,7 @@
         <v>384</v>
       </c>
       <c r="U966" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V966" s="19"/>
     </row>
@@ -72267,7 +72267,7 @@
         <v>15403003</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E967" s="3">
         <v>15403003</v>
@@ -72312,7 +72312,7 @@
         <v>384</v>
       </c>
       <c r="U967" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V967" s="19" t="str">
         <f>D967&amp;"的描述"</f>
@@ -72324,7 +72324,7 @@
         <v>15403004</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E968" s="3">
         <v>15403004</v>
@@ -72369,7 +72369,7 @@
         <v>384</v>
       </c>
       <c r="U968" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V968" s="19"/>
     </row>
@@ -72378,7 +72378,7 @@
         <v>15403005</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E969" s="3">
         <v>15403005</v>
@@ -72423,7 +72423,7 @@
         <v>384</v>
       </c>
       <c r="U969" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V969" s="19" t="str">
         <f>D969&amp;"的描述"</f>
@@ -72435,7 +72435,7 @@
         <v>15403006</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E970" s="3">
         <v>15403006</v>
@@ -72480,7 +72480,7 @@
         <v>384</v>
       </c>
       <c r="U970" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V970" s="19"/>
     </row>
@@ -72489,7 +72489,7 @@
         <v>15404001</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E971" s="3">
         <v>15404001</v>
@@ -72534,7 +72534,7 @@
         <v>384</v>
       </c>
       <c r="U971" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V971" s="19" t="str">
         <f>D971&amp;"的描述"</f>
@@ -72546,7 +72546,7 @@
         <v>15404002</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E972" s="3">
         <v>15404002</v>
@@ -72591,7 +72591,7 @@
         <v>384</v>
       </c>
       <c r="U972" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V972" s="19"/>
     </row>
@@ -72600,7 +72600,7 @@
         <v>15404003</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E973" s="3">
         <v>15404003</v>
@@ -72645,7 +72645,7 @@
         <v>384</v>
       </c>
       <c r="U973" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V973" s="19" t="str">
         <f>D973&amp;"的描述"</f>
@@ -72657,7 +72657,7 @@
         <v>15404004</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E974" s="3">
         <v>15404004</v>
@@ -72702,7 +72702,7 @@
         <v>384</v>
       </c>
       <c r="U974" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V974" s="19"/>
     </row>
@@ -72711,7 +72711,7 @@
         <v>15404005</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E975" s="3">
         <v>15404005</v>
@@ -72756,7 +72756,7 @@
         <v>384</v>
       </c>
       <c r="U975" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V975" s="19" t="str">
         <f>D975&amp;"的描述"</f>
@@ -72768,7 +72768,7 @@
         <v>15404006</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E976" s="3">
         <v>15404006</v>
@@ -72813,7 +72813,7 @@
         <v>384</v>
       </c>
       <c r="U976" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V976" s="19"/>
     </row>
@@ -72822,7 +72822,7 @@
         <v>15405001</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E977" s="3">
         <v>15405001</v>
@@ -72867,7 +72867,7 @@
         <v>384</v>
       </c>
       <c r="U977" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V977" s="19" t="str">
         <f>D977&amp;"的描述"</f>
@@ -72879,7 +72879,7 @@
         <v>15405002</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E978" s="3">
         <v>15405002</v>
@@ -72924,7 +72924,7 @@
         <v>384</v>
       </c>
       <c r="U978" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V978" s="19"/>
     </row>
@@ -72933,7 +72933,7 @@
         <v>15405003</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E979" s="3">
         <v>15405003</v>
@@ -72978,7 +72978,7 @@
         <v>384</v>
       </c>
       <c r="U979" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V979" s="19" t="str">
         <f>D979&amp;"的描述"</f>
@@ -72990,7 +72990,7 @@
         <v>15405004</v>
       </c>
       <c r="D980" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E980" s="3">
         <v>15405004</v>
@@ -73035,7 +73035,7 @@
         <v>384</v>
       </c>
       <c r="U980" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V980" s="19"/>
     </row>
@@ -73044,7 +73044,7 @@
         <v>15405005</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E981" s="3">
         <v>15405005</v>
@@ -73089,7 +73089,7 @@
         <v>384</v>
       </c>
       <c r="U981" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V981" s="19" t="str">
         <f>D981&amp;"的描述"</f>
@@ -73101,7 +73101,7 @@
         <v>15405006</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E982" s="3">
         <v>15405006</v>
@@ -73146,7 +73146,7 @@
         <v>384</v>
       </c>
       <c r="U982" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V982" s="19"/>
     </row>
@@ -73155,7 +73155,7 @@
         <v>15406001</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E983" s="3">
         <v>15406001</v>
@@ -73200,7 +73200,7 @@
         <v>384</v>
       </c>
       <c r="U983" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V983" s="19" t="str">
         <f>D983&amp;"的描述"</f>
@@ -73212,7 +73212,7 @@
         <v>15406002</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E984" s="3">
         <v>15406002</v>
@@ -73257,7 +73257,7 @@
         <v>384</v>
       </c>
       <c r="U984" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V984" s="19"/>
     </row>
@@ -73266,7 +73266,7 @@
         <v>15406003</v>
       </c>
       <c r="D985" s="114" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E985" s="114">
         <v>15406003</v>
@@ -73311,7 +73311,7 @@
         <v>384</v>
       </c>
       <c r="U985" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V985" s="116"/>
     </row>
@@ -73320,7 +73320,7 @@
         <v>15407001</v>
       </c>
       <c r="D986" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E986" s="3">
         <v>15407001</v>
@@ -73365,7 +73365,7 @@
         <v>384</v>
       </c>
       <c r="U986" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V986" s="19" t="str">
         <f>D986&amp;"的描述"</f>
@@ -73377,7 +73377,7 @@
         <v>15407002</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E987" s="3">
         <v>15407002</v>
@@ -73422,7 +73422,7 @@
         <v>384</v>
       </c>
       <c r="U987" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V987" s="19"/>
     </row>
@@ -73478,7 +73478,7 @@
         <v>384</v>
       </c>
       <c r="U988" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V988" s="19" t="str">
         <f>D988&amp;"的描述"</f>
@@ -73490,7 +73490,7 @@
         <v>15408002</v>
       </c>
       <c r="D989" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E989" s="3">
         <v>15408002</v>
@@ -73537,7 +73537,7 @@
         <v>384</v>
       </c>
       <c r="U989" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V989" s="19"/>
     </row>
@@ -73546,7 +73546,7 @@
         <v>15409001</v>
       </c>
       <c r="D990" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E990" s="3">
         <v>15409001</v>
@@ -73591,7 +73591,7 @@
         <v>384</v>
       </c>
       <c r="U990" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V990" s="19" t="str">
         <f>D990&amp;"的描述"</f>
@@ -73603,7 +73603,7 @@
         <v>15409002</v>
       </c>
       <c r="D991" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E991" s="3">
         <v>15409002</v>
@@ -73648,7 +73648,7 @@
         <v>384</v>
       </c>
       <c r="U991" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V991" s="19"/>
     </row>
@@ -73657,7 +73657,7 @@
         <v>15410001</v>
       </c>
       <c r="D992" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E992" s="3">
         <v>15410001</v>
@@ -73702,7 +73702,7 @@
         <v>384</v>
       </c>
       <c r="U992" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V992" s="19" t="str">
         <f>D992&amp;"的描述"</f>
@@ -73714,7 +73714,7 @@
         <v>15410002</v>
       </c>
       <c r="D993" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E993" s="3">
         <v>15410002</v>
@@ -73759,7 +73759,7 @@
         <v>384</v>
       </c>
       <c r="U993" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V993" s="19"/>
     </row>
@@ -73768,7 +73768,7 @@
         <v>15410003</v>
       </c>
       <c r="D994" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E994" s="3">
         <v>15410003</v>
@@ -73813,7 +73813,7 @@
         <v>384</v>
       </c>
       <c r="U994" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V994" s="19" t="str">
         <f>D994&amp;"的描述"</f>
@@ -73825,7 +73825,7 @@
         <v>15410004</v>
       </c>
       <c r="D995" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E995" s="3">
         <v>15410004</v>
@@ -73870,7 +73870,7 @@
         <v>384</v>
       </c>
       <c r="U995" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V995" s="19"/>
     </row>
@@ -73879,7 +73879,7 @@
         <v>15410011</v>
       </c>
       <c r="D996" s="114" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E996" s="114">
         <v>15410011</v>
@@ -73924,7 +73924,7 @@
         <v>384</v>
       </c>
       <c r="U996" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V996" s="116"/>
     </row>
@@ -73933,7 +73933,7 @@
         <v>15410012</v>
       </c>
       <c r="D997" s="114" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E997" s="114">
         <v>15410012</v>
@@ -73978,7 +73978,7 @@
         <v>384</v>
       </c>
       <c r="U997" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V997" s="116"/>
     </row>
@@ -73987,7 +73987,7 @@
         <v>15410101</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E998" s="3">
         <v>15410101</v>
@@ -74032,7 +74032,7 @@
         <v>384</v>
       </c>
       <c r="U998" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V998" s="19" t="str">
         <f>D998&amp;"的描述"</f>
@@ -74044,7 +74044,7 @@
         <v>15410102</v>
       </c>
       <c r="D999" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E999" s="3">
         <v>15410102</v>
@@ -74089,7 +74089,7 @@
         <v>384</v>
       </c>
       <c r="U999" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V999" s="19"/>
     </row>
@@ -74098,7 +74098,7 @@
         <v>15410103</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E1000" s="3">
         <v>15410103</v>
@@ -74143,7 +74143,7 @@
         <v>384</v>
       </c>
       <c r="U1000" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V1000" s="19" t="str">
         <f>D1000&amp;"的描述"</f>
@@ -74155,7 +74155,7 @@
         <v>15410104</v>
       </c>
       <c r="D1001" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E1001" s="3">
         <v>15410104</v>
@@ -74200,7 +74200,7 @@
         <v>384</v>
       </c>
       <c r="U1001" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1001" s="19"/>
     </row>
@@ -74209,7 +74209,7 @@
         <v>15410111</v>
       </c>
       <c r="D1002" s="114" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E1002" s="114">
         <v>15410111</v>
@@ -74254,7 +74254,7 @@
         <v>384</v>
       </c>
       <c r="U1002" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1002" s="116"/>
     </row>
@@ -74263,7 +74263,7 @@
         <v>15410112</v>
       </c>
       <c r="D1003" s="114" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E1003" s="114">
         <v>15410112</v>
@@ -74308,7 +74308,7 @@
         <v>384</v>
       </c>
       <c r="U1003" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1003" s="116"/>
     </row>
@@ -74317,7 +74317,7 @@
         <v>15411001</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E1004" s="3">
         <v>15411001</v>
@@ -74362,7 +74362,7 @@
         <v>384</v>
       </c>
       <c r="U1004" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V1004" s="19" t="str">
         <f>D1004&amp;"的描述"</f>
@@ -74374,7 +74374,7 @@
         <v>15411002</v>
       </c>
       <c r="D1005" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E1005" s="3">
         <v>15411002</v>
@@ -74419,7 +74419,7 @@
         <v>384</v>
       </c>
       <c r="U1005" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1005" s="19"/>
     </row>
@@ -74428,7 +74428,7 @@
         <v>15411003</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E1006" s="3">
         <v>15411003</v>
@@ -74473,7 +74473,7 @@
         <v>384</v>
       </c>
       <c r="U1006" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V1006" s="19" t="str">
         <f>D1006&amp;"的描述"</f>
@@ -74485,7 +74485,7 @@
         <v>15411004</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E1007" s="3">
         <v>15411004</v>
@@ -74530,7 +74530,7 @@
         <v>384</v>
       </c>
       <c r="U1007" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1007" s="19"/>
     </row>
@@ -74539,7 +74539,7 @@
         <v>15411005</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E1008" s="3">
         <v>15411005</v>
@@ -74584,7 +74584,7 @@
         <v>384</v>
       </c>
       <c r="U1008" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V1008" s="19" t="str">
         <f>D1008&amp;"的描述"</f>
@@ -74596,7 +74596,7 @@
         <v>15411006</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E1009" s="3">
         <v>15411006</v>
@@ -74641,7 +74641,7 @@
         <v>384</v>
       </c>
       <c r="U1009" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1009" s="19"/>
     </row>
@@ -74650,7 +74650,7 @@
         <v>15411011</v>
       </c>
       <c r="D1010" s="114" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E1010" s="114">
         <v>15411011</v>
@@ -74695,7 +74695,7 @@
         <v>384</v>
       </c>
       <c r="U1010" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1010" s="116"/>
     </row>
@@ -74704,7 +74704,7 @@
         <v>15411012</v>
       </c>
       <c r="D1011" s="114" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E1011" s="114">
         <v>15411012</v>
@@ -74749,7 +74749,7 @@
         <v>384</v>
       </c>
       <c r="U1011" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1011" s="116"/>
     </row>
@@ -74758,7 +74758,7 @@
         <v>15411013</v>
       </c>
       <c r="D1012" s="114" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E1012" s="114">
         <v>15411013</v>
@@ -74803,7 +74803,7 @@
         <v>384</v>
       </c>
       <c r="U1012" s="114" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="V1012" s="116"/>
     </row>
@@ -74812,7 +74812,7 @@
         <v>15501001</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E1013" s="3">
         <v>15501001</v>
@@ -74857,7 +74857,7 @@
         <v>384</v>
       </c>
       <c r="U1013" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1013" s="19" t="str">
         <f>D1013&amp;"的描述"</f>
@@ -74869,7 +74869,7 @@
         <v>15501002</v>
       </c>
       <c r="D1014" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E1014" s="3">
         <v>15501002</v>
@@ -74914,7 +74914,7 @@
         <v>384</v>
       </c>
       <c r="U1014" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1014" s="19"/>
     </row>
@@ -74923,7 +74923,7 @@
         <v>15501003</v>
       </c>
       <c r="D1015" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E1015" s="3">
         <v>15501003</v>
@@ -74968,7 +74968,7 @@
         <v>384</v>
       </c>
       <c r="U1015" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1015" s="19" t="str">
         <f>D1015&amp;"的描述"</f>
@@ -74980,7 +74980,7 @@
         <v>15501004</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E1016" s="3">
         <v>15501004</v>
@@ -75025,7 +75025,7 @@
         <v>384</v>
       </c>
       <c r="U1016" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1016" s="19"/>
     </row>
@@ -75034,7 +75034,7 @@
         <v>15501005</v>
       </c>
       <c r="D1017" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1017" s="3">
         <v>15501005</v>
@@ -75079,7 +75079,7 @@
         <v>384</v>
       </c>
       <c r="U1017" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1017" s="19" t="str">
         <f>D1017&amp;"的描述"</f>
@@ -75091,7 +75091,7 @@
         <v>15501006</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E1018" s="3">
         <v>15501006</v>
@@ -75136,7 +75136,7 @@
         <v>384</v>
       </c>
       <c r="U1018" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1018" s="19"/>
     </row>
@@ -75145,7 +75145,7 @@
         <v>15502001</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E1019" s="3">
         <v>15502001</v>
@@ -75190,7 +75190,7 @@
         <v>384</v>
       </c>
       <c r="U1019" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1019" s="19" t="str">
         <f>D1019&amp;"的描述"</f>
@@ -75202,7 +75202,7 @@
         <v>15502002</v>
       </c>
       <c r="D1020" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E1020" s="3">
         <v>15502002</v>
@@ -75247,7 +75247,7 @@
         <v>384</v>
       </c>
       <c r="U1020" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1020" s="19"/>
     </row>
@@ -75256,7 +75256,7 @@
         <v>15502003</v>
       </c>
       <c r="D1021" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E1021" s="3">
         <v>15502003</v>
@@ -75301,7 +75301,7 @@
         <v>384</v>
       </c>
       <c r="U1021" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1021" s="19" t="str">
         <f>D1021&amp;"的描述"</f>
@@ -75313,7 +75313,7 @@
         <v>15502004</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E1022" s="3">
         <v>15502004</v>
@@ -75358,7 +75358,7 @@
         <v>384</v>
       </c>
       <c r="U1022" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1022" s="19"/>
     </row>
@@ -75367,7 +75367,7 @@
         <v>15502005</v>
       </c>
       <c r="D1023" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E1023" s="3">
         <v>15502005</v>
@@ -75412,7 +75412,7 @@
         <v>384</v>
       </c>
       <c r="U1023" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1023" s="19" t="str">
         <f>D1023&amp;"的描述"</f>
@@ -75424,7 +75424,7 @@
         <v>15502006</v>
       </c>
       <c r="D1024" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E1024" s="3">
         <v>15502006</v>
@@ -75469,7 +75469,7 @@
         <v>384</v>
       </c>
       <c r="U1024" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1024" s="19"/>
     </row>
@@ -75478,7 +75478,7 @@
         <v>15503001</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E1025" s="3">
         <v>15503001</v>
@@ -75523,7 +75523,7 @@
         <v>384</v>
       </c>
       <c r="U1025" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1025" s="19" t="str">
         <f>D1025&amp;"的描述"</f>
@@ -75535,7 +75535,7 @@
         <v>15503002</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E1026" s="3">
         <v>15503002</v>
@@ -75580,7 +75580,7 @@
         <v>384</v>
       </c>
       <c r="U1026" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1026" s="19"/>
     </row>
@@ -75589,7 +75589,7 @@
         <v>15503003</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E1027" s="3">
         <v>15503003</v>
@@ -75634,7 +75634,7 @@
         <v>384</v>
       </c>
       <c r="U1027" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1027" s="19" t="str">
         <f>D1027&amp;"的描述"</f>
@@ -75646,7 +75646,7 @@
         <v>15503004</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E1028" s="3">
         <v>15503004</v>
@@ -75691,7 +75691,7 @@
         <v>384</v>
       </c>
       <c r="U1028" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1028" s="19"/>
     </row>
@@ -75700,7 +75700,7 @@
         <v>15503005</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E1029" s="3">
         <v>15503005</v>
@@ -75745,7 +75745,7 @@
         <v>384</v>
       </c>
       <c r="U1029" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1029" s="19" t="str">
         <f>D1029&amp;"的描述"</f>
@@ -75757,7 +75757,7 @@
         <v>15503006</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E1030" s="3">
         <v>15503006</v>
@@ -75802,7 +75802,7 @@
         <v>384</v>
       </c>
       <c r="U1030" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1030" s="19"/>
     </row>
@@ -75811,7 +75811,7 @@
         <v>15504001</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E1031" s="3">
         <v>15504001</v>
@@ -75856,7 +75856,7 @@
         <v>384</v>
       </c>
       <c r="U1031" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1031" s="19" t="str">
         <f>D1031&amp;"的描述"</f>
@@ -75868,7 +75868,7 @@
         <v>15504002</v>
       </c>
       <c r="D1032" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E1032" s="3">
         <v>15504002</v>
@@ -75913,7 +75913,7 @@
         <v>384</v>
       </c>
       <c r="U1032" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1032" s="19"/>
     </row>
@@ -75922,7 +75922,7 @@
         <v>15504003</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E1033" s="3">
         <v>15504003</v>
@@ -75967,7 +75967,7 @@
         <v>384</v>
       </c>
       <c r="U1033" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1033" s="19" t="str">
         <f>D1033&amp;"的描述"</f>
@@ -75979,7 +75979,7 @@
         <v>15504004</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E1034" s="3">
         <v>15504004</v>
@@ -76024,7 +76024,7 @@
         <v>384</v>
       </c>
       <c r="U1034" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1034" s="19"/>
     </row>
@@ -76033,7 +76033,7 @@
         <v>15504005</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E1035" s="3">
         <v>15504005</v>
@@ -76078,7 +76078,7 @@
         <v>384</v>
       </c>
       <c r="U1035" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1035" s="19" t="str">
         <f>D1035&amp;"的描述"</f>
@@ -76090,7 +76090,7 @@
         <v>15504006</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E1036" s="3">
         <v>15504006</v>
@@ -76135,7 +76135,7 @@
         <v>384</v>
       </c>
       <c r="U1036" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1036" s="19"/>
     </row>
@@ -76144,7 +76144,7 @@
         <v>15505001</v>
       </c>
       <c r="D1037" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E1037" s="3">
         <v>15505001</v>
@@ -76189,7 +76189,7 @@
         <v>384</v>
       </c>
       <c r="U1037" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1037" s="19" t="str">
         <f>D1037&amp;"的描述"</f>
@@ -76201,7 +76201,7 @@
         <v>15505002</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E1038" s="3">
         <v>15505002</v>
@@ -76246,7 +76246,7 @@
         <v>384</v>
       </c>
       <c r="U1038" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1038" s="19"/>
     </row>
@@ -76255,7 +76255,7 @@
         <v>15505003</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E1039" s="3">
         <v>15505003</v>
@@ -76300,7 +76300,7 @@
         <v>384</v>
       </c>
       <c r="U1039" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1039" s="19" t="str">
         <f>D1039&amp;"的描述"</f>
@@ -76312,7 +76312,7 @@
         <v>15505004</v>
       </c>
       <c r="D1040" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E1040" s="3">
         <v>15505004</v>
@@ -76357,7 +76357,7 @@
         <v>384</v>
       </c>
       <c r="U1040" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1040" s="19"/>
     </row>
@@ -76366,7 +76366,7 @@
         <v>15505005</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E1041" s="3">
         <v>15505005</v>
@@ -76411,7 +76411,7 @@
         <v>384</v>
       </c>
       <c r="U1041" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1041" s="19" t="str">
         <f>D1041&amp;"的描述"</f>
@@ -76423,7 +76423,7 @@
         <v>15505006</v>
       </c>
       <c r="D1042" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E1042" s="3">
         <v>15505006</v>
@@ -76468,7 +76468,7 @@
         <v>384</v>
       </c>
       <c r="U1042" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1042" s="19"/>
     </row>
@@ -76477,7 +76477,7 @@
         <v>15506001</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E1043" s="3">
         <v>15506001</v>
@@ -76522,7 +76522,7 @@
         <v>384</v>
       </c>
       <c r="U1043" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1043" s="19" t="str">
         <f>D1043&amp;"的描述"</f>
@@ -76534,7 +76534,7 @@
         <v>15506002</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E1044" s="3">
         <v>15506002</v>
@@ -76579,7 +76579,7 @@
         <v>384</v>
       </c>
       <c r="U1044" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1044" s="19"/>
     </row>
@@ -76588,7 +76588,7 @@
         <v>15506003</v>
       </c>
       <c r="D1045" s="114" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E1045" s="114">
         <v>15506003</v>
@@ -76633,7 +76633,7 @@
         <v>384</v>
       </c>
       <c r="U1045" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1045" s="116"/>
     </row>
@@ -76642,7 +76642,7 @@
         <v>15507001</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E1046" s="3">
         <v>15507001</v>
@@ -76687,7 +76687,7 @@
         <v>384</v>
       </c>
       <c r="U1046" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1046" s="19" t="str">
         <f>D1046&amp;"的描述"</f>
@@ -76699,7 +76699,7 @@
         <v>15507002</v>
       </c>
       <c r="D1047" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E1047" s="3">
         <v>15507002</v>
@@ -76744,7 +76744,7 @@
         <v>384</v>
       </c>
       <c r="U1047" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1047" s="19"/>
     </row>
@@ -76753,7 +76753,7 @@
         <v>15508001</v>
       </c>
       <c r="D1048" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E1048" s="3">
         <v>15508001</v>
@@ -76800,7 +76800,7 @@
         <v>384</v>
       </c>
       <c r="U1048" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1048" s="19" t="str">
         <f>D1048&amp;"的描述"</f>
@@ -76812,7 +76812,7 @@
         <v>15508002</v>
       </c>
       <c r="D1049" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E1049" s="3">
         <v>15508002</v>
@@ -76859,7 +76859,7 @@
         <v>384</v>
       </c>
       <c r="U1049" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1049" s="19"/>
     </row>
@@ -76868,7 +76868,7 @@
         <v>15509001</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E1050" s="3">
         <v>15509001</v>
@@ -76913,7 +76913,7 @@
         <v>384</v>
       </c>
       <c r="U1050" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1050" s="19" t="str">
         <f>D1050&amp;"的描述"</f>
@@ -76925,7 +76925,7 @@
         <v>15509002</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E1051" s="3">
         <v>15509002</v>
@@ -76970,7 +76970,7 @@
         <v>384</v>
       </c>
       <c r="U1051" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1051" s="19"/>
     </row>
@@ -76979,7 +76979,7 @@
         <v>15510001</v>
       </c>
       <c r="D1052" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E1052" s="3">
         <v>15510001</v>
@@ -77024,7 +77024,7 @@
         <v>384</v>
       </c>
       <c r="U1052" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1052" s="19" t="str">
         <f>D1052&amp;"的描述"</f>
@@ -77036,7 +77036,7 @@
         <v>15510002</v>
       </c>
       <c r="D1053" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E1053" s="3">
         <v>15510002</v>
@@ -77081,7 +77081,7 @@
         <v>384</v>
       </c>
       <c r="U1053" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1053" s="19"/>
     </row>
@@ -77090,7 +77090,7 @@
         <v>15510003</v>
       </c>
       <c r="D1054" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E1054" s="3">
         <v>15510003</v>
@@ -77135,7 +77135,7 @@
         <v>384</v>
       </c>
       <c r="U1054" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1054" s="19" t="str">
         <f>D1054&amp;"的描述"</f>
@@ -77147,7 +77147,7 @@
         <v>15510004</v>
       </c>
       <c r="D1055" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E1055" s="3">
         <v>15510004</v>
@@ -77192,7 +77192,7 @@
         <v>384</v>
       </c>
       <c r="U1055" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1055" s="19"/>
     </row>
@@ -77201,7 +77201,7 @@
         <v>15510011</v>
       </c>
       <c r="D1056" s="114" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E1056" s="114">
         <v>15510011</v>
@@ -77246,7 +77246,7 @@
         <v>384</v>
       </c>
       <c r="U1056" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1056" s="116"/>
     </row>
@@ -77255,7 +77255,7 @@
         <v>15510012</v>
       </c>
       <c r="D1057" s="114" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E1057" s="114">
         <v>15510012</v>
@@ -77300,7 +77300,7 @@
         <v>384</v>
       </c>
       <c r="U1057" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1057" s="116"/>
     </row>
@@ -77309,7 +77309,7 @@
         <v>15510101</v>
       </c>
       <c r="D1058" s="21" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E1058" s="21">
         <v>15510101</v>
@@ -77354,7 +77354,7 @@
         <v>384</v>
       </c>
       <c r="U1058" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1058" s="27" t="str">
         <f>D1058&amp;"的描述"</f>
@@ -77366,7 +77366,7 @@
         <v>15510102</v>
       </c>
       <c r="D1059" s="21" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E1059" s="21">
         <v>15510102</v>
@@ -77411,7 +77411,7 @@
         <v>384</v>
       </c>
       <c r="U1059" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1059" s="27"/>
     </row>
@@ -77420,7 +77420,7 @@
         <v>15510103</v>
       </c>
       <c r="D1060" s="21" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E1060" s="21">
         <v>15510103</v>
@@ -77465,7 +77465,7 @@
         <v>384</v>
       </c>
       <c r="U1060" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1060" s="27" t="str">
         <f>D1060&amp;"的描述"</f>
@@ -77477,7 +77477,7 @@
         <v>15510104</v>
       </c>
       <c r="D1061" s="21" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E1061" s="21">
         <v>15510104</v>
@@ -77522,7 +77522,7 @@
         <v>384</v>
       </c>
       <c r="U1061" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1061" s="27"/>
     </row>
@@ -77531,7 +77531,7 @@
         <v>15510121</v>
       </c>
       <c r="D1062" s="114" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E1062" s="114">
         <v>15510121</v>
@@ -77576,7 +77576,7 @@
         <v>384</v>
       </c>
       <c r="U1062" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1062" s="116"/>
     </row>
@@ -77585,7 +77585,7 @@
         <v>15510122</v>
       </c>
       <c r="D1063" s="114" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E1063" s="114">
         <v>15510122</v>
@@ -77630,7 +77630,7 @@
         <v>384</v>
       </c>
       <c r="U1063" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1063" s="116"/>
     </row>
@@ -77639,7 +77639,7 @@
         <v>15511001</v>
       </c>
       <c r="D1064" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E1064" s="3">
         <v>15511001</v>
@@ -77684,7 +77684,7 @@
         <v>384</v>
       </c>
       <c r="U1064" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1064" s="19" t="str">
         <f>D1064&amp;"的描述"</f>
@@ -77696,7 +77696,7 @@
         <v>15511002</v>
       </c>
       <c r="D1065" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E1065" s="3">
         <v>15511002</v>
@@ -77741,7 +77741,7 @@
         <v>384</v>
       </c>
       <c r="U1065" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1065" s="19"/>
     </row>
@@ -77750,7 +77750,7 @@
         <v>15511003</v>
       </c>
       <c r="D1066" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E1066" s="3">
         <v>15511003</v>
@@ -77795,7 +77795,7 @@
         <v>384</v>
       </c>
       <c r="U1066" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1066" s="19" t="str">
         <f>D1066&amp;"的描述"</f>
@@ -77807,7 +77807,7 @@
         <v>15511004</v>
       </c>
       <c r="D1067" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E1067" s="3">
         <v>15511004</v>
@@ -77852,7 +77852,7 @@
         <v>384</v>
       </c>
       <c r="U1067" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1067" s="19"/>
     </row>
@@ -77861,7 +77861,7 @@
         <v>15511005</v>
       </c>
       <c r="D1068" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E1068" s="3">
         <v>15511005</v>
@@ -77906,7 +77906,7 @@
         <v>384</v>
       </c>
       <c r="U1068" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="V1068" s="19" t="str">
         <f>D1068&amp;"的描述"</f>
@@ -77918,7 +77918,7 @@
         <v>15511006</v>
       </c>
       <c r="D1069" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E1069" s="3">
         <v>15511006</v>
@@ -77963,7 +77963,7 @@
         <v>384</v>
       </c>
       <c r="U1069" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1069" s="19"/>
     </row>
@@ -77972,7 +77972,7 @@
         <v>15511011</v>
       </c>
       <c r="D1070" s="114" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E1070" s="114">
         <v>15511011</v>
@@ -78017,7 +78017,7 @@
         <v>384</v>
       </c>
       <c r="U1070" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1070" s="116"/>
     </row>
@@ -78026,7 +78026,7 @@
         <v>15511012</v>
       </c>
       <c r="D1071" s="114" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E1071" s="114">
         <v>15511012</v>
@@ -78071,7 +78071,7 @@
         <v>384</v>
       </c>
       <c r="U1071" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1071" s="116"/>
     </row>
@@ -78080,7 +78080,7 @@
         <v>15511013</v>
       </c>
       <c r="D1072" s="114" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E1072" s="114">
         <v>15511013</v>
@@ -78125,7 +78125,7 @@
         <v>384</v>
       </c>
       <c r="U1072" s="114" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="V1072" s="116"/>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA54A6DB-4F97-40BE-AACE-0E3639129336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B29BA-26ED-49BF-AD69-EB79342527A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="810" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15330,10 +15330,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="W234" sqref="W234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29099,7 +29099,8 @@
       <c r="R229" s="3"/>
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
-      <c r="U229" s="19" t="s">
+      <c r="U229" s="62"/>
+      <c r="V229" s="19" t="s">
         <v>1372</v>
       </c>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31596488-1388-486C-B3BA-F9FE9A662581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECB819-91BA-47E6-ACDC-40B39C4503A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="645" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15340,10 +15340,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A971" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40:V44"/>
+      <selection pane="bottomLeft" activeCell="E981" sqref="E981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECB819-91BA-47E6-ACDC-40B39C4503A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B01E29-D609-47D3-A209-AE36C673EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="630" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -6487,12 +6487,6 @@
     <t>利刃护甲</t>
   </si>
   <si>
-    <t>龙鸣之甲</t>
-  </si>
-  <si>
-    <t>无畏之甲</t>
-  </si>
-  <si>
     <t>流沙头盔</t>
   </si>
   <si>
@@ -6502,15 +6496,9 @@
     <t>仪式头盔</t>
   </si>
   <si>
-    <t>魔灵之盔</t>
-  </si>
-  <si>
     <t>战斗头盔</t>
   </si>
   <si>
-    <t>秩序之盔</t>
-  </si>
-  <si>
     <t>流沙手套</t>
   </si>
   <si>
@@ -6685,18 +6673,9 @@
     <t>万灵护腿</t>
   </si>
   <si>
-    <t>银月之腿</t>
-  </si>
-  <si>
-    <t>风暴之腿</t>
-  </si>
-  <si>
     <t>巨岩护腿</t>
   </si>
   <si>
-    <t>无尽之腿</t>
-  </si>
-  <si>
     <t>冰封之链</t>
   </si>
   <si>
@@ -6859,21 +6838,12 @@
     <t>使者护甲</t>
   </si>
   <si>
-    <t>命运之甲</t>
-  </si>
-  <si>
     <t>梦灵护甲</t>
   </si>
   <si>
-    <t>圣灵之甲</t>
-  </si>
-  <si>
     <t>护卫护甲</t>
   </si>
   <si>
-    <t>破灵之甲</t>
-  </si>
-  <si>
     <t>风鸣头盔</t>
   </si>
   <si>
@@ -6994,21 +6964,12 @@
     <t>风鸣护甲</t>
   </si>
   <si>
-    <t>风灵之甲</t>
-  </si>
-  <si>
     <t>导能护甲</t>
   </si>
   <si>
-    <t>神谕之甲</t>
-  </si>
-  <si>
     <t>无坚护甲</t>
   </si>
   <si>
-    <t>永恒之甲</t>
-  </si>
-  <si>
     <t>皮质护腿</t>
   </si>
   <si>
@@ -7121,9 +7082,6 @@
   </si>
   <si>
     <t>灵纹护甲</t>
-  </si>
-  <si>
-    <t>贤者之衣</t>
   </si>
   <si>
     <t>重盔甲</t>
@@ -7545,6 +7503,62 @@
   </si>
   <si>
     <t>每秒恢复560点生命,持续12秒</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>风灵之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>破灵之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽之腿</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴之腿</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>银月之腿</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之盔</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵之盔</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏之甲</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者之衣</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸣之甲</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -15340,10 +15354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A971" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E981" sqref="E981"/>
+      <selection pane="bottomLeft" activeCell="R277" sqref="R277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15351,9 +15365,11 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="15" width="17.875" customWidth="1"/>
+    <col min="4" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="9" width="17.875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="17.875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
     <col min="17" max="17" width="20.875" customWidth="1"/>
     <col min="18" max="18" width="35.5" customWidth="1"/>
@@ -17161,7 +17177,7 @@
         <v>10000141</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1888</v>
+        <v>1874</v>
       </c>
       <c r="E33" s="20">
         <v>10000141</v>
@@ -17329,7 +17345,7 @@
       </c>
       <c r="U35" s="24"/>
       <c r="V35" s="72" t="s">
-        <v>1889</v>
+        <v>1875</v>
       </c>
       <c r="W35" s="73" t="s">
         <v>1471</v>
@@ -17390,7 +17406,7 @@
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="72" t="s">
-        <v>1890</v>
+        <v>1876</v>
       </c>
       <c r="W36" s="73" t="s">
         <v>1471</v>
@@ -17451,7 +17467,7 @@
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="72" t="s">
-        <v>1891</v>
+        <v>1877</v>
       </c>
       <c r="W37" s="73" t="s">
         <v>1471</v>
@@ -17512,7 +17528,7 @@
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="72" t="s">
-        <v>1892</v>
+        <v>1878</v>
       </c>
       <c r="W38" s="73" t="s">
         <v>1471</v>
@@ -17573,7 +17589,7 @@
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="72" t="s">
-        <v>1893</v>
+        <v>1879</v>
       </c>
       <c r="W39" s="73" t="s">
         <v>1471</v>
@@ -17634,7 +17650,7 @@
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="72" t="s">
-        <v>1894</v>
+        <v>1880</v>
       </c>
       <c r="W40" s="72" t="s">
         <v>797</v>
@@ -17695,7 +17711,7 @@
       </c>
       <c r="U41" s="24"/>
       <c r="V41" s="72" t="s">
-        <v>1895</v>
+        <v>1881</v>
       </c>
       <c r="W41" s="72" t="s">
         <v>797</v>
@@ -17756,7 +17772,7 @@
       </c>
       <c r="U42" s="24"/>
       <c r="V42" s="72" t="s">
-        <v>1896</v>
+        <v>1882</v>
       </c>
       <c r="W42" s="72" t="s">
         <v>797</v>
@@ -17817,7 +17833,7 @@
       </c>
       <c r="U43" s="24"/>
       <c r="V43" s="72" t="s">
-        <v>1897</v>
+        <v>1883</v>
       </c>
       <c r="W43" s="72" t="s">
         <v>797</v>
@@ -17878,7 +17894,7 @@
       </c>
       <c r="U44" s="24"/>
       <c r="V44" s="72" t="s">
-        <v>1898</v>
+        <v>1884</v>
       </c>
       <c r="W44" s="72" t="s">
         <v>797</v>
@@ -57132,9 +57148,11 @@
         <v>0</v>
       </c>
       <c r="Q693" s="21">
+        <v>0</v>
+      </c>
+      <c r="R693" s="21">
         <v>65001001</v>
       </c>
-      <c r="R693" s="21"/>
       <c r="S693" s="21"/>
       <c r="T693" s="21"/>
       <c r="V693" s="27" t="s">
@@ -57185,9 +57203,11 @@
         <v>0</v>
       </c>
       <c r="Q694" s="21">
+        <v>0</v>
+      </c>
+      <c r="R694" s="21">
         <v>65001002</v>
       </c>
-      <c r="R694" s="21"/>
       <c r="S694" s="21"/>
       <c r="T694" s="21"/>
       <c r="V694" s="27" t="s">
@@ -57237,10 +57257,12 @@
       <c r="P695" s="21">
         <v>0</v>
       </c>
-      <c r="Q695" s="29">
+      <c r="Q695" s="21">
+        <v>0</v>
+      </c>
+      <c r="R695" s="29">
         <v>65001003</v>
       </c>
-      <c r="R695" s="21"/>
       <c r="S695" s="21"/>
       <c r="T695" s="21"/>
       <c r="V695" s="27" t="s">
@@ -57291,9 +57313,11 @@
         <v>0</v>
       </c>
       <c r="Q696" s="21">
+        <v>0</v>
+      </c>
+      <c r="R696" s="21">
         <v>65001004</v>
       </c>
-      <c r="R696" s="21"/>
       <c r="S696" s="21"/>
       <c r="T696" s="21"/>
       <c r="V696" s="27" t="s">
@@ -57344,9 +57368,11 @@
         <v>0</v>
       </c>
       <c r="Q697" s="21">
+        <v>0</v>
+      </c>
+      <c r="R697" s="21">
         <v>65001005</v>
       </c>
-      <c r="R697" s="21"/>
       <c r="S697" s="21"/>
       <c r="T697" s="21"/>
       <c r="V697" s="27" t="s">
@@ -57396,10 +57422,12 @@
       <c r="P698" s="21">
         <v>0</v>
       </c>
-      <c r="Q698" s="29">
+      <c r="Q698" s="21">
+        <v>0</v>
+      </c>
+      <c r="R698" s="29">
         <v>65001006</v>
       </c>
-      <c r="R698" s="21"/>
       <c r="S698" s="21"/>
       <c r="T698" s="21"/>
       <c r="V698" s="27" t="s">
@@ -57450,9 +57478,11 @@
         <v>0</v>
       </c>
       <c r="Q699" s="21">
+        <v>0</v>
+      </c>
+      <c r="R699" s="21">
         <v>65002001</v>
       </c>
-      <c r="R699" s="21"/>
       <c r="S699" s="21"/>
       <c r="T699" s="21"/>
       <c r="V699" s="27" t="s">
@@ -57503,9 +57533,11 @@
         <v>0</v>
       </c>
       <c r="Q700" s="21">
+        <v>0</v>
+      </c>
+      <c r="R700" s="21">
         <v>65002002</v>
       </c>
-      <c r="R700" s="21"/>
       <c r="S700" s="21"/>
       <c r="T700" s="21"/>
       <c r="V700" s="27" t="s">
@@ -57555,10 +57587,12 @@
       <c r="P701" s="21">
         <v>0</v>
       </c>
-      <c r="Q701" s="29">
+      <c r="Q701" s="21">
+        <v>0</v>
+      </c>
+      <c r="R701" s="29">
         <v>65002003</v>
       </c>
-      <c r="R701" s="21"/>
       <c r="S701" s="21"/>
       <c r="T701" s="21"/>
       <c r="V701" s="27" t="s">
@@ -57609,9 +57643,11 @@
         <v>0</v>
       </c>
       <c r="Q702" s="21">
+        <v>0</v>
+      </c>
+      <c r="R702" s="21">
         <v>65002004</v>
       </c>
-      <c r="R702" s="21"/>
       <c r="S702" s="21"/>
       <c r="T702" s="21"/>
       <c r="V702" s="27" t="s">
@@ -57662,9 +57698,11 @@
         <v>0</v>
       </c>
       <c r="Q703" s="21">
+        <v>0</v>
+      </c>
+      <c r="R703" s="21">
         <v>65002005</v>
       </c>
-      <c r="R703" s="21"/>
       <c r="S703" s="21"/>
       <c r="T703" s="21"/>
       <c r="V703" s="27" t="s">
@@ -57714,10 +57752,12 @@
       <c r="P704" s="21">
         <v>0</v>
       </c>
-      <c r="Q704" s="29">
+      <c r="Q704" s="21">
+        <v>0</v>
+      </c>
+      <c r="R704" s="29">
         <v>65002006</v>
       </c>
-      <c r="R704" s="21"/>
       <c r="S704" s="21"/>
       <c r="T704" s="21"/>
       <c r="V704" s="27" t="s">
@@ -57768,9 +57808,11 @@
         <v>0</v>
       </c>
       <c r="Q705" s="21">
+        <v>0</v>
+      </c>
+      <c r="R705" s="21">
         <v>65003001</v>
       </c>
-      <c r="R705" s="21"/>
       <c r="S705" s="21"/>
       <c r="T705" s="21"/>
       <c r="V705" s="27" t="s">
@@ -57821,9 +57863,11 @@
         <v>0</v>
       </c>
       <c r="Q706" s="21">
+        <v>0</v>
+      </c>
+      <c r="R706" s="21">
         <v>65003002</v>
       </c>
-      <c r="R706" s="21"/>
       <c r="S706" s="21"/>
       <c r="T706" s="21"/>
       <c r="V706" s="27" t="s">
@@ -57873,10 +57917,12 @@
       <c r="P707" s="21">
         <v>0</v>
       </c>
-      <c r="Q707" s="29">
+      <c r="Q707" s="21">
+        <v>0</v>
+      </c>
+      <c r="R707" s="29">
         <v>65003003</v>
       </c>
-      <c r="R707" s="21"/>
       <c r="S707" s="21"/>
       <c r="T707" s="21"/>
       <c r="V707" s="27" t="s">
@@ -57927,9 +57973,11 @@
         <v>0</v>
       </c>
       <c r="Q708" s="21">
+        <v>0</v>
+      </c>
+      <c r="R708" s="21">
         <v>65003004</v>
       </c>
-      <c r="R708" s="21"/>
       <c r="S708" s="21"/>
       <c r="T708" s="21"/>
       <c r="V708" s="27" t="s">
@@ -57980,9 +58028,11 @@
         <v>0</v>
       </c>
       <c r="Q709" s="21">
+        <v>0</v>
+      </c>
+      <c r="R709" s="21">
         <v>65003005</v>
       </c>
-      <c r="R709" s="21"/>
       <c r="S709" s="21"/>
       <c r="T709" s="21"/>
       <c r="V709" s="27" t="s">
@@ -58032,10 +58082,12 @@
       <c r="P710" s="21">
         <v>0</v>
       </c>
-      <c r="Q710" s="29">
+      <c r="Q710" s="21">
+        <v>0</v>
+      </c>
+      <c r="R710" s="29">
         <v>65003006</v>
       </c>
-      <c r="R710" s="21"/>
       <c r="S710" s="21"/>
       <c r="T710" s="21"/>
       <c r="V710" s="27" t="s">
@@ -58086,9 +58138,11 @@
         <v>0</v>
       </c>
       <c r="Q711" s="21">
+        <v>0</v>
+      </c>
+      <c r="R711" s="21">
         <v>65004001</v>
       </c>
-      <c r="R711" s="21"/>
       <c r="S711" s="21"/>
       <c r="T711" s="21"/>
       <c r="V711" s="27" t="s">
@@ -58139,9 +58193,11 @@
         <v>0</v>
       </c>
       <c r="Q712" s="21">
+        <v>0</v>
+      </c>
+      <c r="R712" s="21">
         <v>65004002</v>
       </c>
-      <c r="R712" s="21"/>
       <c r="S712" s="21"/>
       <c r="T712" s="21"/>
       <c r="V712" s="27" t="s">
@@ -58191,10 +58247,12 @@
       <c r="P713" s="21">
         <v>0</v>
       </c>
-      <c r="Q713" s="29">
+      <c r="Q713" s="21">
+        <v>0</v>
+      </c>
+      <c r="R713" s="29">
         <v>65004003</v>
       </c>
-      <c r="R713" s="21"/>
       <c r="S713" s="21"/>
       <c r="T713" s="21"/>
       <c r="V713" s="27" t="s">
@@ -58245,9 +58303,11 @@
         <v>0</v>
       </c>
       <c r="Q714" s="21">
+        <v>0</v>
+      </c>
+      <c r="R714" s="21">
         <v>65004004</v>
       </c>
-      <c r="R714" s="21"/>
       <c r="S714" s="21"/>
       <c r="T714" s="21"/>
       <c r="V714" s="27" t="s">
@@ -58298,9 +58358,11 @@
         <v>0</v>
       </c>
       <c r="Q715" s="21">
+        <v>0</v>
+      </c>
+      <c r="R715" s="21">
         <v>65004005</v>
       </c>
-      <c r="R715" s="21"/>
       <c r="S715" s="21"/>
       <c r="T715" s="21"/>
       <c r="V715" s="27" t="s">
@@ -58350,10 +58412,12 @@
       <c r="P716" s="21">
         <v>0</v>
       </c>
-      <c r="Q716" s="29">
+      <c r="Q716" s="21">
+        <v>0</v>
+      </c>
+      <c r="R716" s="29">
         <v>65004006</v>
       </c>
-      <c r="R716" s="21"/>
       <c r="S716" s="21"/>
       <c r="T716" s="21"/>
       <c r="V716" s="27" t="s">
@@ -58404,9 +58468,11 @@
         <v>0</v>
       </c>
       <c r="Q717" s="21">
+        <v>0</v>
+      </c>
+      <c r="R717" s="21">
         <v>65005001</v>
       </c>
-      <c r="R717" s="21"/>
       <c r="S717" s="21"/>
       <c r="T717" s="21"/>
       <c r="V717" s="27" t="s">
@@ -58457,9 +58523,11 @@
         <v>0</v>
       </c>
       <c r="Q718" s="21">
+        <v>0</v>
+      </c>
+      <c r="R718" s="21">
         <v>65005002</v>
       </c>
-      <c r="R718" s="21"/>
       <c r="S718" s="21"/>
       <c r="T718" s="21"/>
       <c r="V718" s="27" t="s">
@@ -58509,10 +58577,12 @@
       <c r="P719" s="21">
         <v>0</v>
       </c>
-      <c r="Q719" s="29">
+      <c r="Q719" s="21">
+        <v>0</v>
+      </c>
+      <c r="R719" s="29">
         <v>65005003</v>
       </c>
-      <c r="R719" s="21"/>
       <c r="S719" s="21"/>
       <c r="T719" s="21"/>
       <c r="V719" s="27" t="s">
@@ -58563,9 +58633,11 @@
         <v>0</v>
       </c>
       <c r="Q720" s="21">
+        <v>0</v>
+      </c>
+      <c r="R720" s="21">
         <v>65005004</v>
       </c>
-      <c r="R720" s="21"/>
       <c r="S720" s="21"/>
       <c r="T720" s="21"/>
       <c r="V720" s="27" t="s">
@@ -58616,9 +58688,11 @@
         <v>0</v>
       </c>
       <c r="Q721" s="21">
+        <v>0</v>
+      </c>
+      <c r="R721" s="21">
         <v>65005005</v>
       </c>
-      <c r="R721" s="21"/>
       <c r="S721" s="21"/>
       <c r="T721" s="21"/>
       <c r="V721" s="27" t="s">
@@ -58668,10 +58742,12 @@
       <c r="P722" s="21">
         <v>0</v>
       </c>
-      <c r="Q722" s="29">
+      <c r="Q722" s="21">
+        <v>0</v>
+      </c>
+      <c r="R722" s="29">
         <v>65005006</v>
       </c>
-      <c r="R722" s="21"/>
       <c r="S722" s="21"/>
       <c r="T722" s="21"/>
       <c r="V722" s="27" t="s">
@@ -58683,7 +58759,7 @@
         <v>14010001</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>1852</v>
+        <v>1838</v>
       </c>
       <c r="E723" s="3">
         <v>14010001</v>
@@ -58728,7 +58804,7 @@
         <v>384</v>
       </c>
       <c r="U723" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V723" s="19" t="str">
         <f>D723&amp;"的描述"</f>
@@ -58740,7 +58816,7 @@
         <v>14010002</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>1853</v>
+        <v>1839</v>
       </c>
       <c r="E724" s="3">
         <v>14010002</v>
@@ -58785,7 +58861,7 @@
         <v>384</v>
       </c>
       <c r="U724" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V724" s="19" t="str">
         <f>D724&amp;"的描述"</f>
@@ -58797,7 +58873,7 @@
         <v>14010003</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>1831</v>
+        <v>1817</v>
       </c>
       <c r="E725" s="3">
         <v>14010003</v>
@@ -58842,7 +58918,7 @@
         <v>384</v>
       </c>
       <c r="U725" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V725" s="19" t="str">
         <f>D725&amp;"的描述"</f>
@@ -58854,7 +58930,7 @@
         <v>14010004</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>1832</v>
+        <v>1818</v>
       </c>
       <c r="E726" s="3">
         <v>14010004</v>
@@ -58899,7 +58975,7 @@
         <v>384</v>
       </c>
       <c r="U726" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V726" s="19"/>
     </row>
@@ -58908,7 +58984,7 @@
         <v>14010005</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>1854</v>
+        <v>1840</v>
       </c>
       <c r="E727" s="39">
         <v>14010005</v>
@@ -58953,7 +59029,7 @@
         <v>384</v>
       </c>
       <c r="U727" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V727" s="19" t="str">
         <f>D727&amp;"的描述"</f>
@@ -58965,7 +59041,7 @@
         <v>14010006</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>1855</v>
+        <v>1841</v>
       </c>
       <c r="E728" s="39">
         <v>14010006</v>
@@ -59010,7 +59086,7 @@
         <v>384</v>
       </c>
       <c r="U728" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V728" s="19" t="str">
         <f>D728&amp;"的描述"</f>
@@ -59022,7 +59098,7 @@
         <v>14010007</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>1856</v>
+        <v>1842</v>
       </c>
       <c r="E729" s="3">
         <v>14010007</v>
@@ -59067,7 +59143,7 @@
         <v>384</v>
       </c>
       <c r="U729" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V729" s="19" t="str">
         <f>D729&amp;"的描述"</f>
@@ -59079,7 +59155,7 @@
         <v>14010008</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>1833</v>
+        <v>1819</v>
       </c>
       <c r="E730" s="3">
         <v>14010008</v>
@@ -59124,7 +59200,7 @@
         <v>384</v>
       </c>
       <c r="U730" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V730" s="19"/>
     </row>
@@ -59133,7 +59209,7 @@
         <v>14010009</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>1857</v>
+        <v>1843</v>
       </c>
       <c r="E731" s="3">
         <v>14010009</v>
@@ -59178,7 +59254,7 @@
         <v>384</v>
       </c>
       <c r="U731" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V731" s="19" t="str">
         <f>D731&amp;"的描述"</f>
@@ -59235,7 +59311,7 @@
         <v>384</v>
       </c>
       <c r="U732" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V732" s="19" t="str">
         <f>D732&amp;"的描述"</f>
@@ -59247,7 +59323,7 @@
         <v>14010011</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>1834</v>
+        <v>1820</v>
       </c>
       <c r="E733" s="39">
         <v>14010011</v>
@@ -59292,7 +59368,7 @@
         <v>384</v>
       </c>
       <c r="U733" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V733" s="19" t="str">
         <f>D733&amp;"的描述"</f>
@@ -59304,7 +59380,7 @@
         <v>14010012</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>1835</v>
+        <v>1821</v>
       </c>
       <c r="E734" s="3">
         <v>14010012</v>
@@ -59349,7 +59425,7 @@
         <v>384</v>
       </c>
       <c r="U734" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V734" s="19"/>
     </row>
@@ -59358,7 +59434,7 @@
         <v>14020001</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>1858</v>
+        <v>1844</v>
       </c>
       <c r="E735" s="39">
         <v>14020001</v>
@@ -59403,7 +59479,7 @@
         <v>384</v>
       </c>
       <c r="U735" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V735" s="19" t="str">
         <f>D735&amp;"的描述"</f>
@@ -59415,7 +59491,7 @@
         <v>14020002</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>1859</v>
+        <v>1845</v>
       </c>
       <c r="E736" s="39">
         <v>14020002</v>
@@ -59460,7 +59536,7 @@
         <v>384</v>
       </c>
       <c r="U736" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V736" s="19" t="str">
         <f>D736&amp;"的描述"</f>
@@ -59472,7 +59548,7 @@
         <v>14020003</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
       <c r="E737" s="39">
         <v>14020003</v>
@@ -59517,7 +59593,7 @@
         <v>384</v>
       </c>
       <c r="U737" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V737" s="19" t="str">
         <f>D737&amp;"的描述"</f>
@@ -59529,7 +59605,7 @@
         <v>14020004</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>1837</v>
+        <v>1823</v>
       </c>
       <c r="E738" s="39">
         <v>14020004</v>
@@ -59574,7 +59650,7 @@
         <v>384</v>
       </c>
       <c r="U738" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V738" s="19"/>
     </row>
@@ -59583,7 +59659,7 @@
         <v>14020005</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>1860</v>
+        <v>1846</v>
       </c>
       <c r="E739" s="39">
         <v>14020005</v>
@@ -59628,7 +59704,7 @@
         <v>384</v>
       </c>
       <c r="U739" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V739" s="19" t="str">
         <f>D739&amp;"的描述"</f>
@@ -59640,7 +59716,7 @@
         <v>14020006</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>1861</v>
+        <v>1847</v>
       </c>
       <c r="E740" s="39">
         <v>14020006</v>
@@ -59685,7 +59761,7 @@
         <v>384</v>
       </c>
       <c r="U740" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V740" s="19" t="str">
         <f>D740&amp;"的描述"</f>
@@ -59697,7 +59773,7 @@
         <v>14020007</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>1862</v>
+        <v>1848</v>
       </c>
       <c r="E741" s="39">
         <v>14020007</v>
@@ -59742,7 +59818,7 @@
         <v>384</v>
       </c>
       <c r="U741" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V741" s="19" t="str">
         <f>D741&amp;"的描述"</f>
@@ -59754,7 +59830,7 @@
         <v>14020008</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>1838</v>
+        <v>1824</v>
       </c>
       <c r="E742" s="39">
         <v>14020008</v>
@@ -59799,7 +59875,7 @@
         <v>384</v>
       </c>
       <c r="U742" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V742" s="19"/>
     </row>
@@ -59808,7 +59884,7 @@
         <v>14020009</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>1863</v>
+        <v>1849</v>
       </c>
       <c r="E743" s="39">
         <v>14020009</v>
@@ -59853,7 +59929,7 @@
         <v>384</v>
       </c>
       <c r="U743" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V743" s="19" t="str">
         <f>D743&amp;"的描述"</f>
@@ -59865,7 +59941,7 @@
         <v>14020010</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>1864</v>
+        <v>1850</v>
       </c>
       <c r="E744" s="39">
         <v>14020010</v>
@@ -59910,7 +59986,7 @@
         <v>384</v>
       </c>
       <c r="U744" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V744" s="19" t="str">
         <f>D744&amp;"的描述"</f>
@@ -59922,7 +59998,7 @@
         <v>14020011</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>1839</v>
+        <v>1825</v>
       </c>
       <c r="E745" s="39">
         <v>14020011</v>
@@ -59967,7 +60043,7 @@
         <v>384</v>
       </c>
       <c r="U745" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V745" s="19" t="str">
         <f>D745&amp;"的描述"</f>
@@ -59979,7 +60055,7 @@
         <v>14020012</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>1840</v>
+        <v>1826</v>
       </c>
       <c r="E746" s="39">
         <v>14020012</v>
@@ -60024,7 +60100,7 @@
         <v>384</v>
       </c>
       <c r="U746" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V746" s="19"/>
     </row>
@@ -60033,7 +60109,7 @@
         <v>14030001</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="E747" s="39">
         <v>14030001</v>
@@ -60078,7 +60154,7 @@
         <v>384</v>
       </c>
       <c r="U747" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V747" s="19" t="str">
         <f>D747&amp;"的描述"</f>
@@ -60090,7 +60166,7 @@
         <v>14030002</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="E748" s="39">
         <v>14030002</v>
@@ -60135,7 +60211,7 @@
         <v>384</v>
       </c>
       <c r="U748" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V748" s="19" t="str">
         <f>D748&amp;"的描述"</f>
@@ -60147,7 +60223,7 @@
         <v>14030003</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>1841</v>
+        <v>1827</v>
       </c>
       <c r="E749" s="39">
         <v>14030003</v>
@@ -60192,7 +60268,7 @@
         <v>384</v>
       </c>
       <c r="U749" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V749" s="19" t="str">
         <f>D749&amp;"的描述"</f>
@@ -60204,7 +60280,7 @@
         <v>14030004</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>1842</v>
+        <v>1828</v>
       </c>
       <c r="E750" s="39">
         <v>14030004</v>
@@ -60249,7 +60325,7 @@
         <v>384</v>
       </c>
       <c r="U750" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V750" s="19"/>
     </row>
@@ -60258,7 +60334,7 @@
         <v>14030005</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>1867</v>
+        <v>1853</v>
       </c>
       <c r="E751" s="39">
         <v>14030005</v>
@@ -60303,7 +60379,7 @@
         <v>384</v>
       </c>
       <c r="U751" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V751" s="19" t="str">
         <f>D751&amp;"的描述"</f>
@@ -60315,7 +60391,7 @@
         <v>14030006</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>1868</v>
+        <v>1854</v>
       </c>
       <c r="E752" s="39">
         <v>14030006</v>
@@ -60360,7 +60436,7 @@
         <v>384</v>
       </c>
       <c r="U752" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V752" s="19" t="str">
         <f>D752&amp;"的描述"</f>
@@ -60372,7 +60448,7 @@
         <v>14030007</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>1869</v>
+        <v>1855</v>
       </c>
       <c r="E753" s="39">
         <v>14030007</v>
@@ -60417,7 +60493,7 @@
         <v>384</v>
       </c>
       <c r="U753" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V753" s="19" t="str">
         <f>D753&amp;"的描述"</f>
@@ -60429,7 +60505,7 @@
         <v>14030008</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>1843</v>
+        <v>1829</v>
       </c>
       <c r="E754" s="39">
         <v>14030008</v>
@@ -60474,7 +60550,7 @@
         <v>384</v>
       </c>
       <c r="U754" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V754" s="19"/>
     </row>
@@ -60483,7 +60559,7 @@
         <v>14030009</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>1870</v>
+        <v>1856</v>
       </c>
       <c r="E755" s="39">
         <v>14030009</v>
@@ -60528,7 +60604,7 @@
         <v>384</v>
       </c>
       <c r="U755" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V755" s="19" t="str">
         <f>D755&amp;"的描述"</f>
@@ -60540,7 +60616,7 @@
         <v>14030010</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>1871</v>
+        <v>1857</v>
       </c>
       <c r="E756" s="39">
         <v>14030010</v>
@@ -60585,7 +60661,7 @@
         <v>384</v>
       </c>
       <c r="U756" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V756" s="19" t="str">
         <f>D756&amp;"的描述"</f>
@@ -60597,7 +60673,7 @@
         <v>14030011</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>1844</v>
+        <v>1830</v>
       </c>
       <c r="E757" s="39">
         <v>14030011</v>
@@ -60642,7 +60718,7 @@
         <v>384</v>
       </c>
       <c r="U757" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V757" s="19" t="str">
         <f>D757&amp;"的描述"</f>
@@ -60654,7 +60730,7 @@
         <v>14030012</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>1845</v>
+        <v>1831</v>
       </c>
       <c r="E758" s="39">
         <v>14030012</v>
@@ -60699,7 +60775,7 @@
         <v>384</v>
       </c>
       <c r="U758" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V758" s="19"/>
     </row>
@@ -60708,7 +60784,7 @@
         <v>14040001</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>1872</v>
+        <v>1858</v>
       </c>
       <c r="E759" s="39">
         <v>14040001</v>
@@ -60753,7 +60829,7 @@
         <v>384</v>
       </c>
       <c r="U759" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V759" s="19" t="str">
         <f>D759&amp;"的描述"</f>
@@ -60765,7 +60841,7 @@
         <v>14040002</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>1873</v>
+        <v>1859</v>
       </c>
       <c r="E760" s="39">
         <v>14040002</v>
@@ -60810,7 +60886,7 @@
         <v>384</v>
       </c>
       <c r="U760" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V760" s="19" t="str">
         <f>D760&amp;"的描述"</f>
@@ -60822,7 +60898,7 @@
         <v>14040003</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>1846</v>
+        <v>1832</v>
       </c>
       <c r="E761" s="3">
         <v>14040003</v>
@@ -60867,7 +60943,7 @@
         <v>384</v>
       </c>
       <c r="U761" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V761" s="19" t="str">
         <f>D761&amp;"的描述"</f>
@@ -60879,7 +60955,7 @@
         <v>14040004</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>1847</v>
+        <v>1833</v>
       </c>
       <c r="E762" s="3">
         <v>14040004</v>
@@ -60924,7 +61000,7 @@
         <v>384</v>
       </c>
       <c r="U762" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V762" s="19"/>
     </row>
@@ -60933,7 +61009,7 @@
         <v>14040005</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>1874</v>
+        <v>1860</v>
       </c>
       <c r="E763" s="39">
         <v>14040005</v>
@@ -60978,7 +61054,7 @@
         <v>384</v>
       </c>
       <c r="U763" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V763" s="19" t="str">
         <f>D763&amp;"的描述"</f>
@@ -60990,7 +61066,7 @@
         <v>14040006</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>1875</v>
+        <v>1861</v>
       </c>
       <c r="E764" s="39">
         <v>14040006</v>
@@ -61035,7 +61111,7 @@
         <v>384</v>
       </c>
       <c r="U764" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V764" s="19" t="str">
         <f>D764&amp;"的描述"</f>
@@ -61047,7 +61123,7 @@
         <v>14040007</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>1876</v>
+        <v>1862</v>
       </c>
       <c r="E765" s="3">
         <v>14040007</v>
@@ -61092,7 +61168,7 @@
         <v>384</v>
       </c>
       <c r="U765" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V765" s="19" t="str">
         <f>D765&amp;"的描述"</f>
@@ -61104,7 +61180,7 @@
         <v>14040008</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>1848</v>
+        <v>1834</v>
       </c>
       <c r="E766" s="3">
         <v>14040008</v>
@@ -61149,7 +61225,7 @@
         <v>384</v>
       </c>
       <c r="U766" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V766" s="19"/>
     </row>
@@ -61158,7 +61234,7 @@
         <v>14040009</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>1877</v>
+        <v>1863</v>
       </c>
       <c r="E767" s="39">
         <v>14040009</v>
@@ -61203,7 +61279,7 @@
         <v>384</v>
       </c>
       <c r="U767" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V767" s="19" t="str">
         <f>D767&amp;"的描述"</f>
@@ -61215,7 +61291,7 @@
         <v>14040010</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>1849</v>
+        <v>1835</v>
       </c>
       <c r="E768" s="39">
         <v>14040010</v>
@@ -61260,7 +61336,7 @@
         <v>384</v>
       </c>
       <c r="U768" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V768" s="19" t="str">
         <f>D768&amp;"的描述"</f>
@@ -61272,7 +61348,7 @@
         <v>14040011</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>1850</v>
+        <v>1836</v>
       </c>
       <c r="E769" s="3">
         <v>14040011</v>
@@ -61317,7 +61393,7 @@
         <v>384</v>
       </c>
       <c r="U769" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V769" s="19" t="str">
         <f>D769&amp;"的描述"</f>
@@ -61329,7 +61405,7 @@
         <v>14040012</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>1851</v>
+        <v>1837</v>
       </c>
       <c r="E770" s="3">
         <v>14040012</v>
@@ -61374,7 +61450,7 @@
         <v>384</v>
       </c>
       <c r="U770" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V770" s="19"/>
     </row>
@@ -61383,7 +61459,7 @@
         <v>14050001</v>
       </c>
       <c r="D771" s="21" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="E771" s="21">
         <v>14050001</v>
@@ -61428,7 +61504,7 @@
         <v>384</v>
       </c>
       <c r="U771" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V771" s="27" t="str">
         <f>D771&amp;"的描述"</f>
@@ -61485,7 +61561,7 @@
         <v>384</v>
       </c>
       <c r="U772" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V772" s="27" t="str">
         <f>D772&amp;"的描述"</f>
@@ -61542,7 +61618,7 @@
         <v>384</v>
       </c>
       <c r="U773" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V773" s="27" t="str">
         <f>D773&amp;"的描述"</f>
@@ -61599,7 +61675,7 @@
         <v>384</v>
       </c>
       <c r="U774" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V774" s="27"/>
     </row>
@@ -61608,7 +61684,7 @@
         <v>14050005</v>
       </c>
       <c r="D775" s="21" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="E775" s="40">
         <v>14050005</v>
@@ -61653,7 +61729,7 @@
         <v>384</v>
       </c>
       <c r="U775" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V775" s="27" t="str">
         <f>D775&amp;"的描述"</f>
@@ -61710,7 +61786,7 @@
         <v>384</v>
       </c>
       <c r="U776" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V776" s="27" t="str">
         <f>D776&amp;"的描述"</f>
@@ -61722,7 +61798,7 @@
         <v>14050007</v>
       </c>
       <c r="D777" s="21" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="E777" s="40">
         <v>14050007</v>
@@ -61767,7 +61843,7 @@
         <v>384</v>
       </c>
       <c r="U777" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V777" s="27" t="str">
         <f>D777&amp;"的描述"</f>
@@ -61824,7 +61900,7 @@
         <v>384</v>
       </c>
       <c r="U778" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V778" s="27"/>
     </row>
@@ -61833,7 +61909,7 @@
         <v>14050009</v>
       </c>
       <c r="D779" s="21" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="E779" s="40">
         <v>14050009</v>
@@ -61878,7 +61954,7 @@
         <v>384</v>
       </c>
       <c r="U779" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V779" s="27" t="str">
         <f>D779&amp;"的描述"</f>
@@ -61935,7 +62011,7 @@
         <v>384</v>
       </c>
       <c r="U780" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V780" s="27" t="str">
         <f>D780&amp;"的描述"</f>
@@ -61992,7 +62068,7 @@
         <v>384</v>
       </c>
       <c r="U781" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V781" s="27" t="str">
         <f>D781&amp;"的描述"</f>
@@ -62049,7 +62125,7 @@
         <v>384</v>
       </c>
       <c r="U782" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V782" s="27"/>
     </row>
@@ -62058,7 +62134,7 @@
         <v>14060001</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="E783" s="39">
         <v>14060001</v>
@@ -62103,7 +62179,7 @@
         <v>384</v>
       </c>
       <c r="U783" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V783" s="19" t="str">
         <f>D783&amp;"的描述"</f>
@@ -62115,7 +62191,7 @@
         <v>14060002</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="E784" s="3">
         <v>14060002</v>
@@ -62160,7 +62236,7 @@
         <v>384</v>
       </c>
       <c r="U784" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V784" s="19" t="str">
         <f>D784&amp;"的描述"</f>
@@ -62172,7 +62248,7 @@
         <v>14060003</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="E785" s="39">
         <v>14060003</v>
@@ -62217,7 +62293,7 @@
         <v>384</v>
       </c>
       <c r="U785" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V785" s="19" t="str">
         <f>D785&amp;"的描述"</f>
@@ -62274,7 +62350,7 @@
         <v>384</v>
       </c>
       <c r="U786" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V786" s="19"/>
     </row>
@@ -62283,7 +62359,7 @@
         <v>14060005</v>
       </c>
       <c r="D787" s="114" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="E787" s="113">
         <v>14060005</v>
@@ -62319,7 +62395,7 @@
         <v>1268</v>
       </c>
       <c r="P787" s="114">
-        <v>14060004</v>
+        <v>14060005</v>
       </c>
       <c r="Q787" s="114"/>
       <c r="R787" s="114"/>
@@ -62328,7 +62404,7 @@
         <v>384</v>
       </c>
       <c r="U787" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V787" s="116"/>
     </row>
@@ -62337,7 +62413,7 @@
         <v>14070001</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="E788" s="39">
         <v>14070001</v>
@@ -62382,7 +62458,7 @@
         <v>384</v>
       </c>
       <c r="U788" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V788" s="19" t="str">
         <f>D788&amp;"的描述"</f>
@@ -62394,7 +62470,7 @@
         <v>14070002</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="E789" s="39">
         <v>14070002</v>
@@ -62439,7 +62515,7 @@
         <v>384</v>
       </c>
       <c r="U789" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V789" s="19" t="str">
         <f>D789&amp;"的描述"</f>
@@ -62451,7 +62527,7 @@
         <v>14070003</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="E790" s="39">
         <v>14070003</v>
@@ -62496,7 +62572,7 @@
         <v>384</v>
       </c>
       <c r="U790" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V790" s="19" t="str">
         <f>D790&amp;"的描述"</f>
@@ -62553,7 +62629,7 @@
         <v>384</v>
       </c>
       <c r="U791" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V791" s="19"/>
     </row>
@@ -62562,7 +62638,7 @@
         <v>14080001</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="E792" s="39">
         <v>14080001</v>
@@ -62609,7 +62685,7 @@
         <v>384</v>
       </c>
       <c r="U792" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V792" s="19" t="str">
         <f>D792&amp;"的描述"</f>
@@ -62621,7 +62697,7 @@
         <v>14080002</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="E793" s="39">
         <v>14080002</v>
@@ -62668,7 +62744,7 @@
         <v>384</v>
       </c>
       <c r="U793" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V793" s="19" t="str">
         <f>D793&amp;"的描述"</f>
@@ -62680,7 +62756,7 @@
         <v>14080003</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="E794" s="39">
         <v>14080003</v>
@@ -62727,7 +62803,7 @@
         <v>384</v>
       </c>
       <c r="U794" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V794" s="19"/>
     </row>
@@ -62736,7 +62812,7 @@
         <v>14090001</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="E795" s="39">
         <v>14090001</v>
@@ -62781,7 +62857,7 @@
         <v>384</v>
       </c>
       <c r="U795" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V795" s="19" t="str">
         <f>D795&amp;"的描述"</f>
@@ -62793,7 +62869,7 @@
         <v>14090002</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="E796" s="39">
         <v>14090002</v>
@@ -62838,7 +62914,7 @@
         <v>384</v>
       </c>
       <c r="U796" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V796" s="19" t="str">
         <f>D796&amp;"的描述"</f>
@@ -62895,7 +62971,7 @@
         <v>384</v>
       </c>
       <c r="U797" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V797" s="19"/>
     </row>
@@ -62904,7 +62980,7 @@
         <v>14100001</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="E798" s="39">
         <v>14100001</v>
@@ -62949,7 +63025,7 @@
         <v>384</v>
       </c>
       <c r="U798" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V798" s="19" t="str">
         <f>D798&amp;"的描述"</f>
@@ -62961,7 +63037,7 @@
         <v>14100002</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="E799" s="39">
         <v>14100002</v>
@@ -63006,7 +63082,7 @@
         <v>384</v>
       </c>
       <c r="U799" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V799" s="19" t="str">
         <f>D799&amp;"的描述"</f>
@@ -63018,7 +63094,7 @@
         <v>14100003</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="E800" s="39">
         <v>14100003</v>
@@ -63063,7 +63139,7 @@
         <v>384</v>
       </c>
       <c r="U800" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V800" s="19" t="str">
         <f>D800&amp;"的描述"</f>
@@ -63120,7 +63196,7 @@
         <v>384</v>
       </c>
       <c r="U801" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V801" s="19"/>
     </row>
@@ -63129,7 +63205,7 @@
         <v>14100005</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="E802" s="39">
         <v>14100005</v>
@@ -63174,7 +63250,7 @@
         <v>384</v>
       </c>
       <c r="U802" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V802" s="19" t="str">
         <f>D802&amp;"的描述"</f>
@@ -63186,7 +63262,7 @@
         <v>14100006</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="E803" s="39">
         <v>14100006</v>
@@ -63231,7 +63307,7 @@
         <v>384</v>
       </c>
       <c r="U803" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V803" s="19" t="str">
         <f>D803&amp;"的描述"</f>
@@ -63288,7 +63364,7 @@
         <v>384</v>
       </c>
       <c r="U804" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V804" s="19" t="str">
         <f>D804&amp;"的描述"</f>
@@ -63345,7 +63421,7 @@
         <v>384</v>
       </c>
       <c r="U805" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V805" s="19"/>
     </row>
@@ -63354,7 +63430,7 @@
         <v>14100011</v>
       </c>
       <c r="D806" s="114" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="E806" s="39">
         <v>14100011</v>
@@ -63390,7 +63466,7 @@
         <v>5850</v>
       </c>
       <c r="P806" s="114">
-        <v>14100004</v>
+        <v>14100011</v>
       </c>
       <c r="Q806" s="114"/>
       <c r="R806" s="114"/>
@@ -63399,7 +63475,7 @@
         <v>384</v>
       </c>
       <c r="U806" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V806" s="116"/>
     </row>
@@ -63408,7 +63484,7 @@
         <v>14100012</v>
       </c>
       <c r="D807" s="114" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="E807" s="39">
         <v>14100012</v>
@@ -63444,7 +63520,7 @@
         <v>5850</v>
       </c>
       <c r="P807" s="114">
-        <v>14100008</v>
+        <v>14100012</v>
       </c>
       <c r="Q807" s="114"/>
       <c r="R807" s="114"/>
@@ -63453,7 +63529,7 @@
         <v>384</v>
       </c>
       <c r="U807" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V807" s="116"/>
     </row>
@@ -63462,7 +63538,7 @@
         <v>14100101</v>
       </c>
       <c r="D808" s="21" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="E808" s="40">
         <v>14100101</v>
@@ -63507,7 +63583,7 @@
         <v>384</v>
       </c>
       <c r="U808" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V808" s="27" t="str">
         <f>D808&amp;"的描述"</f>
@@ -63519,7 +63595,7 @@
         <v>14100102</v>
       </c>
       <c r="D809" s="21" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="E809" s="40">
         <v>14100102</v>
@@ -63564,7 +63640,7 @@
         <v>384</v>
       </c>
       <c r="U809" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V809" s="27" t="str">
         <f>D809&amp;"的描述"</f>
@@ -63576,7 +63652,7 @@
         <v>14100103</v>
       </c>
       <c r="D810" s="21" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="E810" s="40">
         <v>14100103</v>
@@ -63621,7 +63697,7 @@
         <v>384</v>
       </c>
       <c r="U810" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V810" s="27" t="str">
         <f>D810&amp;"的描述"</f>
@@ -63633,7 +63709,7 @@
         <v>14100104</v>
       </c>
       <c r="D811" s="21" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="E811" s="40">
         <v>14100104</v>
@@ -63678,7 +63754,7 @@
         <v>384</v>
       </c>
       <c r="U811" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V811" s="27"/>
     </row>
@@ -63687,7 +63763,7 @@
         <v>14100105</v>
       </c>
       <c r="D812" s="21" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="E812" s="40">
         <v>14100105</v>
@@ -63732,7 +63808,7 @@
         <v>384</v>
       </c>
       <c r="U812" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V812" s="27" t="str">
         <f>D812&amp;"的描述"</f>
@@ -63744,7 +63820,7 @@
         <v>14100106</v>
       </c>
       <c r="D813" s="21" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="E813" s="40">
         <v>14100106</v>
@@ -63789,7 +63865,7 @@
         <v>384</v>
       </c>
       <c r="U813" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V813" s="27" t="str">
         <f>D813&amp;"的描述"</f>
@@ -63801,7 +63877,7 @@
         <v>14100107</v>
       </c>
       <c r="D814" s="21" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="E814" s="40">
         <v>14100107</v>
@@ -63846,7 +63922,7 @@
         <v>384</v>
       </c>
       <c r="U814" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V814" s="27" t="str">
         <f>D814&amp;"的描述"</f>
@@ -63858,7 +63934,7 @@
         <v>14100108</v>
       </c>
       <c r="D815" s="21" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
       <c r="E815" s="40">
         <v>14100108</v>
@@ -63903,7 +63979,7 @@
         <v>384</v>
       </c>
       <c r="U815" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V815" s="27"/>
     </row>
@@ -63912,7 +63988,7 @@
         <v>14100111</v>
       </c>
       <c r="D816" s="114" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="E816" s="113">
         <v>14100111</v>
@@ -63948,7 +64024,7 @@
         <v>5850</v>
       </c>
       <c r="P816" s="114">
-        <v>14100004</v>
+        <v>14100011</v>
       </c>
       <c r="Q816" s="114"/>
       <c r="R816" s="114"/>
@@ -63957,7 +64033,7 @@
         <v>384</v>
       </c>
       <c r="U816" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V816" s="116"/>
     </row>
@@ -63966,7 +64042,7 @@
         <v>14100112</v>
       </c>
       <c r="D817" s="114" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="E817" s="113">
         <v>14100112</v>
@@ -64002,7 +64078,7 @@
         <v>5850</v>
       </c>
       <c r="P817" s="114">
-        <v>14100008</v>
+        <v>14100012</v>
       </c>
       <c r="Q817" s="114"/>
       <c r="R817" s="114"/>
@@ -64011,7 +64087,7 @@
         <v>384</v>
       </c>
       <c r="U817" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V817" s="116"/>
     </row>
@@ -64020,7 +64096,7 @@
         <v>14110001</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="E818" s="41">
         <v>14110001</v>
@@ -64065,7 +64141,7 @@
         <v>384</v>
       </c>
       <c r="U818" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V818" s="19" t="str">
         <f>D818&amp;"的描述"</f>
@@ -64077,7 +64153,7 @@
         <v>14110002</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="E819" s="41">
         <v>14110002</v>
@@ -64122,7 +64198,7 @@
         <v>384</v>
       </c>
       <c r="U819" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V819" s="19" t="str">
         <f>D819&amp;"的描述"</f>
@@ -64179,7 +64255,7 @@
         <v>384</v>
       </c>
       <c r="U820" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V820" s="19" t="str">
         <f>D820&amp;"的描述"</f>
@@ -64191,7 +64267,7 @@
         <v>14110004</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>1549</v>
+        <v>1898</v>
       </c>
       <c r="E821" s="41">
         <v>14110004</v>
@@ -64236,7 +64312,7 @@
         <v>384</v>
       </c>
       <c r="U821" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V821" s="19"/>
     </row>
@@ -64245,7 +64321,7 @@
         <v>14110005</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="E822" s="41">
         <v>14110005</v>
@@ -64290,7 +64366,7 @@
         <v>384</v>
       </c>
       <c r="U822" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V822" s="19" t="str">
         <f>D822&amp;"的描述"</f>
@@ -64302,7 +64378,7 @@
         <v>14110006</v>
       </c>
       <c r="D823" s="3" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="E823" s="41">
         <v>14110006</v>
@@ -64347,7 +64423,7 @@
         <v>384</v>
       </c>
       <c r="U823" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V823" s="19" t="str">
         <f>D823&amp;"的描述"</f>
@@ -64359,7 +64435,7 @@
         <v>14110007</v>
       </c>
       <c r="D824" s="3" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="E824" s="41">
         <v>14110007</v>
@@ -64404,7 +64480,7 @@
         <v>384</v>
       </c>
       <c r="U824" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V824" s="19" t="str">
         <f>D824&amp;"的描述"</f>
@@ -64416,7 +64492,7 @@
         <v>14110008</v>
       </c>
       <c r="D825" s="3" t="s">
-        <v>1761</v>
+        <v>1897</v>
       </c>
       <c r="E825" s="41">
         <v>14110008</v>
@@ -64461,7 +64537,7 @@
         <v>384</v>
       </c>
       <c r="U825" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V825" s="19"/>
     </row>
@@ -64470,7 +64546,7 @@
         <v>14110009</v>
       </c>
       <c r="D826" s="3" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
       <c r="E826" s="41">
         <v>14110009</v>
@@ -64515,7 +64591,7 @@
         <v>384</v>
       </c>
       <c r="U826" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V826" s="19" t="str">
         <f>D826&amp;"的描述"</f>
@@ -64527,7 +64603,7 @@
         <v>14110010</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>1763</v>
+        <v>1749</v>
       </c>
       <c r="E827" s="41">
         <v>14110010</v>
@@ -64572,7 +64648,7 @@
         <v>384</v>
       </c>
       <c r="U827" s="3" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
       <c r="V827" s="19" t="str">
         <f>D827&amp;"的描述"</f>
@@ -64584,7 +64660,7 @@
         <v>14110011</v>
       </c>
       <c r="D828" s="3" t="s">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="E828" s="41">
         <v>14110011</v>
@@ -64629,7 +64705,7 @@
         <v>384</v>
       </c>
       <c r="U828" s="3" t="s">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="V828" s="19" t="str">
         <f>D828&amp;"的描述"</f>
@@ -64641,7 +64717,7 @@
         <v>14110012</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>1550</v>
+        <v>1896</v>
       </c>
       <c r="E829" s="41">
         <v>14110012</v>
@@ -64686,7 +64762,7 @@
         <v>384</v>
       </c>
       <c r="U829" s="3" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V829" s="19"/>
     </row>
@@ -64695,7 +64771,7 @@
         <v>14110021</v>
       </c>
       <c r="D830" s="114" t="s">
-        <v>1765</v>
+        <v>1751</v>
       </c>
       <c r="E830" s="113">
         <v>14110021</v>
@@ -64730,8 +64806,8 @@
       <c r="O830" s="114">
         <v>5850</v>
       </c>
-      <c r="P830" s="114">
-        <v>14110008</v>
+      <c r="P830" s="3">
+        <v>14110021</v>
       </c>
       <c r="Q830" s="114"/>
       <c r="R830" s="114"/>
@@ -64740,7 +64816,7 @@
         <v>384</v>
       </c>
       <c r="U830" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V830" s="116"/>
     </row>
@@ -64749,7 +64825,7 @@
         <v>14110022</v>
       </c>
       <c r="D831" s="114" t="s">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="E831" s="113">
         <v>14110022</v>
@@ -64784,8 +64860,8 @@
       <c r="O831" s="114">
         <v>5850</v>
       </c>
-      <c r="P831" s="114">
-        <v>14110004</v>
+      <c r="P831" s="3">
+        <v>14110022</v>
       </c>
       <c r="Q831" s="114"/>
       <c r="R831" s="114"/>
@@ -64794,7 +64870,7 @@
         <v>384</v>
       </c>
       <c r="U831" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V831" s="116"/>
     </row>
@@ -64803,7 +64879,7 @@
         <v>14110023</v>
       </c>
       <c r="D832" s="114" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="E832" s="113">
         <v>14110023</v>
@@ -64838,8 +64914,8 @@
       <c r="O832" s="114">
         <v>5850</v>
       </c>
-      <c r="P832" s="114">
-        <v>14110012</v>
+      <c r="P832" s="3">
+        <v>14110023</v>
       </c>
       <c r="Q832" s="114"/>
       <c r="R832" s="114"/>
@@ -64848,7 +64924,7 @@
         <v>384</v>
       </c>
       <c r="U832" s="114" t="s">
-        <v>1878</v>
+        <v>1864</v>
       </c>
       <c r="V832" s="116"/>
     </row>
@@ -64857,7 +64933,7 @@
         <v>15201001</v>
       </c>
       <c r="D833" s="3" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E833" s="3">
         <v>15201001</v>
@@ -64914,7 +64990,7 @@
         <v>15201002</v>
       </c>
       <c r="D834" s="3" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E834" s="3">
         <v>15201002</v>
@@ -64959,7 +65035,7 @@
         <v>384</v>
       </c>
       <c r="U834" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V834" s="19"/>
     </row>
@@ -64968,7 +65044,7 @@
         <v>15201003</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E835" s="3">
         <v>15201003</v>
@@ -65025,7 +65101,7 @@
         <v>15201004</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>1554</v>
+        <v>1895</v>
       </c>
       <c r="E836" s="3">
         <v>15201004</v>
@@ -65070,7 +65146,7 @@
         <v>384</v>
       </c>
       <c r="U836" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V836" s="19"/>
     </row>
@@ -65079,7 +65155,7 @@
         <v>15201005</v>
       </c>
       <c r="D837" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E837" s="3">
         <v>15201005</v>
@@ -65136,7 +65212,7 @@
         <v>15201006</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>1556</v>
+        <v>1894</v>
       </c>
       <c r="E838" s="3">
         <v>15201006</v>
@@ -65181,7 +65257,7 @@
         <v>384</v>
       </c>
       <c r="U838" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V838" s="19"/>
     </row>
@@ -65190,7 +65266,7 @@
         <v>15202001</v>
       </c>
       <c r="D839" s="3" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E839" s="3">
         <v>15202001</v>
@@ -65247,7 +65323,7 @@
         <v>15202002</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E840" s="3">
         <v>15202002</v>
@@ -65292,7 +65368,7 @@
         <v>384</v>
       </c>
       <c r="U840" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V840" s="19"/>
     </row>
@@ -65301,7 +65377,7 @@
         <v>15202003</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E841" s="3">
         <v>15202003</v>
@@ -65358,7 +65434,7 @@
         <v>15202004</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E842" s="3">
         <v>15202004</v>
@@ -65403,7 +65479,7 @@
         <v>384</v>
       </c>
       <c r="U842" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V842" s="19"/>
     </row>
@@ -65412,7 +65488,7 @@
         <v>15202005</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E843" s="3">
         <v>15202005</v>
@@ -65469,7 +65545,7 @@
         <v>15202006</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E844" s="3">
         <v>15202006</v>
@@ -65514,7 +65590,7 @@
         <v>384</v>
       </c>
       <c r="U844" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V844" s="19"/>
     </row>
@@ -65523,7 +65599,7 @@
         <v>15203001</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E845" s="3">
         <v>15203001</v>
@@ -65580,7 +65656,7 @@
         <v>15203002</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E846" s="3">
         <v>15203002</v>
@@ -65625,7 +65701,7 @@
         <v>384</v>
       </c>
       <c r="U846" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V846" s="19"/>
     </row>
@@ -65634,7 +65710,7 @@
         <v>15203003</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E847" s="3">
         <v>15203003</v>
@@ -65691,7 +65767,7 @@
         <v>15203004</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E848" s="3">
         <v>15203004</v>
@@ -65736,7 +65812,7 @@
         <v>384</v>
       </c>
       <c r="U848" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V848" s="19"/>
     </row>
@@ -65802,7 +65878,7 @@
         <v>15203006</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E850" s="3">
         <v>15203006</v>
@@ -65847,7 +65923,7 @@
         <v>384</v>
       </c>
       <c r="U850" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V850" s="19"/>
     </row>
@@ -65856,7 +65932,7 @@
         <v>15204001</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E851" s="3">
         <v>15204001</v>
@@ -65913,7 +65989,7 @@
         <v>15204002</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E852" s="3">
         <v>15204002</v>
@@ -65958,7 +66034,7 @@
         <v>384</v>
       </c>
       <c r="U852" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V852" s="19"/>
     </row>
@@ -65967,7 +66043,7 @@
         <v>15204003</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E853" s="3">
         <v>15204003</v>
@@ -66024,7 +66100,7 @@
         <v>15204004</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E854" s="3">
         <v>15204004</v>
@@ -66069,7 +66145,7 @@
         <v>384</v>
       </c>
       <c r="U854" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V854" s="19"/>
     </row>
@@ -66135,7 +66211,7 @@
         <v>15204006</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E856" s="3">
         <v>15204006</v>
@@ -66180,7 +66256,7 @@
         <v>384</v>
       </c>
       <c r="U856" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V856" s="19"/>
     </row>
@@ -66189,7 +66265,7 @@
         <v>15205001</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E857" s="3">
         <v>15205001</v>
@@ -66246,7 +66322,7 @@
         <v>15205002</v>
       </c>
       <c r="D858" s="3" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E858" s="3">
         <v>15205002</v>
@@ -66291,7 +66367,7 @@
         <v>384</v>
       </c>
       <c r="U858" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V858" s="19"/>
     </row>
@@ -66300,7 +66376,7 @@
         <v>15205003</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E859" s="3">
         <v>15205003</v>
@@ -66357,7 +66433,7 @@
         <v>15205004</v>
       </c>
       <c r="D860" s="3" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E860" s="3">
         <v>15205004</v>
@@ -66402,7 +66478,7 @@
         <v>384</v>
       </c>
       <c r="U860" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V860" s="19"/>
     </row>
@@ -66411,7 +66487,7 @@
         <v>15205005</v>
       </c>
       <c r="D861" s="3" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E861" s="3">
         <v>15205005</v>
@@ -66468,7 +66544,7 @@
         <v>15205006</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E862" s="3">
         <v>15205006</v>
@@ -66513,7 +66589,7 @@
         <v>384</v>
       </c>
       <c r="U862" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V862" s="19"/>
     </row>
@@ -66522,7 +66598,7 @@
         <v>15206001</v>
       </c>
       <c r="D863" s="3" t="s">
-        <v>1768</v>
+        <v>1754</v>
       </c>
       <c r="E863" s="3">
         <v>15206001</v>
@@ -66579,7 +66655,7 @@
         <v>15206002</v>
       </c>
       <c r="D864" s="3" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="E864" s="3">
         <v>15206002</v>
@@ -66624,7 +66700,7 @@
         <v>384</v>
       </c>
       <c r="U864" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V864" s="19"/>
     </row>
@@ -66633,7 +66709,7 @@
         <v>15206003</v>
       </c>
       <c r="D865" s="114" t="s">
-        <v>1769</v>
+        <v>1755</v>
       </c>
       <c r="E865" s="114">
         <v>15206003</v>
@@ -66669,7 +66745,7 @@
         <v>2048</v>
       </c>
       <c r="P865" s="114">
-        <v>15206002</v>
+        <v>15206003</v>
       </c>
       <c r="Q865" s="114"/>
       <c r="R865" s="114"/>
@@ -66678,7 +66754,7 @@
         <v>384</v>
       </c>
       <c r="U865" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V865" s="116"/>
     </row>
@@ -66687,7 +66763,7 @@
         <v>15207001</v>
       </c>
       <c r="D866" s="3" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="E866" s="3">
         <v>15207001</v>
@@ -66744,7 +66820,7 @@
         <v>15207002</v>
       </c>
       <c r="D867" s="3" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E867" s="3">
         <v>15207002</v>
@@ -66789,7 +66865,7 @@
         <v>384</v>
       </c>
       <c r="U867" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V867" s="19"/>
     </row>
@@ -66798,7 +66874,7 @@
         <v>15208001</v>
       </c>
       <c r="D868" s="3" t="s">
-        <v>1771</v>
+        <v>1757</v>
       </c>
       <c r="E868" s="3">
         <v>15208001</v>
@@ -66857,7 +66933,7 @@
         <v>15208002</v>
       </c>
       <c r="D869" s="3" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E869" s="3">
         <v>15208002</v>
@@ -66904,7 +66980,7 @@
         <v>384</v>
       </c>
       <c r="U869" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V869" s="19"/>
     </row>
@@ -66913,7 +66989,7 @@
         <v>15209001</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>1772</v>
+        <v>1758</v>
       </c>
       <c r="E870" s="3">
         <v>15209001</v>
@@ -66970,7 +67046,7 @@
         <v>15209002</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E871" s="3">
         <v>15209002</v>
@@ -67015,7 +67091,7 @@
         <v>384</v>
       </c>
       <c r="U871" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V871" s="19"/>
     </row>
@@ -67024,7 +67100,7 @@
         <v>15210001</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E872" s="3">
         <v>15210001</v>
@@ -67081,7 +67157,7 @@
         <v>15210002</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E873" s="3">
         <v>15210002</v>
@@ -67126,7 +67202,7 @@
         <v>384</v>
       </c>
       <c r="U873" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V873" s="19"/>
     </row>
@@ -67135,7 +67211,7 @@
         <v>15210003</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>1773</v>
+        <v>1759</v>
       </c>
       <c r="E874" s="3">
         <v>15210003</v>
@@ -67192,7 +67268,7 @@
         <v>15210004</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E875" s="3">
         <v>15210004</v>
@@ -67237,7 +67313,7 @@
         <v>384</v>
       </c>
       <c r="U875" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V875" s="19"/>
     </row>
@@ -67246,7 +67322,7 @@
         <v>15210011</v>
       </c>
       <c r="D876" s="114" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="E876" s="114">
         <v>15210011</v>
@@ -67281,8 +67357,8 @@
       <c r="O876" s="114">
         <v>9450</v>
       </c>
-      <c r="P876" s="114">
-        <v>15210002</v>
+      <c r="P876" s="3">
+        <v>15210011</v>
       </c>
       <c r="Q876" s="114"/>
       <c r="R876" s="114"/>
@@ -67291,7 +67367,7 @@
         <v>384</v>
       </c>
       <c r="U876" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V876" s="116"/>
     </row>
@@ -67300,7 +67376,7 @@
         <v>15210012</v>
       </c>
       <c r="D877" s="114" t="s">
-        <v>1775</v>
+        <v>1761</v>
       </c>
       <c r="E877" s="114">
         <v>15210012</v>
@@ -67335,8 +67411,8 @@
       <c r="O877" s="114">
         <v>9450</v>
       </c>
-      <c r="P877" s="114">
-        <v>15210004</v>
+      <c r="P877" s="3">
+        <v>15210012</v>
       </c>
       <c r="Q877" s="114"/>
       <c r="R877" s="114"/>
@@ -67345,7 +67421,7 @@
         <v>384</v>
       </c>
       <c r="U877" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V877" s="116"/>
     </row>
@@ -67354,7 +67430,7 @@
         <v>15210101</v>
       </c>
       <c r="D878" s="21" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="E878" s="21">
         <v>15210101</v>
@@ -67411,7 +67487,7 @@
         <v>15210102</v>
       </c>
       <c r="D879" s="21" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E879" s="21">
         <v>15210102</v>
@@ -67456,7 +67532,7 @@
         <v>384</v>
       </c>
       <c r="U879" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V879" s="27"/>
     </row>
@@ -67465,7 +67541,7 @@
         <v>15210103</v>
       </c>
       <c r="D880" s="21" t="s">
-        <v>1777</v>
+        <v>1763</v>
       </c>
       <c r="E880" s="21">
         <v>15210103</v>
@@ -67522,7 +67598,7 @@
         <v>15210104</v>
       </c>
       <c r="D881" s="21" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E881" s="21">
         <v>15210104</v>
@@ -67567,7 +67643,7 @@
         <v>384</v>
       </c>
       <c r="U881" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V881" s="27"/>
     </row>
@@ -67576,7 +67652,7 @@
         <v>15210111</v>
       </c>
       <c r="D882" s="114" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="E882" s="114">
         <v>15210111</v>
@@ -67611,8 +67687,8 @@
       <c r="O882" s="114">
         <v>9450</v>
       </c>
-      <c r="P882" s="114">
-        <v>15210002</v>
+      <c r="P882" s="3">
+        <v>15210011</v>
       </c>
       <c r="Q882" s="114"/>
       <c r="R882" s="114"/>
@@ -67621,7 +67697,7 @@
         <v>384</v>
       </c>
       <c r="U882" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V882" s="116"/>
     </row>
@@ -67630,7 +67706,7 @@
         <v>15210112</v>
       </c>
       <c r="D883" s="114" t="s">
-        <v>1779</v>
+        <v>1765</v>
       </c>
       <c r="E883" s="114">
         <v>15210112</v>
@@ -67665,8 +67741,8 @@
       <c r="O883" s="114">
         <v>9450</v>
       </c>
-      <c r="P883" s="114">
-        <v>15210004</v>
+      <c r="P883" s="3">
+        <v>15210012</v>
       </c>
       <c r="Q883" s="114"/>
       <c r="R883" s="114"/>
@@ -67675,7 +67751,7 @@
         <v>384</v>
       </c>
       <c r="U883" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V883" s="116"/>
     </row>
@@ -67684,7 +67760,7 @@
         <v>15211001</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="E884" s="3">
         <v>15211001</v>
@@ -67741,7 +67817,7 @@
         <v>15211002</v>
       </c>
       <c r="D885" s="3" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E885" s="3">
         <v>15211002</v>
@@ -67786,7 +67862,7 @@
         <v>384</v>
       </c>
       <c r="U885" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V885" s="19"/>
     </row>
@@ -67795,7 +67871,7 @@
         <v>15211003</v>
       </c>
       <c r="D886" s="3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E886" s="3">
         <v>15211003</v>
@@ -67852,7 +67928,7 @@
         <v>15211004</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E887" s="3">
         <v>15211004</v>
@@ -67897,7 +67973,7 @@
         <v>384</v>
       </c>
       <c r="U887" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V887" s="19"/>
     </row>
@@ -67906,7 +67982,7 @@
         <v>15211005</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E888" s="3">
         <v>15211005</v>
@@ -67963,7 +68039,7 @@
         <v>15211006</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="E889" s="3">
         <v>15211006</v>
@@ -68008,7 +68084,7 @@
         <v>384</v>
       </c>
       <c r="U889" s="3" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V889" s="19"/>
     </row>
@@ -68017,7 +68093,7 @@
         <v>15211011</v>
       </c>
       <c r="D890" s="114" t="s">
-        <v>1780</v>
+        <v>1766</v>
       </c>
       <c r="E890" s="114">
         <v>15211011</v>
@@ -68052,8 +68128,8 @@
       <c r="O890" s="114">
         <v>4725</v>
       </c>
-      <c r="P890" s="114">
-        <v>15211002</v>
+      <c r="P890" s="3">
+        <v>15211011</v>
       </c>
       <c r="Q890" s="114"/>
       <c r="R890" s="114"/>
@@ -68062,7 +68138,7 @@
         <v>384</v>
       </c>
       <c r="U890" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V890" s="116"/>
     </row>
@@ -68071,7 +68147,7 @@
         <v>15211012</v>
       </c>
       <c r="D891" s="114" t="s">
-        <v>1781</v>
+        <v>1767</v>
       </c>
       <c r="E891" s="114">
         <v>15211012</v>
@@ -68106,8 +68182,8 @@
       <c r="O891" s="114">
         <v>4725</v>
       </c>
-      <c r="P891" s="114">
-        <v>15211004</v>
+      <c r="P891" s="3">
+        <v>15211012</v>
       </c>
       <c r="Q891" s="114"/>
       <c r="R891" s="114"/>
@@ -68116,7 +68192,7 @@
         <v>384</v>
       </c>
       <c r="U891" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V891" s="116"/>
     </row>
@@ -68125,7 +68201,7 @@
         <v>15211013</v>
       </c>
       <c r="D892" s="114" t="s">
-        <v>1782</v>
+        <v>1768</v>
       </c>
       <c r="E892" s="114">
         <v>15211013</v>
@@ -68160,8 +68236,8 @@
       <c r="O892" s="114">
         <v>4725</v>
       </c>
-      <c r="P892" s="114">
-        <v>15211006</v>
+      <c r="P892" s="3">
+        <v>15211013</v>
       </c>
       <c r="Q892" s="114"/>
       <c r="R892" s="114"/>
@@ -68170,7 +68246,7 @@
         <v>384</v>
       </c>
       <c r="U892" s="114" t="s">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="V892" s="116"/>
     </row>
@@ -68179,7 +68255,7 @@
         <v>15301001</v>
       </c>
       <c r="D893" s="3" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="E893" s="3">
         <v>15301001</v>
@@ -68224,7 +68300,7 @@
         <v>384</v>
       </c>
       <c r="U893" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V893" s="19" t="str">
         <f>D893&amp;"的描述"</f>
@@ -68236,7 +68312,7 @@
         <v>15301002</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E894" s="3">
         <v>15301002</v>
@@ -68281,7 +68357,7 @@
         <v>384</v>
       </c>
       <c r="U894" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V894" s="19"/>
     </row>
@@ -68290,7 +68366,7 @@
         <v>15301003</v>
       </c>
       <c r="D895" s="3" t="s">
-        <v>1783</v>
+        <v>1769</v>
       </c>
       <c r="E895" s="3">
         <v>15301003</v>
@@ -68335,7 +68411,7 @@
         <v>384</v>
       </c>
       <c r="U895" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V895" s="19" t="str">
         <f>D895&amp;"的描述"</f>
@@ -68347,7 +68423,7 @@
         <v>15301004</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="E896" s="3">
         <v>15301004</v>
@@ -68392,7 +68468,7 @@
         <v>384</v>
       </c>
       <c r="U896" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V896" s="19"/>
     </row>
@@ -68401,7 +68477,7 @@
         <v>15301005</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E897" s="3">
         <v>15301005</v>
@@ -68446,7 +68522,7 @@
         <v>384</v>
       </c>
       <c r="U897" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V897" s="19" t="str">
         <f>D897&amp;"的描述"</f>
@@ -68458,7 +68534,7 @@
         <v>15301006</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E898" s="3">
         <v>15301006</v>
@@ -68503,7 +68579,7 @@
         <v>384</v>
       </c>
       <c r="U898" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V898" s="19"/>
     </row>
@@ -68512,7 +68588,7 @@
         <v>15302001</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E899" s="3">
         <v>15302001</v>
@@ -68557,7 +68633,7 @@
         <v>384</v>
       </c>
       <c r="U899" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V899" s="19" t="str">
         <f>D899&amp;"的描述"</f>
@@ -68569,7 +68645,7 @@
         <v>15302002</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E900" s="3">
         <v>15302002</v>
@@ -68614,7 +68690,7 @@
         <v>384</v>
       </c>
       <c r="U900" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V900" s="19"/>
     </row>
@@ -68623,7 +68699,7 @@
         <v>15302003</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>1784</v>
+        <v>1770</v>
       </c>
       <c r="E901" s="3">
         <v>15302003</v>
@@ -68668,7 +68744,7 @@
         <v>384</v>
       </c>
       <c r="U901" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V901" s="19" t="str">
         <f>D901&amp;"的描述"</f>
@@ -68680,7 +68756,7 @@
         <v>15302004</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E902" s="3">
         <v>15302004</v>
@@ -68725,7 +68801,7 @@
         <v>384</v>
       </c>
       <c r="U902" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V902" s="19"/>
     </row>
@@ -68734,7 +68810,7 @@
         <v>15302005</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E903" s="3">
         <v>15302005</v>
@@ -68779,7 +68855,7 @@
         <v>384</v>
       </c>
       <c r="U903" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V903" s="19" t="str">
         <f>D903&amp;"的描述"</f>
@@ -68791,7 +68867,7 @@
         <v>15302006</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="E904" s="3">
         <v>15302006</v>
@@ -68836,7 +68912,7 @@
         <v>384</v>
       </c>
       <c r="U904" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V904" s="19"/>
     </row>
@@ -68845,7 +68921,7 @@
         <v>15303001</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="E905" s="3">
         <v>15303001</v>
@@ -68890,7 +68966,7 @@
         <v>384</v>
       </c>
       <c r="U905" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V905" s="19" t="str">
         <f>D905&amp;"的描述"</f>
@@ -68902,7 +68978,7 @@
         <v>15303002</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E906" s="3">
         <v>15303002</v>
@@ -68947,7 +69023,7 @@
         <v>384</v>
       </c>
       <c r="U906" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V906" s="19"/>
     </row>
@@ -68956,7 +69032,7 @@
         <v>15303003</v>
       </c>
       <c r="D907" s="3" t="s">
-        <v>1785</v>
+        <v>1771</v>
       </c>
       <c r="E907" s="3">
         <v>15303003</v>
@@ -69001,7 +69077,7 @@
         <v>384</v>
       </c>
       <c r="U907" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V907" s="19" t="str">
         <f>D907&amp;"的描述"</f>
@@ -69013,7 +69089,7 @@
         <v>15303004</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E908" s="3">
         <v>15303004</v>
@@ -69058,7 +69134,7 @@
         <v>384</v>
       </c>
       <c r="U908" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V908" s="19"/>
     </row>
@@ -69067,7 +69143,7 @@
         <v>15303005</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E909" s="3">
         <v>15303005</v>
@@ -69112,7 +69188,7 @@
         <v>384</v>
       </c>
       <c r="U909" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V909" s="19" t="str">
         <f>D909&amp;"的描述"</f>
@@ -69124,7 +69200,7 @@
         <v>15303006</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E910" s="3">
         <v>15303006</v>
@@ -69169,7 +69245,7 @@
         <v>384</v>
       </c>
       <c r="U910" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V910" s="19"/>
     </row>
@@ -69178,7 +69254,7 @@
         <v>15304001</v>
       </c>
       <c r="D911" s="3" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E911" s="3">
         <v>15304001</v>
@@ -69223,7 +69299,7 @@
         <v>384</v>
       </c>
       <c r="U911" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V911" s="19" t="str">
         <f>D911&amp;"的描述"</f>
@@ -69235,7 +69311,7 @@
         <v>15304002</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="E912" s="3">
         <v>15304002</v>
@@ -69280,7 +69356,7 @@
         <v>384</v>
       </c>
       <c r="U912" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V912" s="19"/>
     </row>
@@ -69289,7 +69365,7 @@
         <v>15304003</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="E913" s="3">
         <v>15304003</v>
@@ -69334,7 +69410,7 @@
         <v>384</v>
       </c>
       <c r="U913" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V913" s="19" t="str">
         <f>D913&amp;"的描述"</f>
@@ -69346,7 +69422,7 @@
         <v>15304004</v>
       </c>
       <c r="D914" s="3" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E914" s="3">
         <v>15304004</v>
@@ -69391,7 +69467,7 @@
         <v>384</v>
       </c>
       <c r="U914" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V914" s="19"/>
     </row>
@@ -69400,7 +69476,7 @@
         <v>15304005</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="E915" s="3">
         <v>15304005</v>
@@ -69445,7 +69521,7 @@
         <v>384</v>
       </c>
       <c r="U915" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V915" s="19" t="str">
         <f>D915&amp;"的描述"</f>
@@ -69457,7 +69533,7 @@
         <v>15304006</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E916" s="3">
         <v>15304006</v>
@@ -69502,7 +69578,7 @@
         <v>384</v>
       </c>
       <c r="U916" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V916" s="19"/>
     </row>
@@ -69511,7 +69587,7 @@
         <v>15305001</v>
       </c>
       <c r="D917" s="3" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E917" s="3">
         <v>15305001</v>
@@ -69556,7 +69632,7 @@
         <v>384</v>
       </c>
       <c r="U917" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V917" s="19" t="str">
         <f>D917&amp;"的描述"</f>
@@ -69568,7 +69644,7 @@
         <v>15305002</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>1615</v>
+        <v>1893</v>
       </c>
       <c r="E918" s="3">
         <v>15305002</v>
@@ -69613,7 +69689,7 @@
         <v>384</v>
       </c>
       <c r="U918" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V918" s="19"/>
     </row>
@@ -69622,7 +69698,7 @@
         <v>15305003</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>1787</v>
+        <v>1773</v>
       </c>
       <c r="E919" s="3">
         <v>15305003</v>
@@ -69667,7 +69743,7 @@
         <v>384</v>
       </c>
       <c r="U919" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V919" s="19" t="str">
         <f>D919&amp;"的描述"</f>
@@ -69679,7 +69755,7 @@
         <v>15305004</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>1616</v>
+        <v>1892</v>
       </c>
       <c r="E920" s="3">
         <v>15305004</v>
@@ -69724,7 +69800,7 @@
         <v>384</v>
       </c>
       <c r="U920" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V920" s="19"/>
     </row>
@@ -69733,7 +69809,7 @@
         <v>15305005</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="E921" s="3">
         <v>15305005</v>
@@ -69778,7 +69854,7 @@
         <v>384</v>
       </c>
       <c r="U921" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V921" s="19" t="str">
         <f>D921&amp;"的描述"</f>
@@ -69790,7 +69866,7 @@
         <v>15305006</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>1618</v>
+        <v>1891</v>
       </c>
       <c r="E922" s="3">
         <v>15305006</v>
@@ -69835,7 +69911,7 @@
         <v>384</v>
       </c>
       <c r="U922" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V922" s="19"/>
     </row>
@@ -69844,7 +69920,7 @@
         <v>15306001</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="E923" s="3">
         <v>15306001</v>
@@ -69889,7 +69965,7 @@
         <v>384</v>
       </c>
       <c r="U923" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V923" s="19" t="str">
         <f>D923&amp;"的描述"</f>
@@ -69901,7 +69977,7 @@
         <v>15306002</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="E924" s="3">
         <v>15306002</v>
@@ -69946,7 +70022,7 @@
         <v>384</v>
       </c>
       <c r="U924" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V924" s="19"/>
     </row>
@@ -69955,7 +70031,7 @@
         <v>15306003</v>
       </c>
       <c r="D925" s="114" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
       <c r="E925" s="114">
         <v>15306003</v>
@@ -69990,8 +70066,8 @@
       <c r="O925" s="114">
         <v>3023</v>
       </c>
-      <c r="P925" s="114">
-        <v>15306002</v>
+      <c r="P925" s="3">
+        <v>15306003</v>
       </c>
       <c r="Q925" s="114"/>
       <c r="R925" s="114"/>
@@ -70000,7 +70076,7 @@
         <v>384</v>
       </c>
       <c r="U925" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V925" s="116"/>
     </row>
@@ -70009,7 +70085,7 @@
         <v>15307001</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
       <c r="E926" s="3">
         <v>15307001</v>
@@ -70054,7 +70130,7 @@
         <v>384</v>
       </c>
       <c r="U926" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V926" s="19" t="str">
         <f>D926&amp;"的描述"</f>
@@ -70066,7 +70142,7 @@
         <v>15307002</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="E927" s="3">
         <v>15307002</v>
@@ -70111,7 +70187,7 @@
         <v>384</v>
       </c>
       <c r="U927" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V927" s="19"/>
     </row>
@@ -70167,7 +70243,7 @@
         <v>384</v>
       </c>
       <c r="U928" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V928" s="19" t="str">
         <f>D928&amp;"的描述"</f>
@@ -70179,7 +70255,7 @@
         <v>15308002</v>
       </c>
       <c r="D929" s="3" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="E929" s="3">
         <v>15308002</v>
@@ -70226,7 +70302,7 @@
         <v>384</v>
       </c>
       <c r="U929" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V929" s="19"/>
     </row>
@@ -70235,7 +70311,7 @@
         <v>15309001</v>
       </c>
       <c r="D930" s="3" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="E930" s="3">
         <v>15309001</v>
@@ -70280,7 +70356,7 @@
         <v>384</v>
       </c>
       <c r="U930" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V930" s="19" t="str">
         <f>D930&amp;"的描述"</f>
@@ -70292,7 +70368,7 @@
         <v>15309002</v>
       </c>
       <c r="D931" s="3" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="E931" s="3">
         <v>15309002</v>
@@ -70337,7 +70413,7 @@
         <v>384</v>
       </c>
       <c r="U931" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V931" s="19"/>
     </row>
@@ -70346,7 +70422,7 @@
         <v>15310001</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="E932" s="3">
         <v>15310001</v>
@@ -70391,7 +70467,7 @@
         <v>384</v>
       </c>
       <c r="U932" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V932" s="19" t="str">
         <f>D932&amp;"的描述"</f>
@@ -70403,7 +70479,7 @@
         <v>15310002</v>
       </c>
       <c r="D933" s="3" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="E933" s="3">
         <v>15310002</v>
@@ -70448,7 +70524,7 @@
         <v>384</v>
       </c>
       <c r="U933" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V933" s="19"/>
     </row>
@@ -70457,7 +70533,7 @@
         <v>15310003</v>
       </c>
       <c r="D934" s="3" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="E934" s="3">
         <v>15310003</v>
@@ -70502,7 +70578,7 @@
         <v>384</v>
       </c>
       <c r="U934" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V934" s="19" t="str">
         <f>D934&amp;"的描述"</f>
@@ -70514,7 +70590,7 @@
         <v>15310004</v>
       </c>
       <c r="D935" s="3" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="E935" s="3">
         <v>15310004</v>
@@ -70559,7 +70635,7 @@
         <v>384</v>
       </c>
       <c r="U935" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V935" s="19"/>
     </row>
@@ -70568,7 +70644,7 @@
         <v>15310011</v>
       </c>
       <c r="D936" s="114" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
       <c r="E936" s="114">
         <v>15310011</v>
@@ -70603,8 +70679,8 @@
       <c r="O936" s="114">
         <v>13950</v>
       </c>
-      <c r="P936" s="114">
-        <v>15310002</v>
+      <c r="P936" s="3">
+        <v>15310011</v>
       </c>
       <c r="Q936" s="114"/>
       <c r="R936" s="114"/>
@@ -70613,7 +70689,7 @@
         <v>384</v>
       </c>
       <c r="U936" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V936" s="116"/>
     </row>
@@ -70622,7 +70698,7 @@
         <v>15310012</v>
       </c>
       <c r="D937" s="114" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
       <c r="E937" s="114">
         <v>15310012</v>
@@ -70657,8 +70733,8 @@
       <c r="O937" s="114">
         <v>13950</v>
       </c>
-      <c r="P937" s="114">
-        <v>15310004</v>
+      <c r="P937" s="3">
+        <v>15310012</v>
       </c>
       <c r="Q937" s="114"/>
       <c r="R937" s="114"/>
@@ -70667,7 +70743,7 @@
         <v>384</v>
       </c>
       <c r="U937" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V937" s="116"/>
     </row>
@@ -70676,7 +70752,7 @@
         <v>15310101</v>
       </c>
       <c r="D938" s="21" t="s">
-        <v>1794</v>
+        <v>1780</v>
       </c>
       <c r="E938" s="21">
         <v>15310101</v>
@@ -70721,7 +70797,7 @@
         <v>384</v>
       </c>
       <c r="U938" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V938" s="27" t="str">
         <f>D938&amp;"的描述"</f>
@@ -70733,7 +70809,7 @@
         <v>15310102</v>
       </c>
       <c r="D939" s="21" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="E939" s="21">
         <v>15310102</v>
@@ -70778,7 +70854,7 @@
         <v>384</v>
       </c>
       <c r="U939" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V939" s="27"/>
     </row>
@@ -70787,7 +70863,7 @@
         <v>15310103</v>
       </c>
       <c r="D940" s="21" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
       <c r="E940" s="21">
         <v>15310103</v>
@@ -70832,7 +70908,7 @@
         <v>384</v>
       </c>
       <c r="U940" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V940" s="27" t="str">
         <f>D940&amp;"的描述"</f>
@@ -70844,7 +70920,7 @@
         <v>15310104</v>
       </c>
       <c r="D941" s="21" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="E941" s="21">
         <v>15310104</v>
@@ -70889,7 +70965,7 @@
         <v>384</v>
       </c>
       <c r="U941" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V941" s="27"/>
     </row>
@@ -70898,7 +70974,7 @@
         <v>15310111</v>
       </c>
       <c r="D942" s="114" t="s">
-        <v>1796</v>
+        <v>1782</v>
       </c>
       <c r="E942" s="114">
         <v>15310111</v>
@@ -70933,8 +71009,8 @@
       <c r="O942" s="114">
         <v>13950</v>
       </c>
-      <c r="P942" s="114">
-        <v>15310002</v>
+      <c r="P942" s="3">
+        <v>15310011</v>
       </c>
       <c r="Q942" s="114"/>
       <c r="R942" s="114"/>
@@ -70943,7 +71019,7 @@
         <v>384</v>
       </c>
       <c r="U942" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V942" s="116"/>
     </row>
@@ -70952,7 +71028,7 @@
         <v>15310112</v>
       </c>
       <c r="D943" s="114" t="s">
-        <v>1797</v>
+        <v>1783</v>
       </c>
       <c r="E943" s="114">
         <v>15310112</v>
@@ -70987,8 +71063,8 @@
       <c r="O943" s="114">
         <v>13950</v>
       </c>
-      <c r="P943" s="114">
-        <v>15310004</v>
+      <c r="P943" s="3">
+        <v>15310012</v>
       </c>
       <c r="Q943" s="114"/>
       <c r="R943" s="114"/>
@@ -70997,7 +71073,7 @@
         <v>384</v>
       </c>
       <c r="U943" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V943" s="116"/>
     </row>
@@ -71006,7 +71082,7 @@
         <v>15311001</v>
       </c>
       <c r="D944" s="3" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="E944" s="3">
         <v>15311001</v>
@@ -71051,7 +71127,7 @@
         <v>384</v>
       </c>
       <c r="U944" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V944" s="19" t="str">
         <f>D944&amp;"的描述"</f>
@@ -71063,7 +71139,7 @@
         <v>15311002</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="E945" s="3">
         <v>15311002</v>
@@ -71108,7 +71184,7 @@
         <v>384</v>
       </c>
       <c r="U945" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V945" s="19"/>
     </row>
@@ -71117,7 +71193,7 @@
         <v>15311003</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="E946" s="3">
         <v>15311003</v>
@@ -71162,7 +71238,7 @@
         <v>384</v>
       </c>
       <c r="U946" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V946" s="19" t="str">
         <f>D946&amp;"的描述"</f>
@@ -71174,7 +71250,7 @@
         <v>15311004</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="E947" s="3">
         <v>15311004</v>
@@ -71219,7 +71295,7 @@
         <v>384</v>
       </c>
       <c r="U947" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V947" s="19"/>
     </row>
@@ -71228,7 +71304,7 @@
         <v>15311005</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="E948" s="3">
         <v>15311005</v>
@@ -71273,7 +71349,7 @@
         <v>384</v>
       </c>
       <c r="U948" s="3" t="s">
-        <v>1886</v>
+        <v>1872</v>
       </c>
       <c r="V948" s="19" t="str">
         <f>D948&amp;"的描述"</f>
@@ -71285,7 +71361,7 @@
         <v>15311006</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="E949" s="3">
         <v>15311006</v>
@@ -71330,7 +71406,7 @@
         <v>384</v>
       </c>
       <c r="U949" s="3" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V949" s="19"/>
     </row>
@@ -71339,7 +71415,7 @@
         <v>15311011</v>
       </c>
       <c r="D950" s="114" t="s">
-        <v>1799</v>
+        <v>1785</v>
       </c>
       <c r="E950" s="114">
         <v>15311011</v>
@@ -71374,8 +71450,8 @@
       <c r="O950" s="114">
         <v>6975</v>
       </c>
-      <c r="P950" s="114">
-        <v>15311002</v>
+      <c r="P950" s="3">
+        <v>15311011</v>
       </c>
       <c r="Q950" s="114"/>
       <c r="R950" s="114"/>
@@ -71384,7 +71460,7 @@
         <v>384</v>
       </c>
       <c r="U950" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V950" s="116"/>
     </row>
@@ -71393,7 +71469,7 @@
         <v>15311012</v>
       </c>
       <c r="D951" s="114" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
       <c r="E951" s="114">
         <v>15311012</v>
@@ -71428,8 +71504,8 @@
       <c r="O951" s="114">
         <v>6975</v>
       </c>
-      <c r="P951" s="114">
-        <v>15311004</v>
+      <c r="P951" s="3">
+        <v>15311012</v>
       </c>
       <c r="Q951" s="114"/>
       <c r="R951" s="114"/>
@@ -71438,7 +71514,7 @@
         <v>384</v>
       </c>
       <c r="U951" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V951" s="116"/>
     </row>
@@ -71447,7 +71523,7 @@
         <v>15311013</v>
       </c>
       <c r="D952" s="114" t="s">
-        <v>1801</v>
+        <v>1787</v>
       </c>
       <c r="E952" s="114">
         <v>15311013</v>
@@ -71482,8 +71558,8 @@
       <c r="O952" s="114">
         <v>6975</v>
       </c>
-      <c r="P952" s="114">
-        <v>15311006</v>
+      <c r="P952" s="3">
+        <v>15311013</v>
       </c>
       <c r="Q952" s="114"/>
       <c r="R952" s="114"/>
@@ -71492,7 +71568,7 @@
         <v>384</v>
       </c>
       <c r="U952" s="114" t="s">
-        <v>1881</v>
+        <v>1867</v>
       </c>
       <c r="V952" s="116"/>
     </row>
@@ -71501,7 +71577,7 @@
         <v>15401001</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="E953" s="3">
         <v>15401001</v>
@@ -71546,7 +71622,7 @@
         <v>384</v>
       </c>
       <c r="U953" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V953" s="19" t="str">
         <f>D953&amp;"的描述"</f>
@@ -71558,7 +71634,7 @@
         <v>15401002</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="E954" s="3">
         <v>15401002</v>
@@ -71603,7 +71679,7 @@
         <v>384</v>
       </c>
       <c r="U954" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V954" s="19"/>
     </row>
@@ -71612,7 +71688,7 @@
         <v>15401003</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="E955" s="3">
         <v>15401003</v>
@@ -71657,7 +71733,7 @@
         <v>384</v>
       </c>
       <c r="U955" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V955" s="19" t="str">
         <f>D955&amp;"的描述"</f>
@@ -71669,7 +71745,7 @@
         <v>15401004</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="E956" s="3">
         <v>15401004</v>
@@ -71714,7 +71790,7 @@
         <v>384</v>
       </c>
       <c r="U956" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V956" s="19"/>
     </row>
@@ -71723,7 +71799,7 @@
         <v>15401005</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="E957" s="3">
         <v>15401005</v>
@@ -71768,7 +71844,7 @@
         <v>384</v>
       </c>
       <c r="U957" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V957" s="19" t="str">
         <f>D957&amp;"的描述"</f>
@@ -71780,7 +71856,7 @@
         <v>15401006</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="E958" s="3">
         <v>15401006</v>
@@ -71825,7 +71901,7 @@
         <v>384</v>
       </c>
       <c r="U958" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V958" s="19"/>
     </row>
@@ -71834,7 +71910,7 @@
         <v>15402001</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="E959" s="3">
         <v>15402001</v>
@@ -71879,7 +71955,7 @@
         <v>384</v>
       </c>
       <c r="U959" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V959" s="19" t="str">
         <f>D959&amp;"的描述"</f>
@@ -71891,7 +71967,7 @@
         <v>15402002</v>
       </c>
       <c r="D960" s="3" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="E960" s="3">
         <v>15402002</v>
@@ -71936,7 +72012,7 @@
         <v>384</v>
       </c>
       <c r="U960" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V960" s="19"/>
     </row>
@@ -71945,7 +72021,7 @@
         <v>15402003</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="E961" s="3">
         <v>15402003</v>
@@ -71990,7 +72066,7 @@
         <v>384</v>
       </c>
       <c r="U961" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V961" s="19" t="str">
         <f>D961&amp;"的描述"</f>
@@ -72002,7 +72078,7 @@
         <v>15402004</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="E962" s="3">
         <v>15402004</v>
@@ -72047,7 +72123,7 @@
         <v>384</v>
       </c>
       <c r="U962" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V962" s="19"/>
     </row>
@@ -72056,7 +72132,7 @@
         <v>15402005</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="E963" s="3">
         <v>15402005</v>
@@ -72101,7 +72177,7 @@
         <v>384</v>
       </c>
       <c r="U963" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V963" s="19" t="str">
         <f>D963&amp;"的描述"</f>
@@ -72113,7 +72189,7 @@
         <v>15402006</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="E964" s="3">
         <v>15402006</v>
@@ -72158,7 +72234,7 @@
         <v>384</v>
       </c>
       <c r="U964" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V964" s="19"/>
     </row>
@@ -72167,7 +72243,7 @@
         <v>15403001</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="E965" s="3">
         <v>15403001</v>
@@ -72212,7 +72288,7 @@
         <v>384</v>
       </c>
       <c r="U965" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V965" s="19" t="str">
         <f>D965&amp;"的描述"</f>
@@ -72224,7 +72300,7 @@
         <v>15403002</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="E966" s="3">
         <v>15403002</v>
@@ -72269,7 +72345,7 @@
         <v>384</v>
       </c>
       <c r="U966" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V966" s="19"/>
     </row>
@@ -72278,7 +72354,7 @@
         <v>15403003</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="E967" s="3">
         <v>15403003</v>
@@ -72323,7 +72399,7 @@
         <v>384</v>
       </c>
       <c r="U967" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V967" s="19" t="str">
         <f>D967&amp;"的描述"</f>
@@ -72335,7 +72411,7 @@
         <v>15403004</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="E968" s="3">
         <v>15403004</v>
@@ -72380,7 +72456,7 @@
         <v>384</v>
       </c>
       <c r="U968" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V968" s="19"/>
     </row>
@@ -72389,7 +72465,7 @@
         <v>15403005</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="E969" s="3">
         <v>15403005</v>
@@ -72434,7 +72510,7 @@
         <v>384</v>
       </c>
       <c r="U969" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V969" s="19" t="str">
         <f>D969&amp;"的描述"</f>
@@ -72446,7 +72522,7 @@
         <v>15403006</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="E970" s="3">
         <v>15403006</v>
@@ -72491,7 +72567,7 @@
         <v>384</v>
       </c>
       <c r="U970" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V970" s="19"/>
     </row>
@@ -72500,7 +72576,7 @@
         <v>15404001</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="E971" s="3">
         <v>15404001</v>
@@ -72545,7 +72621,7 @@
         <v>384</v>
       </c>
       <c r="U971" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V971" s="19" t="str">
         <f>D971&amp;"的描述"</f>
@@ -72557,7 +72633,7 @@
         <v>15404002</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="E972" s="3">
         <v>15404002</v>
@@ -72602,7 +72678,7 @@
         <v>384</v>
       </c>
       <c r="U972" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V972" s="19"/>
     </row>
@@ -72611,7 +72687,7 @@
         <v>15404003</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="E973" s="3">
         <v>15404003</v>
@@ -72656,7 +72732,7 @@
         <v>384</v>
       </c>
       <c r="U973" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V973" s="19" t="str">
         <f>D973&amp;"的描述"</f>
@@ -72668,7 +72744,7 @@
         <v>15404004</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="E974" s="3">
         <v>15404004</v>
@@ -72713,7 +72789,7 @@
         <v>384</v>
       </c>
       <c r="U974" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V974" s="19"/>
     </row>
@@ -72722,7 +72798,7 @@
         <v>15404005</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="E975" s="3">
         <v>15404005</v>
@@ -72767,7 +72843,7 @@
         <v>384</v>
       </c>
       <c r="U975" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V975" s="19" t="str">
         <f>D975&amp;"的描述"</f>
@@ -72779,7 +72855,7 @@
         <v>15404006</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="E976" s="3">
         <v>15404006</v>
@@ -72824,7 +72900,7 @@
         <v>384</v>
       </c>
       <c r="U976" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V976" s="19"/>
     </row>
@@ -72833,7 +72909,7 @@
         <v>15405001</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="E977" s="3">
         <v>15405001</v>
@@ -72878,7 +72954,7 @@
         <v>384</v>
       </c>
       <c r="U977" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V977" s="19" t="str">
         <f>D977&amp;"的描述"</f>
@@ -72890,7 +72966,7 @@
         <v>15405002</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="E978" s="3">
         <v>15405002</v>
@@ -72935,7 +73011,7 @@
         <v>384</v>
       </c>
       <c r="U978" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V978" s="19"/>
     </row>
@@ -72944,7 +73020,7 @@
         <v>15405003</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="E979" s="3">
         <v>15405003</v>
@@ -72989,7 +73065,7 @@
         <v>384</v>
       </c>
       <c r="U979" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V979" s="19" t="str">
         <f>D979&amp;"的描述"</f>
@@ -73001,7 +73077,7 @@
         <v>15405004</v>
       </c>
       <c r="D980" s="3" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="E980" s="3">
         <v>15405004</v>
@@ -73046,7 +73122,7 @@
         <v>384</v>
       </c>
       <c r="U980" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V980" s="19"/>
     </row>
@@ -73055,7 +73131,7 @@
         <v>15405005</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="E981" s="3">
         <v>15405005</v>
@@ -73100,7 +73176,7 @@
         <v>384</v>
       </c>
       <c r="U981" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V981" s="19" t="str">
         <f>D981&amp;"的描述"</f>
@@ -73112,7 +73188,7 @@
         <v>15405006</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="E982" s="3">
         <v>15405006</v>
@@ -73157,7 +73233,7 @@
         <v>384</v>
       </c>
       <c r="U982" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V982" s="19"/>
     </row>
@@ -73166,7 +73242,7 @@
         <v>15406001</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
       <c r="E983" s="3">
         <v>15406001</v>
@@ -73211,7 +73287,7 @@
         <v>384</v>
       </c>
       <c r="U983" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V983" s="19" t="str">
         <f>D983&amp;"的描述"</f>
@@ -73223,7 +73299,7 @@
         <v>15406002</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="E984" s="3">
         <v>15406002</v>
@@ -73268,7 +73344,7 @@
         <v>384</v>
       </c>
       <c r="U984" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V984" s="19"/>
     </row>
@@ -73277,7 +73353,7 @@
         <v>15406003</v>
       </c>
       <c r="D985" s="114" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
       <c r="E985" s="114">
         <v>15406003</v>
@@ -73313,7 +73389,7 @@
         <v>3998</v>
       </c>
       <c r="P985" s="114">
-        <v>15406002</v>
+        <v>15406003</v>
       </c>
       <c r="Q985" s="114"/>
       <c r="R985" s="114"/>
@@ -73322,7 +73398,7 @@
         <v>384</v>
       </c>
       <c r="U985" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V985" s="116"/>
     </row>
@@ -73331,7 +73407,7 @@
         <v>15407001</v>
       </c>
       <c r="D986" s="3" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
       <c r="E986" s="3">
         <v>15407001</v>
@@ -73376,7 +73452,7 @@
         <v>384</v>
       </c>
       <c r="U986" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V986" s="19" t="str">
         <f>D986&amp;"的描述"</f>
@@ -73388,7 +73464,7 @@
         <v>15407002</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="E987" s="3">
         <v>15407002</v>
@@ -73433,7 +73509,7 @@
         <v>384</v>
       </c>
       <c r="U987" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V987" s="19"/>
     </row>
@@ -73489,7 +73565,7 @@
         <v>384</v>
       </c>
       <c r="U988" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V988" s="19" t="str">
         <f>D988&amp;"的描述"</f>
@@ -73501,7 +73577,7 @@
         <v>15408002</v>
       </c>
       <c r="D989" s="3" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="E989" s="3">
         <v>15408002</v>
@@ -73548,7 +73624,7 @@
         <v>384</v>
       </c>
       <c r="U989" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V989" s="19"/>
     </row>
@@ -73557,7 +73633,7 @@
         <v>15409001</v>
       </c>
       <c r="D990" s="3" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
       <c r="E990" s="3">
         <v>15409001</v>
@@ -73602,7 +73678,7 @@
         <v>384</v>
       </c>
       <c r="U990" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V990" s="19" t="str">
         <f>D990&amp;"的描述"</f>
@@ -73614,7 +73690,7 @@
         <v>15409002</v>
       </c>
       <c r="D991" s="3" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="E991" s="3">
         <v>15409002</v>
@@ -73659,7 +73735,7 @@
         <v>384</v>
       </c>
       <c r="U991" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V991" s="19"/>
     </row>
@@ -73668,7 +73744,7 @@
         <v>15410001</v>
       </c>
       <c r="D992" s="3" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="E992" s="3">
         <v>15410001</v>
@@ -73713,7 +73789,7 @@
         <v>384</v>
       </c>
       <c r="U992" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V992" s="19" t="str">
         <f>D992&amp;"的描述"</f>
@@ -73725,7 +73801,7 @@
         <v>15410002</v>
       </c>
       <c r="D993" s="3" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="E993" s="3">
         <v>15410002</v>
@@ -73770,7 +73846,7 @@
         <v>384</v>
       </c>
       <c r="U993" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V993" s="19"/>
     </row>
@@ -73779,7 +73855,7 @@
         <v>15410003</v>
       </c>
       <c r="D994" s="3" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
       <c r="E994" s="3">
         <v>15410003</v>
@@ -73815,7 +73891,7 @@
         <v>15375</v>
       </c>
       <c r="P994" s="3">
-        <v>15410001</v>
+        <v>15410003</v>
       </c>
       <c r="Q994" s="3"/>
       <c r="R994" s="3"/>
@@ -73824,7 +73900,7 @@
         <v>384</v>
       </c>
       <c r="U994" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V994" s="19" t="str">
         <f>D994&amp;"的描述"</f>
@@ -73836,7 +73912,7 @@
         <v>15410004</v>
       </c>
       <c r="D995" s="3" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="E995" s="3">
         <v>15410004</v>
@@ -73872,7 +73948,7 @@
         <v>18450</v>
       </c>
       <c r="P995" s="3">
-        <v>15410002</v>
+        <v>15410004</v>
       </c>
       <c r="Q995" s="3"/>
       <c r="R995" s="3"/>
@@ -73881,7 +73957,7 @@
         <v>384</v>
       </c>
       <c r="U995" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V995" s="19"/>
     </row>
@@ -73890,7 +73966,7 @@
         <v>15410011</v>
       </c>
       <c r="D996" s="114" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
       <c r="E996" s="114">
         <v>15410011</v>
@@ -73925,8 +74001,8 @@
       <c r="O996" s="114">
         <v>18450</v>
       </c>
-      <c r="P996" s="114">
-        <v>15410002</v>
+      <c r="P996" s="3">
+        <v>15410011</v>
       </c>
       <c r="Q996" s="114"/>
       <c r="R996" s="114"/>
@@ -73935,7 +74011,7 @@
         <v>384</v>
       </c>
       <c r="U996" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V996" s="116"/>
     </row>
@@ -73944,7 +74020,7 @@
         <v>15410012</v>
       </c>
       <c r="D997" s="114" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
       <c r="E997" s="114">
         <v>15410012</v>
@@ -73979,8 +74055,8 @@
       <c r="O997" s="114">
         <v>18450</v>
       </c>
-      <c r="P997" s="114">
-        <v>15410002</v>
+      <c r="P997" s="3">
+        <v>15410012</v>
       </c>
       <c r="Q997" s="114"/>
       <c r="R997" s="114"/>
@@ -73989,7 +74065,7 @@
         <v>384</v>
       </c>
       <c r="U997" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V997" s="116"/>
     </row>
@@ -73998,7 +74074,7 @@
         <v>15410101</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>1809</v>
+        <v>1795</v>
       </c>
       <c r="E998" s="3">
         <v>15410101</v>
@@ -74043,7 +74119,7 @@
         <v>384</v>
       </c>
       <c r="U998" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V998" s="19" t="str">
         <f>D998&amp;"的描述"</f>
@@ -74055,7 +74131,7 @@
         <v>15410102</v>
       </c>
       <c r="D999" s="3" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="E999" s="3">
         <v>15410102</v>
@@ -74100,7 +74176,7 @@
         <v>384</v>
       </c>
       <c r="U999" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V999" s="19"/>
     </row>
@@ -74109,7 +74185,7 @@
         <v>15410103</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
       <c r="E1000" s="3">
         <v>15410103</v>
@@ -74154,7 +74230,7 @@
         <v>384</v>
       </c>
       <c r="U1000" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V1000" s="19" t="str">
         <f>D1000&amp;"的描述"</f>
@@ -74166,7 +74242,7 @@
         <v>15410104</v>
       </c>
       <c r="D1001" s="3" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="E1001" s="3">
         <v>15410104</v>
@@ -74211,7 +74287,7 @@
         <v>384</v>
       </c>
       <c r="U1001" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1001" s="19"/>
     </row>
@@ -74220,7 +74296,7 @@
         <v>15410111</v>
       </c>
       <c r="D1002" s="114" t="s">
-        <v>1811</v>
+        <v>1797</v>
       </c>
       <c r="E1002" s="114">
         <v>15410111</v>
@@ -74255,8 +74331,8 @@
       <c r="O1002" s="114">
         <v>18450</v>
       </c>
-      <c r="P1002" s="114">
-        <v>15410002</v>
+      <c r="P1002" s="3">
+        <v>15410011</v>
       </c>
       <c r="Q1002" s="114"/>
       <c r="R1002" s="114"/>
@@ -74265,7 +74341,7 @@
         <v>384</v>
       </c>
       <c r="U1002" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1002" s="116"/>
     </row>
@@ -74274,7 +74350,7 @@
         <v>15410112</v>
       </c>
       <c r="D1003" s="114" t="s">
-        <v>1812</v>
+        <v>1798</v>
       </c>
       <c r="E1003" s="114">
         <v>15410112</v>
@@ -74309,8 +74385,8 @@
       <c r="O1003" s="114">
         <v>18450</v>
       </c>
-      <c r="P1003" s="114">
-        <v>15410002</v>
+      <c r="P1003" s="3">
+        <v>15410012</v>
       </c>
       <c r="Q1003" s="114"/>
       <c r="R1003" s="114"/>
@@ -74319,7 +74395,7 @@
         <v>384</v>
       </c>
       <c r="U1003" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1003" s="116"/>
     </row>
@@ -74328,7 +74404,7 @@
         <v>15411001</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="E1004" s="3">
         <v>15411001</v>
@@ -74373,7 +74449,7 @@
         <v>384</v>
       </c>
       <c r="U1004" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V1004" s="19" t="str">
         <f>D1004&amp;"的描述"</f>
@@ -74385,7 +74461,7 @@
         <v>15411002</v>
       </c>
       <c r="D1005" s="3" t="s">
-        <v>1673</v>
+        <v>1890</v>
       </c>
       <c r="E1005" s="3">
         <v>15411002</v>
@@ -74430,7 +74506,7 @@
         <v>384</v>
       </c>
       <c r="U1005" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1005" s="19"/>
     </row>
@@ -74439,7 +74515,7 @@
         <v>15411003</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="E1006" s="3">
         <v>15411003</v>
@@ -74484,7 +74560,7 @@
         <v>384</v>
       </c>
       <c r="U1006" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V1006" s="19" t="str">
         <f>D1006&amp;"的描述"</f>
@@ -74496,7 +74572,7 @@
         <v>15411004</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>1675</v>
+        <v>1889</v>
       </c>
       <c r="E1007" s="3">
         <v>15411004</v>
@@ -74541,7 +74617,7 @@
         <v>384</v>
       </c>
       <c r="U1007" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1007" s="19"/>
     </row>
@@ -74550,7 +74626,7 @@
         <v>15411005</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="E1008" s="3">
         <v>15411005</v>
@@ -74595,7 +74671,7 @@
         <v>384</v>
       </c>
       <c r="U1008" s="3" t="s">
-        <v>1887</v>
+        <v>1873</v>
       </c>
       <c r="V1008" s="19" t="str">
         <f>D1008&amp;"的描述"</f>
@@ -74607,7 +74683,7 @@
         <v>15411006</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>1677</v>
+        <v>1888</v>
       </c>
       <c r="E1009" s="3">
         <v>15411006</v>
@@ -74652,7 +74728,7 @@
         <v>384</v>
       </c>
       <c r="U1009" s="3" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1009" s="19"/>
     </row>
@@ -74661,7 +74737,7 @@
         <v>15411011</v>
       </c>
       <c r="D1010" s="114" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
       <c r="E1010" s="114">
         <v>15411011</v>
@@ -74696,8 +74772,8 @@
       <c r="O1010" s="114">
         <v>9225</v>
       </c>
-      <c r="P1010" s="114">
-        <v>15411002</v>
+      <c r="P1010" s="3">
+        <v>15411011</v>
       </c>
       <c r="Q1010" s="114"/>
       <c r="R1010" s="114"/>
@@ -74706,7 +74782,7 @@
         <v>384</v>
       </c>
       <c r="U1010" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1010" s="116"/>
     </row>
@@ -74715,7 +74791,7 @@
         <v>15411012</v>
       </c>
       <c r="D1011" s="114" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
       <c r="E1011" s="114">
         <v>15411012</v>
@@ -74750,8 +74826,8 @@
       <c r="O1011" s="114">
         <v>9225</v>
       </c>
-      <c r="P1011" s="114">
-        <v>15411004</v>
+      <c r="P1011" s="3">
+        <v>15411012</v>
       </c>
       <c r="Q1011" s="114"/>
       <c r="R1011" s="114"/>
@@ -74760,7 +74836,7 @@
         <v>384</v>
       </c>
       <c r="U1011" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1011" s="116"/>
     </row>
@@ -74769,7 +74845,7 @@
         <v>15411013</v>
       </c>
       <c r="D1012" s="114" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
       <c r="E1012" s="114">
         <v>15411013</v>
@@ -74804,8 +74880,8 @@
       <c r="O1012" s="114">
         <v>9225</v>
       </c>
-      <c r="P1012" s="114">
-        <v>15411006</v>
+      <c r="P1012" s="3">
+        <v>15411013</v>
       </c>
       <c r="Q1012" s="114"/>
       <c r="R1012" s="114"/>
@@ -74814,7 +74890,7 @@
         <v>384</v>
       </c>
       <c r="U1012" s="114" t="s">
-        <v>1882</v>
+        <v>1868</v>
       </c>
       <c r="V1012" s="116"/>
     </row>
@@ -74823,7 +74899,7 @@
         <v>15501001</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="E1013" s="3">
         <v>15501001</v>
@@ -74868,7 +74944,7 @@
         <v>384</v>
       </c>
       <c r="U1013" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1013" s="19" t="str">
         <f>D1013&amp;"的描述"</f>
@@ -74880,7 +74956,7 @@
         <v>15501002</v>
       </c>
       <c r="D1014" s="3" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="E1014" s="3">
         <v>15501002</v>
@@ -74925,7 +75001,7 @@
         <v>384</v>
       </c>
       <c r="U1014" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1014" s="19"/>
     </row>
@@ -74934,7 +75010,7 @@
         <v>15501003</v>
       </c>
       <c r="D1015" s="3" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="E1015" s="3">
         <v>15501003</v>
@@ -74979,7 +75055,7 @@
         <v>384</v>
       </c>
       <c r="U1015" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1015" s="19" t="str">
         <f>D1015&amp;"的描述"</f>
@@ -74991,7 +75067,7 @@
         <v>15501004</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="E1016" s="3">
         <v>15501004</v>
@@ -75036,7 +75112,7 @@
         <v>384</v>
       </c>
       <c r="U1016" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1016" s="19"/>
     </row>
@@ -75045,7 +75121,7 @@
         <v>15501005</v>
       </c>
       <c r="D1017" s="3" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="E1017" s="3">
         <v>15501005</v>
@@ -75090,7 +75166,7 @@
         <v>384</v>
       </c>
       <c r="U1017" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1017" s="19" t="str">
         <f>D1017&amp;"的描述"</f>
@@ -75102,7 +75178,7 @@
         <v>15501006</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="E1018" s="3">
         <v>15501006</v>
@@ -75147,7 +75223,7 @@
         <v>384</v>
       </c>
       <c r="U1018" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1018" s="19"/>
     </row>
@@ -75156,7 +75232,7 @@
         <v>15502001</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="E1019" s="3">
         <v>15502001</v>
@@ -75201,7 +75277,7 @@
         <v>384</v>
       </c>
       <c r="U1019" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1019" s="19" t="str">
         <f>D1019&amp;"的描述"</f>
@@ -75213,7 +75289,7 @@
         <v>15502002</v>
       </c>
       <c r="D1020" s="3" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="E1020" s="3">
         <v>15502002</v>
@@ -75258,7 +75334,7 @@
         <v>384</v>
       </c>
       <c r="U1020" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1020" s="19"/>
     </row>
@@ -75267,7 +75343,7 @@
         <v>15502003</v>
       </c>
       <c r="D1021" s="3" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="E1021" s="3">
         <v>15502003</v>
@@ -75312,7 +75388,7 @@
         <v>384</v>
       </c>
       <c r="U1021" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1021" s="19" t="str">
         <f>D1021&amp;"的描述"</f>
@@ -75324,7 +75400,7 @@
         <v>15502004</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="E1022" s="3">
         <v>15502004</v>
@@ -75369,7 +75445,7 @@
         <v>384</v>
       </c>
       <c r="U1022" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1022" s="19"/>
     </row>
@@ -75378,7 +75454,7 @@
         <v>15502005</v>
       </c>
       <c r="D1023" s="3" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="E1023" s="3">
         <v>15502005</v>
@@ -75423,7 +75499,7 @@
         <v>384</v>
       </c>
       <c r="U1023" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1023" s="19" t="str">
         <f>D1023&amp;"的描述"</f>
@@ -75435,7 +75511,7 @@
         <v>15502006</v>
       </c>
       <c r="D1024" s="3" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="E1024" s="3">
         <v>15502006</v>
@@ -75480,7 +75556,7 @@
         <v>384</v>
       </c>
       <c r="U1024" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1024" s="19"/>
     </row>
@@ -75489,7 +75565,7 @@
         <v>15503001</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="E1025" s="3">
         <v>15503001</v>
@@ -75534,7 +75610,7 @@
         <v>384</v>
       </c>
       <c r="U1025" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1025" s="19" t="str">
         <f>D1025&amp;"的描述"</f>
@@ -75546,7 +75622,7 @@
         <v>15503002</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="E1026" s="3">
         <v>15503002</v>
@@ -75591,7 +75667,7 @@
         <v>384</v>
       </c>
       <c r="U1026" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1026" s="19"/>
     </row>
@@ -75600,7 +75676,7 @@
         <v>15503003</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="E1027" s="3">
         <v>15503003</v>
@@ -75645,7 +75721,7 @@
         <v>384</v>
       </c>
       <c r="U1027" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1027" s="19" t="str">
         <f>D1027&amp;"的描述"</f>
@@ -75657,7 +75733,7 @@
         <v>15503004</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="E1028" s="3">
         <v>15503004</v>
@@ -75702,7 +75778,7 @@
         <v>384</v>
       </c>
       <c r="U1028" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1028" s="19"/>
     </row>
@@ -75711,7 +75787,7 @@
         <v>15503005</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="E1029" s="3">
         <v>15503005</v>
@@ -75756,7 +75832,7 @@
         <v>384</v>
       </c>
       <c r="U1029" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1029" s="19" t="str">
         <f>D1029&amp;"的描述"</f>
@@ -75768,7 +75844,7 @@
         <v>15503006</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="E1030" s="3">
         <v>15503006</v>
@@ -75813,7 +75889,7 @@
         <v>384</v>
       </c>
       <c r="U1030" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1030" s="19"/>
     </row>
@@ -75822,7 +75898,7 @@
         <v>15504001</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="E1031" s="3">
         <v>15504001</v>
@@ -75867,7 +75943,7 @@
         <v>384</v>
       </c>
       <c r="U1031" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1031" s="19" t="str">
         <f>D1031&amp;"的描述"</f>
@@ -75879,7 +75955,7 @@
         <v>15504002</v>
       </c>
       <c r="D1032" s="3" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="E1032" s="3">
         <v>15504002</v>
@@ -75924,7 +76000,7 @@
         <v>384</v>
       </c>
       <c r="U1032" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1032" s="19"/>
     </row>
@@ -75933,7 +76009,7 @@
         <v>15504003</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="E1033" s="3">
         <v>15504003</v>
@@ -75978,7 +76054,7 @@
         <v>384</v>
       </c>
       <c r="U1033" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1033" s="19" t="str">
         <f>D1033&amp;"的描述"</f>
@@ -75990,7 +76066,7 @@
         <v>15504004</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="E1034" s="3">
         <v>15504004</v>
@@ -76035,7 +76111,7 @@
         <v>384</v>
       </c>
       <c r="U1034" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1034" s="19"/>
     </row>
@@ -76044,7 +76120,7 @@
         <v>15504005</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="E1035" s="3">
         <v>15504005</v>
@@ -76089,7 +76165,7 @@
         <v>384</v>
       </c>
       <c r="U1035" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1035" s="19" t="str">
         <f>D1035&amp;"的描述"</f>
@@ -76101,7 +76177,7 @@
         <v>15504006</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="E1036" s="3">
         <v>15504006</v>
@@ -76146,7 +76222,7 @@
         <v>384</v>
       </c>
       <c r="U1036" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1036" s="19"/>
     </row>
@@ -76155,7 +76231,7 @@
         <v>15505001</v>
       </c>
       <c r="D1037" s="3" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="E1037" s="3">
         <v>15505001</v>
@@ -76200,7 +76276,7 @@
         <v>384</v>
       </c>
       <c r="U1037" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1037" s="19" t="str">
         <f>D1037&amp;"的描述"</f>
@@ -76212,7 +76288,7 @@
         <v>15505002</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="E1038" s="3">
         <v>15505002</v>
@@ -76257,7 +76333,7 @@
         <v>384</v>
       </c>
       <c r="U1038" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1038" s="19"/>
     </row>
@@ -76266,7 +76342,7 @@
         <v>15505003</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="E1039" s="3">
         <v>15505003</v>
@@ -76311,7 +76387,7 @@
         <v>384</v>
       </c>
       <c r="U1039" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1039" s="19" t="str">
         <f>D1039&amp;"的描述"</f>
@@ -76323,7 +76399,7 @@
         <v>15505004</v>
       </c>
       <c r="D1040" s="3" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="E1040" s="3">
         <v>15505004</v>
@@ -76368,7 +76444,7 @@
         <v>384</v>
       </c>
       <c r="U1040" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1040" s="19"/>
     </row>
@@ -76377,7 +76453,7 @@
         <v>15505005</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="E1041" s="3">
         <v>15505005</v>
@@ -76422,7 +76498,7 @@
         <v>384</v>
       </c>
       <c r="U1041" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1041" s="19" t="str">
         <f>D1041&amp;"的描述"</f>
@@ -76434,7 +76510,7 @@
         <v>15505006</v>
       </c>
       <c r="D1042" s="3" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="E1042" s="3">
         <v>15505006</v>
@@ -76479,7 +76555,7 @@
         <v>384</v>
       </c>
       <c r="U1042" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1042" s="19"/>
     </row>
@@ -76488,7 +76564,7 @@
         <v>15506001</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
       <c r="E1043" s="3">
         <v>15506001</v>
@@ -76533,7 +76609,7 @@
         <v>384</v>
       </c>
       <c r="U1043" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1043" s="19" t="str">
         <f>D1043&amp;"的描述"</f>
@@ -76545,7 +76621,7 @@
         <v>15506002</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="E1044" s="3">
         <v>15506002</v>
@@ -76590,7 +76666,7 @@
         <v>384</v>
       </c>
       <c r="U1044" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1044" s="19"/>
     </row>
@@ -76599,7 +76675,7 @@
         <v>15506003</v>
       </c>
       <c r="D1045" s="114" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="E1045" s="114">
         <v>15506003</v>
@@ -76634,8 +76710,8 @@
       <c r="O1045" s="114">
         <v>4973</v>
       </c>
-      <c r="P1045" s="114">
-        <v>15506002</v>
+      <c r="P1045" s="3">
+        <v>15506003</v>
       </c>
       <c r="Q1045" s="114"/>
       <c r="R1045" s="114"/>
@@ -76644,7 +76720,7 @@
         <v>384</v>
       </c>
       <c r="U1045" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1045" s="116"/>
     </row>
@@ -76653,7 +76729,7 @@
         <v>15507001</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
       <c r="E1046" s="3">
         <v>15507001</v>
@@ -76698,7 +76774,7 @@
         <v>384</v>
       </c>
       <c r="U1046" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1046" s="19" t="str">
         <f>D1046&amp;"的描述"</f>
@@ -76710,7 +76786,7 @@
         <v>15507002</v>
       </c>
       <c r="D1047" s="3" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="E1047" s="3">
         <v>15507002</v>
@@ -76755,7 +76831,7 @@
         <v>384</v>
       </c>
       <c r="U1047" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1047" s="19"/>
     </row>
@@ -76764,7 +76840,7 @@
         <v>15508001</v>
       </c>
       <c r="D1048" s="3" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
       <c r="E1048" s="3">
         <v>15508001</v>
@@ -76811,7 +76887,7 @@
         <v>384</v>
       </c>
       <c r="U1048" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1048" s="19" t="str">
         <f>D1048&amp;"的描述"</f>
@@ -76823,7 +76899,7 @@
         <v>15508002</v>
       </c>
       <c r="D1049" s="3" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="E1049" s="3">
         <v>15508002</v>
@@ -76870,7 +76946,7 @@
         <v>384</v>
       </c>
       <c r="U1049" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1049" s="19"/>
     </row>
@@ -76879,7 +76955,7 @@
         <v>15509001</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
       <c r="E1050" s="3">
         <v>15509001</v>
@@ -76924,7 +77000,7 @@
         <v>384</v>
       </c>
       <c r="U1050" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1050" s="19" t="str">
         <f>D1050&amp;"的描述"</f>
@@ -76936,7 +77012,7 @@
         <v>15509002</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="E1051" s="3">
         <v>15509002</v>
@@ -76981,7 +77057,7 @@
         <v>384</v>
       </c>
       <c r="U1051" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1051" s="19"/>
     </row>
@@ -76990,7 +77066,7 @@
         <v>15510001</v>
       </c>
       <c r="D1052" s="3" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="E1052" s="3">
         <v>15510001</v>
@@ -77035,7 +77111,7 @@
         <v>384</v>
       </c>
       <c r="U1052" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1052" s="19" t="str">
         <f>D1052&amp;"的描述"</f>
@@ -77047,7 +77123,7 @@
         <v>15510002</v>
       </c>
       <c r="D1053" s="3" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="E1053" s="3">
         <v>15510002</v>
@@ -77092,7 +77168,7 @@
         <v>384</v>
       </c>
       <c r="U1053" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1053" s="19"/>
     </row>
@@ -77101,7 +77177,7 @@
         <v>15510003</v>
       </c>
       <c r="D1054" s="3" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
       <c r="E1054" s="3">
         <v>15510003</v>
@@ -77146,7 +77222,7 @@
         <v>384</v>
       </c>
       <c r="U1054" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1054" s="19" t="str">
         <f>D1054&amp;"的描述"</f>
@@ -77158,7 +77234,7 @@
         <v>15510004</v>
       </c>
       <c r="D1055" s="3" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="E1055" s="3">
         <v>15510004</v>
@@ -77203,7 +77279,7 @@
         <v>384</v>
       </c>
       <c r="U1055" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1055" s="19"/>
     </row>
@@ -77212,7 +77288,7 @@
         <v>15510011</v>
       </c>
       <c r="D1056" s="114" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
       <c r="E1056" s="114">
         <v>15510011</v>
@@ -77247,8 +77323,8 @@
       <c r="O1056" s="114">
         <v>22950</v>
       </c>
-      <c r="P1056" s="114">
-        <v>15510002</v>
+      <c r="P1056" s="3">
+        <v>15510011</v>
       </c>
       <c r="Q1056" s="114"/>
       <c r="R1056" s="114"/>
@@ -77257,7 +77333,7 @@
         <v>384</v>
       </c>
       <c r="U1056" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1056" s="116"/>
     </row>
@@ -77266,7 +77342,7 @@
         <v>15510012</v>
       </c>
       <c r="D1057" s="114" t="s">
-        <v>1823</v>
+        <v>1809</v>
       </c>
       <c r="E1057" s="114">
         <v>15510012</v>
@@ -77301,8 +77377,8 @@
       <c r="O1057" s="114">
         <v>22950</v>
       </c>
-      <c r="P1057" s="114">
-        <v>15510004</v>
+      <c r="P1057" s="3">
+        <v>15510012</v>
       </c>
       <c r="Q1057" s="114"/>
       <c r="R1057" s="114"/>
@@ -77311,7 +77387,7 @@
         <v>384</v>
       </c>
       <c r="U1057" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1057" s="116"/>
     </row>
@@ -77320,7 +77396,7 @@
         <v>15510101</v>
       </c>
       <c r="D1058" s="21" t="s">
-        <v>1824</v>
+        <v>1810</v>
       </c>
       <c r="E1058" s="21">
         <v>15510101</v>
@@ -77365,7 +77441,7 @@
         <v>384</v>
       </c>
       <c r="U1058" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1058" s="27" t="str">
         <f>D1058&amp;"的描述"</f>
@@ -77377,7 +77453,7 @@
         <v>15510102</v>
       </c>
       <c r="D1059" s="21" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="E1059" s="21">
         <v>15510102</v>
@@ -77422,7 +77498,7 @@
         <v>384</v>
       </c>
       <c r="U1059" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1059" s="27"/>
     </row>
@@ -77431,7 +77507,7 @@
         <v>15510103</v>
       </c>
       <c r="D1060" s="21" t="s">
-        <v>1825</v>
+        <v>1811</v>
       </c>
       <c r="E1060" s="21">
         <v>15510103</v>
@@ -77476,7 +77552,7 @@
         <v>384</v>
       </c>
       <c r="U1060" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1060" s="27" t="str">
         <f>D1060&amp;"的描述"</f>
@@ -77488,7 +77564,7 @@
         <v>15510104</v>
       </c>
       <c r="D1061" s="21" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="E1061" s="21">
         <v>15510104</v>
@@ -77533,7 +77609,7 @@
         <v>384</v>
       </c>
       <c r="U1061" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1061" s="27"/>
     </row>
@@ -77542,7 +77618,7 @@
         <v>15510121</v>
       </c>
       <c r="D1062" s="114" t="s">
-        <v>1826</v>
+        <v>1812</v>
       </c>
       <c r="E1062" s="114">
         <v>15510121</v>
@@ -77577,8 +77653,8 @@
       <c r="O1062" s="114">
         <v>22950</v>
       </c>
-      <c r="P1062" s="114">
-        <v>15510002</v>
+      <c r="P1062" s="3">
+        <v>15510011</v>
       </c>
       <c r="Q1062" s="114"/>
       <c r="R1062" s="114"/>
@@ -77587,7 +77663,7 @@
         <v>384</v>
       </c>
       <c r="U1062" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1062" s="116"/>
     </row>
@@ -77596,7 +77672,7 @@
         <v>15510122</v>
       </c>
       <c r="D1063" s="114" t="s">
-        <v>1827</v>
+        <v>1813</v>
       </c>
       <c r="E1063" s="114">
         <v>15510122</v>
@@ -77631,8 +77707,8 @@
       <c r="O1063" s="114">
         <v>22950</v>
       </c>
-      <c r="P1063" s="114">
-        <v>15510004</v>
+      <c r="P1063" s="3">
+        <v>15510012</v>
       </c>
       <c r="Q1063" s="114"/>
       <c r="R1063" s="114"/>
@@ -77641,7 +77717,7 @@
         <v>384</v>
       </c>
       <c r="U1063" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1063" s="116"/>
     </row>
@@ -77650,7 +77726,7 @@
         <v>15511001</v>
       </c>
       <c r="D1064" s="3" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="E1064" s="3">
         <v>15511001</v>
@@ -77695,7 +77771,7 @@
         <v>384</v>
       </c>
       <c r="U1064" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1064" s="19" t="str">
         <f>D1064&amp;"的描述"</f>
@@ -77707,7 +77783,7 @@
         <v>15511002</v>
       </c>
       <c r="D1065" s="3" t="s">
-        <v>1718</v>
+        <v>1887</v>
       </c>
       <c r="E1065" s="3">
         <v>15511002</v>
@@ -77752,7 +77828,7 @@
         <v>384</v>
       </c>
       <c r="U1065" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1065" s="19"/>
     </row>
@@ -77761,7 +77837,7 @@
         <v>15511003</v>
       </c>
       <c r="D1066" s="3" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
       <c r="E1066" s="3">
         <v>15511003</v>
@@ -77806,7 +77882,7 @@
         <v>384</v>
       </c>
       <c r="U1066" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1066" s="19" t="str">
         <f>D1066&amp;"的描述"</f>
@@ -77818,7 +77894,7 @@
         <v>15511004</v>
       </c>
       <c r="D1067" s="3" t="s">
-        <v>1720</v>
+        <v>1886</v>
       </c>
       <c r="E1067" s="3">
         <v>15511004</v>
@@ -77863,7 +77939,7 @@
         <v>384</v>
       </c>
       <c r="U1067" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1067" s="19"/>
     </row>
@@ -77872,7 +77948,7 @@
         <v>15511005</v>
       </c>
       <c r="D1068" s="3" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="E1068" s="3">
         <v>15511005</v>
@@ -77917,7 +77993,7 @@
         <v>384</v>
       </c>
       <c r="U1068" s="3" t="s">
-        <v>1879</v>
+        <v>1865</v>
       </c>
       <c r="V1068" s="19" t="str">
         <f>D1068&amp;"的描述"</f>
@@ -77929,7 +78005,7 @@
         <v>15511006</v>
       </c>
       <c r="D1069" s="3" t="s">
-        <v>1722</v>
+        <v>1885</v>
       </c>
       <c r="E1069" s="3">
         <v>15511006</v>
@@ -77974,7 +78050,7 @@
         <v>384</v>
       </c>
       <c r="U1069" s="3" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1069" s="19"/>
     </row>
@@ -77983,7 +78059,7 @@
         <v>15511011</v>
       </c>
       <c r="D1070" s="114" t="s">
-        <v>1828</v>
+        <v>1814</v>
       </c>
       <c r="E1070" s="114">
         <v>15511011</v>
@@ -78018,8 +78094,8 @@
       <c r="O1070" s="114">
         <v>11475</v>
       </c>
-      <c r="P1070" s="114">
-        <v>15511002</v>
+      <c r="P1070" s="3">
+        <v>15511011</v>
       </c>
       <c r="Q1070" s="114"/>
       <c r="R1070" s="114"/>
@@ -78028,7 +78104,7 @@
         <v>384</v>
       </c>
       <c r="U1070" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1070" s="116"/>
     </row>
@@ -78037,7 +78113,7 @@
         <v>15511012</v>
       </c>
       <c r="D1071" s="114" t="s">
-        <v>1829</v>
+        <v>1815</v>
       </c>
       <c r="E1071" s="114">
         <v>15511012</v>
@@ -78072,8 +78148,8 @@
       <c r="O1071" s="114">
         <v>11475</v>
       </c>
-      <c r="P1071" s="114">
-        <v>15511004</v>
+      <c r="P1071" s="3">
+        <v>15511012</v>
       </c>
       <c r="Q1071" s="114"/>
       <c r="R1071" s="114"/>
@@ -78082,7 +78158,7 @@
         <v>384</v>
       </c>
       <c r="U1071" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1071" s="116"/>
     </row>
@@ -78091,7 +78167,7 @@
         <v>15511013</v>
       </c>
       <c r="D1072" s="114" t="s">
-        <v>1830</v>
+        <v>1816</v>
       </c>
       <c r="E1072" s="114">
         <v>15511013</v>
@@ -78126,8 +78202,8 @@
       <c r="O1072" s="114">
         <v>11475</v>
       </c>
-      <c r="P1072" s="114">
-        <v>15511006</v>
+      <c r="P1072" s="3">
+        <v>15511013</v>
       </c>
       <c r="Q1072" s="114"/>
       <c r="R1072" s="114"/>
@@ -78136,7 +78212,7 @@
         <v>384</v>
       </c>
       <c r="U1072" s="114" t="s">
-        <v>1883</v>
+        <v>1869</v>
       </c>
       <c r="V1072" s="116"/>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49BF5FE-4B9B-405C-94F7-4381AB359A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE6D81-A25E-4E27-8CC9-AAF39B7D398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15375,10 +15375,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="V681" sqref="V681"/>
+      <selection pane="bottomLeft" activeCell="I681" sqref="I681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56510,7 +56510,7 @@
         <v>0</v>
       </c>
       <c r="R681" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S681" s="3"/>
       <c r="T681" s="3"/>
@@ -56565,7 +56565,7 @@
         <v>0</v>
       </c>
       <c r="R682" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S682" s="3"/>
       <c r="T682" s="3"/>
@@ -56620,7 +56620,7 @@
         <v>0</v>
       </c>
       <c r="R683" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S683" s="3"/>
       <c r="T683" s="3"/>
@@ -56675,7 +56675,7 @@
         <v>0</v>
       </c>
       <c r="R684" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S684" s="3"/>
       <c r="T684" s="3"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F608AB3-CC25-41AB-B532-A11711179118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD6FC43-A5CA-4950-A15A-2B32B9303B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7566,10 +7566,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>传承碎片</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>10010085,10;10010083,1;10000143,2</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -7608,6 +7604,10 @@
   <si>
     <t>10010085,30;10010083,1;10000143,3</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>灿烂的结晶</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15416,9 +15416,9 @@
   <dimension ref="B1:Y1074"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1055" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="U1074" sqref="U1074"/>
+      <selection pane="bottomLeft" activeCell="R897" sqref="R897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17355,10 +17355,10 @@
         <v>10000143</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="E35" s="20">
-        <v>10000136</v>
+        <v>10000143</v>
       </c>
       <c r="F35" s="21">
         <v>0</v>
@@ -62578,7 +62578,7 @@
         <v>384</v>
       </c>
       <c r="U789" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V789" s="116"/>
     </row>
@@ -63649,7 +63649,7 @@
         <v>384</v>
       </c>
       <c r="U808" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V808" s="116"/>
     </row>
@@ -63703,7 +63703,7 @@
         <v>384</v>
       </c>
       <c r="U809" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V809" s="116"/>
     </row>
@@ -64207,7 +64207,7 @@
         <v>384</v>
       </c>
       <c r="U818" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V818" s="116"/>
     </row>
@@ -64261,7 +64261,7 @@
         <v>384</v>
       </c>
       <c r="U819" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V819" s="116"/>
     </row>
@@ -64990,7 +64990,7 @@
         <v>384</v>
       </c>
       <c r="U832" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V832" s="116"/>
     </row>
@@ -65044,7 +65044,7 @@
         <v>384</v>
       </c>
       <c r="U833" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V833" s="116"/>
     </row>
@@ -65098,7 +65098,7 @@
         <v>384</v>
       </c>
       <c r="U834" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V834" s="116"/>
     </row>
@@ -66928,7 +66928,7 @@
         <v>384</v>
       </c>
       <c r="U867" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V867" s="116"/>
     </row>
@@ -67541,7 +67541,7 @@
         <v>384</v>
       </c>
       <c r="U878" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V878" s="116"/>
     </row>
@@ -67595,7 +67595,7 @@
         <v>384</v>
       </c>
       <c r="U879" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V879" s="116"/>
     </row>
@@ -67871,7 +67871,7 @@
         <v>384</v>
       </c>
       <c r="U884" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V884" s="116"/>
     </row>
@@ -67925,7 +67925,7 @@
         <v>384</v>
       </c>
       <c r="U885" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V885" s="116"/>
     </row>
@@ -68312,7 +68312,7 @@
         <v>384</v>
       </c>
       <c r="U892" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V892" s="116"/>
     </row>
@@ -68366,7 +68366,7 @@
         <v>384</v>
       </c>
       <c r="U893" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V893" s="116"/>
     </row>
@@ -68420,7 +68420,7 @@
         <v>384</v>
       </c>
       <c r="U894" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V894" s="116"/>
     </row>
@@ -70250,7 +70250,7 @@
         <v>384</v>
       </c>
       <c r="U927" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V927" s="116"/>
     </row>
@@ -70863,7 +70863,7 @@
         <v>384</v>
       </c>
       <c r="U938" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V938" s="116"/>
     </row>
@@ -70917,7 +70917,7 @@
         <v>384</v>
       </c>
       <c r="U939" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V939" s="116"/>
     </row>
@@ -71193,7 +71193,7 @@
         <v>384</v>
       </c>
       <c r="U944" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V944" s="116"/>
     </row>
@@ -71247,7 +71247,7 @@
         <v>384</v>
       </c>
       <c r="U945" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V945" s="116"/>
     </row>
@@ -71634,7 +71634,7 @@
         <v>384</v>
       </c>
       <c r="U952" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V952" s="116"/>
     </row>
@@ -71688,7 +71688,7 @@
         <v>384</v>
       </c>
       <c r="U953" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V953" s="116"/>
     </row>
@@ -71742,7 +71742,7 @@
         <v>384</v>
       </c>
       <c r="U954" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V954" s="116"/>
     </row>
@@ -73572,7 +73572,7 @@
         <v>384</v>
       </c>
       <c r="U987" s="114" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="V987" s="116"/>
     </row>
@@ -74185,7 +74185,7 @@
         <v>384</v>
       </c>
       <c r="U998" s="114" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="V998" s="116"/>
     </row>
@@ -74239,7 +74239,7 @@
         <v>384</v>
       </c>
       <c r="U999" s="114" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="V999" s="116"/>
     </row>
@@ -74515,7 +74515,7 @@
         <v>384</v>
       </c>
       <c r="U1004" s="114" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="V1004" s="116"/>
     </row>
@@ -74569,7 +74569,7 @@
         <v>384</v>
       </c>
       <c r="U1005" s="114" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="V1005" s="116"/>
     </row>
@@ -74956,7 +74956,7 @@
         <v>384</v>
       </c>
       <c r="U1012" s="114" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="V1012" s="116"/>
     </row>
@@ -75010,7 +75010,7 @@
         <v>384</v>
       </c>
       <c r="U1013" s="114" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="V1013" s="116"/>
     </row>
@@ -75064,7 +75064,7 @@
         <v>384</v>
       </c>
       <c r="U1014" s="114" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="V1014" s="116"/>
     </row>
@@ -76894,7 +76894,7 @@
         <v>384</v>
       </c>
       <c r="U1047" s="114" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="V1047" s="116"/>
     </row>
@@ -77507,7 +77507,7 @@
         <v>384</v>
       </c>
       <c r="U1058" s="114" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="V1058" s="116"/>
     </row>
@@ -77561,7 +77561,7 @@
         <v>384</v>
       </c>
       <c r="U1059" s="114" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="V1059" s="116"/>
     </row>
@@ -77837,7 +77837,7 @@
         <v>384</v>
       </c>
       <c r="U1064" s="114" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="V1064" s="116"/>
     </row>
@@ -77891,7 +77891,7 @@
         <v>384</v>
       </c>
       <c r="U1065" s="114" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="V1065" s="116"/>
     </row>
@@ -78278,7 +78278,7 @@
         <v>384</v>
       </c>
       <c r="U1072" s="114" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="V1072" s="116"/>
     </row>
@@ -78332,7 +78332,7 @@
         <v>384</v>
       </c>
       <c r="U1073" s="114" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="V1073" s="116"/>
     </row>
@@ -78386,7 +78386,7 @@
         <v>384</v>
       </c>
       <c r="U1074" s="114" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="V1074" s="116"/>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23683374-F1C4-4F20-A73E-B31E207233F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CD74E-1BA4-409B-9F24-78B006C9BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,8 @@
 118 宠物资质
 119 宠物成长
 120 充值积分
-121 宠物技能石
+121 鉴定装备卷轴
+122 宠物技能石
 </t>
         </r>
         <r>
@@ -917,7 +918,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="1963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2013">
   <si>
     <t>ItemName</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -6267,18 +6268,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>28800@180@1000101;50@1000201;50@1000301;50</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>43200@320@1000401;50@1000501;50@1000601;50</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400@480@1000701;50@1000801;50</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>生命之核</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -7611,172 +7600,324 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>宠物技能：勇猛</t>
-  </si>
-  <si>
-    <t>宠物技能：暴击</t>
-  </si>
-  <si>
-    <t>宠物技能：魔法</t>
-  </si>
-  <si>
-    <t>宠物技能：集中</t>
-  </si>
-  <si>
-    <t>宠物技能：移动</t>
-  </si>
-  <si>
-    <t>宠物技能：连击</t>
-  </si>
-  <si>
-    <t>宠物技能：反击</t>
-  </si>
-  <si>
-    <t>宠物技能：反震</t>
-  </si>
-  <si>
-    <t>宠物技能：抵抗</t>
-  </si>
-  <si>
-    <t>宠物技能：生命</t>
-  </si>
-  <si>
-    <t>宠物技能：再生</t>
-  </si>
-  <si>
-    <t>宠物技能：神迹</t>
-  </si>
-  <si>
-    <t>宠物技能：灵巧</t>
-  </si>
-  <si>
-    <t>宠物技能：神佑</t>
-  </si>
-  <si>
-    <t>宠物技能：破咒</t>
-  </si>
-  <si>
-    <t>宠物技能：防御</t>
-  </si>
-  <si>
-    <t>宠物技能：幸运</t>
-  </si>
-  <si>
-    <t>宠物技能：强力</t>
-  </si>
-  <si>
-    <t>宠物技能：防护</t>
-  </si>
-  <si>
-    <t>宠物技能：专注</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶勇猛</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶暴击</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶魔法</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶集中</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶移动</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶连击</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶反击</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶反震</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶抵抗</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶生命</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶再生</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶神迹</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶灵巧</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶神佑</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶破咒</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶防御</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶幸运</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶强力</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶防护</t>
-  </si>
-  <si>
-    <t>宠物技能：高阶专注</t>
-  </si>
-  <si>
-    <t>宠物技能：吸收金</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：吸收木</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：吸收水</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：吸收火</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：吸收土</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：弱势金</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：弱势木</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：弱势水</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：弱势火</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能：弱势土</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>可以重置当前角色的加点属性</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>可以重置当前宠物的加点属性</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400@480@1000701;50@1000801;50@1001001;50@1001101;50@1001201;50@1001301;50@1001401;50</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>28800@180@1000101;50@1000201;50@1000301;50;1000401;15@1000501;15@1000601;15@1000901;15</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>43200@320@1000401;50@1000501;50@1000601;50@1000901;50@1000701;20@1000801;20@1001001;15@1001101;15</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>抵抗</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>神迹</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>神佑</t>
+  </si>
+  <si>
+    <t>破咒</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>强力</t>
+  </si>
+  <si>
+    <t>防护</t>
+  </si>
+  <si>
+    <t>专注</t>
+  </si>
+  <si>
+    <t>高阶勇猛</t>
+  </si>
+  <si>
+    <t>高阶暴击</t>
+  </si>
+  <si>
+    <t>高阶魔法</t>
+  </si>
+  <si>
+    <t>高阶集中</t>
+  </si>
+  <si>
+    <t>高阶移动</t>
+  </si>
+  <si>
+    <t>高阶连击</t>
+  </si>
+  <si>
+    <t>高阶反击</t>
+  </si>
+  <si>
+    <t>高阶反震</t>
+  </si>
+  <si>
+    <t>高阶抵抗</t>
+  </si>
+  <si>
+    <t>高阶生命</t>
+  </si>
+  <si>
+    <t>高阶再生</t>
+  </si>
+  <si>
+    <t>高阶神迹</t>
+  </si>
+  <si>
+    <t>高阶灵巧</t>
+  </si>
+  <si>
+    <t>高阶神佑</t>
+  </si>
+  <si>
+    <t>高阶破咒</t>
+  </si>
+  <si>
+    <t>高阶防御</t>
+  </si>
+  <si>
+    <t>高阶幸运</t>
+  </si>
+  <si>
+    <t>高阶强力</t>
+  </si>
+  <si>
+    <t>高阶防护</t>
+  </si>
+  <si>
+    <t>高阶专注</t>
+  </si>
+  <si>
+    <t>吸收金</t>
+  </si>
+  <si>
+    <t>吸收木</t>
+  </si>
+  <si>
+    <t>吸收水</t>
+  </si>
+  <si>
+    <t>吸收火</t>
+  </si>
+  <si>
+    <t>吸收土</t>
+  </si>
+  <si>
+    <t>弱势金</t>
+  </si>
+  <si>
+    <t>弱势木</t>
+  </si>
+  <si>
+    <t>弱势水</t>
+  </si>
+  <si>
+    <t>弱势火</t>
+  </si>
+  <si>
+    <t>弱势土</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：勇猛,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：暴击,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：魔法,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：集中,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：移动,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：连击,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：反击,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：反震,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：抵抗,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：生命,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：再生,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：神迹,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：灵巧,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：神佑,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：破咒,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：防御,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：幸运,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：强力,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：防护,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：专注,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶勇猛,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶暴击,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶魔法,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶集中,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶移动,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶连击,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶反击,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶反震,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶抵抗,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶生命,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶再生,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶神迹,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶灵巧,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶神佑,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶破咒,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶防御,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶幸运,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶强力,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶防护,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：高阶专注,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：吸收金,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：吸收木,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：吸收水,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：吸收火,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：吸收土,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：弱势金,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：弱势木,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：弱势水,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：弱势火,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>可以给宠物添加宠物技能：弱势土,添加时将随机替换原始宠物技能中的一个喔!</t>
   </si>
 </sst>
 </file>
@@ -15584,10 +15725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16225,7 +16366,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E13" s="11">
         <v>8</v>
@@ -17051,7 +17192,7 @@
         <v>10000135</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="20">
         <v>10000135</v>
@@ -17101,7 +17242,7 @@
       </c>
       <c r="U27" s="24"/>
       <c r="V27" s="102" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="W27" s="102"/>
     </row>
@@ -17110,7 +17251,7 @@
         <v>10000136</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E28" s="20">
         <v>10000136</v>
@@ -17169,7 +17310,7 @@
         <v>10000137</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E29" s="20">
         <v>10000137</v>
@@ -17209,7 +17350,7 @@
       </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="24" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="S29" s="23">
         <v>0</v>
@@ -17228,7 +17369,7 @@
         <v>10000138</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E30" s="20">
         <v>10000138</v>
@@ -17268,7 +17409,7 @@
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="S30" s="23">
         <v>0</v>
@@ -17287,7 +17428,7 @@
         <v>10000139</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E31" s="20">
         <v>10000139</v>
@@ -17337,7 +17478,7 @@
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="102" t="s">
-        <v>1961</v>
+        <v>1908</v>
       </c>
       <c r="W31" s="102"/>
     </row>
@@ -17346,7 +17487,7 @@
         <v>10000140</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E32" s="20">
         <v>10000140</v>
@@ -17396,7 +17537,7 @@
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="102" t="s">
-        <v>1962</v>
+        <v>1909</v>
       </c>
       <c r="W32" s="102"/>
     </row>
@@ -17405,7 +17546,7 @@
         <v>10000141</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="E33" s="20">
         <v>10000141</v>
@@ -17455,7 +17596,7 @@
       </c>
       <c r="U33" s="24"/>
       <c r="V33" s="72" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="W33" s="72"/>
     </row>
@@ -17464,7 +17605,7 @@
         <v>10000142</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E34" s="20">
         <v>10000142</v>
@@ -17514,7 +17655,7 @@
       </c>
       <c r="U34" s="24"/>
       <c r="V34" s="72" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="W34" s="72"/>
     </row>
@@ -17523,7 +17664,7 @@
         <v>10000143</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="E35" s="20">
         <v>10000143</v>
@@ -17632,7 +17773,7 @@
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="72" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="W36" s="73" t="s">
         <v>1464</v>
@@ -17693,7 +17834,7 @@
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="72" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="W37" s="73" t="s">
         <v>1464</v>
@@ -17754,7 +17895,7 @@
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="72" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="W38" s="73" t="s">
         <v>1464</v>
@@ -17815,7 +17956,7 @@
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="72" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="W39" s="73" t="s">
         <v>1464</v>
@@ -17876,7 +18017,7 @@
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="72" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="W40" s="73" t="s">
         <v>1464</v>
@@ -17937,7 +18078,7 @@
       </c>
       <c r="U41" s="24"/>
       <c r="V41" s="72" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="W41" s="72" t="s">
         <v>797</v>
@@ -17998,7 +18139,7 @@
       </c>
       <c r="U42" s="24"/>
       <c r="V42" s="72" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="W42" s="72" t="s">
         <v>797</v>
@@ -18059,7 +18200,7 @@
       </c>
       <c r="U43" s="24"/>
       <c r="V43" s="72" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="W43" s="72" t="s">
         <v>797</v>
@@ -18120,7 +18261,7 @@
       </c>
       <c r="U44" s="24"/>
       <c r="V44" s="72" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="W44" s="72" t="s">
         <v>797</v>
@@ -18181,7 +18322,7 @@
       </c>
       <c r="U45" s="24"/>
       <c r="V45" s="72" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="W45" s="72" t="s">
         <v>797</v>
@@ -18628,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H53" s="22">
         <v>0</v>
@@ -18689,7 +18830,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H54" s="23">
         <v>0</v>
@@ -18872,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H57" s="23">
         <v>6</v>
@@ -18903,7 +19044,7 @@
       </c>
       <c r="Q57" s="23"/>
       <c r="R57" s="11" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="S57" s="23">
         <v>0</v>
@@ -18933,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H58" s="23">
         <v>6</v>
@@ -18964,7 +19105,7 @@
       </c>
       <c r="Q58" s="23"/>
       <c r="R58" s="11" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="S58" s="23">
         <v>0</v>
@@ -18985,7 +19126,7 @@
         <v>10010043</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E59" s="20">
         <v>10010042</v>
@@ -19025,7 +19166,7 @@
       </c>
       <c r="Q59" s="23"/>
       <c r="R59" s="11" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="S59" s="23">
         <v>0</v>
@@ -20092,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H77" s="23">
         <v>0</v>
@@ -20123,7 +20264,7 @@
       </c>
       <c r="Q77" s="23"/>
       <c r="R77" s="23" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="S77" s="23">
         <v>0</v>
@@ -20133,7 +20274,7 @@
       </c>
       <c r="U77" s="24"/>
       <c r="V77" s="72" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="W77" s="73" t="s">
         <v>487</v>
@@ -20336,7 +20477,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="82" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H81" s="81">
         <v>0</v>
@@ -20397,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="104" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H82" s="106">
         <v>0</v>
@@ -20766,7 +20907,7 @@
       </c>
       <c r="Q88" s="21"/>
       <c r="R88" s="29" t="s">
-        <v>1490</v>
+        <v>1911</v>
       </c>
       <c r="S88" s="21">
         <v>0</v>
@@ -20825,7 +20966,7 @@
       </c>
       <c r="Q89" s="21"/>
       <c r="R89" s="29" t="s">
-        <v>1491</v>
+        <v>1912</v>
       </c>
       <c r="S89" s="21">
         <v>0</v>
@@ -20884,7 +21025,7 @@
       </c>
       <c r="Q90" s="21"/>
       <c r="R90" s="29" t="s">
-        <v>1492</v>
+        <v>1910</v>
       </c>
       <c r="S90" s="21">
         <v>0</v>
@@ -20903,7 +21044,7 @@
         <v>10010098</v>
       </c>
       <c r="D91" s="84" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="E91" s="83">
         <v>10010098</v>
@@ -20957,7 +21098,7 @@
         <v>10010099</v>
       </c>
       <c r="D92" s="84" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="E92" s="83">
         <v>10010099</v>
@@ -29913,7 +30054,7 @@
       </c>
       <c r="U238" s="14"/>
       <c r="V238" s="59" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="W238" s="59"/>
       <c r="Y238" s="59"/>
@@ -29973,7 +30114,7 @@
       </c>
       <c r="U239" s="14"/>
       <c r="V239" s="59" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="W239" s="59"/>
       <c r="Y239" s="59"/>
@@ -30537,7 +30678,7 @@
       </c>
       <c r="U248" s="14"/>
       <c r="V248" s="59" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="W248" s="59"/>
       <c r="Y248" s="59"/>
@@ -30597,7 +30738,7 @@
       </c>
       <c r="U249" s="14"/>
       <c r="V249" s="59" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="W249" s="59"/>
       <c r="Y249" s="59"/>
@@ -31161,7 +31302,7 @@
       </c>
       <c r="U258" s="14"/>
       <c r="V258" s="59" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="W258" s="59"/>
       <c r="Y258" s="59"/>
@@ -31221,7 +31362,7 @@
       </c>
       <c r="U259" s="14"/>
       <c r="V259" s="59" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="W259" s="59"/>
       <c r="Y259" s="59"/>
@@ -31785,7 +31926,7 @@
       </c>
       <c r="U268" s="14"/>
       <c r="V268" s="59" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="W268" s="59"/>
       <c r="Y268" s="59"/>
@@ -31845,7 +31986,7 @@
       </c>
       <c r="U269" s="14"/>
       <c r="V269" s="59" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="W269" s="59"/>
       <c r="Y269" s="59"/>
@@ -32409,7 +32550,7 @@
       </c>
       <c r="U278" s="14"/>
       <c r="V278" s="59" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="W278" s="59"/>
     </row>
@@ -32468,7 +32609,7 @@
       </c>
       <c r="U279" s="14"/>
       <c r="V279" s="59" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="W279" s="59"/>
     </row>
@@ -52613,7 +52754,7 @@
         <v>10051001</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="E612" s="3">
         <v>10051001</v>
@@ -52634,7 +52775,7 @@
         <v>2</v>
       </c>
       <c r="K612" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L612" s="3">
         <v>0</v>
@@ -52660,7 +52801,9 @@
       </c>
       <c r="T612" s="3"/>
       <c r="U612" s="3"/>
-      <c r="V612" s="5"/>
+      <c r="V612" s="3" t="s">
+        <v>1963</v>
+      </c>
       <c r="W612" s="19"/>
     </row>
     <row r="613" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52668,7 +52811,7 @@
         <v>10051002</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="E613" s="3">
         <v>10051001</v>
@@ -52689,7 +52832,7 @@
         <v>2</v>
       </c>
       <c r="K613" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L613" s="3">
         <v>0</v>
@@ -52715,7 +52858,9 @@
       </c>
       <c r="T613" s="3"/>
       <c r="U613" s="3"/>
-      <c r="V613" s="5"/>
+      <c r="V613" s="3" t="s">
+        <v>1964</v>
+      </c>
       <c r="W613" s="19"/>
     </row>
     <row r="614" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52723,7 +52868,7 @@
         <v>10051003</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="E614" s="3">
         <v>10051001</v>
@@ -52744,7 +52889,7 @@
         <v>2</v>
       </c>
       <c r="K614" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L614" s="3">
         <v>0</v>
@@ -52770,7 +52915,9 @@
       </c>
       <c r="T614" s="3"/>
       <c r="U614" s="3"/>
-      <c r="V614" s="5"/>
+      <c r="V614" s="3" t="s">
+        <v>1965</v>
+      </c>
       <c r="W614" s="19"/>
     </row>
     <row r="615" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52778,7 +52925,7 @@
         <v>10051004</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="E615" s="3">
         <v>10051001</v>
@@ -52799,7 +52946,7 @@
         <v>2</v>
       </c>
       <c r="K615" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L615" s="3">
         <v>0</v>
@@ -52825,7 +52972,9 @@
       </c>
       <c r="T615" s="3"/>
       <c r="U615" s="3"/>
-      <c r="V615" s="5"/>
+      <c r="V615" s="3" t="s">
+        <v>1966</v>
+      </c>
       <c r="W615" s="19"/>
     </row>
     <row r="616" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52833,7 +52982,7 @@
         <v>10051005</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="E616" s="3">
         <v>10051001</v>
@@ -52854,7 +53003,7 @@
         <v>2</v>
       </c>
       <c r="K616" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L616" s="3">
         <v>0</v>
@@ -52880,7 +53029,9 @@
       </c>
       <c r="T616" s="3"/>
       <c r="U616" s="3"/>
-      <c r="V616" s="5"/>
+      <c r="V616" s="3" t="s">
+        <v>1967</v>
+      </c>
       <c r="W616" s="19"/>
     </row>
     <row r="617" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52888,7 +53039,7 @@
         <v>10051006</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="E617" s="3">
         <v>10051001</v>
@@ -52909,7 +53060,7 @@
         <v>2</v>
       </c>
       <c r="K617" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L617" s="3">
         <v>0</v>
@@ -52935,7 +53086,9 @@
       </c>
       <c r="T617" s="3"/>
       <c r="U617" s="3"/>
-      <c r="V617" s="5"/>
+      <c r="V617" s="3" t="s">
+        <v>1968</v>
+      </c>
       <c r="W617" s="19"/>
     </row>
     <row r="618" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52943,7 +53096,7 @@
         <v>10051007</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E618" s="3">
         <v>10051001</v>
@@ -52964,7 +53117,7 @@
         <v>2</v>
       </c>
       <c r="K618" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L618" s="3">
         <v>0</v>
@@ -52990,7 +53143,9 @@
       </c>
       <c r="T618" s="3"/>
       <c r="U618" s="3"/>
-      <c r="V618" s="5"/>
+      <c r="V618" s="3" t="s">
+        <v>1969</v>
+      </c>
       <c r="W618" s="19"/>
     </row>
     <row r="619" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -52998,7 +53153,7 @@
         <v>10051008</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="E619" s="3">
         <v>10051001</v>
@@ -53019,7 +53174,7 @@
         <v>2</v>
       </c>
       <c r="K619" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L619" s="3">
         <v>0</v>
@@ -53045,7 +53200,9 @@
       </c>
       <c r="T619" s="3"/>
       <c r="U619" s="3"/>
-      <c r="V619" s="5"/>
+      <c r="V619" s="3" t="s">
+        <v>1970</v>
+      </c>
       <c r="W619" s="19"/>
     </row>
     <row r="620" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53053,7 +53210,7 @@
         <v>10051009</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="E620" s="3">
         <v>10051001</v>
@@ -53074,7 +53231,7 @@
         <v>2</v>
       </c>
       <c r="K620" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L620" s="3">
         <v>0</v>
@@ -53100,7 +53257,9 @@
       </c>
       <c r="T620" s="3"/>
       <c r="U620" s="3"/>
-      <c r="V620" s="5"/>
+      <c r="V620" s="3" t="s">
+        <v>1971</v>
+      </c>
       <c r="W620" s="19"/>
     </row>
     <row r="621" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53108,7 +53267,7 @@
         <v>10051010</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="E621" s="3">
         <v>10051001</v>
@@ -53129,7 +53288,7 @@
         <v>2</v>
       </c>
       <c r="K621" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L621" s="3">
         <v>0</v>
@@ -53155,7 +53314,9 @@
       </c>
       <c r="T621" s="3"/>
       <c r="U621" s="3"/>
-      <c r="V621" s="5"/>
+      <c r="V621" s="3" t="s">
+        <v>1972</v>
+      </c>
       <c r="W621" s="19"/>
     </row>
     <row r="622" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53163,7 +53324,7 @@
         <v>10051011</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="E622" s="3">
         <v>10051001</v>
@@ -53184,7 +53345,7 @@
         <v>2</v>
       </c>
       <c r="K622" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L622" s="3">
         <v>0</v>
@@ -53210,7 +53371,9 @@
       </c>
       <c r="T622" s="3"/>
       <c r="U622" s="3"/>
-      <c r="V622" s="5"/>
+      <c r="V622" s="3" t="s">
+        <v>1973</v>
+      </c>
       <c r="W622" s="19"/>
     </row>
     <row r="623" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53218,7 +53381,7 @@
         <v>10051012</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="E623" s="3">
         <v>10051001</v>
@@ -53239,7 +53402,7 @@
         <v>2</v>
       </c>
       <c r="K623" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L623" s="3">
         <v>0</v>
@@ -53265,7 +53428,9 @@
       </c>
       <c r="T623" s="3"/>
       <c r="U623" s="3"/>
-      <c r="V623" s="5"/>
+      <c r="V623" s="3" t="s">
+        <v>1974</v>
+      </c>
       <c r="W623" s="19"/>
     </row>
     <row r="624" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53273,7 +53438,7 @@
         <v>10051013</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E624" s="3">
         <v>10051001</v>
@@ -53294,7 +53459,7 @@
         <v>2</v>
       </c>
       <c r="K624" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L624" s="3">
         <v>0</v>
@@ -53320,7 +53485,9 @@
       </c>
       <c r="T624" s="3"/>
       <c r="U624" s="3"/>
-      <c r="V624" s="5"/>
+      <c r="V624" s="3" t="s">
+        <v>1975</v>
+      </c>
       <c r="W624" s="19"/>
     </row>
     <row r="625" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53328,7 +53495,7 @@
         <v>10051014</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="E625" s="3">
         <v>10051001</v>
@@ -53349,7 +53516,7 @@
         <v>2</v>
       </c>
       <c r="K625" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L625" s="3">
         <v>0</v>
@@ -53375,7 +53542,9 @@
       </c>
       <c r="T625" s="3"/>
       <c r="U625" s="3"/>
-      <c r="V625" s="5"/>
+      <c r="V625" s="3" t="s">
+        <v>1976</v>
+      </c>
       <c r="W625" s="19"/>
     </row>
     <row r="626" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53383,7 +53552,7 @@
         <v>10051015</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="E626" s="3">
         <v>10051001</v>
@@ -53404,7 +53573,7 @@
         <v>2</v>
       </c>
       <c r="K626" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L626" s="3">
         <v>0</v>
@@ -53430,7 +53599,9 @@
       </c>
       <c r="T626" s="3"/>
       <c r="U626" s="3"/>
-      <c r="V626" s="5"/>
+      <c r="V626" s="3" t="s">
+        <v>1977</v>
+      </c>
       <c r="W626" s="19"/>
     </row>
     <row r="627" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53438,7 +53609,7 @@
         <v>10051016</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="E627" s="3">
         <v>10051001</v>
@@ -53459,7 +53630,7 @@
         <v>2</v>
       </c>
       <c r="K627" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L627" s="3">
         <v>0</v>
@@ -53485,7 +53656,9 @@
       </c>
       <c r="T627" s="3"/>
       <c r="U627" s="3"/>
-      <c r="V627" s="5"/>
+      <c r="V627" s="3" t="s">
+        <v>1978</v>
+      </c>
       <c r="W627" s="19"/>
     </row>
     <row r="628" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53493,7 +53666,7 @@
         <v>10051017</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E628" s="3">
         <v>10051001</v>
@@ -53514,7 +53687,7 @@
         <v>2</v>
       </c>
       <c r="K628" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L628" s="3">
         <v>0</v>
@@ -53540,7 +53713,9 @@
       </c>
       <c r="T628" s="3"/>
       <c r="U628" s="3"/>
-      <c r="V628" s="5"/>
+      <c r="V628" s="3" t="s">
+        <v>1979</v>
+      </c>
       <c r="W628" s="19"/>
     </row>
     <row r="629" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53548,7 +53723,7 @@
         <v>10051018</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="E629" s="3">
         <v>10051001</v>
@@ -53569,7 +53744,7 @@
         <v>2</v>
       </c>
       <c r="K629" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L629" s="3">
         <v>0</v>
@@ -53595,7 +53770,9 @@
       </c>
       <c r="T629" s="3"/>
       <c r="U629" s="3"/>
-      <c r="V629" s="5"/>
+      <c r="V629" s="3" t="s">
+        <v>1980</v>
+      </c>
       <c r="W629" s="19"/>
     </row>
     <row r="630" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53603,7 +53780,7 @@
         <v>10051019</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="E630" s="3">
         <v>10051001</v>
@@ -53624,7 +53801,7 @@
         <v>2</v>
       </c>
       <c r="K630" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L630" s="3">
         <v>0</v>
@@ -53650,7 +53827,9 @@
       </c>
       <c r="T630" s="3"/>
       <c r="U630" s="3"/>
-      <c r="V630" s="5"/>
+      <c r="V630" s="3" t="s">
+        <v>1981</v>
+      </c>
       <c r="W630" s="19"/>
     </row>
     <row r="631" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53658,7 +53837,7 @@
         <v>10051020</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="E631" s="3">
         <v>10051001</v>
@@ -53679,7 +53858,7 @@
         <v>2</v>
       </c>
       <c r="K631" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L631" s="3">
         <v>0</v>
@@ -53705,7 +53884,9 @@
       </c>
       <c r="T631" s="3"/>
       <c r="U631" s="3"/>
-      <c r="V631" s="5"/>
+      <c r="V631" s="3" t="s">
+        <v>1982</v>
+      </c>
       <c r="W631" s="19"/>
     </row>
     <row r="632" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53713,7 +53894,7 @@
         <v>10052001</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E632" s="3">
         <v>10052001</v>
@@ -53734,7 +53915,7 @@
         <v>2</v>
       </c>
       <c r="K632" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L632" s="3">
         <v>0</v>
@@ -53760,7 +53941,9 @@
       </c>
       <c r="T632" s="3"/>
       <c r="U632" s="3"/>
-      <c r="V632" s="5"/>
+      <c r="V632" s="3" t="s">
+        <v>1983</v>
+      </c>
       <c r="W632" s="19"/>
     </row>
     <row r="633" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53768,7 +53951,7 @@
         <v>10052002</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E633" s="3">
         <v>10052001</v>
@@ -53789,7 +53972,7 @@
         <v>2</v>
       </c>
       <c r="K633" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L633" s="3">
         <v>0</v>
@@ -53815,7 +53998,9 @@
       </c>
       <c r="T633" s="3"/>
       <c r="U633" s="3"/>
-      <c r="V633" s="5"/>
+      <c r="V633" s="3" t="s">
+        <v>1984</v>
+      </c>
       <c r="W633" s="19"/>
     </row>
     <row r="634" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53823,7 +54008,7 @@
         <v>10052003</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E634" s="3">
         <v>10052001</v>
@@ -53844,7 +54029,7 @@
         <v>2</v>
       </c>
       <c r="K634" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L634" s="3">
         <v>0</v>
@@ -53870,7 +54055,9 @@
       </c>
       <c r="T634" s="3"/>
       <c r="U634" s="3"/>
-      <c r="V634" s="5"/>
+      <c r="V634" s="3" t="s">
+        <v>1985</v>
+      </c>
       <c r="W634" s="19"/>
     </row>
     <row r="635" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53878,7 +54065,7 @@
         <v>10052004</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="E635" s="3">
         <v>10052001</v>
@@ -53899,7 +54086,7 @@
         <v>2</v>
       </c>
       <c r="K635" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L635" s="3">
         <v>0</v>
@@ -53925,7 +54112,9 @@
       </c>
       <c r="T635" s="3"/>
       <c r="U635" s="3"/>
-      <c r="V635" s="5"/>
+      <c r="V635" s="3" t="s">
+        <v>1986</v>
+      </c>
       <c r="W635" s="19"/>
     </row>
     <row r="636" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53933,7 +54122,7 @@
         <v>10052005</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="E636" s="3">
         <v>10052001</v>
@@ -53954,7 +54143,7 @@
         <v>2</v>
       </c>
       <c r="K636" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L636" s="3">
         <v>0</v>
@@ -53980,7 +54169,9 @@
       </c>
       <c r="T636" s="3"/>
       <c r="U636" s="3"/>
-      <c r="V636" s="5"/>
+      <c r="V636" s="3" t="s">
+        <v>1987</v>
+      </c>
       <c r="W636" s="19"/>
     </row>
     <row r="637" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -53988,7 +54179,7 @@
         <v>10052006</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="E637" s="3">
         <v>10052001</v>
@@ -54009,7 +54200,7 @@
         <v>2</v>
       </c>
       <c r="K637" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L637" s="3">
         <v>0</v>
@@ -54035,7 +54226,9 @@
       </c>
       <c r="T637" s="3"/>
       <c r="U637" s="3"/>
-      <c r="V637" s="5"/>
+      <c r="V637" s="3" t="s">
+        <v>1988</v>
+      </c>
       <c r="W637" s="19"/>
     </row>
     <row r="638" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54043,7 +54236,7 @@
         <v>10052007</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="E638" s="3">
         <v>10052001</v>
@@ -54064,7 +54257,7 @@
         <v>2</v>
       </c>
       <c r="K638" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L638" s="3">
         <v>0</v>
@@ -54090,7 +54283,9 @@
       </c>
       <c r="T638" s="3"/>
       <c r="U638" s="3"/>
-      <c r="V638" s="5"/>
+      <c r="V638" s="3" t="s">
+        <v>1989</v>
+      </c>
       <c r="W638" s="19"/>
     </row>
     <row r="639" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54098,7 +54293,7 @@
         <v>10052008</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="E639" s="3">
         <v>10052001</v>
@@ -54119,7 +54314,7 @@
         <v>2</v>
       </c>
       <c r="K639" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L639" s="3">
         <v>0</v>
@@ -54145,7 +54340,9 @@
       </c>
       <c r="T639" s="3"/>
       <c r="U639" s="3"/>
-      <c r="V639" s="5"/>
+      <c r="V639" s="3" t="s">
+        <v>1990</v>
+      </c>
       <c r="W639" s="19"/>
     </row>
     <row r="640" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54153,7 +54350,7 @@
         <v>10052009</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="E640" s="3">
         <v>10052001</v>
@@ -54174,7 +54371,7 @@
         <v>2</v>
       </c>
       <c r="K640" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L640" s="3">
         <v>0</v>
@@ -54200,7 +54397,9 @@
       </c>
       <c r="T640" s="3"/>
       <c r="U640" s="3"/>
-      <c r="V640" s="5"/>
+      <c r="V640" s="3" t="s">
+        <v>1991</v>
+      </c>
       <c r="W640" s="19"/>
     </row>
     <row r="641" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54208,7 +54407,7 @@
         <v>10052010</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="E641" s="3">
         <v>10052001</v>
@@ -54229,7 +54428,7 @@
         <v>2</v>
       </c>
       <c r="K641" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L641" s="3">
         <v>0</v>
@@ -54255,7 +54454,9 @@
       </c>
       <c r="T641" s="3"/>
       <c r="U641" s="3"/>
-      <c r="V641" s="5"/>
+      <c r="V641" s="3" t="s">
+        <v>1992</v>
+      </c>
       <c r="W641" s="19"/>
     </row>
     <row r="642" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54263,7 +54464,7 @@
         <v>10052011</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E642" s="3">
         <v>10052001</v>
@@ -54284,7 +54485,7 @@
         <v>2</v>
       </c>
       <c r="K642" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L642" s="3">
         <v>0</v>
@@ -54310,7 +54511,9 @@
       </c>
       <c r="T642" s="3"/>
       <c r="U642" s="3"/>
-      <c r="V642" s="5"/>
+      <c r="V642" s="3" t="s">
+        <v>1993</v>
+      </c>
       <c r="W642" s="19"/>
     </row>
     <row r="643" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54318,7 +54521,7 @@
         <v>10052012</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="E643" s="3">
         <v>10052001</v>
@@ -54339,7 +54542,7 @@
         <v>2</v>
       </c>
       <c r="K643" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L643" s="3">
         <v>0</v>
@@ -54365,7 +54568,9 @@
       </c>
       <c r="T643" s="3"/>
       <c r="U643" s="3"/>
-      <c r="V643" s="5"/>
+      <c r="V643" s="3" t="s">
+        <v>1994</v>
+      </c>
       <c r="W643" s="19"/>
     </row>
     <row r="644" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54373,7 +54578,7 @@
         <v>10052013</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="E644" s="3">
         <v>10052001</v>
@@ -54394,7 +54599,7 @@
         <v>2</v>
       </c>
       <c r="K644" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L644" s="3">
         <v>0</v>
@@ -54420,7 +54625,9 @@
       </c>
       <c r="T644" s="3"/>
       <c r="U644" s="3"/>
-      <c r="V644" s="5"/>
+      <c r="V644" s="3" t="s">
+        <v>1995</v>
+      </c>
       <c r="W644" s="19"/>
     </row>
     <row r="645" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54428,7 +54635,7 @@
         <v>10052014</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E645" s="3">
         <v>10052001</v>
@@ -54449,7 +54656,7 @@
         <v>2</v>
       </c>
       <c r="K645" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L645" s="3">
         <v>0</v>
@@ -54475,7 +54682,9 @@
       </c>
       <c r="T645" s="3"/>
       <c r="U645" s="3"/>
-      <c r="V645" s="5"/>
+      <c r="V645" s="3" t="s">
+        <v>1996</v>
+      </c>
       <c r="W645" s="19"/>
     </row>
     <row r="646" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54483,7 +54692,7 @@
         <v>10052015</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="E646" s="3">
         <v>10052001</v>
@@ -54504,7 +54713,7 @@
         <v>2</v>
       </c>
       <c r="K646" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L646" s="3">
         <v>0</v>
@@ -54530,7 +54739,9 @@
       </c>
       <c r="T646" s="3"/>
       <c r="U646" s="3"/>
-      <c r="V646" s="5"/>
+      <c r="V646" s="3" t="s">
+        <v>1997</v>
+      </c>
       <c r="W646" s="19"/>
     </row>
     <row r="647" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54538,7 +54749,7 @@
         <v>10052016</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="E647" s="3">
         <v>10052001</v>
@@ -54559,7 +54770,7 @@
         <v>2</v>
       </c>
       <c r="K647" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L647" s="3">
         <v>0</v>
@@ -54585,7 +54796,9 @@
       </c>
       <c r="T647" s="3"/>
       <c r="U647" s="3"/>
-      <c r="V647" s="5"/>
+      <c r="V647" s="3" t="s">
+        <v>1998</v>
+      </c>
       <c r="W647" s="19"/>
     </row>
     <row r="648" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54593,7 +54806,7 @@
         <v>10052017</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="E648" s="3">
         <v>10052001</v>
@@ -54614,7 +54827,7 @@
         <v>2</v>
       </c>
       <c r="K648" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L648" s="3">
         <v>0</v>
@@ -54640,7 +54853,9 @@
       </c>
       <c r="T648" s="3"/>
       <c r="U648" s="3"/>
-      <c r="V648" s="5"/>
+      <c r="V648" s="3" t="s">
+        <v>1999</v>
+      </c>
       <c r="W648" s="19"/>
     </row>
     <row r="649" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54648,7 +54863,7 @@
         <v>10052018</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="E649" s="3">
         <v>10052001</v>
@@ -54669,7 +54884,7 @@
         <v>2</v>
       </c>
       <c r="K649" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L649" s="3">
         <v>0</v>
@@ -54695,7 +54910,9 @@
       </c>
       <c r="T649" s="3"/>
       <c r="U649" s="3"/>
-      <c r="V649" s="5"/>
+      <c r="V649" s="3" t="s">
+        <v>2000</v>
+      </c>
       <c r="W649" s="19"/>
     </row>
     <row r="650" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54703,7 +54920,7 @@
         <v>10052019</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="E650" s="3">
         <v>10052001</v>
@@ -54724,7 +54941,7 @@
         <v>2</v>
       </c>
       <c r="K650" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L650" s="3">
         <v>0</v>
@@ -54750,7 +54967,9 @@
       </c>
       <c r="T650" s="3"/>
       <c r="U650" s="3"/>
-      <c r="V650" s="5"/>
+      <c r="V650" s="3" t="s">
+        <v>2001</v>
+      </c>
       <c r="W650" s="19"/>
     </row>
     <row r="651" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54758,7 +54977,7 @@
         <v>10052020</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E651" s="3">
         <v>10052001</v>
@@ -54779,7 +54998,7 @@
         <v>2</v>
       </c>
       <c r="K651" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L651" s="3">
         <v>0</v>
@@ -54805,7 +55024,9 @@
       </c>
       <c r="T651" s="3"/>
       <c r="U651" s="3"/>
-      <c r="V651" s="5"/>
+      <c r="V651" s="3" t="s">
+        <v>2002</v>
+      </c>
       <c r="W651" s="19"/>
     </row>
     <row r="652" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54813,7 +55034,7 @@
         <v>10053001</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="E652" s="3">
         <v>10051001</v>
@@ -54834,7 +55055,7 @@
         <v>2</v>
       </c>
       <c r="K652" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L652" s="3">
         <v>0</v>
@@ -54860,7 +55081,9 @@
       </c>
       <c r="T652" s="3"/>
       <c r="U652" s="3"/>
-      <c r="V652" s="5"/>
+      <c r="V652" s="3" t="s">
+        <v>2003</v>
+      </c>
       <c r="W652" s="19"/>
     </row>
     <row r="653" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54868,7 +55091,7 @@
         <v>10053002</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="E653" s="3">
         <v>10051001</v>
@@ -54889,7 +55112,7 @@
         <v>2</v>
       </c>
       <c r="K653" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L653" s="3">
         <v>0</v>
@@ -54915,7 +55138,9 @@
       </c>
       <c r="T653" s="3"/>
       <c r="U653" s="3"/>
-      <c r="V653" s="5"/>
+      <c r="V653" s="3" t="s">
+        <v>2004</v>
+      </c>
       <c r="W653" s="19"/>
     </row>
     <row r="654" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54923,7 +55148,7 @@
         <v>10053003</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="E654" s="3">
         <v>10051001</v>
@@ -54944,7 +55169,7 @@
         <v>2</v>
       </c>
       <c r="K654" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L654" s="3">
         <v>0</v>
@@ -54970,7 +55195,9 @@
       </c>
       <c r="T654" s="3"/>
       <c r="U654" s="3"/>
-      <c r="V654" s="5"/>
+      <c r="V654" s="3" t="s">
+        <v>2005</v>
+      </c>
       <c r="W654" s="19"/>
     </row>
     <row r="655" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -54978,7 +55205,7 @@
         <v>10053004</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="E655" s="3">
         <v>10051001</v>
@@ -54999,7 +55226,7 @@
         <v>2</v>
       </c>
       <c r="K655" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L655" s="3">
         <v>0</v>
@@ -55025,7 +55252,9 @@
       </c>
       <c r="T655" s="3"/>
       <c r="U655" s="3"/>
-      <c r="V655" s="5"/>
+      <c r="V655" s="3" t="s">
+        <v>2006</v>
+      </c>
       <c r="W655" s="19"/>
     </row>
     <row r="656" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55033,7 +55262,7 @@
         <v>10053005</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E656" s="3">
         <v>10051001</v>
@@ -55054,7 +55283,7 @@
         <v>2</v>
       </c>
       <c r="K656" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L656" s="3">
         <v>0</v>
@@ -55080,7 +55309,9 @@
       </c>
       <c r="T656" s="3"/>
       <c r="U656" s="3"/>
-      <c r="V656" s="5"/>
+      <c r="V656" s="3" t="s">
+        <v>2007</v>
+      </c>
       <c r="W656" s="19"/>
     </row>
     <row r="657" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55088,7 +55319,7 @@
         <v>10053006</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="E657" s="3">
         <v>10051001</v>
@@ -55109,7 +55340,7 @@
         <v>2</v>
       </c>
       <c r="K657" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L657" s="3">
         <v>0</v>
@@ -55135,7 +55366,9 @@
       </c>
       <c r="T657" s="3"/>
       <c r="U657" s="3"/>
-      <c r="V657" s="5"/>
+      <c r="V657" s="3" t="s">
+        <v>2008</v>
+      </c>
       <c r="W657" s="19"/>
     </row>
     <row r="658" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55143,7 +55376,7 @@
         <v>10053007</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="E658" s="3">
         <v>10051001</v>
@@ -55164,7 +55397,7 @@
         <v>2</v>
       </c>
       <c r="K658" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L658" s="3">
         <v>0</v>
@@ -55190,7 +55423,9 @@
       </c>
       <c r="T658" s="3"/>
       <c r="U658" s="3"/>
-      <c r="V658" s="5"/>
+      <c r="V658" s="3" t="s">
+        <v>2009</v>
+      </c>
       <c r="W658" s="19"/>
     </row>
     <row r="659" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55198,7 +55433,7 @@
         <v>10053008</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E659" s="3">
         <v>10051001</v>
@@ -55219,7 +55454,7 @@
         <v>2</v>
       </c>
       <c r="K659" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L659" s="3">
         <v>0</v>
@@ -55245,7 +55480,9 @@
       </c>
       <c r="T659" s="3"/>
       <c r="U659" s="3"/>
-      <c r="V659" s="5"/>
+      <c r="V659" s="3" t="s">
+        <v>2010</v>
+      </c>
       <c r="W659" s="19"/>
     </row>
     <row r="660" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55253,7 +55490,7 @@
         <v>10053009</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="E660" s="3">
         <v>10051001</v>
@@ -55274,7 +55511,7 @@
         <v>2</v>
       </c>
       <c r="K660" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L660" s="3">
         <v>0</v>
@@ -55300,7 +55537,9 @@
       </c>
       <c r="T660" s="3"/>
       <c r="U660" s="3"/>
-      <c r="V660" s="5"/>
+      <c r="V660" s="3" t="s">
+        <v>2011</v>
+      </c>
       <c r="W660" s="19"/>
     </row>
     <row r="661" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55308,7 +55547,7 @@
         <v>10053010</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="E661" s="3">
         <v>10051001</v>
@@ -55329,7 +55568,7 @@
         <v>2</v>
       </c>
       <c r="K661" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L661" s="3">
         <v>0</v>
@@ -55355,7 +55594,9 @@
       </c>
       <c r="T661" s="3"/>
       <c r="U661" s="3"/>
-      <c r="V661" s="5"/>
+      <c r="V661" s="3" t="s">
+        <v>2012</v>
+      </c>
       <c r="W661" s="19"/>
     </row>
     <row r="662" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -55363,7 +55604,7 @@
         <v>10060101</v>
       </c>
       <c r="D662" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E662" s="42">
         <v>10060101</v>
@@ -55422,7 +55663,7 @@
         <v>10060102</v>
       </c>
       <c r="D663" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E663" s="42">
         <v>10060101</v>
@@ -55481,7 +55722,7 @@
         <v>10060103</v>
       </c>
       <c r="D664" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E664" s="42">
         <v>10060101</v>
@@ -55540,7 +55781,7 @@
         <v>10060104</v>
       </c>
       <c r="D665" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E665" s="42">
         <v>10060101</v>
@@ -55599,7 +55840,7 @@
         <v>10060105</v>
       </c>
       <c r="D666" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E666" s="42">
         <v>10060101</v>
@@ -55658,7 +55899,7 @@
         <v>10060106</v>
       </c>
       <c r="D667" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E667" s="42">
         <v>10060101</v>
@@ -55717,7 +55958,7 @@
         <v>10060107</v>
       </c>
       <c r="D668" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E668" s="42">
         <v>10060101</v>
@@ -55776,7 +56017,7 @@
         <v>10060108</v>
       </c>
       <c r="D669" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E669" s="42">
         <v>10060101</v>
@@ -55835,7 +56076,7 @@
         <v>10060109</v>
       </c>
       <c r="D670" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E670" s="42">
         <v>10060101</v>
@@ -55894,7 +56135,7 @@
         <v>10060110</v>
       </c>
       <c r="D671" s="43" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E671" s="42">
         <v>10060101</v>
@@ -55952,7 +56193,7 @@
         <v>10060201</v>
       </c>
       <c r="D672" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E672" s="42">
         <v>10060201</v>
@@ -56011,7 +56252,7 @@
         <v>10060202</v>
       </c>
       <c r="D673" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E673" s="42">
         <v>10060201</v>
@@ -56070,7 +56311,7 @@
         <v>10060203</v>
       </c>
       <c r="D674" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E674" s="42">
         <v>10060201</v>
@@ -56129,7 +56370,7 @@
         <v>10060204</v>
       </c>
       <c r="D675" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E675" s="42">
         <v>10060201</v>
@@ -56188,7 +56429,7 @@
         <v>10060205</v>
       </c>
       <c r="D676" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E676" s="42">
         <v>10060201</v>
@@ -56247,7 +56488,7 @@
         <v>10060206</v>
       </c>
       <c r="D677" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E677" s="42">
         <v>10060201</v>
@@ -56306,7 +56547,7 @@
         <v>10060207</v>
       </c>
       <c r="D678" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E678" s="42">
         <v>10060201</v>
@@ -56365,7 +56606,7 @@
         <v>10060208</v>
       </c>
       <c r="D679" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E679" s="42">
         <v>10060201</v>
@@ -56424,7 +56665,7 @@
         <v>10060209</v>
       </c>
       <c r="D680" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E680" s="42">
         <v>10060201</v>
@@ -56483,7 +56724,7 @@
         <v>10060210</v>
       </c>
       <c r="D681" s="43" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E681" s="42">
         <v>10060201</v>
@@ -56541,7 +56782,7 @@
         <v>10060301</v>
       </c>
       <c r="D682" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E682" s="42">
         <v>10060301</v>
@@ -56600,7 +56841,7 @@
         <v>10060302</v>
       </c>
       <c r="D683" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E683" s="42">
         <v>10060301</v>
@@ -56659,7 +56900,7 @@
         <v>10060303</v>
       </c>
       <c r="D684" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E684" s="42">
         <v>10060301</v>
@@ -56718,7 +56959,7 @@
         <v>10060304</v>
       </c>
       <c r="D685" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E685" s="42">
         <v>10060301</v>
@@ -56777,7 +57018,7 @@
         <v>10060305</v>
       </c>
       <c r="D686" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E686" s="42">
         <v>10060301</v>
@@ -56836,7 +57077,7 @@
         <v>10060306</v>
       </c>
       <c r="D687" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E687" s="42">
         <v>10060301</v>
@@ -56895,7 +57136,7 @@
         <v>10060307</v>
       </c>
       <c r="D688" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E688" s="42">
         <v>10060301</v>
@@ -56954,7 +57195,7 @@
         <v>10060308</v>
       </c>
       <c r="D689" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E689" s="42">
         <v>10060301</v>
@@ -57013,7 +57254,7 @@
         <v>10060309</v>
       </c>
       <c r="D690" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E690" s="42">
         <v>10060301</v>
@@ -57072,7 +57313,7 @@
         <v>10060310</v>
       </c>
       <c r="D691" s="43" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E691" s="42">
         <v>10060301</v>
@@ -57130,7 +57371,7 @@
         <v>10060401</v>
       </c>
       <c r="D692" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E692" s="42">
         <v>10060401</v>
@@ -57189,7 +57430,7 @@
         <v>10060402</v>
       </c>
       <c r="D693" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E693" s="42">
         <v>10060401</v>
@@ -57248,7 +57489,7 @@
         <v>10060403</v>
       </c>
       <c r="D694" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E694" s="42">
         <v>10060401</v>
@@ -57307,7 +57548,7 @@
         <v>10060404</v>
       </c>
       <c r="D695" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E695" s="42">
         <v>10060401</v>
@@ -57366,7 +57607,7 @@
         <v>10060405</v>
       </c>
       <c r="D696" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E696" s="42">
         <v>10060401</v>
@@ -57425,7 +57666,7 @@
         <v>10060406</v>
       </c>
       <c r="D697" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E697" s="42">
         <v>10060401</v>
@@ -57484,7 +57725,7 @@
         <v>10060407</v>
       </c>
       <c r="D698" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E698" s="42">
         <v>10060401</v>
@@ -57543,7 +57784,7 @@
         <v>10060408</v>
       </c>
       <c r="D699" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E699" s="42">
         <v>10060401</v>
@@ -57602,7 +57843,7 @@
         <v>10060409</v>
       </c>
       <c r="D700" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E700" s="42">
         <v>10060401</v>
@@ -57661,7 +57902,7 @@
         <v>10060410</v>
       </c>
       <c r="D701" s="43" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E701" s="42">
         <v>10060401</v>
@@ -57719,7 +57960,7 @@
         <v>10060501</v>
       </c>
       <c r="D702" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E702" s="42">
         <v>10060501</v>
@@ -57778,7 +58019,7 @@
         <v>10060502</v>
       </c>
       <c r="D703" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E703" s="42">
         <v>10060501</v>
@@ -57837,7 +58078,7 @@
         <v>10060503</v>
       </c>
       <c r="D704" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E704" s="42">
         <v>10060501</v>
@@ -57896,7 +58137,7 @@
         <v>10060504</v>
       </c>
       <c r="D705" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E705" s="42">
         <v>10060501</v>
@@ -57955,7 +58196,7 @@
         <v>10060505</v>
       </c>
       <c r="D706" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E706" s="42">
         <v>10060501</v>
@@ -58014,7 +58255,7 @@
         <v>10060506</v>
       </c>
       <c r="D707" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E707" s="42">
         <v>10060501</v>
@@ -58073,7 +58314,7 @@
         <v>10060507</v>
       </c>
       <c r="D708" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E708" s="42">
         <v>10060501</v>
@@ -58132,7 +58373,7 @@
         <v>10060508</v>
       </c>
       <c r="D709" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E709" s="42">
         <v>10060501</v>
@@ -58191,7 +58432,7 @@
         <v>10060509</v>
       </c>
       <c r="D710" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E710" s="42">
         <v>10060501</v>
@@ -58250,7 +58491,7 @@
         <v>10060510</v>
       </c>
       <c r="D711" s="43" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E711" s="42">
         <v>10060501</v>
@@ -58308,7 +58549,7 @@
         <v>10060601</v>
       </c>
       <c r="D712" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E712" s="42">
         <v>10060601</v>
@@ -58367,7 +58608,7 @@
         <v>10060602</v>
       </c>
       <c r="D713" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E713" s="42">
         <v>10060601</v>
@@ -58426,7 +58667,7 @@
         <v>10060603</v>
       </c>
       <c r="D714" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E714" s="42">
         <v>10060601</v>
@@ -58485,7 +58726,7 @@
         <v>10060604</v>
       </c>
       <c r="D715" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E715" s="42">
         <v>10060601</v>
@@ -58544,7 +58785,7 @@
         <v>10060605</v>
       </c>
       <c r="D716" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E716" s="42">
         <v>10060601</v>
@@ -58603,7 +58844,7 @@
         <v>10060606</v>
       </c>
       <c r="D717" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E717" s="42">
         <v>10060601</v>
@@ -58662,7 +58903,7 @@
         <v>10060607</v>
       </c>
       <c r="D718" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E718" s="42">
         <v>10060601</v>
@@ -58721,7 +58962,7 @@
         <v>10060608</v>
       </c>
       <c r="D719" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E719" s="42">
         <v>10060601</v>
@@ -58780,7 +59021,7 @@
         <v>10060609</v>
       </c>
       <c r="D720" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E720" s="42">
         <v>10060601</v>
@@ -58839,7 +59080,7 @@
         <v>10060610</v>
       </c>
       <c r="D721" s="43" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E721" s="42">
         <v>10060601</v>
@@ -58897,7 +59138,7 @@
         <v>10060701</v>
       </c>
       <c r="D722" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E722" s="42">
         <v>10060701</v>
@@ -58956,7 +59197,7 @@
         <v>10060702</v>
       </c>
       <c r="D723" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E723" s="42">
         <v>10060701</v>
@@ -59015,7 +59256,7 @@
         <v>10060703</v>
       </c>
       <c r="D724" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E724" s="42">
         <v>10060701</v>
@@ -59074,7 +59315,7 @@
         <v>10060704</v>
       </c>
       <c r="D725" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E725" s="42">
         <v>10060701</v>
@@ -59133,7 +59374,7 @@
         <v>10060705</v>
       </c>
       <c r="D726" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E726" s="42">
         <v>10060701</v>
@@ -59192,7 +59433,7 @@
         <v>10060706</v>
       </c>
       <c r="D727" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E727" s="42">
         <v>10060701</v>
@@ -59251,7 +59492,7 @@
         <v>10060707</v>
       </c>
       <c r="D728" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E728" s="42">
         <v>10060701</v>
@@ -59310,7 +59551,7 @@
         <v>10060708</v>
       </c>
       <c r="D729" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E729" s="42">
         <v>10060701</v>
@@ -59369,7 +59610,7 @@
         <v>10060709</v>
       </c>
       <c r="D730" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E730" s="42">
         <v>10060701</v>
@@ -59428,7 +59669,7 @@
         <v>10060710</v>
       </c>
       <c r="D731" s="43" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E731" s="42">
         <v>10060701</v>
@@ -59486,7 +59727,7 @@
         <v>11200000</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="E732" s="56">
         <v>11200000</v>
@@ -59533,7 +59774,7 @@
       <c r="S732" s="3"/>
       <c r="T732" s="3"/>
       <c r="V732" s="19" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="733" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59541,7 +59782,7 @@
         <v>11200001</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="E733" s="39">
         <v>11200001</v>
@@ -59588,7 +59829,7 @@
       <c r="S733" s="3"/>
       <c r="T733" s="3"/>
       <c r="V733" s="19" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="734" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59596,7 +59837,7 @@
         <v>11200002</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="E734" s="39">
         <v>11200002</v>
@@ -59643,7 +59884,7 @@
       <c r="S734" s="3"/>
       <c r="T734" s="3"/>
       <c r="V734" s="19" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="735" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59651,7 +59892,7 @@
         <v>11200003</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="E735" s="39">
         <v>11200003</v>
@@ -59698,7 +59939,7 @@
       <c r="S735" s="3"/>
       <c r="T735" s="3"/>
       <c r="V735" s="19" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="736" spans="3:23" s="118" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -61851,7 +62092,7 @@
         <v>14010001</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="E775" s="3">
         <v>14010001</v>
@@ -61896,7 +62137,7 @@
         <v>384</v>
       </c>
       <c r="U775" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V775" s="19" t="str">
         <f>D775&amp;"的描述"</f>
@@ -61908,7 +62149,7 @@
         <v>14010002</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="E776" s="3">
         <v>14010002</v>
@@ -61953,7 +62194,7 @@
         <v>384</v>
       </c>
       <c r="U776" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V776" s="19" t="str">
         <f>D776&amp;"的描述"</f>
@@ -61965,7 +62206,7 @@
         <v>14010003</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="E777" s="3">
         <v>14010003</v>
@@ -62010,7 +62251,7 @@
         <v>384</v>
       </c>
       <c r="U777" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V777" s="19" t="str">
         <f>D777&amp;"的描述"</f>
@@ -62022,7 +62263,7 @@
         <v>14010004</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="E778" s="3">
         <v>14010004</v>
@@ -62067,7 +62308,7 @@
         <v>384</v>
       </c>
       <c r="U778" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V778" s="19"/>
     </row>
@@ -62076,7 +62317,7 @@
         <v>14010005</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="E779" s="39">
         <v>14010005</v>
@@ -62121,7 +62362,7 @@
         <v>384</v>
       </c>
       <c r="U779" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V779" s="19" t="str">
         <f>D779&amp;"的描述"</f>
@@ -62133,7 +62374,7 @@
         <v>14010006</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="E780" s="39">
         <v>14010006</v>
@@ -62178,7 +62419,7 @@
         <v>384</v>
       </c>
       <c r="U780" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V780" s="19" t="str">
         <f>D780&amp;"的描述"</f>
@@ -62190,7 +62431,7 @@
         <v>14010007</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="E781" s="3">
         <v>14010007</v>
@@ -62235,7 +62476,7 @@
         <v>384</v>
       </c>
       <c r="U781" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V781" s="19" t="str">
         <f>D781&amp;"的描述"</f>
@@ -62247,7 +62488,7 @@
         <v>14010008</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E782" s="3">
         <v>14010008</v>
@@ -62292,7 +62533,7 @@
         <v>384</v>
       </c>
       <c r="U782" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V782" s="19"/>
     </row>
@@ -62301,7 +62542,7 @@
         <v>14010009</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E783" s="3">
         <v>14010009</v>
@@ -62346,7 +62587,7 @@
         <v>384</v>
       </c>
       <c r="U783" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V783" s="19" t="str">
         <f>D783&amp;"的描述"</f>
@@ -62403,7 +62644,7 @@
         <v>384</v>
       </c>
       <c r="U784" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V784" s="19" t="str">
         <f>D784&amp;"的描述"</f>
@@ -62415,7 +62656,7 @@
         <v>14010011</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="E785" s="39">
         <v>14010011</v>
@@ -62460,7 +62701,7 @@
         <v>384</v>
       </c>
       <c r="U785" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V785" s="19" t="str">
         <f>D785&amp;"的描述"</f>
@@ -62472,7 +62713,7 @@
         <v>14010012</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="E786" s="3">
         <v>14010012</v>
@@ -62517,7 +62758,7 @@
         <v>384</v>
       </c>
       <c r="U786" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V786" s="19"/>
     </row>
@@ -62526,7 +62767,7 @@
         <v>14020001</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="E787" s="39">
         <v>14020001</v>
@@ -62571,7 +62812,7 @@
         <v>384</v>
       </c>
       <c r="U787" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V787" s="19" t="str">
         <f>D787&amp;"的描述"</f>
@@ -62583,7 +62824,7 @@
         <v>14020002</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="E788" s="39">
         <v>14020002</v>
@@ -62628,7 +62869,7 @@
         <v>384</v>
       </c>
       <c r="U788" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V788" s="19" t="str">
         <f>D788&amp;"的描述"</f>
@@ -62640,7 +62881,7 @@
         <v>14020003</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E789" s="39">
         <v>14020003</v>
@@ -62685,7 +62926,7 @@
         <v>384</v>
       </c>
       <c r="U789" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V789" s="19" t="str">
         <f>D789&amp;"的描述"</f>
@@ -62697,7 +62938,7 @@
         <v>14020004</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="E790" s="39">
         <v>14020004</v>
@@ -62742,7 +62983,7 @@
         <v>384</v>
       </c>
       <c r="U790" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V790" s="19"/>
     </row>
@@ -62751,7 +62992,7 @@
         <v>14020005</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="E791" s="39">
         <v>14020005</v>
@@ -62796,7 +63037,7 @@
         <v>384</v>
       </c>
       <c r="U791" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V791" s="19" t="str">
         <f>D791&amp;"的描述"</f>
@@ -62808,7 +63049,7 @@
         <v>14020006</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E792" s="39">
         <v>14020006</v>
@@ -62853,7 +63094,7 @@
         <v>384</v>
       </c>
       <c r="U792" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V792" s="19" t="str">
         <f>D792&amp;"的描述"</f>
@@ -62865,7 +63106,7 @@
         <v>14020007</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="E793" s="39">
         <v>14020007</v>
@@ -62910,7 +63151,7 @@
         <v>384</v>
       </c>
       <c r="U793" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V793" s="19" t="str">
         <f>D793&amp;"的描述"</f>
@@ -62922,7 +63163,7 @@
         <v>14020008</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="E794" s="39">
         <v>14020008</v>
@@ -62967,7 +63208,7 @@
         <v>384</v>
       </c>
       <c r="U794" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V794" s="19"/>
     </row>
@@ -62976,7 +63217,7 @@
         <v>14020009</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="E795" s="39">
         <v>14020009</v>
@@ -63021,7 +63262,7 @@
         <v>384</v>
       </c>
       <c r="U795" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V795" s="19" t="str">
         <f>D795&amp;"的描述"</f>
@@ -63033,7 +63274,7 @@
         <v>14020010</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="E796" s="39">
         <v>14020010</v>
@@ -63078,7 +63319,7 @@
         <v>384</v>
       </c>
       <c r="U796" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V796" s="19" t="str">
         <f>D796&amp;"的描述"</f>
@@ -63090,7 +63331,7 @@
         <v>14020011</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E797" s="39">
         <v>14020011</v>
@@ -63135,7 +63376,7 @@
         <v>384</v>
       </c>
       <c r="U797" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V797" s="19" t="str">
         <f>D797&amp;"的描述"</f>
@@ -63147,7 +63388,7 @@
         <v>14020012</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E798" s="39">
         <v>14020012</v>
@@ -63192,7 +63433,7 @@
         <v>384</v>
       </c>
       <c r="U798" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V798" s="19"/>
     </row>
@@ -63201,7 +63442,7 @@
         <v>14030001</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="E799" s="39">
         <v>14030001</v>
@@ -63246,7 +63487,7 @@
         <v>384</v>
       </c>
       <c r="U799" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V799" s="19" t="str">
         <f>D799&amp;"的描述"</f>
@@ -63258,7 +63499,7 @@
         <v>14030002</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="E800" s="39">
         <v>14030002</v>
@@ -63303,7 +63544,7 @@
         <v>384</v>
       </c>
       <c r="U800" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V800" s="19" t="str">
         <f>D800&amp;"的描述"</f>
@@ -63315,7 +63556,7 @@
         <v>14030003</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="E801" s="39">
         <v>14030003</v>
@@ -63360,7 +63601,7 @@
         <v>384</v>
       </c>
       <c r="U801" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V801" s="19" t="str">
         <f>D801&amp;"的描述"</f>
@@ -63372,7 +63613,7 @@
         <v>14030004</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E802" s="39">
         <v>14030004</v>
@@ -63417,7 +63658,7 @@
         <v>384</v>
       </c>
       <c r="U802" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V802" s="19"/>
     </row>
@@ -63426,7 +63667,7 @@
         <v>14030005</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="E803" s="39">
         <v>14030005</v>
@@ -63471,7 +63712,7 @@
         <v>384</v>
       </c>
       <c r="U803" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V803" s="19" t="str">
         <f>D803&amp;"的描述"</f>
@@ -63483,7 +63724,7 @@
         <v>14030006</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="E804" s="39">
         <v>14030006</v>
@@ -63528,7 +63769,7 @@
         <v>384</v>
       </c>
       <c r="U804" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V804" s="19" t="str">
         <f>D804&amp;"的描述"</f>
@@ -63540,7 +63781,7 @@
         <v>14030007</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="E805" s="39">
         <v>14030007</v>
@@ -63585,7 +63826,7 @@
         <v>384</v>
       </c>
       <c r="U805" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V805" s="19" t="str">
         <f>D805&amp;"的描述"</f>
@@ -63597,7 +63838,7 @@
         <v>14030008</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="E806" s="39">
         <v>14030008</v>
@@ -63642,7 +63883,7 @@
         <v>384</v>
       </c>
       <c r="U806" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V806" s="19"/>
     </row>
@@ -63651,7 +63892,7 @@
         <v>14030009</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="E807" s="39">
         <v>14030009</v>
@@ -63696,7 +63937,7 @@
         <v>384</v>
       </c>
       <c r="U807" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V807" s="19" t="str">
         <f>D807&amp;"的描述"</f>
@@ -63708,7 +63949,7 @@
         <v>14030010</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="E808" s="39">
         <v>14030010</v>
@@ -63753,7 +63994,7 @@
         <v>384</v>
       </c>
       <c r="U808" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V808" s="19" t="str">
         <f>D808&amp;"的描述"</f>
@@ -63765,7 +64006,7 @@
         <v>14030011</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="E809" s="39">
         <v>14030011</v>
@@ -63810,7 +64051,7 @@
         <v>384</v>
       </c>
       <c r="U809" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V809" s="19" t="str">
         <f>D809&amp;"的描述"</f>
@@ -63822,7 +64063,7 @@
         <v>14030012</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="E810" s="39">
         <v>14030012</v>
@@ -63867,7 +64108,7 @@
         <v>384</v>
       </c>
       <c r="U810" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V810" s="19"/>
     </row>
@@ -63876,7 +64117,7 @@
         <v>14040001</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="E811" s="39">
         <v>14040001</v>
@@ -63921,7 +64162,7 @@
         <v>384</v>
       </c>
       <c r="U811" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V811" s="19" t="str">
         <f>D811&amp;"的描述"</f>
@@ -63933,7 +64174,7 @@
         <v>14040002</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="E812" s="39">
         <v>14040002</v>
@@ -63978,7 +64219,7 @@
         <v>384</v>
       </c>
       <c r="U812" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V812" s="19" t="str">
         <f>D812&amp;"的描述"</f>
@@ -63990,7 +64231,7 @@
         <v>14040003</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="E813" s="3">
         <v>14040003</v>
@@ -64035,7 +64276,7 @@
         <v>384</v>
       </c>
       <c r="U813" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V813" s="19" t="str">
         <f>D813&amp;"的描述"</f>
@@ -64047,7 +64288,7 @@
         <v>14040004</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="E814" s="3">
         <v>14040004</v>
@@ -64092,7 +64333,7 @@
         <v>384</v>
       </c>
       <c r="U814" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V814" s="19"/>
     </row>
@@ -64101,7 +64342,7 @@
         <v>14040005</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="E815" s="39">
         <v>14040005</v>
@@ -64146,7 +64387,7 @@
         <v>384</v>
       </c>
       <c r="U815" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V815" s="19" t="str">
         <f>D815&amp;"的描述"</f>
@@ -64158,7 +64399,7 @@
         <v>14040006</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="E816" s="39">
         <v>14040006</v>
@@ -64203,7 +64444,7 @@
         <v>384</v>
       </c>
       <c r="U816" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V816" s="19" t="str">
         <f>D816&amp;"的描述"</f>
@@ -64215,7 +64456,7 @@
         <v>14040007</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="E817" s="3">
         <v>14040007</v>
@@ -64260,7 +64501,7 @@
         <v>384</v>
       </c>
       <c r="U817" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V817" s="19" t="str">
         <f>D817&amp;"的描述"</f>
@@ -64272,7 +64513,7 @@
         <v>14040008</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="E818" s="3">
         <v>14040008</v>
@@ -64317,7 +64558,7 @@
         <v>384</v>
       </c>
       <c r="U818" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V818" s="19"/>
     </row>
@@ -64326,7 +64567,7 @@
         <v>14040009</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="E819" s="39">
         <v>14040009</v>
@@ -64371,7 +64612,7 @@
         <v>384</v>
       </c>
       <c r="U819" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V819" s="19" t="str">
         <f>D819&amp;"的描述"</f>
@@ -64383,7 +64624,7 @@
         <v>14040010</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="E820" s="39">
         <v>14040010</v>
@@ -64428,7 +64669,7 @@
         <v>384</v>
       </c>
       <c r="U820" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V820" s="19" t="str">
         <f>D820&amp;"的描述"</f>
@@ -64440,7 +64681,7 @@
         <v>14040011</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E821" s="3">
         <v>14040011</v>
@@ -64485,7 +64726,7 @@
         <v>384</v>
       </c>
       <c r="U821" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V821" s="19" t="str">
         <f>D821&amp;"的描述"</f>
@@ -64497,7 +64738,7 @@
         <v>14040012</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="E822" s="3">
         <v>14040012</v>
@@ -64542,7 +64783,7 @@
         <v>384</v>
       </c>
       <c r="U822" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V822" s="19"/>
     </row>
@@ -64551,7 +64792,7 @@
         <v>14050001</v>
       </c>
       <c r="D823" s="21" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E823" s="21">
         <v>14050001</v>
@@ -64596,7 +64837,7 @@
         <v>384</v>
       </c>
       <c r="U823" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V823" s="27" t="str">
         <f>D823&amp;"的描述"</f>
@@ -64608,7 +64849,7 @@
         <v>14050002</v>
       </c>
       <c r="D824" s="21" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E824" s="40">
         <v>14050002</v>
@@ -64653,7 +64894,7 @@
         <v>384</v>
       </c>
       <c r="U824" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V824" s="27" t="str">
         <f>D824&amp;"的描述"</f>
@@ -64665,7 +64906,7 @@
         <v>14050003</v>
       </c>
       <c r="D825" s="21" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="E825" s="40">
         <v>14050003</v>
@@ -64710,7 +64951,7 @@
         <v>384</v>
       </c>
       <c r="U825" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V825" s="27" t="str">
         <f>D825&amp;"的描述"</f>
@@ -64722,7 +64963,7 @@
         <v>14050004</v>
       </c>
       <c r="D826" s="21" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E826" s="21">
         <v>14050004</v>
@@ -64767,7 +65008,7 @@
         <v>384</v>
       </c>
       <c r="U826" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V826" s="27"/>
     </row>
@@ -64776,7 +65017,7 @@
         <v>14050005</v>
       </c>
       <c r="D827" s="21" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E827" s="40">
         <v>14050005</v>
@@ -64821,7 +65062,7 @@
         <v>384</v>
       </c>
       <c r="U827" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V827" s="27" t="str">
         <f>D827&amp;"的描述"</f>
@@ -64833,7 +65074,7 @@
         <v>14050006</v>
       </c>
       <c r="D828" s="21" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E828" s="40">
         <v>14050006</v>
@@ -64878,7 +65119,7 @@
         <v>384</v>
       </c>
       <c r="U828" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V828" s="27" t="str">
         <f>D828&amp;"的描述"</f>
@@ -64890,7 +65131,7 @@
         <v>14050007</v>
       </c>
       <c r="D829" s="21" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="E829" s="40">
         <v>14050007</v>
@@ -64935,7 +65176,7 @@
         <v>384</v>
       </c>
       <c r="U829" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V829" s="27" t="str">
         <f>D829&amp;"的描述"</f>
@@ -64947,7 +65188,7 @@
         <v>14050008</v>
       </c>
       <c r="D830" s="21" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E830" s="40">
         <v>14050008</v>
@@ -64992,7 +65233,7 @@
         <v>384</v>
       </c>
       <c r="U830" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V830" s="27"/>
     </row>
@@ -65001,7 +65242,7 @@
         <v>14050009</v>
       </c>
       <c r="D831" s="21" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E831" s="40">
         <v>14050009</v>
@@ -65046,7 +65287,7 @@
         <v>384</v>
       </c>
       <c r="U831" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V831" s="27" t="str">
         <f>D831&amp;"的描述"</f>
@@ -65058,7 +65299,7 @@
         <v>14050010</v>
       </c>
       <c r="D832" s="21" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E832" s="40">
         <v>14050010</v>
@@ -65103,7 +65344,7 @@
         <v>384</v>
       </c>
       <c r="U832" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V832" s="27" t="str">
         <f>D832&amp;"的描述"</f>
@@ -65115,7 +65356,7 @@
         <v>14050011</v>
       </c>
       <c r="D833" s="21" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E833" s="40">
         <v>14050011</v>
@@ -65160,7 +65401,7 @@
         <v>384</v>
       </c>
       <c r="U833" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V833" s="27" t="str">
         <f>D833&amp;"的描述"</f>
@@ -65172,7 +65413,7 @@
         <v>14050012</v>
       </c>
       <c r="D834" s="21" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="E834" s="40">
         <v>14050012</v>
@@ -65217,7 +65458,7 @@
         <v>384</v>
       </c>
       <c r="U834" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V834" s="27"/>
     </row>
@@ -65226,7 +65467,7 @@
         <v>14060001</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="E835" s="39">
         <v>14060001</v>
@@ -65271,7 +65512,7 @@
         <v>384</v>
       </c>
       <c r="U835" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V835" s="19" t="str">
         <f>D835&amp;"的描述"</f>
@@ -65283,7 +65524,7 @@
         <v>14060002</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E836" s="3">
         <v>14060002</v>
@@ -65328,7 +65569,7 @@
         <v>384</v>
       </c>
       <c r="U836" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V836" s="19" t="str">
         <f>D836&amp;"的描述"</f>
@@ -65340,7 +65581,7 @@
         <v>14060003</v>
       </c>
       <c r="D837" s="3" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="E837" s="39">
         <v>14060003</v>
@@ -65385,7 +65626,7 @@
         <v>384</v>
       </c>
       <c r="U837" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V837" s="19" t="str">
         <f>D837&amp;"的描述"</f>
@@ -65397,7 +65638,7 @@
         <v>14060004</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E838" s="39">
         <v>14060004</v>
@@ -65442,7 +65683,7 @@
         <v>384</v>
       </c>
       <c r="U838" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V838" s="19"/>
     </row>
@@ -65451,7 +65692,7 @@
         <v>14060005</v>
       </c>
       <c r="D839" s="114" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E839" s="113">
         <v>14060005</v>
@@ -65496,7 +65737,7 @@
         <v>384</v>
       </c>
       <c r="U839" s="114" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="V839" s="116"/>
     </row>
@@ -65505,7 +65746,7 @@
         <v>14070001</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E840" s="39">
         <v>14070001</v>
@@ -65550,7 +65791,7 @@
         <v>384</v>
       </c>
       <c r="U840" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V840" s="19" t="str">
         <f>D840&amp;"的描述"</f>
@@ -65562,7 +65803,7 @@
         <v>14070002</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E841" s="39">
         <v>14070002</v>
@@ -65607,7 +65848,7 @@
         <v>384</v>
       </c>
       <c r="U841" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V841" s="19" t="str">
         <f>D841&amp;"的描述"</f>
@@ -65619,7 +65860,7 @@
         <v>14070003</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="E842" s="39">
         <v>14070003</v>
@@ -65664,7 +65905,7 @@
         <v>384</v>
       </c>
       <c r="U842" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V842" s="19" t="str">
         <f>D842&amp;"的描述"</f>
@@ -65676,7 +65917,7 @@
         <v>14070004</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E843" s="39">
         <v>14070004</v>
@@ -65721,7 +65962,7 @@
         <v>384</v>
       </c>
       <c r="U843" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V843" s="19"/>
     </row>
@@ -65730,7 +65971,7 @@
         <v>14080001</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="E844" s="39">
         <v>14080001</v>
@@ -65777,7 +66018,7 @@
         <v>384</v>
       </c>
       <c r="U844" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V844" s="19" t="str">
         <f>D844&amp;"的描述"</f>
@@ -65789,7 +66030,7 @@
         <v>14080002</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="E845" s="39">
         <v>14080002</v>
@@ -65836,7 +66077,7 @@
         <v>384</v>
       </c>
       <c r="U845" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V845" s="19" t="str">
         <f>D845&amp;"的描述"</f>
@@ -65848,7 +66089,7 @@
         <v>14080003</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="E846" s="39">
         <v>14080003</v>
@@ -65895,7 +66136,7 @@
         <v>384</v>
       </c>
       <c r="U846" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V846" s="19"/>
     </row>
@@ -65904,7 +66145,7 @@
         <v>14090001</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="E847" s="39">
         <v>14090001</v>
@@ -65949,7 +66190,7 @@
         <v>384</v>
       </c>
       <c r="U847" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V847" s="19" t="str">
         <f>D847&amp;"的描述"</f>
@@ -65961,7 +66202,7 @@
         <v>14090002</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="E848" s="39">
         <v>14090002</v>
@@ -66006,7 +66247,7 @@
         <v>384</v>
       </c>
       <c r="U848" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V848" s="19" t="str">
         <f>D848&amp;"的描述"</f>
@@ -66018,7 +66259,7 @@
         <v>14090003</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E849" s="39">
         <v>14090003</v>
@@ -66063,7 +66304,7 @@
         <v>384</v>
       </c>
       <c r="U849" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V849" s="19"/>
     </row>
@@ -66072,7 +66313,7 @@
         <v>14100001</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E850" s="39">
         <v>14100001</v>
@@ -66117,7 +66358,7 @@
         <v>384</v>
       </c>
       <c r="U850" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V850" s="19" t="str">
         <f>D850&amp;"的描述"</f>
@@ -66129,7 +66370,7 @@
         <v>14100002</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E851" s="39">
         <v>14100002</v>
@@ -66174,7 +66415,7 @@
         <v>384</v>
       </c>
       <c r="U851" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V851" s="19" t="str">
         <f>D851&amp;"的描述"</f>
@@ -66186,7 +66427,7 @@
         <v>14100003</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="E852" s="39">
         <v>14100003</v>
@@ -66231,7 +66472,7 @@
         <v>384</v>
       </c>
       <c r="U852" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V852" s="19" t="str">
         <f>D852&amp;"的描述"</f>
@@ -66243,7 +66484,7 @@
         <v>14100004</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="E853" s="39">
         <v>14100004</v>
@@ -66288,7 +66529,7 @@
         <v>384</v>
       </c>
       <c r="U853" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V853" s="19"/>
     </row>
@@ -66297,7 +66538,7 @@
         <v>14100005</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="E854" s="39">
         <v>14100005</v>
@@ -66342,7 +66583,7 @@
         <v>384</v>
       </c>
       <c r="U854" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V854" s="19" t="str">
         <f>D854&amp;"的描述"</f>
@@ -66354,7 +66595,7 @@
         <v>14100006</v>
       </c>
       <c r="D855" s="3" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E855" s="39">
         <v>14100006</v>
@@ -66399,7 +66640,7 @@
         <v>384</v>
       </c>
       <c r="U855" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V855" s="19" t="str">
         <f>D855&amp;"的描述"</f>
@@ -66411,7 +66652,7 @@
         <v>14100007</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E856" s="39">
         <v>14100007</v>
@@ -66456,7 +66697,7 @@
         <v>384</v>
       </c>
       <c r="U856" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V856" s="19" t="str">
         <f>D856&amp;"的描述"</f>
@@ -66468,7 +66709,7 @@
         <v>14100008</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E857" s="39">
         <v>14100008</v>
@@ -66513,7 +66754,7 @@
         <v>384</v>
       </c>
       <c r="U857" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V857" s="19"/>
     </row>
@@ -66522,7 +66763,7 @@
         <v>14100011</v>
       </c>
       <c r="D858" s="114" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="E858" s="39">
         <v>14100011</v>
@@ -66567,7 +66808,7 @@
         <v>384</v>
       </c>
       <c r="U858" s="114" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="V858" s="116"/>
     </row>
@@ -66576,7 +66817,7 @@
         <v>14100012</v>
       </c>
       <c r="D859" s="114" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="E859" s="39">
         <v>14100012</v>
@@ -66621,7 +66862,7 @@
         <v>384</v>
       </c>
       <c r="U859" s="114" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="V859" s="116"/>
     </row>
@@ -66630,7 +66871,7 @@
         <v>14100101</v>
       </c>
       <c r="D860" s="21" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="E860" s="40">
         <v>14100101</v>
@@ -66675,7 +66916,7 @@
         <v>384</v>
       </c>
       <c r="U860" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V860" s="27" t="str">
         <f>D860&amp;"的描述"</f>
@@ -66687,7 +66928,7 @@
         <v>14100102</v>
       </c>
       <c r="D861" s="21" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="E861" s="40">
         <v>14100102</v>
@@ -66732,7 +66973,7 @@
         <v>384</v>
       </c>
       <c r="U861" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V861" s="27" t="str">
         <f>D861&amp;"的描述"</f>
@@ -66744,7 +66985,7 @@
         <v>14100103</v>
       </c>
       <c r="D862" s="21" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="E862" s="40">
         <v>14100103</v>
@@ -66789,7 +67030,7 @@
         <v>384</v>
       </c>
       <c r="U862" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V862" s="27" t="str">
         <f>D862&amp;"的描述"</f>
@@ -66801,7 +67042,7 @@
         <v>14100104</v>
       </c>
       <c r="D863" s="21" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="E863" s="40">
         <v>14100104</v>
@@ -66846,7 +67087,7 @@
         <v>384</v>
       </c>
       <c r="U863" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V863" s="27"/>
     </row>
@@ -66855,7 +67096,7 @@
         <v>14100105</v>
       </c>
       <c r="D864" s="21" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="E864" s="40">
         <v>14100105</v>
@@ -66900,7 +67141,7 @@
         <v>384</v>
       </c>
       <c r="U864" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V864" s="27" t="str">
         <f>D864&amp;"的描述"</f>
@@ -66912,7 +67153,7 @@
         <v>14100106</v>
       </c>
       <c r="D865" s="21" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E865" s="40">
         <v>14100106</v>
@@ -66957,7 +67198,7 @@
         <v>384</v>
       </c>
       <c r="U865" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V865" s="27" t="str">
         <f>D865&amp;"的描述"</f>
@@ -66969,7 +67210,7 @@
         <v>14100107</v>
       </c>
       <c r="D866" s="21" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E866" s="40">
         <v>14100107</v>
@@ -67014,7 +67255,7 @@
         <v>384</v>
       </c>
       <c r="U866" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V866" s="27" t="str">
         <f>D866&amp;"的描述"</f>
@@ -67026,7 +67267,7 @@
         <v>14100108</v>
       </c>
       <c r="D867" s="21" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="E867" s="40">
         <v>14100108</v>
@@ -67071,7 +67312,7 @@
         <v>384</v>
       </c>
       <c r="U867" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V867" s="27"/>
     </row>
@@ -67080,7 +67321,7 @@
         <v>14100111</v>
       </c>
       <c r="D868" s="114" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="E868" s="113">
         <v>14100111</v>
@@ -67125,7 +67366,7 @@
         <v>384</v>
       </c>
       <c r="U868" s="114" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="V868" s="116"/>
     </row>
@@ -67134,7 +67375,7 @@
         <v>14100112</v>
       </c>
       <c r="D869" s="114" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="E869" s="113">
         <v>14100112</v>
@@ -67179,7 +67420,7 @@
         <v>384</v>
       </c>
       <c r="U869" s="114" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="V869" s="116"/>
     </row>
@@ -67188,7 +67429,7 @@
         <v>14110001</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E870" s="41">
         <v>14110001</v>
@@ -67233,7 +67474,7 @@
         <v>384</v>
       </c>
       <c r="U870" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V870" s="19" t="str">
         <f>D870&amp;"的描述"</f>
@@ -67245,7 +67486,7 @@
         <v>14110002</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="E871" s="41">
         <v>14110002</v>
@@ -67290,7 +67531,7 @@
         <v>384</v>
       </c>
       <c r="U871" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V871" s="19" t="str">
         <f>D871&amp;"的描述"</f>
@@ -67302,7 +67543,7 @@
         <v>14110003</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E872" s="41">
         <v>14110003</v>
@@ -67347,7 +67588,7 @@
         <v>384</v>
       </c>
       <c r="U872" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V872" s="19" t="str">
         <f>D872&amp;"的描述"</f>
@@ -67359,7 +67600,7 @@
         <v>14110004</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="E873" s="41">
         <v>14110004</v>
@@ -67404,7 +67645,7 @@
         <v>384</v>
       </c>
       <c r="U873" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V873" s="19"/>
     </row>
@@ -67413,7 +67654,7 @@
         <v>14110005</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="E874" s="41">
         <v>14110005</v>
@@ -67458,7 +67699,7 @@
         <v>384</v>
       </c>
       <c r="U874" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V874" s="19" t="str">
         <f>D874&amp;"的描述"</f>
@@ -67470,7 +67711,7 @@
         <v>14110006</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="E875" s="41">
         <v>14110006</v>
@@ -67515,7 +67756,7 @@
         <v>384</v>
       </c>
       <c r="U875" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V875" s="19" t="str">
         <f>D875&amp;"的描述"</f>
@@ -67527,7 +67768,7 @@
         <v>14110007</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="E876" s="41">
         <v>14110007</v>
@@ -67572,7 +67813,7 @@
         <v>384</v>
       </c>
       <c r="U876" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V876" s="19" t="str">
         <f>D876&amp;"的描述"</f>
@@ -67584,7 +67825,7 @@
         <v>14110008</v>
       </c>
       <c r="D877" s="3" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="E877" s="41">
         <v>14110008</v>
@@ -67629,7 +67870,7 @@
         <v>384</v>
       </c>
       <c r="U877" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V877" s="19"/>
     </row>
@@ -67638,7 +67879,7 @@
         <v>14110009</v>
       </c>
       <c r="D878" s="3" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="E878" s="41">
         <v>14110009</v>
@@ -67683,7 +67924,7 @@
         <v>384</v>
       </c>
       <c r="U878" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V878" s="19" t="str">
         <f>D878&amp;"的描述"</f>
@@ -67695,7 +67936,7 @@
         <v>14110010</v>
       </c>
       <c r="D879" s="3" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="E879" s="41">
         <v>14110010</v>
@@ -67740,7 +67981,7 @@
         <v>384</v>
       </c>
       <c r="U879" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="V879" s="19" t="str">
         <f>D879&amp;"的描述"</f>
@@ -67752,7 +67993,7 @@
         <v>14110011</v>
       </c>
       <c r="D880" s="3" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E880" s="41">
         <v>14110011</v>
@@ -67797,7 +68038,7 @@
         <v>384</v>
       </c>
       <c r="U880" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="V880" s="19" t="str">
         <f>D880&amp;"的描述"</f>
@@ -67809,7 +68050,7 @@
         <v>14110012</v>
       </c>
       <c r="D881" s="3" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="E881" s="41">
         <v>14110012</v>
@@ -67854,7 +68095,7 @@
         <v>384</v>
       </c>
       <c r="U881" s="3" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="V881" s="19"/>
     </row>
@@ -67863,7 +68104,7 @@
         <v>14110021</v>
       </c>
       <c r="D882" s="114" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="E882" s="113">
         <v>14110021</v>
@@ -67908,7 +68149,7 @@
         <v>384</v>
       </c>
       <c r="U882" s="114" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="V882" s="116"/>
     </row>
@@ -67917,7 +68158,7 @@
         <v>14110022</v>
       </c>
       <c r="D883" s="114" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="E883" s="113">
         <v>14110022</v>
@@ -67962,7 +68203,7 @@
         <v>384</v>
       </c>
       <c r="U883" s="114" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="V883" s="116"/>
     </row>
@@ -67971,7 +68212,7 @@
         <v>14110023</v>
       </c>
       <c r="D884" s="114" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E884" s="113">
         <v>14110023</v>
@@ -68016,7 +68257,7 @@
         <v>384</v>
       </c>
       <c r="U884" s="114" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="V884" s="116"/>
     </row>
@@ -68025,7 +68266,7 @@
         <v>15201001</v>
       </c>
       <c r="D885" s="3" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E885" s="3">
         <v>15201001</v>
@@ -68082,7 +68323,7 @@
         <v>15201002</v>
       </c>
       <c r="D886" s="3" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="E886" s="3">
         <v>15201002</v>
@@ -68127,7 +68368,7 @@
         <v>384</v>
       </c>
       <c r="U886" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V886" s="19"/>
     </row>
@@ -68136,7 +68377,7 @@
         <v>15201003</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E887" s="3">
         <v>15201003</v>
@@ -68193,7 +68434,7 @@
         <v>15201004</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="E888" s="3">
         <v>15201004</v>
@@ -68238,7 +68479,7 @@
         <v>384</v>
       </c>
       <c r="U888" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V888" s="19"/>
     </row>
@@ -68247,7 +68488,7 @@
         <v>15201005</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E889" s="3">
         <v>15201005</v>
@@ -68304,7 +68545,7 @@
         <v>15201006</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="E890" s="3">
         <v>15201006</v>
@@ -68349,7 +68590,7 @@
         <v>384</v>
       </c>
       <c r="U890" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V890" s="19"/>
     </row>
@@ -68358,7 +68599,7 @@
         <v>15202001</v>
       </c>
       <c r="D891" s="3" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E891" s="3">
         <v>15202001</v>
@@ -68415,7 +68656,7 @@
         <v>15202002</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E892" s="3">
         <v>15202002</v>
@@ -68460,7 +68701,7 @@
         <v>384</v>
       </c>
       <c r="U892" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V892" s="19"/>
     </row>
@@ -68469,7 +68710,7 @@
         <v>15202003</v>
       </c>
       <c r="D893" s="3" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E893" s="3">
         <v>15202003</v>
@@ -68526,7 +68767,7 @@
         <v>15202004</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E894" s="3">
         <v>15202004</v>
@@ -68571,7 +68812,7 @@
         <v>384</v>
       </c>
       <c r="U894" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V894" s="19"/>
     </row>
@@ -68580,7 +68821,7 @@
         <v>15202005</v>
       </c>
       <c r="D895" s="3" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="E895" s="3">
         <v>15202005</v>
@@ -68637,7 +68878,7 @@
         <v>15202006</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E896" s="3">
         <v>15202006</v>
@@ -68682,7 +68923,7 @@
         <v>384</v>
       </c>
       <c r="U896" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V896" s="19"/>
     </row>
@@ -68691,7 +68932,7 @@
         <v>15203001</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E897" s="3">
         <v>15203001</v>
@@ -68748,7 +68989,7 @@
         <v>15203002</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E898" s="3">
         <v>15203002</v>
@@ -68793,7 +69034,7 @@
         <v>384</v>
       </c>
       <c r="U898" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V898" s="19"/>
     </row>
@@ -68802,7 +69043,7 @@
         <v>15203003</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E899" s="3">
         <v>15203003</v>
@@ -68859,7 +69100,7 @@
         <v>15203004</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E900" s="3">
         <v>15203004</v>
@@ -68904,7 +69145,7 @@
         <v>384</v>
       </c>
       <c r="U900" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V900" s="19"/>
     </row>
@@ -68970,7 +69211,7 @@
         <v>15203006</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E902" s="3">
         <v>15203006</v>
@@ -69015,7 +69256,7 @@
         <v>384</v>
       </c>
       <c r="U902" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V902" s="19"/>
     </row>
@@ -69024,7 +69265,7 @@
         <v>15204001</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E903" s="3">
         <v>15204001</v>
@@ -69081,7 +69322,7 @@
         <v>15204002</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E904" s="3">
         <v>15204002</v>
@@ -69126,7 +69367,7 @@
         <v>384</v>
       </c>
       <c r="U904" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V904" s="19"/>
     </row>
@@ -69135,7 +69376,7 @@
         <v>15204003</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E905" s="3">
         <v>15204003</v>
@@ -69192,7 +69433,7 @@
         <v>15204004</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E906" s="3">
         <v>15204004</v>
@@ -69237,7 +69478,7 @@
         <v>384</v>
       </c>
       <c r="U906" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V906" s="19"/>
     </row>
@@ -69303,7 +69544,7 @@
         <v>15204006</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E908" s="3">
         <v>15204006</v>
@@ -69348,7 +69589,7 @@
         <v>384</v>
       </c>
       <c r="U908" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V908" s="19"/>
     </row>
@@ -69357,7 +69598,7 @@
         <v>15205001</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E909" s="3">
         <v>15205001</v>
@@ -69414,7 +69655,7 @@
         <v>15205002</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E910" s="3">
         <v>15205002</v>
@@ -69459,7 +69700,7 @@
         <v>384</v>
       </c>
       <c r="U910" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V910" s="19"/>
     </row>
@@ -69468,7 +69709,7 @@
         <v>15205003</v>
       </c>
       <c r="D911" s="3" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E911" s="3">
         <v>15205003</v>
@@ -69525,7 +69766,7 @@
         <v>15205004</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E912" s="3">
         <v>15205004</v>
@@ -69570,7 +69811,7 @@
         <v>384</v>
       </c>
       <c r="U912" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V912" s="19"/>
     </row>
@@ -69579,7 +69820,7 @@
         <v>15205005</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E913" s="3">
         <v>15205005</v>
@@ -69636,7 +69877,7 @@
         <v>15205006</v>
       </c>
       <c r="D914" s="3" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E914" s="3">
         <v>15205006</v>
@@ -69681,7 +69922,7 @@
         <v>384</v>
       </c>
       <c r="U914" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V914" s="19"/>
     </row>
@@ -69690,7 +69931,7 @@
         <v>15206001</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="E915" s="3">
         <v>15206001</v>
@@ -69747,7 +69988,7 @@
         <v>15206002</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E916" s="3">
         <v>15206002</v>
@@ -69792,7 +70033,7 @@
         <v>384</v>
       </c>
       <c r="U916" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V916" s="19"/>
     </row>
@@ -69801,7 +70042,7 @@
         <v>15206003</v>
       </c>
       <c r="D917" s="114" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="E917" s="114">
         <v>15206003</v>
@@ -69846,7 +70087,7 @@
         <v>384</v>
       </c>
       <c r="U917" s="114" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="V917" s="116"/>
     </row>
@@ -69855,7 +70096,7 @@
         <v>15207001</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="E918" s="3">
         <v>15207001</v>
@@ -69912,7 +70153,7 @@
         <v>15207002</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E919" s="3">
         <v>15207002</v>
@@ -69957,7 +70198,7 @@
         <v>384</v>
       </c>
       <c r="U919" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V919" s="19"/>
     </row>
@@ -69966,7 +70207,7 @@
         <v>15208001</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="E920" s="3">
         <v>15208001</v>
@@ -70025,7 +70266,7 @@
         <v>15208002</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E921" s="3">
         <v>15208002</v>
@@ -70072,7 +70313,7 @@
         <v>384</v>
       </c>
       <c r="U921" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V921" s="19"/>
     </row>
@@ -70081,7 +70322,7 @@
         <v>15209001</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="E922" s="3">
         <v>15209001</v>
@@ -70138,7 +70379,7 @@
         <v>15209002</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E923" s="3">
         <v>15209002</v>
@@ -70183,7 +70424,7 @@
         <v>384</v>
       </c>
       <c r="U923" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V923" s="19"/>
     </row>
@@ -70192,7 +70433,7 @@
         <v>15210001</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E924" s="3">
         <v>15210001</v>
@@ -70249,7 +70490,7 @@
         <v>15210002</v>
       </c>
       <c r="D925" s="3" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E925" s="3">
         <v>15210002</v>
@@ -70294,7 +70535,7 @@
         <v>384</v>
       </c>
       <c r="U925" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V925" s="19"/>
     </row>
@@ -70303,7 +70544,7 @@
         <v>15210003</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="E926" s="3">
         <v>15210003</v>
@@ -70360,7 +70601,7 @@
         <v>15210004</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E927" s="3">
         <v>15210004</v>
@@ -70405,7 +70646,7 @@
         <v>384</v>
       </c>
       <c r="U927" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V927" s="19"/>
     </row>
@@ -70414,7 +70655,7 @@
         <v>15210011</v>
       </c>
       <c r="D928" s="114" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="E928" s="114">
         <v>15210011</v>
@@ -70459,7 +70700,7 @@
         <v>384</v>
       </c>
       <c r="U928" s="114" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="V928" s="116"/>
     </row>
@@ -70468,7 +70709,7 @@
         <v>15210012</v>
       </c>
       <c r="D929" s="114" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="E929" s="114">
         <v>15210012</v>
@@ -70513,7 +70754,7 @@
         <v>384</v>
       </c>
       <c r="U929" s="114" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="V929" s="116"/>
     </row>
@@ -70522,7 +70763,7 @@
         <v>15210101</v>
       </c>
       <c r="D930" s="21" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="E930" s="21">
         <v>15210101</v>
@@ -70579,7 +70820,7 @@
         <v>15210102</v>
       </c>
       <c r="D931" s="21" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E931" s="21">
         <v>15210102</v>
@@ -70624,7 +70865,7 @@
         <v>384</v>
       </c>
       <c r="U931" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V931" s="27"/>
     </row>
@@ -70633,7 +70874,7 @@
         <v>15210103</v>
       </c>
       <c r="D932" s="21" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="E932" s="21">
         <v>15210103</v>
@@ -70690,7 +70931,7 @@
         <v>15210104</v>
       </c>
       <c r="D933" s="21" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E933" s="21">
         <v>15210104</v>
@@ -70735,7 +70976,7 @@
         <v>384</v>
       </c>
       <c r="U933" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V933" s="27"/>
     </row>
@@ -70744,7 +70985,7 @@
         <v>15210111</v>
       </c>
       <c r="D934" s="114" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="E934" s="114">
         <v>15210111</v>
@@ -70789,7 +71030,7 @@
         <v>384</v>
       </c>
       <c r="U934" s="114" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="V934" s="116"/>
     </row>
@@ -70798,7 +71039,7 @@
         <v>15210112</v>
       </c>
       <c r="D935" s="114" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="E935" s="114">
         <v>15210112</v>
@@ -70843,7 +71084,7 @@
         <v>384</v>
       </c>
       <c r="U935" s="114" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="V935" s="116"/>
     </row>
@@ -70852,7 +71093,7 @@
         <v>15211001</v>
       </c>
       <c r="D936" s="3" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E936" s="3">
         <v>15211001</v>
@@ -70909,7 +71150,7 @@
         <v>15211002</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="E937" s="3">
         <v>15211002</v>
@@ -70954,7 +71195,7 @@
         <v>384</v>
       </c>
       <c r="U937" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V937" s="19"/>
     </row>
@@ -70963,7 +71204,7 @@
         <v>15211003</v>
       </c>
       <c r="D938" s="3" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E938" s="3">
         <v>15211003</v>
@@ -71020,7 +71261,7 @@
         <v>15211004</v>
       </c>
       <c r="D939" s="3" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E939" s="3">
         <v>15211004</v>
@@ -71065,7 +71306,7 @@
         <v>384</v>
       </c>
       <c r="U939" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V939" s="19"/>
     </row>
@@ -71074,7 +71315,7 @@
         <v>15211005</v>
       </c>
       <c r="D940" s="3" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E940" s="3">
         <v>15211005</v>
@@ -71131,7 +71372,7 @@
         <v>15211006</v>
       </c>
       <c r="D941" s="3" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="E941" s="3">
         <v>15211006</v>
@@ -71176,7 +71417,7 @@
         <v>384</v>
       </c>
       <c r="U941" s="3" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="V941" s="19"/>
     </row>
@@ -71185,7 +71426,7 @@
         <v>15211011</v>
       </c>
       <c r="D942" s="114" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="E942" s="114">
         <v>15211011</v>
@@ -71230,7 +71471,7 @@
         <v>384</v>
       </c>
       <c r="U942" s="114" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="V942" s="116"/>
     </row>
@@ -71239,7 +71480,7 @@
         <v>15211012</v>
       </c>
       <c r="D943" s="114" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="E943" s="114">
         <v>15211012</v>
@@ -71284,7 +71525,7 @@
         <v>384</v>
       </c>
       <c r="U943" s="114" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="V943" s="116"/>
     </row>
@@ -71293,7 +71534,7 @@
         <v>15211013</v>
       </c>
       <c r="D944" s="114" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="E944" s="114">
         <v>15211013</v>
@@ -71338,7 +71579,7 @@
         <v>384</v>
       </c>
       <c r="U944" s="114" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="V944" s="116"/>
     </row>
@@ -71347,7 +71588,7 @@
         <v>15301001</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E945" s="3">
         <v>15301001</v>
@@ -71392,7 +71633,7 @@
         <v>384</v>
       </c>
       <c r="U945" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V945" s="19" t="str">
         <f>D945&amp;"的描述"</f>
@@ -71404,7 +71645,7 @@
         <v>15301002</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="E946" s="3">
         <v>15301002</v>
@@ -71449,7 +71690,7 @@
         <v>384</v>
       </c>
       <c r="U946" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V946" s="19"/>
     </row>
@@ -71458,7 +71699,7 @@
         <v>15301003</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="E947" s="3">
         <v>15301003</v>
@@ -71503,7 +71744,7 @@
         <v>384</v>
       </c>
       <c r="U947" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V947" s="19" t="str">
         <f>D947&amp;"的描述"</f>
@@ -71515,7 +71756,7 @@
         <v>15301004</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E948" s="3">
         <v>15301004</v>
@@ -71560,7 +71801,7 @@
         <v>384</v>
       </c>
       <c r="U948" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V948" s="19"/>
     </row>
@@ -71569,7 +71810,7 @@
         <v>15301005</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E949" s="3">
         <v>15301005</v>
@@ -71614,7 +71855,7 @@
         <v>384</v>
       </c>
       <c r="U949" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V949" s="19" t="str">
         <f>D949&amp;"的描述"</f>
@@ -71626,7 +71867,7 @@
         <v>15301006</v>
       </c>
       <c r="D950" s="3" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="E950" s="3">
         <v>15301006</v>
@@ -71671,7 +71912,7 @@
         <v>384</v>
       </c>
       <c r="U950" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V950" s="19"/>
     </row>
@@ -71680,7 +71921,7 @@
         <v>15302001</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E951" s="3">
         <v>15302001</v>
@@ -71725,7 +71966,7 @@
         <v>384</v>
       </c>
       <c r="U951" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V951" s="19" t="str">
         <f>D951&amp;"的描述"</f>
@@ -71737,7 +71978,7 @@
         <v>15302002</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E952" s="3">
         <v>15302002</v>
@@ -71782,7 +72023,7 @@
         <v>384</v>
       </c>
       <c r="U952" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V952" s="19"/>
     </row>
@@ -71791,7 +72032,7 @@
         <v>15302003</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E953" s="3">
         <v>15302003</v>
@@ -71836,7 +72077,7 @@
         <v>384</v>
       </c>
       <c r="U953" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V953" s="19" t="str">
         <f>D953&amp;"的描述"</f>
@@ -71848,7 +72089,7 @@
         <v>15302004</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E954" s="3">
         <v>15302004</v>
@@ -71893,7 +72134,7 @@
         <v>384</v>
       </c>
       <c r="U954" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V954" s="19"/>
     </row>
@@ -71902,7 +72143,7 @@
         <v>15302005</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E955" s="3">
         <v>15302005</v>
@@ -71947,7 +72188,7 @@
         <v>384</v>
       </c>
       <c r="U955" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V955" s="19" t="str">
         <f>D955&amp;"的描述"</f>
@@ -71959,7 +72200,7 @@
         <v>15302006</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E956" s="3">
         <v>15302006</v>
@@ -72004,7 +72245,7 @@
         <v>384</v>
       </c>
       <c r="U956" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V956" s="19"/>
     </row>
@@ -72013,7 +72254,7 @@
         <v>15303001</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="E957" s="3">
         <v>15303001</v>
@@ -72058,7 +72299,7 @@
         <v>384</v>
       </c>
       <c r="U957" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V957" s="19" t="str">
         <f>D957&amp;"的描述"</f>
@@ -72070,7 +72311,7 @@
         <v>15303002</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E958" s="3">
         <v>15303002</v>
@@ -72115,7 +72356,7 @@
         <v>384</v>
       </c>
       <c r="U958" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V958" s="19"/>
     </row>
@@ -72124,7 +72365,7 @@
         <v>15303003</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="E959" s="3">
         <v>15303003</v>
@@ -72169,7 +72410,7 @@
         <v>384</v>
       </c>
       <c r="U959" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V959" s="19" t="str">
         <f>D959&amp;"的描述"</f>
@@ -72181,7 +72422,7 @@
         <v>15303004</v>
       </c>
       <c r="D960" s="3" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="E960" s="3">
         <v>15303004</v>
@@ -72226,7 +72467,7 @@
         <v>384</v>
       </c>
       <c r="U960" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V960" s="19"/>
     </row>
@@ -72235,7 +72476,7 @@
         <v>15303005</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="E961" s="3">
         <v>15303005</v>
@@ -72280,7 +72521,7 @@
         <v>384</v>
       </c>
       <c r="U961" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V961" s="19" t="str">
         <f>D961&amp;"的描述"</f>
@@ -72292,7 +72533,7 @@
         <v>15303006</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="E962" s="3">
         <v>15303006</v>
@@ -72337,7 +72578,7 @@
         <v>384</v>
       </c>
       <c r="U962" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V962" s="19"/>
     </row>
@@ -72346,7 +72587,7 @@
         <v>15304001</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E963" s="3">
         <v>15304001</v>
@@ -72391,7 +72632,7 @@
         <v>384</v>
       </c>
       <c r="U963" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V963" s="19" t="str">
         <f>D963&amp;"的描述"</f>
@@ -72403,7 +72644,7 @@
         <v>15304002</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="E964" s="3">
         <v>15304002</v>
@@ -72448,7 +72689,7 @@
         <v>384</v>
       </c>
       <c r="U964" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V964" s="19"/>
     </row>
@@ -72457,7 +72698,7 @@
         <v>15304003</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="E965" s="3">
         <v>15304003</v>
@@ -72502,7 +72743,7 @@
         <v>384</v>
       </c>
       <c r="U965" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V965" s="19" t="str">
         <f>D965&amp;"的描述"</f>
@@ -72514,7 +72755,7 @@
         <v>15304004</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E966" s="3">
         <v>15304004</v>
@@ -72559,7 +72800,7 @@
         <v>384</v>
       </c>
       <c r="U966" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V966" s="19"/>
     </row>
@@ -72568,7 +72809,7 @@
         <v>15304005</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E967" s="3">
         <v>15304005</v>
@@ -72613,7 +72854,7 @@
         <v>384</v>
       </c>
       <c r="U967" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V967" s="19" t="str">
         <f>D967&amp;"的描述"</f>
@@ -72625,7 +72866,7 @@
         <v>15304006</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E968" s="3">
         <v>15304006</v>
@@ -72670,7 +72911,7 @@
         <v>384</v>
       </c>
       <c r="U968" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V968" s="19"/>
     </row>
@@ -72679,7 +72920,7 @@
         <v>15305001</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E969" s="3">
         <v>15305001</v>
@@ -72724,7 +72965,7 @@
         <v>384</v>
       </c>
       <c r="U969" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V969" s="19" t="str">
         <f>D969&amp;"的描述"</f>
@@ -72736,7 +72977,7 @@
         <v>15305002</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="E970" s="3">
         <v>15305002</v>
@@ -72781,7 +73022,7 @@
         <v>384</v>
       </c>
       <c r="U970" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V970" s="19"/>
     </row>
@@ -72790,7 +73031,7 @@
         <v>15305003</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E971" s="3">
         <v>15305003</v>
@@ -72835,7 +73076,7 @@
         <v>384</v>
       </c>
       <c r="U971" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V971" s="19" t="str">
         <f>D971&amp;"的描述"</f>
@@ -72847,7 +73088,7 @@
         <v>15305004</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="E972" s="3">
         <v>15305004</v>
@@ -72892,7 +73133,7 @@
         <v>384</v>
       </c>
       <c r="U972" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V972" s="19"/>
     </row>
@@ -72901,7 +73142,7 @@
         <v>15305005</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E973" s="3">
         <v>15305005</v>
@@ -72946,7 +73187,7 @@
         <v>384</v>
       </c>
       <c r="U973" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V973" s="19" t="str">
         <f>D973&amp;"的描述"</f>
@@ -72958,7 +73199,7 @@
         <v>15305006</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="E974" s="3">
         <v>15305006</v>
@@ -73003,7 +73244,7 @@
         <v>384</v>
       </c>
       <c r="U974" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V974" s="19"/>
     </row>
@@ -73012,7 +73253,7 @@
         <v>15306001</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="E975" s="3">
         <v>15306001</v>
@@ -73057,7 +73298,7 @@
         <v>384</v>
       </c>
       <c r="U975" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V975" s="19" t="str">
         <f>D975&amp;"的描述"</f>
@@ -73069,7 +73310,7 @@
         <v>15306002</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E976" s="3">
         <v>15306002</v>
@@ -73114,7 +73355,7 @@
         <v>384</v>
       </c>
       <c r="U976" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V976" s="19"/>
     </row>
@@ -73123,7 +73364,7 @@
         <v>15306003</v>
       </c>
       <c r="D977" s="114" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="E977" s="114">
         <v>15306003</v>
@@ -73168,7 +73409,7 @@
         <v>384</v>
       </c>
       <c r="U977" s="114" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="V977" s="116"/>
     </row>
@@ -73177,7 +73418,7 @@
         <v>15307001</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="E978" s="3">
         <v>15307001</v>
@@ -73222,7 +73463,7 @@
         <v>384</v>
       </c>
       <c r="U978" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V978" s="19" t="str">
         <f>D978&amp;"的描述"</f>
@@ -73234,7 +73475,7 @@
         <v>15307002</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E979" s="3">
         <v>15307002</v>
@@ -73279,7 +73520,7 @@
         <v>384</v>
       </c>
       <c r="U979" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V979" s="19"/>
     </row>
@@ -73335,7 +73576,7 @@
         <v>384</v>
       </c>
       <c r="U980" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V980" s="19" t="str">
         <f>D980&amp;"的描述"</f>
@@ -73347,7 +73588,7 @@
         <v>15308002</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E981" s="3">
         <v>15308002</v>
@@ -73394,7 +73635,7 @@
         <v>384</v>
       </c>
       <c r="U981" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V981" s="19"/>
     </row>
@@ -73403,7 +73644,7 @@
         <v>15309001</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="E982" s="3">
         <v>15309001</v>
@@ -73448,7 +73689,7 @@
         <v>384</v>
       </c>
       <c r="U982" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V982" s="19" t="str">
         <f>D982&amp;"的描述"</f>
@@ -73460,7 +73701,7 @@
         <v>15309002</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="E983" s="3">
         <v>15309002</v>
@@ -73505,7 +73746,7 @@
         <v>384</v>
       </c>
       <c r="U983" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V983" s="19"/>
     </row>
@@ -73514,7 +73755,7 @@
         <v>15310001</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E984" s="3">
         <v>15310001</v>
@@ -73559,7 +73800,7 @@
         <v>384</v>
       </c>
       <c r="U984" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V984" s="19" t="str">
         <f>D984&amp;"的描述"</f>
@@ -73571,7 +73812,7 @@
         <v>15310002</v>
       </c>
       <c r="D985" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="E985" s="3">
         <v>15310002</v>
@@ -73616,7 +73857,7 @@
         <v>384</v>
       </c>
       <c r="U985" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V985" s="19"/>
     </row>
@@ -73625,7 +73866,7 @@
         <v>15310003</v>
       </c>
       <c r="D986" s="3" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="E986" s="3">
         <v>15310003</v>
@@ -73670,7 +73911,7 @@
         <v>384</v>
       </c>
       <c r="U986" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V986" s="19" t="str">
         <f>D986&amp;"的描述"</f>
@@ -73682,7 +73923,7 @@
         <v>15310004</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E987" s="3">
         <v>15310004</v>
@@ -73727,7 +73968,7 @@
         <v>384</v>
       </c>
       <c r="U987" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V987" s="19"/>
     </row>
@@ -73736,7 +73977,7 @@
         <v>15310011</v>
       </c>
       <c r="D988" s="114" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="E988" s="114">
         <v>15310011</v>
@@ -73781,7 +74022,7 @@
         <v>384</v>
       </c>
       <c r="U988" s="114" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="V988" s="116"/>
     </row>
@@ -73790,7 +74031,7 @@
         <v>15310012</v>
       </c>
       <c r="D989" s="114" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="E989" s="114">
         <v>15310012</v>
@@ -73835,7 +74076,7 @@
         <v>384</v>
       </c>
       <c r="U989" s="114" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="V989" s="116"/>
     </row>
@@ -73844,7 +74085,7 @@
         <v>15310101</v>
       </c>
       <c r="D990" s="21" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="E990" s="21">
         <v>15310101</v>
@@ -73889,7 +74130,7 @@
         <v>384</v>
       </c>
       <c r="U990" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V990" s="27" t="str">
         <f>D990&amp;"的描述"</f>
@@ -73901,7 +74142,7 @@
         <v>15310102</v>
       </c>
       <c r="D991" s="21" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="E991" s="21">
         <v>15310102</v>
@@ -73946,7 +74187,7 @@
         <v>384</v>
       </c>
       <c r="U991" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V991" s="27"/>
     </row>
@@ -73955,7 +74196,7 @@
         <v>15310103</v>
       </c>
       <c r="D992" s="21" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="E992" s="21">
         <v>15310103</v>
@@ -74000,7 +74241,7 @@
         <v>384</v>
       </c>
       <c r="U992" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V992" s="27" t="str">
         <f>D992&amp;"的描述"</f>
@@ -74012,7 +74253,7 @@
         <v>15310104</v>
       </c>
       <c r="D993" s="21" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E993" s="21">
         <v>15310104</v>
@@ -74057,7 +74298,7 @@
         <v>384</v>
       </c>
       <c r="U993" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V993" s="27"/>
     </row>
@@ -74066,7 +74307,7 @@
         <v>15310111</v>
       </c>
       <c r="D994" s="114" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="E994" s="114">
         <v>15310111</v>
@@ -74111,7 +74352,7 @@
         <v>384</v>
       </c>
       <c r="U994" s="114" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="V994" s="116"/>
     </row>
@@ -74120,7 +74361,7 @@
         <v>15310112</v>
       </c>
       <c r="D995" s="114" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="E995" s="114">
         <v>15310112</v>
@@ -74165,7 +74406,7 @@
         <v>384</v>
       </c>
       <c r="U995" s="114" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="V995" s="116"/>
     </row>
@@ -74174,7 +74415,7 @@
         <v>15311001</v>
       </c>
       <c r="D996" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E996" s="3">
         <v>15311001</v>
@@ -74219,7 +74460,7 @@
         <v>384</v>
       </c>
       <c r="U996" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V996" s="19" t="str">
         <f>D996&amp;"的描述"</f>
@@ -74231,7 +74472,7 @@
         <v>15311002</v>
       </c>
       <c r="D997" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E997" s="3">
         <v>15311002</v>
@@ -74276,7 +74517,7 @@
         <v>384</v>
       </c>
       <c r="U997" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V997" s="19"/>
     </row>
@@ -74285,7 +74526,7 @@
         <v>15311003</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="E998" s="3">
         <v>15311003</v>
@@ -74330,7 +74571,7 @@
         <v>384</v>
       </c>
       <c r="U998" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V998" s="19" t="str">
         <f>D998&amp;"的描述"</f>
@@ -74342,7 +74583,7 @@
         <v>15311004</v>
       </c>
       <c r="D999" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E999" s="3">
         <v>15311004</v>
@@ -74387,7 +74628,7 @@
         <v>384</v>
       </c>
       <c r="U999" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V999" s="19"/>
     </row>
@@ -74396,7 +74637,7 @@
         <v>15311005</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="E1000" s="3">
         <v>15311005</v>
@@ -74441,7 +74682,7 @@
         <v>384</v>
       </c>
       <c r="U1000" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="V1000" s="19" t="str">
         <f>D1000&amp;"的描述"</f>
@@ -74453,7 +74694,7 @@
         <v>15311006</v>
       </c>
       <c r="D1001" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E1001" s="3">
         <v>15311006</v>
@@ -74498,7 +74739,7 @@
         <v>384</v>
       </c>
       <c r="U1001" s="3" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="V1001" s="19"/>
     </row>
@@ -74507,7 +74748,7 @@
         <v>15311011</v>
       </c>
       <c r="D1002" s="114" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="E1002" s="114">
         <v>15311011</v>
@@ -74552,7 +74793,7 @@
         <v>384</v>
       </c>
       <c r="U1002" s="114" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="V1002" s="116"/>
     </row>
@@ -74561,7 +74802,7 @@
         <v>15311012</v>
       </c>
       <c r="D1003" s="114" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="E1003" s="114">
         <v>15311012</v>
@@ -74606,7 +74847,7 @@
         <v>384</v>
       </c>
       <c r="U1003" s="114" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="V1003" s="116"/>
     </row>
@@ -74615,7 +74856,7 @@
         <v>15311013</v>
       </c>
       <c r="D1004" s="114" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="E1004" s="114">
         <v>15311013</v>
@@ -74660,7 +74901,7 @@
         <v>384</v>
       </c>
       <c r="U1004" s="114" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="V1004" s="116"/>
     </row>
@@ -74669,7 +74910,7 @@
         <v>15401001</v>
       </c>
       <c r="D1005" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E1005" s="3">
         <v>15401001</v>
@@ -74714,7 +74955,7 @@
         <v>384</v>
       </c>
       <c r="U1005" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1005" s="19" t="str">
         <f>D1005&amp;"的描述"</f>
@@ -74726,7 +74967,7 @@
         <v>15401002</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E1006" s="3">
         <v>15401002</v>
@@ -74771,7 +75012,7 @@
         <v>384</v>
       </c>
       <c r="U1006" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1006" s="19"/>
     </row>
@@ -74780,7 +75021,7 @@
         <v>15401003</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E1007" s="3">
         <v>15401003</v>
@@ -74825,7 +75066,7 @@
         <v>384</v>
       </c>
       <c r="U1007" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1007" s="19" t="str">
         <f>D1007&amp;"的描述"</f>
@@ -74837,7 +75078,7 @@
         <v>15401004</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E1008" s="3">
         <v>15401004</v>
@@ -74882,7 +75123,7 @@
         <v>384</v>
       </c>
       <c r="U1008" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1008" s="19"/>
     </row>
@@ -74891,7 +75132,7 @@
         <v>15401005</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E1009" s="3">
         <v>15401005</v>
@@ -74936,7 +75177,7 @@
         <v>384</v>
       </c>
       <c r="U1009" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1009" s="19" t="str">
         <f>D1009&amp;"的描述"</f>
@@ -74948,7 +75189,7 @@
         <v>15401006</v>
       </c>
       <c r="D1010" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E1010" s="3">
         <v>15401006</v>
@@ -74993,7 +75234,7 @@
         <v>384</v>
       </c>
       <c r="U1010" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1010" s="19"/>
     </row>
@@ -75002,7 +75243,7 @@
         <v>15402001</v>
       </c>
       <c r="D1011" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E1011" s="3">
         <v>15402001</v>
@@ -75047,7 +75288,7 @@
         <v>384</v>
       </c>
       <c r="U1011" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1011" s="19" t="str">
         <f>D1011&amp;"的描述"</f>
@@ -75059,7 +75300,7 @@
         <v>15402002</v>
       </c>
       <c r="D1012" s="3" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="E1012" s="3">
         <v>15402002</v>
@@ -75104,7 +75345,7 @@
         <v>384</v>
       </c>
       <c r="U1012" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1012" s="19"/>
     </row>
@@ -75113,7 +75354,7 @@
         <v>15402003</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E1013" s="3">
         <v>15402003</v>
@@ -75158,7 +75399,7 @@
         <v>384</v>
       </c>
       <c r="U1013" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1013" s="19" t="str">
         <f>D1013&amp;"的描述"</f>
@@ -75170,7 +75411,7 @@
         <v>15402004</v>
       </c>
       <c r="D1014" s="3" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E1014" s="3">
         <v>15402004</v>
@@ -75215,7 +75456,7 @@
         <v>384</v>
       </c>
       <c r="U1014" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1014" s="19"/>
     </row>
@@ -75224,7 +75465,7 @@
         <v>15402005</v>
       </c>
       <c r="D1015" s="3" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="E1015" s="3">
         <v>15402005</v>
@@ -75269,7 +75510,7 @@
         <v>384</v>
       </c>
       <c r="U1015" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1015" s="19" t="str">
         <f>D1015&amp;"的描述"</f>
@@ -75281,7 +75522,7 @@
         <v>15402006</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E1016" s="3">
         <v>15402006</v>
@@ -75326,7 +75567,7 @@
         <v>384</v>
       </c>
       <c r="U1016" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1016" s="19"/>
     </row>
@@ -75335,7 +75576,7 @@
         <v>15403001</v>
       </c>
       <c r="D1017" s="3" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E1017" s="3">
         <v>15403001</v>
@@ -75380,7 +75621,7 @@
         <v>384</v>
       </c>
       <c r="U1017" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1017" s="19" t="str">
         <f>D1017&amp;"的描述"</f>
@@ -75392,7 +75633,7 @@
         <v>15403002</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="E1018" s="3">
         <v>15403002</v>
@@ -75437,7 +75678,7 @@
         <v>384</v>
       </c>
       <c r="U1018" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1018" s="19"/>
     </row>
@@ -75446,7 +75687,7 @@
         <v>15403003</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E1019" s="3">
         <v>15403003</v>
@@ -75491,7 +75732,7 @@
         <v>384</v>
       </c>
       <c r="U1019" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1019" s="19" t="str">
         <f>D1019&amp;"的描述"</f>
@@ -75503,7 +75744,7 @@
         <v>15403004</v>
       </c>
       <c r="D1020" s="3" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E1020" s="3">
         <v>15403004</v>
@@ -75548,7 +75789,7 @@
         <v>384</v>
       </c>
       <c r="U1020" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1020" s="19"/>
     </row>
@@ -75557,7 +75798,7 @@
         <v>15403005</v>
       </c>
       <c r="D1021" s="3" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E1021" s="3">
         <v>15403005</v>
@@ -75602,7 +75843,7 @@
         <v>384</v>
       </c>
       <c r="U1021" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1021" s="19" t="str">
         <f>D1021&amp;"的描述"</f>
@@ -75614,7 +75855,7 @@
         <v>15403006</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="E1022" s="3">
         <v>15403006</v>
@@ -75659,7 +75900,7 @@
         <v>384</v>
       </c>
       <c r="U1022" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1022" s="19"/>
     </row>
@@ -75668,7 +75909,7 @@
         <v>15404001</v>
       </c>
       <c r="D1023" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E1023" s="3">
         <v>15404001</v>
@@ -75713,7 +75954,7 @@
         <v>384</v>
       </c>
       <c r="U1023" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1023" s="19" t="str">
         <f>D1023&amp;"的描述"</f>
@@ -75725,7 +75966,7 @@
         <v>15404002</v>
       </c>
       <c r="D1024" s="3" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="E1024" s="3">
         <v>15404002</v>
@@ -75770,7 +76011,7 @@
         <v>384</v>
       </c>
       <c r="U1024" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1024" s="19"/>
     </row>
@@ -75779,7 +76020,7 @@
         <v>15404003</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E1025" s="3">
         <v>15404003</v>
@@ -75824,7 +76065,7 @@
         <v>384</v>
       </c>
       <c r="U1025" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1025" s="19" t="str">
         <f>D1025&amp;"的描述"</f>
@@ -75836,7 +76077,7 @@
         <v>15404004</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E1026" s="3">
         <v>15404004</v>
@@ -75881,7 +76122,7 @@
         <v>384</v>
       </c>
       <c r="U1026" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1026" s="19"/>
     </row>
@@ -75890,7 +76131,7 @@
         <v>15404005</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="E1027" s="3">
         <v>15404005</v>
@@ -75935,7 +76176,7 @@
         <v>384</v>
       </c>
       <c r="U1027" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1027" s="19" t="str">
         <f>D1027&amp;"的描述"</f>
@@ -75947,7 +76188,7 @@
         <v>15404006</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E1028" s="3">
         <v>15404006</v>
@@ -75992,7 +76233,7 @@
         <v>384</v>
       </c>
       <c r="U1028" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1028" s="19"/>
     </row>
@@ -76001,7 +76242,7 @@
         <v>15405001</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="E1029" s="3">
         <v>15405001</v>
@@ -76046,7 +76287,7 @@
         <v>384</v>
       </c>
       <c r="U1029" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1029" s="19" t="str">
         <f>D1029&amp;"的描述"</f>
@@ -76058,7 +76299,7 @@
         <v>15405002</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="E1030" s="3">
         <v>15405002</v>
@@ -76103,7 +76344,7 @@
         <v>384</v>
       </c>
       <c r="U1030" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1030" s="19"/>
     </row>
@@ -76112,7 +76353,7 @@
         <v>15405003</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E1031" s="3">
         <v>15405003</v>
@@ -76157,7 +76398,7 @@
         <v>384</v>
       </c>
       <c r="U1031" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1031" s="19" t="str">
         <f>D1031&amp;"的描述"</f>
@@ -76169,7 +76410,7 @@
         <v>15405004</v>
       </c>
       <c r="D1032" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="E1032" s="3">
         <v>15405004</v>
@@ -76214,7 +76455,7 @@
         <v>384</v>
       </c>
       <c r="U1032" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1032" s="19"/>
     </row>
@@ -76223,7 +76464,7 @@
         <v>15405005</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E1033" s="3">
         <v>15405005</v>
@@ -76268,7 +76509,7 @@
         <v>384</v>
       </c>
       <c r="U1033" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1033" s="19" t="str">
         <f>D1033&amp;"的描述"</f>
@@ -76280,7 +76521,7 @@
         <v>15405006</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E1034" s="3">
         <v>15405006</v>
@@ -76325,7 +76566,7 @@
         <v>384</v>
       </c>
       <c r="U1034" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1034" s="19"/>
     </row>
@@ -76334,7 +76575,7 @@
         <v>15406001</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="E1035" s="3">
         <v>15406001</v>
@@ -76379,7 +76620,7 @@
         <v>384</v>
       </c>
       <c r="U1035" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1035" s="19" t="str">
         <f>D1035&amp;"的描述"</f>
@@ -76391,7 +76632,7 @@
         <v>15406002</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E1036" s="3">
         <v>15406002</v>
@@ -76436,7 +76677,7 @@
         <v>384</v>
       </c>
       <c r="U1036" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1036" s="19"/>
     </row>
@@ -76445,7 +76686,7 @@
         <v>15406003</v>
       </c>
       <c r="D1037" s="114" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="E1037" s="114">
         <v>15406003</v>
@@ -76490,7 +76731,7 @@
         <v>384</v>
       </c>
       <c r="U1037" s="114" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="V1037" s="116"/>
     </row>
@@ -76499,7 +76740,7 @@
         <v>15407001</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="E1038" s="3">
         <v>15407001</v>
@@ -76544,7 +76785,7 @@
         <v>384</v>
       </c>
       <c r="U1038" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1038" s="19" t="str">
         <f>D1038&amp;"的描述"</f>
@@ -76556,7 +76797,7 @@
         <v>15407002</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E1039" s="3">
         <v>15407002</v>
@@ -76601,7 +76842,7 @@
         <v>384</v>
       </c>
       <c r="U1039" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1039" s="19"/>
     </row>
@@ -76657,7 +76898,7 @@
         <v>384</v>
       </c>
       <c r="U1040" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1040" s="19" t="str">
         <f>D1040&amp;"的描述"</f>
@@ -76669,7 +76910,7 @@
         <v>15408002</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E1041" s="3">
         <v>15408002</v>
@@ -76716,7 +76957,7 @@
         <v>384</v>
       </c>
       <c r="U1041" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1041" s="19"/>
     </row>
@@ -76725,7 +76966,7 @@
         <v>15409001</v>
       </c>
       <c r="D1042" s="3" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="E1042" s="3">
         <v>15409001</v>
@@ -76770,7 +77011,7 @@
         <v>384</v>
       </c>
       <c r="U1042" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1042" s="19" t="str">
         <f>D1042&amp;"的描述"</f>
@@ -76782,7 +77023,7 @@
         <v>15409002</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E1043" s="3">
         <v>15409002</v>
@@ -76827,7 +77068,7 @@
         <v>384</v>
       </c>
       <c r="U1043" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1043" s="19"/>
     </row>
@@ -76836,7 +77077,7 @@
         <v>15410001</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E1044" s="3">
         <v>15410001</v>
@@ -76881,7 +77122,7 @@
         <v>384</v>
       </c>
       <c r="U1044" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1044" s="19" t="str">
         <f>D1044&amp;"的描述"</f>
@@ -76893,7 +77134,7 @@
         <v>15410002</v>
       </c>
       <c r="D1045" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E1045" s="3">
         <v>15410002</v>
@@ -76938,7 +77179,7 @@
         <v>384</v>
       </c>
       <c r="U1045" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1045" s="19"/>
     </row>
@@ -76947,7 +77188,7 @@
         <v>15410003</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="E1046" s="3">
         <v>15410003</v>
@@ -76992,7 +77233,7 @@
         <v>384</v>
       </c>
       <c r="U1046" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1046" s="19" t="str">
         <f>D1046&amp;"的描述"</f>
@@ -77004,7 +77245,7 @@
         <v>15410004</v>
       </c>
       <c r="D1047" s="3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E1047" s="3">
         <v>15410004</v>
@@ -77049,7 +77290,7 @@
         <v>384</v>
       </c>
       <c r="U1047" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1047" s="19"/>
     </row>
@@ -77058,7 +77299,7 @@
         <v>15410011</v>
       </c>
       <c r="D1048" s="114" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="E1048" s="114">
         <v>15410011</v>
@@ -77103,7 +77344,7 @@
         <v>384</v>
       </c>
       <c r="U1048" s="114" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="V1048" s="116"/>
     </row>
@@ -77112,7 +77353,7 @@
         <v>15410012</v>
       </c>
       <c r="D1049" s="114" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="E1049" s="114">
         <v>15410012</v>
@@ -77157,7 +77398,7 @@
         <v>384</v>
       </c>
       <c r="U1049" s="114" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="V1049" s="116"/>
     </row>
@@ -77166,7 +77407,7 @@
         <v>15410101</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="E1050" s="3">
         <v>15410101</v>
@@ -77211,7 +77452,7 @@
         <v>384</v>
       </c>
       <c r="U1050" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1050" s="19" t="str">
         <f>D1050&amp;"的描述"</f>
@@ -77223,7 +77464,7 @@
         <v>15410102</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E1051" s="3">
         <v>15410102</v>
@@ -77268,7 +77509,7 @@
         <v>384</v>
       </c>
       <c r="U1051" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1051" s="19"/>
     </row>
@@ -77277,7 +77518,7 @@
         <v>15410103</v>
       </c>
       <c r="D1052" s="3" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="E1052" s="3">
         <v>15410103</v>
@@ -77322,7 +77563,7 @@
         <v>384</v>
       </c>
       <c r="U1052" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1052" s="19" t="str">
         <f>D1052&amp;"的描述"</f>
@@ -77334,7 +77575,7 @@
         <v>15410104</v>
       </c>
       <c r="D1053" s="3" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E1053" s="3">
         <v>15410104</v>
@@ -77379,7 +77620,7 @@
         <v>384</v>
       </c>
       <c r="U1053" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1053" s="19"/>
     </row>
@@ -77388,7 +77629,7 @@
         <v>15410111</v>
       </c>
       <c r="D1054" s="114" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="E1054" s="114">
         <v>15410111</v>
@@ -77433,7 +77674,7 @@
         <v>384</v>
       </c>
       <c r="U1054" s="114" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="V1054" s="116"/>
     </row>
@@ -77442,7 +77683,7 @@
         <v>15410112</v>
       </c>
       <c r="D1055" s="114" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="E1055" s="114">
         <v>15410112</v>
@@ -77487,7 +77728,7 @@
         <v>384</v>
       </c>
       <c r="U1055" s="114" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="V1055" s="116"/>
     </row>
@@ -77496,7 +77737,7 @@
         <v>15411001</v>
       </c>
       <c r="D1056" s="3" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E1056" s="3">
         <v>15411001</v>
@@ -77541,7 +77782,7 @@
         <v>384</v>
       </c>
       <c r="U1056" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1056" s="19" t="str">
         <f>D1056&amp;"的描述"</f>
@@ -77553,7 +77794,7 @@
         <v>15411002</v>
       </c>
       <c r="D1057" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="E1057" s="3">
         <v>15411002</v>
@@ -77598,7 +77839,7 @@
         <v>384</v>
       </c>
       <c r="U1057" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1057" s="19"/>
     </row>
@@ -77607,7 +77848,7 @@
         <v>15411003</v>
       </c>
       <c r="D1058" s="3" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="E1058" s="3">
         <v>15411003</v>
@@ -77652,7 +77893,7 @@
         <v>384</v>
       </c>
       <c r="U1058" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1058" s="19" t="str">
         <f>D1058&amp;"的描述"</f>
@@ -77664,7 +77905,7 @@
         <v>15411004</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="E1059" s="3">
         <v>15411004</v>
@@ -77709,7 +77950,7 @@
         <v>384</v>
       </c>
       <c r="U1059" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1059" s="19"/>
     </row>
@@ -77718,7 +77959,7 @@
         <v>15411005</v>
       </c>
       <c r="D1060" s="3" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E1060" s="3">
         <v>15411005</v>
@@ -77763,7 +78004,7 @@
         <v>384</v>
       </c>
       <c r="U1060" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="V1060" s="19" t="str">
         <f>D1060&amp;"的描述"</f>
@@ -77775,7 +78016,7 @@
         <v>15411006</v>
       </c>
       <c r="D1061" s="3" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="E1061" s="3">
         <v>15411006</v>
@@ -77820,7 +78061,7 @@
         <v>384</v>
       </c>
       <c r="U1061" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="V1061" s="19"/>
     </row>
@@ -77829,7 +78070,7 @@
         <v>15411011</v>
       </c>
       <c r="D1062" s="114" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="E1062" s="114">
         <v>15411011</v>
@@ -77874,7 +78115,7 @@
         <v>384</v>
       </c>
       <c r="U1062" s="114" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="V1062" s="116"/>
     </row>
@@ -77883,7 +78124,7 @@
         <v>15411012</v>
       </c>
       <c r="D1063" s="114" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="E1063" s="114">
         <v>15411012</v>
@@ -77928,7 +78169,7 @@
         <v>384</v>
       </c>
       <c r="U1063" s="114" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="V1063" s="116"/>
     </row>
@@ -77937,7 +78178,7 @@
         <v>15411013</v>
       </c>
       <c r="D1064" s="114" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="E1064" s="114">
         <v>15411013</v>
@@ -77982,7 +78223,7 @@
         <v>384</v>
       </c>
       <c r="U1064" s="114" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="V1064" s="116"/>
     </row>
@@ -77991,7 +78232,7 @@
         <v>15501001</v>
       </c>
       <c r="D1065" s="3" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="E1065" s="3">
         <v>15501001</v>
@@ -78036,7 +78277,7 @@
         <v>384</v>
       </c>
       <c r="U1065" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1065" s="19" t="str">
         <f>D1065&amp;"的描述"</f>
@@ -78048,7 +78289,7 @@
         <v>15501002</v>
       </c>
       <c r="D1066" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E1066" s="3">
         <v>15501002</v>
@@ -78093,7 +78334,7 @@
         <v>384</v>
       </c>
       <c r="U1066" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1066" s="19"/>
     </row>
@@ -78102,7 +78343,7 @@
         <v>15501003</v>
       </c>
       <c r="D1067" s="3" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E1067" s="3">
         <v>15501003</v>
@@ -78147,7 +78388,7 @@
         <v>384</v>
       </c>
       <c r="U1067" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1067" s="19" t="str">
         <f>D1067&amp;"的描述"</f>
@@ -78159,7 +78400,7 @@
         <v>15501004</v>
       </c>
       <c r="D1068" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E1068" s="3">
         <v>15501004</v>
@@ -78204,7 +78445,7 @@
         <v>384</v>
       </c>
       <c r="U1068" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1068" s="19"/>
     </row>
@@ -78213,7 +78454,7 @@
         <v>15501005</v>
       </c>
       <c r="D1069" s="3" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E1069" s="3">
         <v>15501005</v>
@@ -78258,7 +78499,7 @@
         <v>384</v>
       </c>
       <c r="U1069" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1069" s="19" t="str">
         <f>D1069&amp;"的描述"</f>
@@ -78270,7 +78511,7 @@
         <v>15501006</v>
       </c>
       <c r="D1070" s="3" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E1070" s="3">
         <v>15501006</v>
@@ -78315,7 +78556,7 @@
         <v>384</v>
       </c>
       <c r="U1070" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1070" s="19"/>
     </row>
@@ -78324,7 +78565,7 @@
         <v>15502001</v>
       </c>
       <c r="D1071" s="3" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E1071" s="3">
         <v>15502001</v>
@@ -78369,7 +78610,7 @@
         <v>384</v>
       </c>
       <c r="U1071" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1071" s="19" t="str">
         <f>D1071&amp;"的描述"</f>
@@ -78381,7 +78622,7 @@
         <v>15502002</v>
       </c>
       <c r="D1072" s="3" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="E1072" s="3">
         <v>15502002</v>
@@ -78426,7 +78667,7 @@
         <v>384</v>
       </c>
       <c r="U1072" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1072" s="19"/>
     </row>
@@ -78435,7 +78676,7 @@
         <v>15502003</v>
       </c>
       <c r="D1073" s="3" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E1073" s="3">
         <v>15502003</v>
@@ -78480,7 +78721,7 @@
         <v>384</v>
       </c>
       <c r="U1073" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1073" s="19" t="str">
         <f>D1073&amp;"的描述"</f>
@@ -78492,7 +78733,7 @@
         <v>15502004</v>
       </c>
       <c r="D1074" s="3" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E1074" s="3">
         <v>15502004</v>
@@ -78537,7 +78778,7 @@
         <v>384</v>
       </c>
       <c r="U1074" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1074" s="19"/>
     </row>
@@ -78546,7 +78787,7 @@
         <v>15502005</v>
       </c>
       <c r="D1075" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E1075" s="3">
         <v>15502005</v>
@@ -78591,7 +78832,7 @@
         <v>384</v>
       </c>
       <c r="U1075" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1075" s="19" t="str">
         <f>D1075&amp;"的描述"</f>
@@ -78603,7 +78844,7 @@
         <v>15502006</v>
       </c>
       <c r="D1076" s="3" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E1076" s="3">
         <v>15502006</v>
@@ -78648,7 +78889,7 @@
         <v>384</v>
       </c>
       <c r="U1076" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1076" s="19"/>
     </row>
@@ -78657,7 +78898,7 @@
         <v>15503001</v>
       </c>
       <c r="D1077" s="3" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E1077" s="3">
         <v>15503001</v>
@@ -78702,7 +78943,7 @@
         <v>384</v>
       </c>
       <c r="U1077" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1077" s="19" t="str">
         <f>D1077&amp;"的描述"</f>
@@ -78714,7 +78955,7 @@
         <v>15503002</v>
       </c>
       <c r="D1078" s="3" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E1078" s="3">
         <v>15503002</v>
@@ -78759,7 +79000,7 @@
         <v>384</v>
       </c>
       <c r="U1078" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1078" s="19"/>
     </row>
@@ -78768,7 +79009,7 @@
         <v>15503003</v>
       </c>
       <c r="D1079" s="3" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E1079" s="3">
         <v>15503003</v>
@@ -78813,7 +79054,7 @@
         <v>384</v>
       </c>
       <c r="U1079" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1079" s="19" t="str">
         <f>D1079&amp;"的描述"</f>
@@ -78825,7 +79066,7 @@
         <v>15503004</v>
       </c>
       <c r="D1080" s="3" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E1080" s="3">
         <v>15503004</v>
@@ -78870,7 +79111,7 @@
         <v>384</v>
       </c>
       <c r="U1080" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1080" s="19"/>
     </row>
@@ -78879,7 +79120,7 @@
         <v>15503005</v>
       </c>
       <c r="D1081" s="3" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E1081" s="3">
         <v>15503005</v>
@@ -78924,7 +79165,7 @@
         <v>384</v>
       </c>
       <c r="U1081" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1081" s="19" t="str">
         <f>D1081&amp;"的描述"</f>
@@ -78936,7 +79177,7 @@
         <v>15503006</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E1082" s="3">
         <v>15503006</v>
@@ -78981,7 +79222,7 @@
         <v>384</v>
       </c>
       <c r="U1082" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1082" s="19"/>
     </row>
@@ -78990,7 +79231,7 @@
         <v>15504001</v>
       </c>
       <c r="D1083" s="3" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E1083" s="3">
         <v>15504001</v>
@@ -79035,7 +79276,7 @@
         <v>384</v>
       </c>
       <c r="U1083" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1083" s="19" t="str">
         <f>D1083&amp;"的描述"</f>
@@ -79047,7 +79288,7 @@
         <v>15504002</v>
       </c>
       <c r="D1084" s="3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E1084" s="3">
         <v>15504002</v>
@@ -79092,7 +79333,7 @@
         <v>384</v>
       </c>
       <c r="U1084" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1084" s="19"/>
     </row>
@@ -79101,7 +79342,7 @@
         <v>15504003</v>
       </c>
       <c r="D1085" s="3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E1085" s="3">
         <v>15504003</v>
@@ -79146,7 +79387,7 @@
         <v>384</v>
       </c>
       <c r="U1085" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1085" s="19" t="str">
         <f>D1085&amp;"的描述"</f>
@@ -79158,7 +79399,7 @@
         <v>15504004</v>
       </c>
       <c r="D1086" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E1086" s="3">
         <v>15504004</v>
@@ -79203,7 +79444,7 @@
         <v>384</v>
       </c>
       <c r="U1086" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1086" s="19"/>
     </row>
@@ -79212,7 +79453,7 @@
         <v>15504005</v>
       </c>
       <c r="D1087" s="3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E1087" s="3">
         <v>15504005</v>
@@ -79257,7 +79498,7 @@
         <v>384</v>
       </c>
       <c r="U1087" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1087" s="19" t="str">
         <f>D1087&amp;"的描述"</f>
@@ -79269,7 +79510,7 @@
         <v>15504006</v>
       </c>
       <c r="D1088" s="3" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="E1088" s="3">
         <v>15504006</v>
@@ -79314,7 +79555,7 @@
         <v>384</v>
       </c>
       <c r="U1088" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1088" s="19"/>
     </row>
@@ -79323,7 +79564,7 @@
         <v>15505001</v>
       </c>
       <c r="D1089" s="3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E1089" s="3">
         <v>15505001</v>
@@ -79368,7 +79609,7 @@
         <v>384</v>
       </c>
       <c r="U1089" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1089" s="19" t="str">
         <f>D1089&amp;"的描述"</f>
@@ -79380,7 +79621,7 @@
         <v>15505002</v>
       </c>
       <c r="D1090" s="3" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E1090" s="3">
         <v>15505002</v>
@@ -79425,7 +79666,7 @@
         <v>384</v>
       </c>
       <c r="U1090" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1090" s="19"/>
     </row>
@@ -79434,7 +79675,7 @@
         <v>15505003</v>
       </c>
       <c r="D1091" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E1091" s="3">
         <v>15505003</v>
@@ -79479,7 +79720,7 @@
         <v>384</v>
       </c>
       <c r="U1091" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1091" s="19" t="str">
         <f>D1091&amp;"的描述"</f>
@@ -79491,7 +79732,7 @@
         <v>15505004</v>
       </c>
       <c r="D1092" s="3" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E1092" s="3">
         <v>15505004</v>
@@ -79536,7 +79777,7 @@
         <v>384</v>
       </c>
       <c r="U1092" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1092" s="19"/>
     </row>
@@ -79545,7 +79786,7 @@
         <v>15505005</v>
       </c>
       <c r="D1093" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E1093" s="3">
         <v>15505005</v>
@@ -79590,7 +79831,7 @@
         <v>384</v>
       </c>
       <c r="U1093" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1093" s="19" t="str">
         <f>D1093&amp;"的描述"</f>
@@ -79602,7 +79843,7 @@
         <v>15505006</v>
       </c>
       <c r="D1094" s="3" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E1094" s="3">
         <v>15505006</v>
@@ -79647,7 +79888,7 @@
         <v>384</v>
       </c>
       <c r="U1094" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1094" s="19"/>
     </row>
@@ -79656,7 +79897,7 @@
         <v>15506001</v>
       </c>
       <c r="D1095" s="3" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="E1095" s="3">
         <v>15506001</v>
@@ -79701,7 +79942,7 @@
         <v>384</v>
       </c>
       <c r="U1095" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1095" s="19" t="str">
         <f>D1095&amp;"的描述"</f>
@@ -79713,7 +79954,7 @@
         <v>15506002</v>
       </c>
       <c r="D1096" s="3" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E1096" s="3">
         <v>15506002</v>
@@ -79758,7 +79999,7 @@
         <v>384</v>
       </c>
       <c r="U1096" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1096" s="19"/>
     </row>
@@ -79767,7 +80008,7 @@
         <v>15506003</v>
       </c>
       <c r="D1097" s="114" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="E1097" s="114">
         <v>15506003</v>
@@ -79812,7 +80053,7 @@
         <v>384</v>
       </c>
       <c r="U1097" s="114" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="V1097" s="116"/>
     </row>
@@ -79821,7 +80062,7 @@
         <v>15507001</v>
       </c>
       <c r="D1098" s="3" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="E1098" s="3">
         <v>15507001</v>
@@ -79866,7 +80107,7 @@
         <v>384</v>
       </c>
       <c r="U1098" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1098" s="19" t="str">
         <f>D1098&amp;"的描述"</f>
@@ -79878,7 +80119,7 @@
         <v>15507002</v>
       </c>
       <c r="D1099" s="3" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E1099" s="3">
         <v>15507002</v>
@@ -79923,7 +80164,7 @@
         <v>384</v>
       </c>
       <c r="U1099" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1099" s="19"/>
     </row>
@@ -79932,7 +80173,7 @@
         <v>15508001</v>
       </c>
       <c r="D1100" s="3" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="E1100" s="3">
         <v>15508001</v>
@@ -79979,7 +80220,7 @@
         <v>384</v>
       </c>
       <c r="U1100" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1100" s="19" t="str">
         <f>D1100&amp;"的描述"</f>
@@ -79991,7 +80232,7 @@
         <v>15508002</v>
       </c>
       <c r="D1101" s="3" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E1101" s="3">
         <v>15508002</v>
@@ -80038,7 +80279,7 @@
         <v>384</v>
       </c>
       <c r="U1101" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1101" s="19"/>
     </row>
@@ -80047,7 +80288,7 @@
         <v>15509001</v>
       </c>
       <c r="D1102" s="3" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="E1102" s="3">
         <v>15509001</v>
@@ -80092,7 +80333,7 @@
         <v>384</v>
       </c>
       <c r="U1102" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1102" s="19" t="str">
         <f>D1102&amp;"的描述"</f>
@@ -80104,7 +80345,7 @@
         <v>15509002</v>
       </c>
       <c r="D1103" s="3" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E1103" s="3">
         <v>15509002</v>
@@ -80149,7 +80390,7 @@
         <v>384</v>
       </c>
       <c r="U1103" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1103" s="19"/>
     </row>
@@ -80158,7 +80399,7 @@
         <v>15510001</v>
       </c>
       <c r="D1104" s="3" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E1104" s="3">
         <v>15510001</v>
@@ -80203,7 +80444,7 @@
         <v>384</v>
       </c>
       <c r="U1104" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1104" s="19" t="str">
         <f>D1104&amp;"的描述"</f>
@@ -80215,7 +80456,7 @@
         <v>15510002</v>
       </c>
       <c r="D1105" s="3" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E1105" s="3">
         <v>15510002</v>
@@ -80260,7 +80501,7 @@
         <v>384</v>
       </c>
       <c r="U1105" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1105" s="19"/>
     </row>
@@ -80269,7 +80510,7 @@
         <v>15510003</v>
       </c>
       <c r="D1106" s="3" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="E1106" s="3">
         <v>15510003</v>
@@ -80314,7 +80555,7 @@
         <v>384</v>
       </c>
       <c r="U1106" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1106" s="19" t="str">
         <f>D1106&amp;"的描述"</f>
@@ -80326,7 +80567,7 @@
         <v>15510004</v>
       </c>
       <c r="D1107" s="3" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E1107" s="3">
         <v>15510004</v>
@@ -80371,7 +80612,7 @@
         <v>384</v>
       </c>
       <c r="U1107" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1107" s="19"/>
     </row>
@@ -80380,7 +80621,7 @@
         <v>15510011</v>
       </c>
       <c r="D1108" s="114" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="E1108" s="114">
         <v>15510011</v>
@@ -80425,7 +80666,7 @@
         <v>384</v>
       </c>
       <c r="U1108" s="114" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="V1108" s="116"/>
     </row>
@@ -80434,7 +80675,7 @@
         <v>15510012</v>
       </c>
       <c r="D1109" s="114" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="E1109" s="114">
         <v>15510012</v>
@@ -80479,7 +80720,7 @@
         <v>384</v>
       </c>
       <c r="U1109" s="114" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="V1109" s="116"/>
     </row>
@@ -80488,7 +80729,7 @@
         <v>15510101</v>
       </c>
       <c r="D1110" s="21" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E1110" s="21">
         <v>15510101</v>
@@ -80533,7 +80774,7 @@
         <v>384</v>
       </c>
       <c r="U1110" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1110" s="27" t="str">
         <f>D1110&amp;"的描述"</f>
@@ -80545,7 +80786,7 @@
         <v>15510102</v>
       </c>
       <c r="D1111" s="21" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E1111" s="21">
         <v>15510102</v>
@@ -80590,7 +80831,7 @@
         <v>384</v>
       </c>
       <c r="U1111" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1111" s="27"/>
     </row>
@@ -80599,7 +80840,7 @@
         <v>15510103</v>
       </c>
       <c r="D1112" s="21" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="E1112" s="21">
         <v>15510103</v>
@@ -80644,7 +80885,7 @@
         <v>384</v>
       </c>
       <c r="U1112" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1112" s="27" t="str">
         <f>D1112&amp;"的描述"</f>
@@ -80656,7 +80897,7 @@
         <v>15510104</v>
       </c>
       <c r="D1113" s="21" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E1113" s="21">
         <v>15510104</v>
@@ -80701,7 +80942,7 @@
         <v>384</v>
       </c>
       <c r="U1113" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1113" s="27"/>
     </row>
@@ -80710,7 +80951,7 @@
         <v>15510121</v>
       </c>
       <c r="D1114" s="114" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="E1114" s="114">
         <v>15510121</v>
@@ -80755,7 +80996,7 @@
         <v>384</v>
       </c>
       <c r="U1114" s="114" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="V1114" s="116"/>
     </row>
@@ -80764,7 +81005,7 @@
         <v>15510122</v>
       </c>
       <c r="D1115" s="114" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="E1115" s="114">
         <v>15510122</v>
@@ -80809,7 +81050,7 @@
         <v>384</v>
       </c>
       <c r="U1115" s="114" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="V1115" s="116"/>
     </row>
@@ -80818,7 +81059,7 @@
         <v>15511001</v>
       </c>
       <c r="D1116" s="3" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E1116" s="3">
         <v>15511001</v>
@@ -80863,7 +81104,7 @@
         <v>384</v>
       </c>
       <c r="U1116" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1116" s="19" t="str">
         <f>D1116&amp;"的描述"</f>
@@ -80875,7 +81116,7 @@
         <v>15511002</v>
       </c>
       <c r="D1117" s="3" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="E1117" s="3">
         <v>15511002</v>
@@ -80920,7 +81161,7 @@
         <v>384</v>
       </c>
       <c r="U1117" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1117" s="19"/>
     </row>
@@ -80929,7 +81170,7 @@
         <v>15511003</v>
       </c>
       <c r="D1118" s="3" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="E1118" s="3">
         <v>15511003</v>
@@ -80974,7 +81215,7 @@
         <v>384</v>
       </c>
       <c r="U1118" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1118" s="19" t="str">
         <f>D1118&amp;"的描述"</f>
@@ -80986,7 +81227,7 @@
         <v>15511004</v>
       </c>
       <c r="D1119" s="3" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="E1119" s="3">
         <v>15511004</v>
@@ -81031,7 +81272,7 @@
         <v>384</v>
       </c>
       <c r="U1119" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1119" s="19"/>
     </row>
@@ -81040,7 +81281,7 @@
         <v>15511005</v>
       </c>
       <c r="D1120" s="3" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E1120" s="3">
         <v>15511005</v>
@@ -81085,7 +81326,7 @@
         <v>384</v>
       </c>
       <c r="U1120" s="3" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="V1120" s="19" t="str">
         <f>D1120&amp;"的描述"</f>
@@ -81097,7 +81338,7 @@
         <v>15511006</v>
       </c>
       <c r="D1121" s="3" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="E1121" s="3">
         <v>15511006</v>
@@ -81142,7 +81383,7 @@
         <v>384</v>
       </c>
       <c r="U1121" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="V1121" s="19"/>
     </row>
@@ -81151,7 +81392,7 @@
         <v>15511011</v>
       </c>
       <c r="D1122" s="114" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="E1122" s="114">
         <v>15511011</v>
@@ -81196,7 +81437,7 @@
         <v>384</v>
       </c>
       <c r="U1122" s="114" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="V1122" s="116"/>
     </row>
@@ -81205,7 +81446,7 @@
         <v>15511012</v>
       </c>
       <c r="D1123" s="114" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="E1123" s="114">
         <v>15511012</v>
@@ -81250,7 +81491,7 @@
         <v>384</v>
       </c>
       <c r="U1123" s="114" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="V1123" s="116"/>
     </row>
@@ -81259,7 +81500,7 @@
         <v>15511013</v>
       </c>
       <c r="D1124" s="114" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="E1124" s="114">
         <v>15511013</v>
@@ -81304,7 +81545,7 @@
         <v>384</v>
       </c>
       <c r="U1124" s="114" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="V1124" s="116"/>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CD74E-1BA4-409B-9F24-78B006C9BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636F77B-CBC3-4EEC-AF03-7EE55CBC72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15725,10 +15725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636F77B-CBC3-4EEC-AF03-7EE55CBC72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFAFF6-8317-4205-A66E-64781A77243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15726,9 +15726,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="K999" sqref="K999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20464,9 +20464,7 @@
       </c>
     </row>
     <row r="81" spans="3:23" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="20">
-        <v>10010083</v>
-      </c>
+      <c r="C81" s="20"/>
       <c r="D81" s="76" t="s">
         <v>80</v>
       </c>
@@ -80534,7 +80532,7 @@
         <v>1</v>
       </c>
       <c r="L1106" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1106" s="3">
         <v>1</v>
@@ -80591,7 +80589,7 @@
         <v>1</v>
       </c>
       <c r="L1107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1107" s="3">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFAFF6-8317-4205-A66E-64781A77243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E06DF6A-E6AF-47A6-8199-D0FDC1D25FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9462" uniqueCount="2013">
   <si>
     <t>ItemName</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -15726,9 +15726,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A992" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K999" sqref="K999"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20464,7 +20464,9 @@
       </c>
     </row>
     <row r="81" spans="3:23" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="20"/>
+      <c r="C81" s="20">
+        <v>10010083</v>
+      </c>
       <c r="D81" s="76" t="s">
         <v>80</v>
       </c>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E06DF6A-E6AF-47A6-8199-D0FDC1D25FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA13D11-7595-49E1-8178-5D809B70A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="1080" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9462" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="2013">
   <si>
     <t>ItemName</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -15726,9 +15726,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA13D11-7595-49E1-8178-5D809B70A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517EC21-53B3-4677-ADCF-6501F0296CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1080" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="795" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15725,10 +15725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517EC21-53B3-4677-ADCF-6501F0296CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4A322-ADF4-4572-9DBF-CE6A700A90F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="795" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="510" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15726,9 +15726,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="J851" sqref="J851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4A322-ADF4-4572-9DBF-CE6A700A90F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F478A68-0C98-400E-8439-2EEB64E80D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="510" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15726,9 +15726,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A917" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J851" sqref="J851"/>
+      <selection pane="bottomLeft" activeCell="C925" sqref="C925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F478A68-0C98-400E-8439-2EEB64E80D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02BFBC4-7530-4037-BDC7-AD248F9CDFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29565" yWindow="240" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15725,10 +15725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A917" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C925" sqref="C925"/>
+      <selection pane="bottomLeft" activeCell="L599" sqref="L599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46713,7 +46713,7 @@
         <v>0</v>
       </c>
       <c r="M512" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N512" s="84">
         <v>1</v>
@@ -46774,7 +46774,7 @@
         <v>0</v>
       </c>
       <c r="M513" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N513" s="84">
         <v>1</v>
@@ -46835,7 +46835,7 @@
         <v>0</v>
       </c>
       <c r="M514" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N514" s="84">
         <v>1</v>
@@ -46896,7 +46896,7 @@
         <v>0</v>
       </c>
       <c r="M515" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N515" s="84">
         <v>1</v>
@@ -46957,7 +46957,7 @@
         <v>0</v>
       </c>
       <c r="M516" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N516" s="84">
         <v>1</v>
@@ -47018,7 +47018,7 @@
         <v>0</v>
       </c>
       <c r="M517" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N517" s="84">
         <v>1</v>
@@ -47079,7 +47079,7 @@
         <v>0</v>
       </c>
       <c r="M518" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N518" s="84">
         <v>1</v>
@@ -47140,7 +47140,7 @@
         <v>0</v>
       </c>
       <c r="M519" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N519" s="84">
         <v>1</v>
@@ -47201,7 +47201,7 @@
         <v>0</v>
       </c>
       <c r="M520" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N520" s="84">
         <v>1</v>
@@ -47262,7 +47262,7 @@
         <v>0</v>
       </c>
       <c r="M521" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N521" s="84">
         <v>1</v>
@@ -47323,7 +47323,7 @@
         <v>0</v>
       </c>
       <c r="M522" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N522" s="84">
         <v>1</v>
@@ -47384,7 +47384,7 @@
         <v>0</v>
       </c>
       <c r="M523" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N523" s="84">
         <v>1</v>
@@ -47445,7 +47445,7 @@
         <v>0</v>
       </c>
       <c r="M524" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N524" s="84">
         <v>1</v>
@@ -47506,7 +47506,7 @@
         <v>0</v>
       </c>
       <c r="M525" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N525" s="84">
         <v>1</v>
@@ -47567,7 +47567,7 @@
         <v>0</v>
       </c>
       <c r="M526" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N526" s="84">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="M527" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N527" s="84">
         <v>1</v>
@@ -47689,7 +47689,7 @@
         <v>0</v>
       </c>
       <c r="M528" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N528" s="84">
         <v>1</v>
@@ -47750,7 +47750,7 @@
         <v>0</v>
       </c>
       <c r="M529" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N529" s="84">
         <v>1</v>
@@ -47811,7 +47811,7 @@
         <v>0</v>
       </c>
       <c r="M530" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N530" s="84">
         <v>1</v>
@@ -47872,7 +47872,7 @@
         <v>0</v>
       </c>
       <c r="M531" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N531" s="84">
         <v>1</v>
@@ -47933,7 +47933,7 @@
         <v>0</v>
       </c>
       <c r="M532" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N532" s="84">
         <v>1</v>
@@ -47994,7 +47994,7 @@
         <v>0</v>
       </c>
       <c r="M533" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N533" s="84">
         <v>1</v>
@@ -48055,7 +48055,7 @@
         <v>0</v>
       </c>
       <c r="M534" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N534" s="84">
         <v>1</v>
@@ -48116,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="M535" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N535" s="84">
         <v>1</v>
@@ -48177,7 +48177,7 @@
         <v>0</v>
       </c>
       <c r="M536" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N536" s="84">
         <v>1</v>
@@ -48238,7 +48238,7 @@
         <v>0</v>
       </c>
       <c r="M537" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N537" s="84">
         <v>1</v>
@@ -48299,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="M538" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N538" s="84">
         <v>1</v>
@@ -48360,7 +48360,7 @@
         <v>0</v>
       </c>
       <c r="M539" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N539" s="84">
         <v>1</v>
@@ -48421,7 +48421,7 @@
         <v>0</v>
       </c>
       <c r="M540" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N540" s="84">
         <v>1</v>
@@ -48482,7 +48482,7 @@
         <v>0</v>
       </c>
       <c r="M541" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N541" s="84">
         <v>1</v>
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="M542" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N542" s="84">
         <v>1</v>
@@ -48604,7 +48604,7 @@
         <v>0</v>
       </c>
       <c r="M543" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N543" s="84">
         <v>1</v>
@@ -48665,7 +48665,7 @@
         <v>0</v>
       </c>
       <c r="M544" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N544" s="84">
         <v>1</v>
@@ -48726,7 +48726,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N545" s="84">
         <v>1</v>
@@ -48787,7 +48787,7 @@
         <v>0</v>
       </c>
       <c r="M546" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N546" s="84">
         <v>1</v>
@@ -48848,7 +48848,7 @@
         <v>0</v>
       </c>
       <c r="M547" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N547" s="84">
         <v>1</v>
@@ -48909,7 +48909,7 @@
         <v>0</v>
       </c>
       <c r="M548" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N548" s="84">
         <v>1</v>
@@ -48970,7 +48970,7 @@
         <v>0</v>
       </c>
       <c r="M549" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N549" s="84">
         <v>1</v>
@@ -49031,7 +49031,7 @@
         <v>0</v>
       </c>
       <c r="M550" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N550" s="84">
         <v>1</v>
@@ -49092,7 +49092,7 @@
         <v>0</v>
       </c>
       <c r="M551" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N551" s="84">
         <v>1</v>
@@ -49153,7 +49153,7 @@
         <v>0</v>
       </c>
       <c r="M552" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N552" s="84">
         <v>1</v>
@@ -49214,7 +49214,7 @@
         <v>0</v>
       </c>
       <c r="M553" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N553" s="84">
         <v>1</v>
@@ -49275,7 +49275,7 @@
         <v>0</v>
       </c>
       <c r="M554" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N554" s="84">
         <v>1</v>
@@ -49336,7 +49336,7 @@
         <v>0</v>
       </c>
       <c r="M555" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N555" s="84">
         <v>1</v>
@@ -49397,7 +49397,7 @@
         <v>0</v>
       </c>
       <c r="M556" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N556" s="84">
         <v>1</v>
@@ -49458,7 +49458,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N557" s="84">
         <v>1</v>
@@ -49519,7 +49519,7 @@
         <v>0</v>
       </c>
       <c r="M558" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N558" s="84">
         <v>1</v>
@@ -49580,7 +49580,7 @@
         <v>0</v>
       </c>
       <c r="M559" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N559" s="84">
         <v>1</v>
@@ -49641,7 +49641,7 @@
         <v>0</v>
       </c>
       <c r="M560" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N560" s="84">
         <v>1</v>
@@ -49702,7 +49702,7 @@
         <v>0</v>
       </c>
       <c r="M561" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N561" s="84">
         <v>1</v>
@@ -49763,7 +49763,7 @@
         <v>0</v>
       </c>
       <c r="M562" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N562" s="84">
         <v>1</v>
@@ -49824,7 +49824,7 @@
         <v>0</v>
       </c>
       <c r="M563" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N563" s="84">
         <v>1</v>
@@ -49885,7 +49885,7 @@
         <v>0</v>
       </c>
       <c r="M564" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N564" s="84">
         <v>1</v>
@@ -49946,7 +49946,7 @@
         <v>0</v>
       </c>
       <c r="M565" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N565" s="84">
         <v>1</v>
@@ -50007,7 +50007,7 @@
         <v>0</v>
       </c>
       <c r="M566" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N566" s="84">
         <v>1</v>
@@ -50068,7 +50068,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N567" s="84">
         <v>1</v>
@@ -50129,7 +50129,7 @@
         <v>0</v>
       </c>
       <c r="M568" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N568" s="84">
         <v>1</v>
@@ -50190,7 +50190,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N569" s="84">
         <v>1</v>
@@ -50251,7 +50251,7 @@
         <v>0</v>
       </c>
       <c r="M570" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N570" s="84">
         <v>1</v>
@@ -50312,7 +50312,7 @@
         <v>0</v>
       </c>
       <c r="M571" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N571" s="84">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         <v>0</v>
       </c>
       <c r="M572" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N572" s="84">
         <v>1</v>
@@ -50434,7 +50434,7 @@
         <v>0</v>
       </c>
       <c r="M573" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N573" s="84">
         <v>1</v>
@@ -50495,7 +50495,7 @@
         <v>0</v>
       </c>
       <c r="M574" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N574" s="84">
         <v>1</v>
@@ -50556,7 +50556,7 @@
         <v>0</v>
       </c>
       <c r="M575" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N575" s="84">
         <v>1</v>
@@ -50617,7 +50617,7 @@
         <v>0</v>
       </c>
       <c r="M576" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N576" s="84">
         <v>1</v>
@@ -50678,7 +50678,7 @@
         <v>0</v>
       </c>
       <c r="M577" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N577" s="84">
         <v>1</v>
@@ -50739,7 +50739,7 @@
         <v>0</v>
       </c>
       <c r="M578" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N578" s="84">
         <v>1</v>
@@ -50800,7 +50800,7 @@
         <v>0</v>
       </c>
       <c r="M579" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N579" s="84">
         <v>1</v>
@@ -50861,7 +50861,7 @@
         <v>0</v>
       </c>
       <c r="M580" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N580" s="84">
         <v>1</v>
@@ -50922,7 +50922,7 @@
         <v>0</v>
       </c>
       <c r="M581" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N581" s="84">
         <v>1</v>
@@ -50983,7 +50983,7 @@
         <v>0</v>
       </c>
       <c r="M582" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N582" s="84">
         <v>1</v>
@@ -51044,7 +51044,7 @@
         <v>0</v>
       </c>
       <c r="M583" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N583" s="84">
         <v>1</v>
@@ -51105,7 +51105,7 @@
         <v>0</v>
       </c>
       <c r="M584" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N584" s="84">
         <v>1</v>
@@ -51166,7 +51166,7 @@
         <v>0</v>
       </c>
       <c r="M585" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N585" s="84">
         <v>1</v>
@@ -51227,7 +51227,7 @@
         <v>0</v>
       </c>
       <c r="M586" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N586" s="84">
         <v>1</v>
@@ -51288,7 +51288,7 @@
         <v>0</v>
       </c>
       <c r="M587" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N587" s="84">
         <v>1</v>
@@ -51349,7 +51349,7 @@
         <v>0</v>
       </c>
       <c r="M588" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N588" s="84">
         <v>1</v>
@@ -51410,7 +51410,7 @@
         <v>0</v>
       </c>
       <c r="M589" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N589" s="84">
         <v>1</v>
@@ -51471,7 +51471,7 @@
         <v>0</v>
       </c>
       <c r="M590" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N590" s="84">
         <v>1</v>
@@ -51532,7 +51532,7 @@
         <v>0</v>
       </c>
       <c r="M591" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N591" s="84">
         <v>1</v>
@@ -51593,7 +51593,7 @@
         <v>0</v>
       </c>
       <c r="M592" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N592" s="84">
         <v>1</v>
@@ -51654,7 +51654,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N593" s="84">
         <v>1</v>
@@ -51715,7 +51715,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N594" s="84">
         <v>1</v>
@@ -51776,7 +51776,7 @@
         <v>0</v>
       </c>
       <c r="M595" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N595" s="84">
         <v>1</v>
@@ -51837,7 +51837,7 @@
         <v>0</v>
       </c>
       <c r="M596" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N596" s="84">
         <v>1</v>
@@ -51898,7 +51898,7 @@
         <v>0</v>
       </c>
       <c r="M597" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N597" s="84">
         <v>1</v>
@@ -51959,7 +51959,7 @@
         <v>0</v>
       </c>
       <c r="M598" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N598" s="84">
         <v>1</v>
@@ -52020,7 +52020,7 @@
         <v>0</v>
       </c>
       <c r="M599" s="84">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N599" s="84">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02BFBC4-7530-4037-BDC7-AD248F9CDFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EC0C7-0E91-4A4E-B5AC-B18FC3B5CD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29565" yWindow="240" windowWidth="27045" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="465" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -6308,10 +6308,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>金盒</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
     <t>神兽碎片</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
@@ -7918,6 +7914,10 @@
   </si>
   <si>
     <t>可以给宠物添加宠物技能：弱势土,添加时将随机替换原始宠物技能中的一个喔!</t>
+  </si>
+  <si>
+    <t>金盒</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15726,9 +15726,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L599" sqref="L599"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17192,7 +17192,7 @@
         <v>10000135</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>1500</v>
+        <v>2012</v>
       </c>
       <c r="E27" s="20">
         <v>10000135</v>
@@ -17251,7 +17251,7 @@
         <v>10000136</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E28" s="20">
         <v>10000136</v>
@@ -17310,7 +17310,7 @@
         <v>10000137</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E29" s="20">
         <v>10000137</v>
@@ -17350,7 +17350,7 @@
       </c>
       <c r="Q29" s="24"/>
       <c r="R29" s="24" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="S29" s="23">
         <v>0</v>
@@ -17369,7 +17369,7 @@
         <v>10000138</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E30" s="20">
         <v>10000138</v>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="24" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="S30" s="23">
         <v>0</v>
@@ -17428,7 +17428,7 @@
         <v>10000139</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E31" s="20">
         <v>10000139</v>
@@ -17478,7 +17478,7 @@
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="102" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="W31" s="102"/>
     </row>
@@ -17487,7 +17487,7 @@
         <v>10000140</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E32" s="20">
         <v>10000140</v>
@@ -17537,7 +17537,7 @@
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="102" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="W32" s="102"/>
     </row>
@@ -17546,7 +17546,7 @@
         <v>10000141</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E33" s="20">
         <v>10000141</v>
@@ -17596,7 +17596,7 @@
       </c>
       <c r="U33" s="24"/>
       <c r="V33" s="72" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="W33" s="72"/>
     </row>
@@ -17605,7 +17605,7 @@
         <v>10000142</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E34" s="20">
         <v>10000142</v>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="U34" s="24"/>
       <c r="V34" s="72" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="W34" s="72"/>
     </row>
@@ -17664,7 +17664,7 @@
         <v>10000143</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E35" s="20">
         <v>10000143</v>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="72" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="W36" s="73" t="s">
         <v>1464</v>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="72" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="W37" s="73" t="s">
         <v>1464</v>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="72" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="W38" s="73" t="s">
         <v>1464</v>
@@ -17956,7 +17956,7 @@
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="72" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="W39" s="73" t="s">
         <v>1464</v>
@@ -18017,7 +18017,7 @@
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="72" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="W40" s="73" t="s">
         <v>1464</v>
@@ -18078,7 +18078,7 @@
       </c>
       <c r="U41" s="24"/>
       <c r="V41" s="72" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="W41" s="72" t="s">
         <v>797</v>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="U42" s="24"/>
       <c r="V42" s="72" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="W42" s="72" t="s">
         <v>797</v>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="U43" s="24"/>
       <c r="V43" s="72" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="W43" s="72" t="s">
         <v>797</v>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="U44" s="24"/>
       <c r="V44" s="72" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="W44" s="72" t="s">
         <v>797</v>
@@ -18322,7 +18322,7 @@
       </c>
       <c r="U45" s="24"/>
       <c r="V45" s="72" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="W45" s="72" t="s">
         <v>797</v>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="Q57" s="23"/>
       <c r="R57" s="11" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="S57" s="23">
         <v>0</v>
@@ -19105,7 +19105,7 @@
       </c>
       <c r="Q58" s="23"/>
       <c r="R58" s="11" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="S58" s="23">
         <v>0</v>
@@ -19126,7 +19126,7 @@
         <v>10010043</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E59" s="20">
         <v>10010042</v>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="Q59" s="23"/>
       <c r="R59" s="11" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="S59" s="23">
         <v>0</v>
@@ -20264,7 +20264,7 @@
       </c>
       <c r="Q77" s="23"/>
       <c r="R77" s="23" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="S77" s="23">
         <v>0</v>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="U77" s="24"/>
       <c r="V77" s="72" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="W77" s="73" t="s">
         <v>487</v>
@@ -20907,7 +20907,7 @@
       </c>
       <c r="Q88" s="21"/>
       <c r="R88" s="29" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="S88" s="21">
         <v>0</v>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="Q89" s="21"/>
       <c r="R89" s="29" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="S89" s="21">
         <v>0</v>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="Q90" s="21"/>
       <c r="R90" s="29" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="S90" s="21">
         <v>0</v>
@@ -21044,7 +21044,7 @@
         <v>10010098</v>
       </c>
       <c r="D91" s="84" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E91" s="83">
         <v>10010098</v>
@@ -21098,7 +21098,7 @@
         <v>10010099</v>
       </c>
       <c r="D92" s="84" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E92" s="83">
         <v>10010099</v>
@@ -30054,7 +30054,7 @@
       </c>
       <c r="U238" s="14"/>
       <c r="V238" s="59" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="W238" s="59"/>
       <c r="Y238" s="59"/>
@@ -30114,7 +30114,7 @@
       </c>
       <c r="U239" s="14"/>
       <c r="V239" s="59" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="W239" s="59"/>
       <c r="Y239" s="59"/>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="U248" s="14"/>
       <c r="V248" s="59" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W248" s="59"/>
       <c r="Y248" s="59"/>
@@ -30738,7 +30738,7 @@
       </c>
       <c r="U249" s="14"/>
       <c r="V249" s="59" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W249" s="59"/>
       <c r="Y249" s="59"/>
@@ -31302,7 +31302,7 @@
       </c>
       <c r="U258" s="14"/>
       <c r="V258" s="59" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="W258" s="59"/>
       <c r="Y258" s="59"/>
@@ -31362,7 +31362,7 @@
       </c>
       <c r="U259" s="14"/>
       <c r="V259" s="59" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="W259" s="59"/>
       <c r="Y259" s="59"/>
@@ -31926,7 +31926,7 @@
       </c>
       <c r="U268" s="14"/>
       <c r="V268" s="59" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="W268" s="59"/>
       <c r="Y268" s="59"/>
@@ -31986,7 +31986,7 @@
       </c>
       <c r="U269" s="14"/>
       <c r="V269" s="59" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="W269" s="59"/>
       <c r="Y269" s="59"/>
@@ -32550,7 +32550,7 @@
       </c>
       <c r="U278" s="14"/>
       <c r="V278" s="59" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="W278" s="59"/>
     </row>
@@ -32609,7 +32609,7 @@
       </c>
       <c r="U279" s="14"/>
       <c r="V279" s="59" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="W279" s="59"/>
     </row>
@@ -46713,7 +46713,7 @@
         <v>0</v>
       </c>
       <c r="M512" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N512" s="84">
         <v>1</v>
@@ -46774,7 +46774,7 @@
         <v>0</v>
       </c>
       <c r="M513" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N513" s="84">
         <v>1</v>
@@ -46835,7 +46835,7 @@
         <v>0</v>
       </c>
       <c r="M514" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N514" s="84">
         <v>1</v>
@@ -46896,7 +46896,7 @@
         <v>0</v>
       </c>
       <c r="M515" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N515" s="84">
         <v>1</v>
@@ -46957,7 +46957,7 @@
         <v>0</v>
       </c>
       <c r="M516" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N516" s="84">
         <v>1</v>
@@ -47018,7 +47018,7 @@
         <v>0</v>
       </c>
       <c r="M517" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N517" s="84">
         <v>1</v>
@@ -47079,7 +47079,7 @@
         <v>0</v>
       </c>
       <c r="M518" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N518" s="84">
         <v>1</v>
@@ -47140,7 +47140,7 @@
         <v>0</v>
       </c>
       <c r="M519" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N519" s="84">
         <v>1</v>
@@ -47201,7 +47201,7 @@
         <v>0</v>
       </c>
       <c r="M520" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N520" s="84">
         <v>1</v>
@@ -47262,7 +47262,7 @@
         <v>0</v>
       </c>
       <c r="M521" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N521" s="84">
         <v>1</v>
@@ -47323,7 +47323,7 @@
         <v>0</v>
       </c>
       <c r="M522" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N522" s="84">
         <v>1</v>
@@ -47384,7 +47384,7 @@
         <v>0</v>
       </c>
       <c r="M523" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N523" s="84">
         <v>1</v>
@@ -47445,7 +47445,7 @@
         <v>0</v>
       </c>
       <c r="M524" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N524" s="84">
         <v>1</v>
@@ -47506,7 +47506,7 @@
         <v>0</v>
       </c>
       <c r="M525" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N525" s="84">
         <v>1</v>
@@ -47567,7 +47567,7 @@
         <v>0</v>
       </c>
       <c r="M526" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N526" s="84">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>0</v>
       </c>
       <c r="M527" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N527" s="84">
         <v>1</v>
@@ -47689,7 +47689,7 @@
         <v>0</v>
       </c>
       <c r="M528" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N528" s="84">
         <v>1</v>
@@ -47750,7 +47750,7 @@
         <v>0</v>
       </c>
       <c r="M529" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N529" s="84">
         <v>1</v>
@@ -47811,7 +47811,7 @@
         <v>0</v>
       </c>
       <c r="M530" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N530" s="84">
         <v>1</v>
@@ -47872,7 +47872,7 @@
         <v>0</v>
       </c>
       <c r="M531" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N531" s="84">
         <v>1</v>
@@ -47933,7 +47933,7 @@
         <v>0</v>
       </c>
       <c r="M532" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N532" s="84">
         <v>1</v>
@@ -47994,7 +47994,7 @@
         <v>0</v>
       </c>
       <c r="M533" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N533" s="84">
         <v>1</v>
@@ -48055,7 +48055,7 @@
         <v>0</v>
       </c>
       <c r="M534" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N534" s="84">
         <v>1</v>
@@ -48116,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="M535" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N535" s="84">
         <v>1</v>
@@ -48177,7 +48177,7 @@
         <v>0</v>
       </c>
       <c r="M536" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N536" s="84">
         <v>1</v>
@@ -48238,7 +48238,7 @@
         <v>0</v>
       </c>
       <c r="M537" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N537" s="84">
         <v>1</v>
@@ -48299,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="M538" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N538" s="84">
         <v>1</v>
@@ -48360,7 +48360,7 @@
         <v>0</v>
       </c>
       <c r="M539" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N539" s="84">
         <v>1</v>
@@ -48421,7 +48421,7 @@
         <v>0</v>
       </c>
       <c r="M540" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N540" s="84">
         <v>1</v>
@@ -48482,7 +48482,7 @@
         <v>0</v>
       </c>
       <c r="M541" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N541" s="84">
         <v>1</v>
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="M542" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N542" s="84">
         <v>1</v>
@@ -48604,7 +48604,7 @@
         <v>0</v>
       </c>
       <c r="M543" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N543" s="84">
         <v>1</v>
@@ -48665,7 +48665,7 @@
         <v>0</v>
       </c>
       <c r="M544" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N544" s="84">
         <v>1</v>
@@ -48726,7 +48726,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N545" s="84">
         <v>1</v>
@@ -48787,7 +48787,7 @@
         <v>0</v>
       </c>
       <c r="M546" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N546" s="84">
         <v>1</v>
@@ -48848,7 +48848,7 @@
         <v>0</v>
       </c>
       <c r="M547" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N547" s="84">
         <v>1</v>
@@ -48909,7 +48909,7 @@
         <v>0</v>
       </c>
       <c r="M548" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N548" s="84">
         <v>1</v>
@@ -48970,7 +48970,7 @@
         <v>0</v>
       </c>
       <c r="M549" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N549" s="84">
         <v>1</v>
@@ -49031,7 +49031,7 @@
         <v>0</v>
       </c>
       <c r="M550" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N550" s="84">
         <v>1</v>
@@ -49092,7 +49092,7 @@
         <v>0</v>
       </c>
       <c r="M551" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N551" s="84">
         <v>1</v>
@@ -49153,7 +49153,7 @@
         <v>0</v>
       </c>
       <c r="M552" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N552" s="84">
         <v>1</v>
@@ -49214,7 +49214,7 @@
         <v>0</v>
       </c>
       <c r="M553" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N553" s="84">
         <v>1</v>
@@ -49275,7 +49275,7 @@
         <v>0</v>
       </c>
       <c r="M554" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N554" s="84">
         <v>1</v>
@@ -49336,7 +49336,7 @@
         <v>0</v>
       </c>
       <c r="M555" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N555" s="84">
         <v>1</v>
@@ -49397,7 +49397,7 @@
         <v>0</v>
       </c>
       <c r="M556" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N556" s="84">
         <v>1</v>
@@ -49458,7 +49458,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N557" s="84">
         <v>1</v>
@@ -49519,7 +49519,7 @@
         <v>0</v>
       </c>
       <c r="M558" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N558" s="84">
         <v>1</v>
@@ -49580,7 +49580,7 @@
         <v>0</v>
       </c>
       <c r="M559" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N559" s="84">
         <v>1</v>
@@ -49641,7 +49641,7 @@
         <v>0</v>
       </c>
       <c r="M560" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N560" s="84">
         <v>1</v>
@@ -49702,7 +49702,7 @@
         <v>0</v>
       </c>
       <c r="M561" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N561" s="84">
         <v>1</v>
@@ -49763,7 +49763,7 @@
         <v>0</v>
       </c>
       <c r="M562" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N562" s="84">
         <v>1</v>
@@ -49824,7 +49824,7 @@
         <v>0</v>
       </c>
       <c r="M563" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N563" s="84">
         <v>1</v>
@@ -49885,7 +49885,7 @@
         <v>0</v>
       </c>
       <c r="M564" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N564" s="84">
         <v>1</v>
@@ -49946,7 +49946,7 @@
         <v>0</v>
       </c>
       <c r="M565" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N565" s="84">
         <v>1</v>
@@ -50007,7 +50007,7 @@
         <v>0</v>
       </c>
       <c r="M566" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N566" s="84">
         <v>1</v>
@@ -50068,7 +50068,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N567" s="84">
         <v>1</v>
@@ -50129,7 +50129,7 @@
         <v>0</v>
       </c>
       <c r="M568" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N568" s="84">
         <v>1</v>
@@ -50190,7 +50190,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N569" s="84">
         <v>1</v>
@@ -50251,7 +50251,7 @@
         <v>0</v>
       </c>
       <c r="M570" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N570" s="84">
         <v>1</v>
@@ -50312,7 +50312,7 @@
         <v>0</v>
       </c>
       <c r="M571" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N571" s="84">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         <v>0</v>
       </c>
       <c r="M572" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N572" s="84">
         <v>1</v>
@@ -50434,7 +50434,7 @@
         <v>0</v>
       </c>
       <c r="M573" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N573" s="84">
         <v>1</v>
@@ -50495,7 +50495,7 @@
         <v>0</v>
       </c>
       <c r="M574" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N574" s="84">
         <v>1</v>
@@ -50556,7 +50556,7 @@
         <v>0</v>
       </c>
       <c r="M575" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N575" s="84">
         <v>1</v>
@@ -50617,7 +50617,7 @@
         <v>0</v>
       </c>
       <c r="M576" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N576" s="84">
         <v>1</v>
@@ -50678,7 +50678,7 @@
         <v>0</v>
       </c>
       <c r="M577" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N577" s="84">
         <v>1</v>
@@ -50739,7 +50739,7 @@
         <v>0</v>
       </c>
       <c r="M578" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N578" s="84">
         <v>1</v>
@@ -50800,7 +50800,7 @@
         <v>0</v>
       </c>
       <c r="M579" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N579" s="84">
         <v>1</v>
@@ -50861,7 +50861,7 @@
         <v>0</v>
       </c>
       <c r="M580" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N580" s="84">
         <v>1</v>
@@ -50922,7 +50922,7 @@
         <v>0</v>
       </c>
       <c r="M581" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N581" s="84">
         <v>1</v>
@@ -50983,7 +50983,7 @@
         <v>0</v>
       </c>
       <c r="M582" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N582" s="84">
         <v>1</v>
@@ -51044,7 +51044,7 @@
         <v>0</v>
       </c>
       <c r="M583" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N583" s="84">
         <v>1</v>
@@ -51105,7 +51105,7 @@
         <v>0</v>
       </c>
       <c r="M584" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N584" s="84">
         <v>1</v>
@@ -51166,7 +51166,7 @@
         <v>0</v>
       </c>
       <c r="M585" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N585" s="84">
         <v>1</v>
@@ -51227,7 +51227,7 @@
         <v>0</v>
       </c>
       <c r="M586" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N586" s="84">
         <v>1</v>
@@ -51288,7 +51288,7 @@
         <v>0</v>
       </c>
       <c r="M587" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N587" s="84">
         <v>1</v>
@@ -51349,7 +51349,7 @@
         <v>0</v>
       </c>
       <c r="M588" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N588" s="84">
         <v>1</v>
@@ -51410,7 +51410,7 @@
         <v>0</v>
       </c>
       <c r="M589" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N589" s="84">
         <v>1</v>
@@ -51471,7 +51471,7 @@
         <v>0</v>
       </c>
       <c r="M590" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N590" s="84">
         <v>1</v>
@@ -51532,7 +51532,7 @@
         <v>0</v>
       </c>
       <c r="M591" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N591" s="84">
         <v>1</v>
@@ -51593,7 +51593,7 @@
         <v>0</v>
       </c>
       <c r="M592" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N592" s="84">
         <v>1</v>
@@ -51654,7 +51654,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N593" s="84">
         <v>1</v>
@@ -51715,7 +51715,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N594" s="84">
         <v>1</v>
@@ -51776,7 +51776,7 @@
         <v>0</v>
       </c>
       <c r="M595" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N595" s="84">
         <v>1</v>
@@ -51837,7 +51837,7 @@
         <v>0</v>
       </c>
       <c r="M596" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N596" s="84">
         <v>1</v>
@@ -51898,7 +51898,7 @@
         <v>0</v>
       </c>
       <c r="M597" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N597" s="84">
         <v>1</v>
@@ -51959,7 +51959,7 @@
         <v>0</v>
       </c>
       <c r="M598" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N598" s="84">
         <v>1</v>
@@ -52020,7 +52020,7 @@
         <v>0</v>
       </c>
       <c r="M599" s="84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N599" s="84">
         <v>1</v>
@@ -52754,7 +52754,7 @@
         <v>10051001</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E612" s="3">
         <v>10051001</v>
@@ -52802,7 +52802,7 @@
       <c r="T612" s="3"/>
       <c r="U612" s="3"/>
       <c r="V612" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="W612" s="19"/>
     </row>
@@ -52811,7 +52811,7 @@
         <v>10051002</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E613" s="3">
         <v>10051001</v>
@@ -52859,7 +52859,7 @@
       <c r="T613" s="3"/>
       <c r="U613" s="3"/>
       <c r="V613" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="W613" s="19"/>
     </row>
@@ -52868,7 +52868,7 @@
         <v>10051003</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E614" s="3">
         <v>10051001</v>
@@ -52916,7 +52916,7 @@
       <c r="T614" s="3"/>
       <c r="U614" s="3"/>
       <c r="V614" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="W614" s="19"/>
     </row>
@@ -52925,7 +52925,7 @@
         <v>10051004</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E615" s="3">
         <v>10051001</v>
@@ -52973,7 +52973,7 @@
       <c r="T615" s="3"/>
       <c r="U615" s="3"/>
       <c r="V615" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="W615" s="19"/>
     </row>
@@ -52982,7 +52982,7 @@
         <v>10051005</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E616" s="3">
         <v>10051001</v>
@@ -53030,7 +53030,7 @@
       <c r="T616" s="3"/>
       <c r="U616" s="3"/>
       <c r="V616" s="3" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="W616" s="19"/>
     </row>
@@ -53039,7 +53039,7 @@
         <v>10051006</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E617" s="3">
         <v>10051001</v>
@@ -53087,7 +53087,7 @@
       <c r="T617" s="3"/>
       <c r="U617" s="3"/>
       <c r="V617" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="W617" s="19"/>
     </row>
@@ -53096,7 +53096,7 @@
         <v>10051007</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E618" s="3">
         <v>10051001</v>
@@ -53144,7 +53144,7 @@
       <c r="T618" s="3"/>
       <c r="U618" s="3"/>
       <c r="V618" s="3" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="W618" s="19"/>
     </row>
@@ -53153,7 +53153,7 @@
         <v>10051008</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E619" s="3">
         <v>10051001</v>
@@ -53201,7 +53201,7 @@
       <c r="T619" s="3"/>
       <c r="U619" s="3"/>
       <c r="V619" s="3" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="W619" s="19"/>
     </row>
@@ -53210,7 +53210,7 @@
         <v>10051009</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E620" s="3">
         <v>10051001</v>
@@ -53258,7 +53258,7 @@
       <c r="T620" s="3"/>
       <c r="U620" s="3"/>
       <c r="V620" s="3" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="W620" s="19"/>
     </row>
@@ -53267,7 +53267,7 @@
         <v>10051010</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E621" s="3">
         <v>10051001</v>
@@ -53315,7 +53315,7 @@
       <c r="T621" s="3"/>
       <c r="U621" s="3"/>
       <c r="V621" s="3" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="W621" s="19"/>
     </row>
@@ -53324,7 +53324,7 @@
         <v>10051011</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E622" s="3">
         <v>10051001</v>
@@ -53372,7 +53372,7 @@
       <c r="T622" s="3"/>
       <c r="U622" s="3"/>
       <c r="V622" s="3" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="W622" s="19"/>
     </row>
@@ -53381,7 +53381,7 @@
         <v>10051012</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E623" s="3">
         <v>10051001</v>
@@ -53429,7 +53429,7 @@
       <c r="T623" s="3"/>
       <c r="U623" s="3"/>
       <c r="V623" s="3" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="W623" s="19"/>
     </row>
@@ -53438,7 +53438,7 @@
         <v>10051013</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E624" s="3">
         <v>10051001</v>
@@ -53486,7 +53486,7 @@
       <c r="T624" s="3"/>
       <c r="U624" s="3"/>
       <c r="V624" s="3" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="W624" s="19"/>
     </row>
@@ -53495,7 +53495,7 @@
         <v>10051014</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E625" s="3">
         <v>10051001</v>
@@ -53543,7 +53543,7 @@
       <c r="T625" s="3"/>
       <c r="U625" s="3"/>
       <c r="V625" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="W625" s="19"/>
     </row>
@@ -53552,7 +53552,7 @@
         <v>10051015</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E626" s="3">
         <v>10051001</v>
@@ -53600,7 +53600,7 @@
       <c r="T626" s="3"/>
       <c r="U626" s="3"/>
       <c r="V626" s="3" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="W626" s="19"/>
     </row>
@@ -53609,7 +53609,7 @@
         <v>10051016</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E627" s="3">
         <v>10051001</v>
@@ -53657,7 +53657,7 @@
       <c r="T627" s="3"/>
       <c r="U627" s="3"/>
       <c r="V627" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="W627" s="19"/>
     </row>
@@ -53666,7 +53666,7 @@
         <v>10051017</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E628" s="3">
         <v>10051001</v>
@@ -53714,7 +53714,7 @@
       <c r="T628" s="3"/>
       <c r="U628" s="3"/>
       <c r="V628" s="3" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="W628" s="19"/>
     </row>
@@ -53723,7 +53723,7 @@
         <v>10051018</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E629" s="3">
         <v>10051001</v>
@@ -53771,7 +53771,7 @@
       <c r="T629" s="3"/>
       <c r="U629" s="3"/>
       <c r="V629" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="W629" s="19"/>
     </row>
@@ -53780,7 +53780,7 @@
         <v>10051019</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E630" s="3">
         <v>10051001</v>
@@ -53828,7 +53828,7 @@
       <c r="T630" s="3"/>
       <c r="U630" s="3"/>
       <c r="V630" s="3" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="W630" s="19"/>
     </row>
@@ -53837,7 +53837,7 @@
         <v>10051020</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E631" s="3">
         <v>10051001</v>
@@ -53885,7 +53885,7 @@
       <c r="T631" s="3"/>
       <c r="U631" s="3"/>
       <c r="V631" s="3" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="W631" s="19"/>
     </row>
@@ -53894,7 +53894,7 @@
         <v>10052001</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E632" s="3">
         <v>10052001</v>
@@ -53942,7 +53942,7 @@
       <c r="T632" s="3"/>
       <c r="U632" s="3"/>
       <c r="V632" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="W632" s="19"/>
     </row>
@@ -53951,7 +53951,7 @@
         <v>10052002</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E633" s="3">
         <v>10052001</v>
@@ -53999,7 +53999,7 @@
       <c r="T633" s="3"/>
       <c r="U633" s="3"/>
       <c r="V633" s="3" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="W633" s="19"/>
     </row>
@@ -54008,7 +54008,7 @@
         <v>10052003</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E634" s="3">
         <v>10052001</v>
@@ -54056,7 +54056,7 @@
       <c r="T634" s="3"/>
       <c r="U634" s="3"/>
       <c r="V634" s="3" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="W634" s="19"/>
     </row>
@@ -54065,7 +54065,7 @@
         <v>10052004</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E635" s="3">
         <v>10052001</v>
@@ -54113,7 +54113,7 @@
       <c r="T635" s="3"/>
       <c r="U635" s="3"/>
       <c r="V635" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="W635" s="19"/>
     </row>
@@ -54122,7 +54122,7 @@
         <v>10052005</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E636" s="3">
         <v>10052001</v>
@@ -54170,7 +54170,7 @@
       <c r="T636" s="3"/>
       <c r="U636" s="3"/>
       <c r="V636" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="W636" s="19"/>
     </row>
@@ -54179,7 +54179,7 @@
         <v>10052006</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E637" s="3">
         <v>10052001</v>
@@ -54227,7 +54227,7 @@
       <c r="T637" s="3"/>
       <c r="U637" s="3"/>
       <c r="V637" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="W637" s="19"/>
     </row>
@@ -54236,7 +54236,7 @@
         <v>10052007</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E638" s="3">
         <v>10052001</v>
@@ -54284,7 +54284,7 @@
       <c r="T638" s="3"/>
       <c r="U638" s="3"/>
       <c r="V638" s="3" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="W638" s="19"/>
     </row>
@@ -54293,7 +54293,7 @@
         <v>10052008</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E639" s="3">
         <v>10052001</v>
@@ -54341,7 +54341,7 @@
       <c r="T639" s="3"/>
       <c r="U639" s="3"/>
       <c r="V639" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="W639" s="19"/>
     </row>
@@ -54350,7 +54350,7 @@
         <v>10052009</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E640" s="3">
         <v>10052001</v>
@@ -54398,7 +54398,7 @@
       <c r="T640" s="3"/>
       <c r="U640" s="3"/>
       <c r="V640" s="3" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="W640" s="19"/>
     </row>
@@ -54407,7 +54407,7 @@
         <v>10052010</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E641" s="3">
         <v>10052001</v>
@@ -54455,7 +54455,7 @@
       <c r="T641" s="3"/>
       <c r="U641" s="3"/>
       <c r="V641" s="3" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="W641" s="19"/>
     </row>
@@ -54464,7 +54464,7 @@
         <v>10052011</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E642" s="3">
         <v>10052001</v>
@@ -54512,7 +54512,7 @@
       <c r="T642" s="3"/>
       <c r="U642" s="3"/>
       <c r="V642" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="W642" s="19"/>
     </row>
@@ -54521,7 +54521,7 @@
         <v>10052012</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E643" s="3">
         <v>10052001</v>
@@ -54569,7 +54569,7 @@
       <c r="T643" s="3"/>
       <c r="U643" s="3"/>
       <c r="V643" s="3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="W643" s="19"/>
     </row>
@@ -54578,7 +54578,7 @@
         <v>10052013</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E644" s="3">
         <v>10052001</v>
@@ -54626,7 +54626,7 @@
       <c r="T644" s="3"/>
       <c r="U644" s="3"/>
       <c r="V644" s="3" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="W644" s="19"/>
     </row>
@@ -54635,7 +54635,7 @@
         <v>10052014</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E645" s="3">
         <v>10052001</v>
@@ -54683,7 +54683,7 @@
       <c r="T645" s="3"/>
       <c r="U645" s="3"/>
       <c r="V645" s="3" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="W645" s="19"/>
     </row>
@@ -54692,7 +54692,7 @@
         <v>10052015</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E646" s="3">
         <v>10052001</v>
@@ -54740,7 +54740,7 @@
       <c r="T646" s="3"/>
       <c r="U646" s="3"/>
       <c r="V646" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="W646" s="19"/>
     </row>
@@ -54749,7 +54749,7 @@
         <v>10052016</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E647" s="3">
         <v>10052001</v>
@@ -54797,7 +54797,7 @@
       <c r="T647" s="3"/>
       <c r="U647" s="3"/>
       <c r="V647" s="3" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="W647" s="19"/>
     </row>
@@ -54806,7 +54806,7 @@
         <v>10052017</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E648" s="3">
         <v>10052001</v>
@@ -54854,7 +54854,7 @@
       <c r="T648" s="3"/>
       <c r="U648" s="3"/>
       <c r="V648" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="W648" s="19"/>
     </row>
@@ -54863,7 +54863,7 @@
         <v>10052018</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E649" s="3">
         <v>10052001</v>
@@ -54911,7 +54911,7 @@
       <c r="T649" s="3"/>
       <c r="U649" s="3"/>
       <c r="V649" s="3" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="W649" s="19"/>
     </row>
@@ -54920,7 +54920,7 @@
         <v>10052019</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E650" s="3">
         <v>10052001</v>
@@ -54968,7 +54968,7 @@
       <c r="T650" s="3"/>
       <c r="U650" s="3"/>
       <c r="V650" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="W650" s="19"/>
     </row>
@@ -54977,7 +54977,7 @@
         <v>10052020</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E651" s="3">
         <v>10052001</v>
@@ -55025,7 +55025,7 @@
       <c r="T651" s="3"/>
       <c r="U651" s="3"/>
       <c r="V651" s="3" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="W651" s="19"/>
     </row>
@@ -55034,7 +55034,7 @@
         <v>10053001</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E652" s="3">
         <v>10051001</v>
@@ -55082,7 +55082,7 @@
       <c r="T652" s="3"/>
       <c r="U652" s="3"/>
       <c r="V652" s="3" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="W652" s="19"/>
     </row>
@@ -55091,7 +55091,7 @@
         <v>10053002</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E653" s="3">
         <v>10051001</v>
@@ -55139,7 +55139,7 @@
       <c r="T653" s="3"/>
       <c r="U653" s="3"/>
       <c r="V653" s="3" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="W653" s="19"/>
     </row>
@@ -55148,7 +55148,7 @@
         <v>10053003</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E654" s="3">
         <v>10051001</v>
@@ -55196,7 +55196,7 @@
       <c r="T654" s="3"/>
       <c r="U654" s="3"/>
       <c r="V654" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="W654" s="19"/>
     </row>
@@ -55205,7 +55205,7 @@
         <v>10053004</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E655" s="3">
         <v>10051001</v>
@@ -55253,7 +55253,7 @@
       <c r="T655" s="3"/>
       <c r="U655" s="3"/>
       <c r="V655" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="W655" s="19"/>
     </row>
@@ -55262,7 +55262,7 @@
         <v>10053005</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E656" s="3">
         <v>10051001</v>
@@ -55310,7 +55310,7 @@
       <c r="T656" s="3"/>
       <c r="U656" s="3"/>
       <c r="V656" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="W656" s="19"/>
     </row>
@@ -55319,7 +55319,7 @@
         <v>10053006</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E657" s="3">
         <v>10051001</v>
@@ -55367,7 +55367,7 @@
       <c r="T657" s="3"/>
       <c r="U657" s="3"/>
       <c r="V657" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="W657" s="19"/>
     </row>
@@ -55376,7 +55376,7 @@
         <v>10053007</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E658" s="3">
         <v>10051001</v>
@@ -55424,7 +55424,7 @@
       <c r="T658" s="3"/>
       <c r="U658" s="3"/>
       <c r="V658" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W658" s="19"/>
     </row>
@@ -55433,7 +55433,7 @@
         <v>10053008</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E659" s="3">
         <v>10051001</v>
@@ -55481,7 +55481,7 @@
       <c r="T659" s="3"/>
       <c r="U659" s="3"/>
       <c r="V659" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="W659" s="19"/>
     </row>
@@ -55490,7 +55490,7 @@
         <v>10053009</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E660" s="3">
         <v>10051001</v>
@@ -55538,7 +55538,7 @@
       <c r="T660" s="3"/>
       <c r="U660" s="3"/>
       <c r="V660" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="W660" s="19"/>
     </row>
@@ -55547,7 +55547,7 @@
         <v>10053010</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E661" s="3">
         <v>10051001</v>
@@ -55595,7 +55595,7 @@
       <c r="T661" s="3"/>
       <c r="U661" s="3"/>
       <c r="V661" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="W661" s="19"/>
     </row>
@@ -59727,7 +59727,7 @@
         <v>11200000</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E732" s="56">
         <v>11200000</v>
@@ -59774,7 +59774,7 @@
       <c r="S732" s="3"/>
       <c r="T732" s="3"/>
       <c r="V732" s="19" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="733" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59782,7 +59782,7 @@
         <v>11200001</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E733" s="39">
         <v>11200001</v>
@@ -59829,7 +59829,7 @@
       <c r="S733" s="3"/>
       <c r="T733" s="3"/>
       <c r="V733" s="19" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="734" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59837,7 +59837,7 @@
         <v>11200002</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E734" s="39">
         <v>11200002</v>
@@ -59884,7 +59884,7 @@
       <c r="S734" s="3"/>
       <c r="T734" s="3"/>
       <c r="V734" s="19" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="735" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59892,7 +59892,7 @@
         <v>11200003</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E735" s="39">
         <v>11200003</v>
@@ -59939,7 +59939,7 @@
       <c r="S735" s="3"/>
       <c r="T735" s="3"/>
       <c r="V735" s="19" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="736" spans="3:23" s="118" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -62092,7 +62092,7 @@
         <v>14010001</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E775" s="3">
         <v>14010001</v>
@@ -62137,7 +62137,7 @@
         <v>384</v>
       </c>
       <c r="U775" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V775" s="19" t="str">
         <f>D775&amp;"的描述"</f>
@@ -62149,7 +62149,7 @@
         <v>14010002</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E776" s="3">
         <v>14010002</v>
@@ -62194,7 +62194,7 @@
         <v>384</v>
       </c>
       <c r="U776" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V776" s="19" t="str">
         <f>D776&amp;"的描述"</f>
@@ -62206,7 +62206,7 @@
         <v>14010003</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E777" s="3">
         <v>14010003</v>
@@ -62251,7 +62251,7 @@
         <v>384</v>
       </c>
       <c r="U777" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V777" s="19" t="str">
         <f>D777&amp;"的描述"</f>
@@ -62263,7 +62263,7 @@
         <v>14010004</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E778" s="3">
         <v>14010004</v>
@@ -62308,7 +62308,7 @@
         <v>384</v>
       </c>
       <c r="U778" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V778" s="19"/>
     </row>
@@ -62317,7 +62317,7 @@
         <v>14010005</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E779" s="39">
         <v>14010005</v>
@@ -62362,7 +62362,7 @@
         <v>384</v>
       </c>
       <c r="U779" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V779" s="19" t="str">
         <f>D779&amp;"的描述"</f>
@@ -62374,7 +62374,7 @@
         <v>14010006</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E780" s="39">
         <v>14010006</v>
@@ -62419,7 +62419,7 @@
         <v>384</v>
       </c>
       <c r="U780" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V780" s="19" t="str">
         <f>D780&amp;"的描述"</f>
@@ -62431,7 +62431,7 @@
         <v>14010007</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E781" s="3">
         <v>14010007</v>
@@ -62476,7 +62476,7 @@
         <v>384</v>
       </c>
       <c r="U781" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V781" s="19" t="str">
         <f>D781&amp;"的描述"</f>
@@ -62488,7 +62488,7 @@
         <v>14010008</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E782" s="3">
         <v>14010008</v>
@@ -62533,7 +62533,7 @@
         <v>384</v>
       </c>
       <c r="U782" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V782" s="19"/>
     </row>
@@ -62542,7 +62542,7 @@
         <v>14010009</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E783" s="3">
         <v>14010009</v>
@@ -62587,7 +62587,7 @@
         <v>384</v>
       </c>
       <c r="U783" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V783" s="19" t="str">
         <f>D783&amp;"的描述"</f>
@@ -62644,7 +62644,7 @@
         <v>384</v>
       </c>
       <c r="U784" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V784" s="19" t="str">
         <f>D784&amp;"的描述"</f>
@@ -62656,7 +62656,7 @@
         <v>14010011</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E785" s="39">
         <v>14010011</v>
@@ -62701,7 +62701,7 @@
         <v>384</v>
       </c>
       <c r="U785" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V785" s="19" t="str">
         <f>D785&amp;"的描述"</f>
@@ -62713,7 +62713,7 @@
         <v>14010012</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E786" s="3">
         <v>14010012</v>
@@ -62758,7 +62758,7 @@
         <v>384</v>
       </c>
       <c r="U786" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V786" s="19"/>
     </row>
@@ -62767,7 +62767,7 @@
         <v>14020001</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E787" s="39">
         <v>14020001</v>
@@ -62812,7 +62812,7 @@
         <v>384</v>
       </c>
       <c r="U787" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V787" s="19" t="str">
         <f>D787&amp;"的描述"</f>
@@ -62824,7 +62824,7 @@
         <v>14020002</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E788" s="39">
         <v>14020002</v>
@@ -62869,7 +62869,7 @@
         <v>384</v>
       </c>
       <c r="U788" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V788" s="19" t="str">
         <f>D788&amp;"的描述"</f>
@@ -62881,7 +62881,7 @@
         <v>14020003</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E789" s="39">
         <v>14020003</v>
@@ -62926,7 +62926,7 @@
         <v>384</v>
       </c>
       <c r="U789" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V789" s="19" t="str">
         <f>D789&amp;"的描述"</f>
@@ -62938,7 +62938,7 @@
         <v>14020004</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E790" s="39">
         <v>14020004</v>
@@ -62983,7 +62983,7 @@
         <v>384</v>
       </c>
       <c r="U790" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V790" s="19"/>
     </row>
@@ -62992,7 +62992,7 @@
         <v>14020005</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E791" s="39">
         <v>14020005</v>
@@ -63037,7 +63037,7 @@
         <v>384</v>
       </c>
       <c r="U791" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V791" s="19" t="str">
         <f>D791&amp;"的描述"</f>
@@ -63049,7 +63049,7 @@
         <v>14020006</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E792" s="39">
         <v>14020006</v>
@@ -63094,7 +63094,7 @@
         <v>384</v>
       </c>
       <c r="U792" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V792" s="19" t="str">
         <f>D792&amp;"的描述"</f>
@@ -63106,7 +63106,7 @@
         <v>14020007</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E793" s="39">
         <v>14020007</v>
@@ -63151,7 +63151,7 @@
         <v>384</v>
       </c>
       <c r="U793" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V793" s="19" t="str">
         <f>D793&amp;"的描述"</f>
@@ -63163,7 +63163,7 @@
         <v>14020008</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E794" s="39">
         <v>14020008</v>
@@ -63208,7 +63208,7 @@
         <v>384</v>
       </c>
       <c r="U794" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V794" s="19"/>
     </row>
@@ -63217,7 +63217,7 @@
         <v>14020009</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E795" s="39">
         <v>14020009</v>
@@ -63262,7 +63262,7 @@
         <v>384</v>
       </c>
       <c r="U795" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V795" s="19" t="str">
         <f>D795&amp;"的描述"</f>
@@ -63274,7 +63274,7 @@
         <v>14020010</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E796" s="39">
         <v>14020010</v>
@@ -63319,7 +63319,7 @@
         <v>384</v>
       </c>
       <c r="U796" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V796" s="19" t="str">
         <f>D796&amp;"的描述"</f>
@@ -63331,7 +63331,7 @@
         <v>14020011</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E797" s="39">
         <v>14020011</v>
@@ -63376,7 +63376,7 @@
         <v>384</v>
       </c>
       <c r="U797" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V797" s="19" t="str">
         <f>D797&amp;"的描述"</f>
@@ -63388,7 +63388,7 @@
         <v>14020012</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E798" s="39">
         <v>14020012</v>
@@ -63433,7 +63433,7 @@
         <v>384</v>
       </c>
       <c r="U798" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V798" s="19"/>
     </row>
@@ -63442,7 +63442,7 @@
         <v>14030001</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E799" s="39">
         <v>14030001</v>
@@ -63487,7 +63487,7 @@
         <v>384</v>
       </c>
       <c r="U799" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V799" s="19" t="str">
         <f>D799&amp;"的描述"</f>
@@ -63499,7 +63499,7 @@
         <v>14030002</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E800" s="39">
         <v>14030002</v>
@@ -63544,7 +63544,7 @@
         <v>384</v>
       </c>
       <c r="U800" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V800" s="19" t="str">
         <f>D800&amp;"的描述"</f>
@@ -63556,7 +63556,7 @@
         <v>14030003</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E801" s="39">
         <v>14030003</v>
@@ -63601,7 +63601,7 @@
         <v>384</v>
       </c>
       <c r="U801" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V801" s="19" t="str">
         <f>D801&amp;"的描述"</f>
@@ -63613,7 +63613,7 @@
         <v>14030004</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E802" s="39">
         <v>14030004</v>
@@ -63658,7 +63658,7 @@
         <v>384</v>
       </c>
       <c r="U802" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V802" s="19"/>
     </row>
@@ -63667,7 +63667,7 @@
         <v>14030005</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E803" s="39">
         <v>14030005</v>
@@ -63712,7 +63712,7 @@
         <v>384</v>
       </c>
       <c r="U803" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V803" s="19" t="str">
         <f>D803&amp;"的描述"</f>
@@ -63724,7 +63724,7 @@
         <v>14030006</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E804" s="39">
         <v>14030006</v>
@@ -63769,7 +63769,7 @@
         <v>384</v>
       </c>
       <c r="U804" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V804" s="19" t="str">
         <f>D804&amp;"的描述"</f>
@@ -63781,7 +63781,7 @@
         <v>14030007</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E805" s="39">
         <v>14030007</v>
@@ -63826,7 +63826,7 @@
         <v>384</v>
       </c>
       <c r="U805" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V805" s="19" t="str">
         <f>D805&amp;"的描述"</f>
@@ -63838,7 +63838,7 @@
         <v>14030008</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E806" s="39">
         <v>14030008</v>
@@ -63883,7 +63883,7 @@
         <v>384</v>
       </c>
       <c r="U806" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V806" s="19"/>
     </row>
@@ -63892,7 +63892,7 @@
         <v>14030009</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E807" s="39">
         <v>14030009</v>
@@ -63937,7 +63937,7 @@
         <v>384</v>
       </c>
       <c r="U807" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V807" s="19" t="str">
         <f>D807&amp;"的描述"</f>
@@ -63949,7 +63949,7 @@
         <v>14030010</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E808" s="39">
         <v>14030010</v>
@@ -63994,7 +63994,7 @@
         <v>384</v>
       </c>
       <c r="U808" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V808" s="19" t="str">
         <f>D808&amp;"的描述"</f>
@@ -64006,7 +64006,7 @@
         <v>14030011</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E809" s="39">
         <v>14030011</v>
@@ -64051,7 +64051,7 @@
         <v>384</v>
       </c>
       <c r="U809" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V809" s="19" t="str">
         <f>D809&amp;"的描述"</f>
@@ -64063,7 +64063,7 @@
         <v>14030012</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E810" s="39">
         <v>14030012</v>
@@ -64108,7 +64108,7 @@
         <v>384</v>
       </c>
       <c r="U810" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V810" s="19"/>
     </row>
@@ -64117,7 +64117,7 @@
         <v>14040001</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E811" s="39">
         <v>14040001</v>
@@ -64162,7 +64162,7 @@
         <v>384</v>
       </c>
       <c r="U811" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V811" s="19" t="str">
         <f>D811&amp;"的描述"</f>
@@ -64174,7 +64174,7 @@
         <v>14040002</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E812" s="39">
         <v>14040002</v>
@@ -64219,7 +64219,7 @@
         <v>384</v>
       </c>
       <c r="U812" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V812" s="19" t="str">
         <f>D812&amp;"的描述"</f>
@@ -64231,7 +64231,7 @@
         <v>14040003</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E813" s="3">
         <v>14040003</v>
@@ -64276,7 +64276,7 @@
         <v>384</v>
       </c>
       <c r="U813" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V813" s="19" t="str">
         <f>D813&amp;"的描述"</f>
@@ -64288,7 +64288,7 @@
         <v>14040004</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E814" s="3">
         <v>14040004</v>
@@ -64333,7 +64333,7 @@
         <v>384</v>
       </c>
       <c r="U814" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V814" s="19"/>
     </row>
@@ -64342,7 +64342,7 @@
         <v>14040005</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E815" s="39">
         <v>14040005</v>
@@ -64387,7 +64387,7 @@
         <v>384</v>
       </c>
       <c r="U815" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V815" s="19" t="str">
         <f>D815&amp;"的描述"</f>
@@ -64399,7 +64399,7 @@
         <v>14040006</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E816" s="39">
         <v>14040006</v>
@@ -64444,7 +64444,7 @@
         <v>384</v>
       </c>
       <c r="U816" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V816" s="19" t="str">
         <f>D816&amp;"的描述"</f>
@@ -64456,7 +64456,7 @@
         <v>14040007</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E817" s="3">
         <v>14040007</v>
@@ -64501,7 +64501,7 @@
         <v>384</v>
       </c>
       <c r="U817" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V817" s="19" t="str">
         <f>D817&amp;"的描述"</f>
@@ -64513,7 +64513,7 @@
         <v>14040008</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E818" s="3">
         <v>14040008</v>
@@ -64558,7 +64558,7 @@
         <v>384</v>
       </c>
       <c r="U818" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V818" s="19"/>
     </row>
@@ -64567,7 +64567,7 @@
         <v>14040009</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E819" s="39">
         <v>14040009</v>
@@ -64612,7 +64612,7 @@
         <v>384</v>
       </c>
       <c r="U819" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V819" s="19" t="str">
         <f>D819&amp;"的描述"</f>
@@ -64624,7 +64624,7 @@
         <v>14040010</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E820" s="39">
         <v>14040010</v>
@@ -64669,7 +64669,7 @@
         <v>384</v>
       </c>
       <c r="U820" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V820" s="19" t="str">
         <f>D820&amp;"的描述"</f>
@@ -64681,7 +64681,7 @@
         <v>14040011</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E821" s="3">
         <v>14040011</v>
@@ -64726,7 +64726,7 @@
         <v>384</v>
       </c>
       <c r="U821" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V821" s="19" t="str">
         <f>D821&amp;"的描述"</f>
@@ -64738,7 +64738,7 @@
         <v>14040012</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E822" s="3">
         <v>14040012</v>
@@ -64783,7 +64783,7 @@
         <v>384</v>
       </c>
       <c r="U822" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V822" s="19"/>
     </row>
@@ -64792,7 +64792,7 @@
         <v>14050001</v>
       </c>
       <c r="D823" s="21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E823" s="21">
         <v>14050001</v>
@@ -64837,7 +64837,7 @@
         <v>384</v>
       </c>
       <c r="U823" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V823" s="27" t="str">
         <f>D823&amp;"的描述"</f>
@@ -64849,7 +64849,7 @@
         <v>14050002</v>
       </c>
       <c r="D824" s="21" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E824" s="40">
         <v>14050002</v>
@@ -64894,7 +64894,7 @@
         <v>384</v>
       </c>
       <c r="U824" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V824" s="27" t="str">
         <f>D824&amp;"的描述"</f>
@@ -64906,7 +64906,7 @@
         <v>14050003</v>
       </c>
       <c r="D825" s="21" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E825" s="40">
         <v>14050003</v>
@@ -64951,7 +64951,7 @@
         <v>384</v>
       </c>
       <c r="U825" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V825" s="27" t="str">
         <f>D825&amp;"的描述"</f>
@@ -64963,7 +64963,7 @@
         <v>14050004</v>
       </c>
       <c r="D826" s="21" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E826" s="21">
         <v>14050004</v>
@@ -65008,7 +65008,7 @@
         <v>384</v>
       </c>
       <c r="U826" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V826" s="27"/>
     </row>
@@ -65017,7 +65017,7 @@
         <v>14050005</v>
       </c>
       <c r="D827" s="21" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E827" s="40">
         <v>14050005</v>
@@ -65062,7 +65062,7 @@
         <v>384</v>
       </c>
       <c r="U827" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V827" s="27" t="str">
         <f>D827&amp;"的描述"</f>
@@ -65074,7 +65074,7 @@
         <v>14050006</v>
       </c>
       <c r="D828" s="21" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E828" s="40">
         <v>14050006</v>
@@ -65119,7 +65119,7 @@
         <v>384</v>
       </c>
       <c r="U828" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V828" s="27" t="str">
         <f>D828&amp;"的描述"</f>
@@ -65131,7 +65131,7 @@
         <v>14050007</v>
       </c>
       <c r="D829" s="21" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E829" s="40">
         <v>14050007</v>
@@ -65176,7 +65176,7 @@
         <v>384</v>
       </c>
       <c r="U829" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V829" s="27" t="str">
         <f>D829&amp;"的描述"</f>
@@ -65188,7 +65188,7 @@
         <v>14050008</v>
       </c>
       <c r="D830" s="21" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E830" s="40">
         <v>14050008</v>
@@ -65233,7 +65233,7 @@
         <v>384</v>
       </c>
       <c r="U830" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V830" s="27"/>
     </row>
@@ -65242,7 +65242,7 @@
         <v>14050009</v>
       </c>
       <c r="D831" s="21" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E831" s="40">
         <v>14050009</v>
@@ -65287,7 +65287,7 @@
         <v>384</v>
       </c>
       <c r="U831" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V831" s="27" t="str">
         <f>D831&amp;"的描述"</f>
@@ -65299,7 +65299,7 @@
         <v>14050010</v>
       </c>
       <c r="D832" s="21" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E832" s="40">
         <v>14050010</v>
@@ -65344,7 +65344,7 @@
         <v>384</v>
       </c>
       <c r="U832" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V832" s="27" t="str">
         <f>D832&amp;"的描述"</f>
@@ -65356,7 +65356,7 @@
         <v>14050011</v>
       </c>
       <c r="D833" s="21" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E833" s="40">
         <v>14050011</v>
@@ -65401,7 +65401,7 @@
         <v>384</v>
       </c>
       <c r="U833" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V833" s="27" t="str">
         <f>D833&amp;"的描述"</f>
@@ -65413,7 +65413,7 @@
         <v>14050012</v>
       </c>
       <c r="D834" s="21" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E834" s="40">
         <v>14050012</v>
@@ -65458,7 +65458,7 @@
         <v>384</v>
       </c>
       <c r="U834" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V834" s="27"/>
     </row>
@@ -65467,7 +65467,7 @@
         <v>14060001</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E835" s="39">
         <v>14060001</v>
@@ -65512,7 +65512,7 @@
         <v>384</v>
       </c>
       <c r="U835" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V835" s="19" t="str">
         <f>D835&amp;"的描述"</f>
@@ -65524,7 +65524,7 @@
         <v>14060002</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E836" s="3">
         <v>14060002</v>
@@ -65569,7 +65569,7 @@
         <v>384</v>
       </c>
       <c r="U836" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V836" s="19" t="str">
         <f>D836&amp;"的描述"</f>
@@ -65581,7 +65581,7 @@
         <v>14060003</v>
       </c>
       <c r="D837" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E837" s="39">
         <v>14060003</v>
@@ -65626,7 +65626,7 @@
         <v>384</v>
       </c>
       <c r="U837" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V837" s="19" t="str">
         <f>D837&amp;"的描述"</f>
@@ -65638,7 +65638,7 @@
         <v>14060004</v>
       </c>
       <c r="D838" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E838" s="39">
         <v>14060004</v>
@@ -65683,7 +65683,7 @@
         <v>384</v>
       </c>
       <c r="U838" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V838" s="19"/>
     </row>
@@ -65692,7 +65692,7 @@
         <v>14060005</v>
       </c>
       <c r="D839" s="114" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E839" s="113">
         <v>14060005</v>
@@ -65737,7 +65737,7 @@
         <v>384</v>
       </c>
       <c r="U839" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V839" s="116"/>
     </row>
@@ -65746,7 +65746,7 @@
         <v>14070001</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E840" s="39">
         <v>14070001</v>
@@ -65791,7 +65791,7 @@
         <v>384</v>
       </c>
       <c r="U840" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V840" s="19" t="str">
         <f>D840&amp;"的描述"</f>
@@ -65803,7 +65803,7 @@
         <v>14070002</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E841" s="39">
         <v>14070002</v>
@@ -65848,7 +65848,7 @@
         <v>384</v>
       </c>
       <c r="U841" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V841" s="19" t="str">
         <f>D841&amp;"的描述"</f>
@@ -65860,7 +65860,7 @@
         <v>14070003</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E842" s="39">
         <v>14070003</v>
@@ -65905,7 +65905,7 @@
         <v>384</v>
       </c>
       <c r="U842" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V842" s="19" t="str">
         <f>D842&amp;"的描述"</f>
@@ -65917,7 +65917,7 @@
         <v>14070004</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E843" s="39">
         <v>14070004</v>
@@ -65962,7 +65962,7 @@
         <v>384</v>
       </c>
       <c r="U843" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V843" s="19"/>
     </row>
@@ -65971,7 +65971,7 @@
         <v>14080001</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E844" s="39">
         <v>14080001</v>
@@ -66018,7 +66018,7 @@
         <v>384</v>
       </c>
       <c r="U844" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V844" s="19" t="str">
         <f>D844&amp;"的描述"</f>
@@ -66030,7 +66030,7 @@
         <v>14080002</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E845" s="39">
         <v>14080002</v>
@@ -66077,7 +66077,7 @@
         <v>384</v>
       </c>
       <c r="U845" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V845" s="19" t="str">
         <f>D845&amp;"的描述"</f>
@@ -66089,7 +66089,7 @@
         <v>14080003</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E846" s="39">
         <v>14080003</v>
@@ -66136,7 +66136,7 @@
         <v>384</v>
       </c>
       <c r="U846" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V846" s="19"/>
     </row>
@@ -66145,7 +66145,7 @@
         <v>14090001</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E847" s="39">
         <v>14090001</v>
@@ -66190,7 +66190,7 @@
         <v>384</v>
       </c>
       <c r="U847" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V847" s="19" t="str">
         <f>D847&amp;"的描述"</f>
@@ -66202,7 +66202,7 @@
         <v>14090002</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E848" s="39">
         <v>14090002</v>
@@ -66247,7 +66247,7 @@
         <v>384</v>
       </c>
       <c r="U848" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V848" s="19" t="str">
         <f>D848&amp;"的描述"</f>
@@ -66259,7 +66259,7 @@
         <v>14090003</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E849" s="39">
         <v>14090003</v>
@@ -66304,7 +66304,7 @@
         <v>384</v>
       </c>
       <c r="U849" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V849" s="19"/>
     </row>
@@ -66313,7 +66313,7 @@
         <v>14100001</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E850" s="39">
         <v>14100001</v>
@@ -66358,7 +66358,7 @@
         <v>384</v>
       </c>
       <c r="U850" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V850" s="19" t="str">
         <f>D850&amp;"的描述"</f>
@@ -66370,7 +66370,7 @@
         <v>14100002</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E851" s="39">
         <v>14100002</v>
@@ -66415,7 +66415,7 @@
         <v>384</v>
       </c>
       <c r="U851" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V851" s="19" t="str">
         <f>D851&amp;"的描述"</f>
@@ -66427,7 +66427,7 @@
         <v>14100003</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E852" s="39">
         <v>14100003</v>
@@ -66472,7 +66472,7 @@
         <v>384</v>
       </c>
       <c r="U852" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V852" s="19" t="str">
         <f>D852&amp;"的描述"</f>
@@ -66484,7 +66484,7 @@
         <v>14100004</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E853" s="39">
         <v>14100004</v>
@@ -66529,7 +66529,7 @@
         <v>384</v>
       </c>
       <c r="U853" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V853" s="19"/>
     </row>
@@ -66538,7 +66538,7 @@
         <v>14100005</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E854" s="39">
         <v>14100005</v>
@@ -66583,7 +66583,7 @@
         <v>384</v>
       </c>
       <c r="U854" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V854" s="19" t="str">
         <f>D854&amp;"的描述"</f>
@@ -66595,7 +66595,7 @@
         <v>14100006</v>
       </c>
       <c r="D855" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E855" s="39">
         <v>14100006</v>
@@ -66640,7 +66640,7 @@
         <v>384</v>
       </c>
       <c r="U855" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V855" s="19" t="str">
         <f>D855&amp;"的描述"</f>
@@ -66652,7 +66652,7 @@
         <v>14100007</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E856" s="39">
         <v>14100007</v>
@@ -66697,7 +66697,7 @@
         <v>384</v>
       </c>
       <c r="U856" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V856" s="19" t="str">
         <f>D856&amp;"的描述"</f>
@@ -66709,7 +66709,7 @@
         <v>14100008</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E857" s="39">
         <v>14100008</v>
@@ -66754,7 +66754,7 @@
         <v>384</v>
       </c>
       <c r="U857" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V857" s="19"/>
     </row>
@@ -66763,7 +66763,7 @@
         <v>14100011</v>
       </c>
       <c r="D858" s="114" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E858" s="39">
         <v>14100011</v>
@@ -66808,7 +66808,7 @@
         <v>384</v>
       </c>
       <c r="U858" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V858" s="116"/>
     </row>
@@ -66817,7 +66817,7 @@
         <v>14100012</v>
       </c>
       <c r="D859" s="114" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E859" s="39">
         <v>14100012</v>
@@ -66862,7 +66862,7 @@
         <v>384</v>
       </c>
       <c r="U859" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V859" s="116"/>
     </row>
@@ -66871,7 +66871,7 @@
         <v>14100101</v>
       </c>
       <c r="D860" s="21" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E860" s="40">
         <v>14100101</v>
@@ -66916,7 +66916,7 @@
         <v>384</v>
       </c>
       <c r="U860" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V860" s="27" t="str">
         <f>D860&amp;"的描述"</f>
@@ -66928,7 +66928,7 @@
         <v>14100102</v>
       </c>
       <c r="D861" s="21" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E861" s="40">
         <v>14100102</v>
@@ -66973,7 +66973,7 @@
         <v>384</v>
       </c>
       <c r="U861" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V861" s="27" t="str">
         <f>D861&amp;"的描述"</f>
@@ -66985,7 +66985,7 @@
         <v>14100103</v>
       </c>
       <c r="D862" s="21" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E862" s="40">
         <v>14100103</v>
@@ -67030,7 +67030,7 @@
         <v>384</v>
       </c>
       <c r="U862" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V862" s="27" t="str">
         <f>D862&amp;"的描述"</f>
@@ -67042,7 +67042,7 @@
         <v>14100104</v>
       </c>
       <c r="D863" s="21" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E863" s="40">
         <v>14100104</v>
@@ -67087,7 +67087,7 @@
         <v>384</v>
       </c>
       <c r="U863" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V863" s="27"/>
     </row>
@@ -67096,7 +67096,7 @@
         <v>14100105</v>
       </c>
       <c r="D864" s="21" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E864" s="40">
         <v>14100105</v>
@@ -67141,7 +67141,7 @@
         <v>384</v>
       </c>
       <c r="U864" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V864" s="27" t="str">
         <f>D864&amp;"的描述"</f>
@@ -67153,7 +67153,7 @@
         <v>14100106</v>
       </c>
       <c r="D865" s="21" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E865" s="40">
         <v>14100106</v>
@@ -67198,7 +67198,7 @@
         <v>384</v>
       </c>
       <c r="U865" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V865" s="27" t="str">
         <f>D865&amp;"的描述"</f>
@@ -67210,7 +67210,7 @@
         <v>14100107</v>
       </c>
       <c r="D866" s="21" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E866" s="40">
         <v>14100107</v>
@@ -67255,7 +67255,7 @@
         <v>384</v>
       </c>
       <c r="U866" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V866" s="27" t="str">
         <f>D866&amp;"的描述"</f>
@@ -67267,7 +67267,7 @@
         <v>14100108</v>
       </c>
       <c r="D867" s="21" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E867" s="40">
         <v>14100108</v>
@@ -67312,7 +67312,7 @@
         <v>384</v>
       </c>
       <c r="U867" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V867" s="27"/>
     </row>
@@ -67321,7 +67321,7 @@
         <v>14100111</v>
       </c>
       <c r="D868" s="114" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E868" s="113">
         <v>14100111</v>
@@ -67366,7 +67366,7 @@
         <v>384</v>
       </c>
       <c r="U868" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V868" s="116"/>
     </row>
@@ -67375,7 +67375,7 @@
         <v>14100112</v>
       </c>
       <c r="D869" s="114" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E869" s="113">
         <v>14100112</v>
@@ -67420,7 +67420,7 @@
         <v>384</v>
       </c>
       <c r="U869" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V869" s="116"/>
     </row>
@@ -67429,7 +67429,7 @@
         <v>14110001</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E870" s="41">
         <v>14110001</v>
@@ -67474,7 +67474,7 @@
         <v>384</v>
       </c>
       <c r="U870" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V870" s="19" t="str">
         <f>D870&amp;"的描述"</f>
@@ -67486,7 +67486,7 @@
         <v>14110002</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E871" s="41">
         <v>14110002</v>
@@ -67531,7 +67531,7 @@
         <v>384</v>
       </c>
       <c r="U871" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V871" s="19" t="str">
         <f>D871&amp;"的描述"</f>
@@ -67543,7 +67543,7 @@
         <v>14110003</v>
       </c>
       <c r="D872" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E872" s="41">
         <v>14110003</v>
@@ -67588,7 +67588,7 @@
         <v>384</v>
       </c>
       <c r="U872" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V872" s="19" t="str">
         <f>D872&amp;"的描述"</f>
@@ -67600,7 +67600,7 @@
         <v>14110004</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E873" s="41">
         <v>14110004</v>
@@ -67645,7 +67645,7 @@
         <v>384</v>
       </c>
       <c r="U873" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V873" s="19"/>
     </row>
@@ -67654,7 +67654,7 @@
         <v>14110005</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E874" s="41">
         <v>14110005</v>
@@ -67699,7 +67699,7 @@
         <v>384</v>
       </c>
       <c r="U874" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V874" s="19" t="str">
         <f>D874&amp;"的描述"</f>
@@ -67711,7 +67711,7 @@
         <v>14110006</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E875" s="41">
         <v>14110006</v>
@@ -67756,7 +67756,7 @@
         <v>384</v>
       </c>
       <c r="U875" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V875" s="19" t="str">
         <f>D875&amp;"的描述"</f>
@@ -67768,7 +67768,7 @@
         <v>14110007</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E876" s="41">
         <v>14110007</v>
@@ -67813,7 +67813,7 @@
         <v>384</v>
       </c>
       <c r="U876" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V876" s="19" t="str">
         <f>D876&amp;"的描述"</f>
@@ -67825,7 +67825,7 @@
         <v>14110008</v>
       </c>
       <c r="D877" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E877" s="41">
         <v>14110008</v>
@@ -67870,7 +67870,7 @@
         <v>384</v>
       </c>
       <c r="U877" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V877" s="19"/>
     </row>
@@ -67879,7 +67879,7 @@
         <v>14110009</v>
       </c>
       <c r="D878" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E878" s="41">
         <v>14110009</v>
@@ -67924,7 +67924,7 @@
         <v>384</v>
       </c>
       <c r="U878" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V878" s="19" t="str">
         <f>D878&amp;"的描述"</f>
@@ -67936,7 +67936,7 @@
         <v>14110010</v>
       </c>
       <c r="D879" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E879" s="41">
         <v>14110010</v>
@@ -67981,7 +67981,7 @@
         <v>384</v>
       </c>
       <c r="U879" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V879" s="19" t="str">
         <f>D879&amp;"的描述"</f>
@@ -67993,7 +67993,7 @@
         <v>14110011</v>
       </c>
       <c r="D880" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E880" s="41">
         <v>14110011</v>
@@ -68038,7 +68038,7 @@
         <v>384</v>
       </c>
       <c r="U880" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V880" s="19" t="str">
         <f>D880&amp;"的描述"</f>
@@ -68050,7 +68050,7 @@
         <v>14110012</v>
       </c>
       <c r="D881" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E881" s="41">
         <v>14110012</v>
@@ -68095,7 +68095,7 @@
         <v>384</v>
       </c>
       <c r="U881" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V881" s="19"/>
     </row>
@@ -68104,7 +68104,7 @@
         <v>14110021</v>
       </c>
       <c r="D882" s="114" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E882" s="113">
         <v>14110021</v>
@@ -68149,7 +68149,7 @@
         <v>384</v>
       </c>
       <c r="U882" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V882" s="116"/>
     </row>
@@ -68158,7 +68158,7 @@
         <v>14110022</v>
       </c>
       <c r="D883" s="114" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E883" s="113">
         <v>14110022</v>
@@ -68203,7 +68203,7 @@
         <v>384</v>
       </c>
       <c r="U883" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V883" s="116"/>
     </row>
@@ -68212,7 +68212,7 @@
         <v>14110023</v>
       </c>
       <c r="D884" s="114" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E884" s="113">
         <v>14110023</v>
@@ -68257,7 +68257,7 @@
         <v>384</v>
       </c>
       <c r="U884" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V884" s="116"/>
     </row>
@@ -68266,7 +68266,7 @@
         <v>15201001</v>
       </c>
       <c r="D885" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E885" s="3">
         <v>15201001</v>
@@ -68323,7 +68323,7 @@
         <v>15201002</v>
       </c>
       <c r="D886" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E886" s="3">
         <v>15201002</v>
@@ -68368,7 +68368,7 @@
         <v>384</v>
       </c>
       <c r="U886" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V886" s="19"/>
     </row>
@@ -68377,7 +68377,7 @@
         <v>15201003</v>
       </c>
       <c r="D887" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E887" s="3">
         <v>15201003</v>
@@ -68434,7 +68434,7 @@
         <v>15201004</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E888" s="3">
         <v>15201004</v>
@@ -68479,7 +68479,7 @@
         <v>384</v>
       </c>
       <c r="U888" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V888" s="19"/>
     </row>
@@ -68488,7 +68488,7 @@
         <v>15201005</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E889" s="3">
         <v>15201005</v>
@@ -68545,7 +68545,7 @@
         <v>15201006</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E890" s="3">
         <v>15201006</v>
@@ -68590,7 +68590,7 @@
         <v>384</v>
       </c>
       <c r="U890" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V890" s="19"/>
     </row>
@@ -68599,7 +68599,7 @@
         <v>15202001</v>
       </c>
       <c r="D891" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E891" s="3">
         <v>15202001</v>
@@ -68656,7 +68656,7 @@
         <v>15202002</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E892" s="3">
         <v>15202002</v>
@@ -68701,7 +68701,7 @@
         <v>384</v>
       </c>
       <c r="U892" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V892" s="19"/>
     </row>
@@ -68710,7 +68710,7 @@
         <v>15202003</v>
       </c>
       <c r="D893" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E893" s="3">
         <v>15202003</v>
@@ -68767,7 +68767,7 @@
         <v>15202004</v>
       </c>
       <c r="D894" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E894" s="3">
         <v>15202004</v>
@@ -68812,7 +68812,7 @@
         <v>384</v>
       </c>
       <c r="U894" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V894" s="19"/>
     </row>
@@ -68821,7 +68821,7 @@
         <v>15202005</v>
       </c>
       <c r="D895" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E895" s="3">
         <v>15202005</v>
@@ -68878,7 +68878,7 @@
         <v>15202006</v>
       </c>
       <c r="D896" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E896" s="3">
         <v>15202006</v>
@@ -68923,7 +68923,7 @@
         <v>384</v>
       </c>
       <c r="U896" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V896" s="19"/>
     </row>
@@ -68932,7 +68932,7 @@
         <v>15203001</v>
       </c>
       <c r="D897" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E897" s="3">
         <v>15203001</v>
@@ -68989,7 +68989,7 @@
         <v>15203002</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E898" s="3">
         <v>15203002</v>
@@ -69034,7 +69034,7 @@
         <v>384</v>
       </c>
       <c r="U898" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V898" s="19"/>
     </row>
@@ -69043,7 +69043,7 @@
         <v>15203003</v>
       </c>
       <c r="D899" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E899" s="3">
         <v>15203003</v>
@@ -69100,7 +69100,7 @@
         <v>15203004</v>
       </c>
       <c r="D900" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E900" s="3">
         <v>15203004</v>
@@ -69145,7 +69145,7 @@
         <v>384</v>
       </c>
       <c r="U900" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V900" s="19"/>
     </row>
@@ -69211,7 +69211,7 @@
         <v>15203006</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E902" s="3">
         <v>15203006</v>
@@ -69256,7 +69256,7 @@
         <v>384</v>
       </c>
       <c r="U902" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V902" s="19"/>
     </row>
@@ -69265,7 +69265,7 @@
         <v>15204001</v>
       </c>
       <c r="D903" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E903" s="3">
         <v>15204001</v>
@@ -69322,7 +69322,7 @@
         <v>15204002</v>
       </c>
       <c r="D904" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E904" s="3">
         <v>15204002</v>
@@ -69367,7 +69367,7 @@
         <v>384</v>
       </c>
       <c r="U904" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V904" s="19"/>
     </row>
@@ -69376,7 +69376,7 @@
         <v>15204003</v>
       </c>
       <c r="D905" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E905" s="3">
         <v>15204003</v>
@@ -69433,7 +69433,7 @@
         <v>15204004</v>
       </c>
       <c r="D906" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E906" s="3">
         <v>15204004</v>
@@ -69478,7 +69478,7 @@
         <v>384</v>
       </c>
       <c r="U906" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V906" s="19"/>
     </row>
@@ -69544,7 +69544,7 @@
         <v>15204006</v>
       </c>
       <c r="D908" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E908" s="3">
         <v>15204006</v>
@@ -69589,7 +69589,7 @@
         <v>384</v>
       </c>
       <c r="U908" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V908" s="19"/>
     </row>
@@ -69598,7 +69598,7 @@
         <v>15205001</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E909" s="3">
         <v>15205001</v>
@@ -69655,7 +69655,7 @@
         <v>15205002</v>
       </c>
       <c r="D910" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E910" s="3">
         <v>15205002</v>
@@ -69700,7 +69700,7 @@
         <v>384</v>
       </c>
       <c r="U910" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V910" s="19"/>
     </row>
@@ -69709,7 +69709,7 @@
         <v>15205003</v>
       </c>
       <c r="D911" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E911" s="3">
         <v>15205003</v>
@@ -69766,7 +69766,7 @@
         <v>15205004</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E912" s="3">
         <v>15205004</v>
@@ -69811,7 +69811,7 @@
         <v>384</v>
       </c>
       <c r="U912" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V912" s="19"/>
     </row>
@@ -69820,7 +69820,7 @@
         <v>15205005</v>
       </c>
       <c r="D913" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E913" s="3">
         <v>15205005</v>
@@ -69877,7 +69877,7 @@
         <v>15205006</v>
       </c>
       <c r="D914" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E914" s="3">
         <v>15205006</v>
@@ -69922,7 +69922,7 @@
         <v>384</v>
       </c>
       <c r="U914" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V914" s="19"/>
     </row>
@@ -69931,7 +69931,7 @@
         <v>15206001</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E915" s="3">
         <v>15206001</v>
@@ -69988,7 +69988,7 @@
         <v>15206002</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E916" s="3">
         <v>15206002</v>
@@ -70033,7 +70033,7 @@
         <v>384</v>
       </c>
       <c r="U916" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V916" s="19"/>
     </row>
@@ -70042,7 +70042,7 @@
         <v>15206003</v>
       </c>
       <c r="D917" s="114" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E917" s="114">
         <v>15206003</v>
@@ -70087,7 +70087,7 @@
         <v>384</v>
       </c>
       <c r="U917" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V917" s="116"/>
     </row>
@@ -70096,7 +70096,7 @@
         <v>15207001</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E918" s="3">
         <v>15207001</v>
@@ -70153,7 +70153,7 @@
         <v>15207002</v>
       </c>
       <c r="D919" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E919" s="3">
         <v>15207002</v>
@@ -70198,7 +70198,7 @@
         <v>384</v>
       </c>
       <c r="U919" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V919" s="19"/>
     </row>
@@ -70207,7 +70207,7 @@
         <v>15208001</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E920" s="3">
         <v>15208001</v>
@@ -70266,7 +70266,7 @@
         <v>15208002</v>
       </c>
       <c r="D921" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E921" s="3">
         <v>15208002</v>
@@ -70313,7 +70313,7 @@
         <v>384</v>
       </c>
       <c r="U921" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V921" s="19"/>
     </row>
@@ -70322,7 +70322,7 @@
         <v>15209001</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E922" s="3">
         <v>15209001</v>
@@ -70379,7 +70379,7 @@
         <v>15209002</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E923" s="3">
         <v>15209002</v>
@@ -70424,7 +70424,7 @@
         <v>384</v>
       </c>
       <c r="U923" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V923" s="19"/>
     </row>
@@ -70433,7 +70433,7 @@
         <v>15210001</v>
       </c>
       <c r="D924" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E924" s="3">
         <v>15210001</v>
@@ -70490,7 +70490,7 @@
         <v>15210002</v>
       </c>
       <c r="D925" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E925" s="3">
         <v>15210002</v>
@@ -70535,7 +70535,7 @@
         <v>384</v>
       </c>
       <c r="U925" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V925" s="19"/>
     </row>
@@ -70544,7 +70544,7 @@
         <v>15210003</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E926" s="3">
         <v>15210003</v>
@@ -70601,7 +70601,7 @@
         <v>15210004</v>
       </c>
       <c r="D927" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E927" s="3">
         <v>15210004</v>
@@ -70646,7 +70646,7 @@
         <v>384</v>
       </c>
       <c r="U927" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V927" s="19"/>
     </row>
@@ -70655,7 +70655,7 @@
         <v>15210011</v>
       </c>
       <c r="D928" s="114" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E928" s="114">
         <v>15210011</v>
@@ -70700,7 +70700,7 @@
         <v>384</v>
       </c>
       <c r="U928" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V928" s="116"/>
     </row>
@@ -70709,7 +70709,7 @@
         <v>15210012</v>
       </c>
       <c r="D929" s="114" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E929" s="114">
         <v>15210012</v>
@@ -70754,7 +70754,7 @@
         <v>384</v>
       </c>
       <c r="U929" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V929" s="116"/>
     </row>
@@ -70763,7 +70763,7 @@
         <v>15210101</v>
       </c>
       <c r="D930" s="21" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E930" s="21">
         <v>15210101</v>
@@ -70820,7 +70820,7 @@
         <v>15210102</v>
       </c>
       <c r="D931" s="21" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E931" s="21">
         <v>15210102</v>
@@ -70865,7 +70865,7 @@
         <v>384</v>
       </c>
       <c r="U931" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V931" s="27"/>
     </row>
@@ -70874,7 +70874,7 @@
         <v>15210103</v>
       </c>
       <c r="D932" s="21" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E932" s="21">
         <v>15210103</v>
@@ -70931,7 +70931,7 @@
         <v>15210104</v>
       </c>
       <c r="D933" s="21" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E933" s="21">
         <v>15210104</v>
@@ -70976,7 +70976,7 @@
         <v>384</v>
       </c>
       <c r="U933" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V933" s="27"/>
     </row>
@@ -70985,7 +70985,7 @@
         <v>15210111</v>
       </c>
       <c r="D934" s="114" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E934" s="114">
         <v>15210111</v>
@@ -71030,7 +71030,7 @@
         <v>384</v>
       </c>
       <c r="U934" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V934" s="116"/>
     </row>
@@ -71039,7 +71039,7 @@
         <v>15210112</v>
       </c>
       <c r="D935" s="114" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E935" s="114">
         <v>15210112</v>
@@ -71084,7 +71084,7 @@
         <v>384</v>
       </c>
       <c r="U935" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V935" s="116"/>
     </row>
@@ -71093,7 +71093,7 @@
         <v>15211001</v>
       </c>
       <c r="D936" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E936" s="3">
         <v>15211001</v>
@@ -71150,7 +71150,7 @@
         <v>15211002</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E937" s="3">
         <v>15211002</v>
@@ -71195,7 +71195,7 @@
         <v>384</v>
       </c>
       <c r="U937" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V937" s="19"/>
     </row>
@@ -71204,7 +71204,7 @@
         <v>15211003</v>
       </c>
       <c r="D938" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E938" s="3">
         <v>15211003</v>
@@ -71261,7 +71261,7 @@
         <v>15211004</v>
       </c>
       <c r="D939" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E939" s="3">
         <v>15211004</v>
@@ -71306,7 +71306,7 @@
         <v>384</v>
       </c>
       <c r="U939" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V939" s="19"/>
     </row>
@@ -71315,7 +71315,7 @@
         <v>15211005</v>
       </c>
       <c r="D940" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E940" s="3">
         <v>15211005</v>
@@ -71372,7 +71372,7 @@
         <v>15211006</v>
       </c>
       <c r="D941" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E941" s="3">
         <v>15211006</v>
@@ -71417,7 +71417,7 @@
         <v>384</v>
       </c>
       <c r="U941" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V941" s="19"/>
     </row>
@@ -71426,7 +71426,7 @@
         <v>15211011</v>
       </c>
       <c r="D942" s="114" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E942" s="114">
         <v>15211011</v>
@@ -71471,7 +71471,7 @@
         <v>384</v>
       </c>
       <c r="U942" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V942" s="116"/>
     </row>
@@ -71480,7 +71480,7 @@
         <v>15211012</v>
       </c>
       <c r="D943" s="114" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E943" s="114">
         <v>15211012</v>
@@ -71525,7 +71525,7 @@
         <v>384</v>
       </c>
       <c r="U943" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V943" s="116"/>
     </row>
@@ -71534,7 +71534,7 @@
         <v>15211013</v>
       </c>
       <c r="D944" s="114" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E944" s="114">
         <v>15211013</v>
@@ -71579,7 +71579,7 @@
         <v>384</v>
       </c>
       <c r="U944" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V944" s="116"/>
     </row>
@@ -71588,7 +71588,7 @@
         <v>15301001</v>
       </c>
       <c r="D945" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E945" s="3">
         <v>15301001</v>
@@ -71633,7 +71633,7 @@
         <v>384</v>
       </c>
       <c r="U945" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V945" s="19" t="str">
         <f>D945&amp;"的描述"</f>
@@ -71645,7 +71645,7 @@
         <v>15301002</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E946" s="3">
         <v>15301002</v>
@@ -71690,7 +71690,7 @@
         <v>384</v>
       </c>
       <c r="U946" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V946" s="19"/>
     </row>
@@ -71699,7 +71699,7 @@
         <v>15301003</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E947" s="3">
         <v>15301003</v>
@@ -71744,7 +71744,7 @@
         <v>384</v>
       </c>
       <c r="U947" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V947" s="19" t="str">
         <f>D947&amp;"的描述"</f>
@@ -71756,7 +71756,7 @@
         <v>15301004</v>
       </c>
       <c r="D948" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E948" s="3">
         <v>15301004</v>
@@ -71801,7 +71801,7 @@
         <v>384</v>
       </c>
       <c r="U948" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V948" s="19"/>
     </row>
@@ -71810,7 +71810,7 @@
         <v>15301005</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E949" s="3">
         <v>15301005</v>
@@ -71855,7 +71855,7 @@
         <v>384</v>
       </c>
       <c r="U949" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V949" s="19" t="str">
         <f>D949&amp;"的描述"</f>
@@ -71867,7 +71867,7 @@
         <v>15301006</v>
       </c>
       <c r="D950" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E950" s="3">
         <v>15301006</v>
@@ -71912,7 +71912,7 @@
         <v>384</v>
       </c>
       <c r="U950" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V950" s="19"/>
     </row>
@@ -71921,7 +71921,7 @@
         <v>15302001</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E951" s="3">
         <v>15302001</v>
@@ -71966,7 +71966,7 @@
         <v>384</v>
       </c>
       <c r="U951" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V951" s="19" t="str">
         <f>D951&amp;"的描述"</f>
@@ -71978,7 +71978,7 @@
         <v>15302002</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E952" s="3">
         <v>15302002</v>
@@ -72023,7 +72023,7 @@
         <v>384</v>
       </c>
       <c r="U952" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V952" s="19"/>
     </row>
@@ -72032,7 +72032,7 @@
         <v>15302003</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E953" s="3">
         <v>15302003</v>
@@ -72077,7 +72077,7 @@
         <v>384</v>
       </c>
       <c r="U953" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V953" s="19" t="str">
         <f>D953&amp;"的描述"</f>
@@ -72089,7 +72089,7 @@
         <v>15302004</v>
       </c>
       <c r="D954" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E954" s="3">
         <v>15302004</v>
@@ -72134,7 +72134,7 @@
         <v>384</v>
       </c>
       <c r="U954" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V954" s="19"/>
     </row>
@@ -72143,7 +72143,7 @@
         <v>15302005</v>
       </c>
       <c r="D955" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E955" s="3">
         <v>15302005</v>
@@ -72188,7 +72188,7 @@
         <v>384</v>
       </c>
       <c r="U955" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V955" s="19" t="str">
         <f>D955&amp;"的描述"</f>
@@ -72200,7 +72200,7 @@
         <v>15302006</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E956" s="3">
         <v>15302006</v>
@@ -72245,7 +72245,7 @@
         <v>384</v>
       </c>
       <c r="U956" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V956" s="19"/>
     </row>
@@ -72254,7 +72254,7 @@
         <v>15303001</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E957" s="3">
         <v>15303001</v>
@@ -72299,7 +72299,7 @@
         <v>384</v>
       </c>
       <c r="U957" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V957" s="19" t="str">
         <f>D957&amp;"的描述"</f>
@@ -72311,7 +72311,7 @@
         <v>15303002</v>
       </c>
       <c r="D958" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E958" s="3">
         <v>15303002</v>
@@ -72356,7 +72356,7 @@
         <v>384</v>
       </c>
       <c r="U958" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V958" s="19"/>
     </row>
@@ -72365,7 +72365,7 @@
         <v>15303003</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E959" s="3">
         <v>15303003</v>
@@ -72410,7 +72410,7 @@
         <v>384</v>
       </c>
       <c r="U959" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V959" s="19" t="str">
         <f>D959&amp;"的描述"</f>
@@ -72422,7 +72422,7 @@
         <v>15303004</v>
       </c>
       <c r="D960" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E960" s="3">
         <v>15303004</v>
@@ -72467,7 +72467,7 @@
         <v>384</v>
       </c>
       <c r="U960" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V960" s="19"/>
     </row>
@@ -72476,7 +72476,7 @@
         <v>15303005</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E961" s="3">
         <v>15303005</v>
@@ -72521,7 +72521,7 @@
         <v>384</v>
       </c>
       <c r="U961" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V961" s="19" t="str">
         <f>D961&amp;"的描述"</f>
@@ -72533,7 +72533,7 @@
         <v>15303006</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E962" s="3">
         <v>15303006</v>
@@ -72578,7 +72578,7 @@
         <v>384</v>
       </c>
       <c r="U962" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V962" s="19"/>
     </row>
@@ -72587,7 +72587,7 @@
         <v>15304001</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E963" s="3">
         <v>15304001</v>
@@ -72632,7 +72632,7 @@
         <v>384</v>
       </c>
       <c r="U963" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V963" s="19" t="str">
         <f>D963&amp;"的描述"</f>
@@ -72644,7 +72644,7 @@
         <v>15304002</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E964" s="3">
         <v>15304002</v>
@@ -72689,7 +72689,7 @@
         <v>384</v>
       </c>
       <c r="U964" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V964" s="19"/>
     </row>
@@ -72698,7 +72698,7 @@
         <v>15304003</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E965" s="3">
         <v>15304003</v>
@@ -72743,7 +72743,7 @@
         <v>384</v>
       </c>
       <c r="U965" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V965" s="19" t="str">
         <f>D965&amp;"的描述"</f>
@@ -72755,7 +72755,7 @@
         <v>15304004</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E966" s="3">
         <v>15304004</v>
@@ -72800,7 +72800,7 @@
         <v>384</v>
       </c>
       <c r="U966" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V966" s="19"/>
     </row>
@@ -72809,7 +72809,7 @@
         <v>15304005</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E967" s="3">
         <v>15304005</v>
@@ -72854,7 +72854,7 @@
         <v>384</v>
       </c>
       <c r="U967" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V967" s="19" t="str">
         <f>D967&amp;"的描述"</f>
@@ -72866,7 +72866,7 @@
         <v>15304006</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E968" s="3">
         <v>15304006</v>
@@ -72911,7 +72911,7 @@
         <v>384</v>
       </c>
       <c r="U968" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V968" s="19"/>
     </row>
@@ -72920,7 +72920,7 @@
         <v>15305001</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E969" s="3">
         <v>15305001</v>
@@ -72965,7 +72965,7 @@
         <v>384</v>
       </c>
       <c r="U969" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V969" s="19" t="str">
         <f>D969&amp;"的描述"</f>
@@ -72977,7 +72977,7 @@
         <v>15305002</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E970" s="3">
         <v>15305002</v>
@@ -73022,7 +73022,7 @@
         <v>384</v>
       </c>
       <c r="U970" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V970" s="19"/>
     </row>
@@ -73031,7 +73031,7 @@
         <v>15305003</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E971" s="3">
         <v>15305003</v>
@@ -73076,7 +73076,7 @@
         <v>384</v>
       </c>
       <c r="U971" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V971" s="19" t="str">
         <f>D971&amp;"的描述"</f>
@@ -73088,7 +73088,7 @@
         <v>15305004</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E972" s="3">
         <v>15305004</v>
@@ -73133,7 +73133,7 @@
         <v>384</v>
       </c>
       <c r="U972" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V972" s="19"/>
     </row>
@@ -73142,7 +73142,7 @@
         <v>15305005</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E973" s="3">
         <v>15305005</v>
@@ -73187,7 +73187,7 @@
         <v>384</v>
       </c>
       <c r="U973" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V973" s="19" t="str">
         <f>D973&amp;"的描述"</f>
@@ -73199,7 +73199,7 @@
         <v>15305006</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E974" s="3">
         <v>15305006</v>
@@ -73244,7 +73244,7 @@
         <v>384</v>
       </c>
       <c r="U974" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V974" s="19"/>
     </row>
@@ -73253,7 +73253,7 @@
         <v>15306001</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E975" s="3">
         <v>15306001</v>
@@ -73298,7 +73298,7 @@
         <v>384</v>
       </c>
       <c r="U975" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V975" s="19" t="str">
         <f>D975&amp;"的描述"</f>
@@ -73310,7 +73310,7 @@
         <v>15306002</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E976" s="3">
         <v>15306002</v>
@@ -73355,7 +73355,7 @@
         <v>384</v>
       </c>
       <c r="U976" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V976" s="19"/>
     </row>
@@ -73364,7 +73364,7 @@
         <v>15306003</v>
       </c>
       <c r="D977" s="114" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E977" s="114">
         <v>15306003</v>
@@ -73409,7 +73409,7 @@
         <v>384</v>
       </c>
       <c r="U977" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V977" s="116"/>
     </row>
@@ -73418,7 +73418,7 @@
         <v>15307001</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E978" s="3">
         <v>15307001</v>
@@ -73463,7 +73463,7 @@
         <v>384</v>
       </c>
       <c r="U978" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V978" s="19" t="str">
         <f>D978&amp;"的描述"</f>
@@ -73475,7 +73475,7 @@
         <v>15307002</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E979" s="3">
         <v>15307002</v>
@@ -73520,7 +73520,7 @@
         <v>384</v>
       </c>
       <c r="U979" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V979" s="19"/>
     </row>
@@ -73576,7 +73576,7 @@
         <v>384</v>
       </c>
       <c r="U980" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V980" s="19" t="str">
         <f>D980&amp;"的描述"</f>
@@ -73588,7 +73588,7 @@
         <v>15308002</v>
       </c>
       <c r="D981" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E981" s="3">
         <v>15308002</v>
@@ -73635,7 +73635,7 @@
         <v>384</v>
       </c>
       <c r="U981" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V981" s="19"/>
     </row>
@@ -73644,7 +73644,7 @@
         <v>15309001</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E982" s="3">
         <v>15309001</v>
@@ -73689,7 +73689,7 @@
         <v>384</v>
       </c>
       <c r="U982" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V982" s="19" t="str">
         <f>D982&amp;"的描述"</f>
@@ -73701,7 +73701,7 @@
         <v>15309002</v>
       </c>
       <c r="D983" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E983" s="3">
         <v>15309002</v>
@@ -73746,7 +73746,7 @@
         <v>384</v>
       </c>
       <c r="U983" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V983" s="19"/>
     </row>
@@ -73755,7 +73755,7 @@
         <v>15310001</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E984" s="3">
         <v>15310001</v>
@@ -73800,7 +73800,7 @@
         <v>384</v>
       </c>
       <c r="U984" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V984" s="19" t="str">
         <f>D984&amp;"的描述"</f>
@@ -73812,7 +73812,7 @@
         <v>15310002</v>
       </c>
       <c r="D985" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E985" s="3">
         <v>15310002</v>
@@ -73857,7 +73857,7 @@
         <v>384</v>
       </c>
       <c r="U985" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V985" s="19"/>
     </row>
@@ -73866,7 +73866,7 @@
         <v>15310003</v>
       </c>
       <c r="D986" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E986" s="3">
         <v>15310003</v>
@@ -73911,7 +73911,7 @@
         <v>384</v>
       </c>
       <c r="U986" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V986" s="19" t="str">
         <f>D986&amp;"的描述"</f>
@@ -73923,7 +73923,7 @@
         <v>15310004</v>
       </c>
       <c r="D987" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E987" s="3">
         <v>15310004</v>
@@ -73968,7 +73968,7 @@
         <v>384</v>
       </c>
       <c r="U987" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V987" s="19"/>
     </row>
@@ -73977,7 +73977,7 @@
         <v>15310011</v>
       </c>
       <c r="D988" s="114" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E988" s="114">
         <v>15310011</v>
@@ -74022,7 +74022,7 @@
         <v>384</v>
       </c>
       <c r="U988" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V988" s="116"/>
     </row>
@@ -74031,7 +74031,7 @@
         <v>15310012</v>
       </c>
       <c r="D989" s="114" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E989" s="114">
         <v>15310012</v>
@@ -74076,7 +74076,7 @@
         <v>384</v>
       </c>
       <c r="U989" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V989" s="116"/>
     </row>
@@ -74085,7 +74085,7 @@
         <v>15310101</v>
       </c>
       <c r="D990" s="21" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E990" s="21">
         <v>15310101</v>
@@ -74130,7 +74130,7 @@
         <v>384</v>
       </c>
       <c r="U990" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V990" s="27" t="str">
         <f>D990&amp;"的描述"</f>
@@ -74142,7 +74142,7 @@
         <v>15310102</v>
       </c>
       <c r="D991" s="21" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E991" s="21">
         <v>15310102</v>
@@ -74187,7 +74187,7 @@
         <v>384</v>
       </c>
       <c r="U991" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V991" s="27"/>
     </row>
@@ -74196,7 +74196,7 @@
         <v>15310103</v>
       </c>
       <c r="D992" s="21" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E992" s="21">
         <v>15310103</v>
@@ -74241,7 +74241,7 @@
         <v>384</v>
       </c>
       <c r="U992" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V992" s="27" t="str">
         <f>D992&amp;"的描述"</f>
@@ -74253,7 +74253,7 @@
         <v>15310104</v>
       </c>
       <c r="D993" s="21" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E993" s="21">
         <v>15310104</v>
@@ -74298,7 +74298,7 @@
         <v>384</v>
       </c>
       <c r="U993" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V993" s="27"/>
     </row>
@@ -74307,7 +74307,7 @@
         <v>15310111</v>
       </c>
       <c r="D994" s="114" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E994" s="114">
         <v>15310111</v>
@@ -74352,7 +74352,7 @@
         <v>384</v>
       </c>
       <c r="U994" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V994" s="116"/>
     </row>
@@ -74361,7 +74361,7 @@
         <v>15310112</v>
       </c>
       <c r="D995" s="114" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E995" s="114">
         <v>15310112</v>
@@ -74406,7 +74406,7 @@
         <v>384</v>
       </c>
       <c r="U995" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V995" s="116"/>
     </row>
@@ -74415,7 +74415,7 @@
         <v>15311001</v>
       </c>
       <c r="D996" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E996" s="3">
         <v>15311001</v>
@@ -74460,7 +74460,7 @@
         <v>384</v>
       </c>
       <c r="U996" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V996" s="19" t="str">
         <f>D996&amp;"的描述"</f>
@@ -74472,7 +74472,7 @@
         <v>15311002</v>
       </c>
       <c r="D997" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E997" s="3">
         <v>15311002</v>
@@ -74517,7 +74517,7 @@
         <v>384</v>
       </c>
       <c r="U997" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V997" s="19"/>
     </row>
@@ -74526,7 +74526,7 @@
         <v>15311003</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E998" s="3">
         <v>15311003</v>
@@ -74571,7 +74571,7 @@
         <v>384</v>
       </c>
       <c r="U998" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V998" s="19" t="str">
         <f>D998&amp;"的描述"</f>
@@ -74583,7 +74583,7 @@
         <v>15311004</v>
       </c>
       <c r="D999" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E999" s="3">
         <v>15311004</v>
@@ -74628,7 +74628,7 @@
         <v>384</v>
       </c>
       <c r="U999" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V999" s="19"/>
     </row>
@@ -74637,7 +74637,7 @@
         <v>15311005</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E1000" s="3">
         <v>15311005</v>
@@ -74682,7 +74682,7 @@
         <v>384</v>
       </c>
       <c r="U1000" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="V1000" s="19" t="str">
         <f>D1000&amp;"的描述"</f>
@@ -74694,7 +74694,7 @@
         <v>15311006</v>
       </c>
       <c r="D1001" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E1001" s="3">
         <v>15311006</v>
@@ -74739,7 +74739,7 @@
         <v>384</v>
       </c>
       <c r="U1001" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1001" s="19"/>
     </row>
@@ -74748,7 +74748,7 @@
         <v>15311011</v>
       </c>
       <c r="D1002" s="114" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E1002" s="114">
         <v>15311011</v>
@@ -74793,7 +74793,7 @@
         <v>384</v>
       </c>
       <c r="U1002" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1002" s="116"/>
     </row>
@@ -74802,7 +74802,7 @@
         <v>15311012</v>
       </c>
       <c r="D1003" s="114" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E1003" s="114">
         <v>15311012</v>
@@ -74847,7 +74847,7 @@
         <v>384</v>
       </c>
       <c r="U1003" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1003" s="116"/>
     </row>
@@ -74856,7 +74856,7 @@
         <v>15311013</v>
       </c>
       <c r="D1004" s="114" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E1004" s="114">
         <v>15311013</v>
@@ -74901,7 +74901,7 @@
         <v>384</v>
       </c>
       <c r="U1004" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1004" s="116"/>
     </row>
@@ -74910,7 +74910,7 @@
         <v>15401001</v>
       </c>
       <c r="D1005" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E1005" s="3">
         <v>15401001</v>
@@ -74955,7 +74955,7 @@
         <v>384</v>
       </c>
       <c r="U1005" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1005" s="19" t="str">
         <f>D1005&amp;"的描述"</f>
@@ -74967,7 +74967,7 @@
         <v>15401002</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E1006" s="3">
         <v>15401002</v>
@@ -75012,7 +75012,7 @@
         <v>384</v>
       </c>
       <c r="U1006" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1006" s="19"/>
     </row>
@@ -75021,7 +75021,7 @@
         <v>15401003</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E1007" s="3">
         <v>15401003</v>
@@ -75066,7 +75066,7 @@
         <v>384</v>
       </c>
       <c r="U1007" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1007" s="19" t="str">
         <f>D1007&amp;"的描述"</f>
@@ -75078,7 +75078,7 @@
         <v>15401004</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E1008" s="3">
         <v>15401004</v>
@@ -75123,7 +75123,7 @@
         <v>384</v>
       </c>
       <c r="U1008" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1008" s="19"/>
     </row>
@@ -75132,7 +75132,7 @@
         <v>15401005</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E1009" s="3">
         <v>15401005</v>
@@ -75177,7 +75177,7 @@
         <v>384</v>
       </c>
       <c r="U1009" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1009" s="19" t="str">
         <f>D1009&amp;"的描述"</f>
@@ -75189,7 +75189,7 @@
         <v>15401006</v>
       </c>
       <c r="D1010" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E1010" s="3">
         <v>15401006</v>
@@ -75234,7 +75234,7 @@
         <v>384</v>
       </c>
       <c r="U1010" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1010" s="19"/>
     </row>
@@ -75243,7 +75243,7 @@
         <v>15402001</v>
       </c>
       <c r="D1011" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E1011" s="3">
         <v>15402001</v>
@@ -75288,7 +75288,7 @@
         <v>384</v>
       </c>
       <c r="U1011" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1011" s="19" t="str">
         <f>D1011&amp;"的描述"</f>
@@ -75300,7 +75300,7 @@
         <v>15402002</v>
       </c>
       <c r="D1012" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E1012" s="3">
         <v>15402002</v>
@@ -75345,7 +75345,7 @@
         <v>384</v>
       </c>
       <c r="U1012" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1012" s="19"/>
     </row>
@@ -75354,7 +75354,7 @@
         <v>15402003</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E1013" s="3">
         <v>15402003</v>
@@ -75399,7 +75399,7 @@
         <v>384</v>
       </c>
       <c r="U1013" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1013" s="19" t="str">
         <f>D1013&amp;"的描述"</f>
@@ -75411,7 +75411,7 @@
         <v>15402004</v>
       </c>
       <c r="D1014" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E1014" s="3">
         <v>15402004</v>
@@ -75456,7 +75456,7 @@
         <v>384</v>
       </c>
       <c r="U1014" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1014" s="19"/>
     </row>
@@ -75465,7 +75465,7 @@
         <v>15402005</v>
       </c>
       <c r="D1015" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E1015" s="3">
         <v>15402005</v>
@@ -75510,7 +75510,7 @@
         <v>384</v>
       </c>
       <c r="U1015" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1015" s="19" t="str">
         <f>D1015&amp;"的描述"</f>
@@ -75522,7 +75522,7 @@
         <v>15402006</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E1016" s="3">
         <v>15402006</v>
@@ -75567,7 +75567,7 @@
         <v>384</v>
       </c>
       <c r="U1016" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1016" s="19"/>
     </row>
@@ -75576,7 +75576,7 @@
         <v>15403001</v>
       </c>
       <c r="D1017" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E1017" s="3">
         <v>15403001</v>
@@ -75621,7 +75621,7 @@
         <v>384</v>
       </c>
       <c r="U1017" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1017" s="19" t="str">
         <f>D1017&amp;"的描述"</f>
@@ -75633,7 +75633,7 @@
         <v>15403002</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E1018" s="3">
         <v>15403002</v>
@@ -75678,7 +75678,7 @@
         <v>384</v>
       </c>
       <c r="U1018" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1018" s="19"/>
     </row>
@@ -75687,7 +75687,7 @@
         <v>15403003</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E1019" s="3">
         <v>15403003</v>
@@ -75732,7 +75732,7 @@
         <v>384</v>
       </c>
       <c r="U1019" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1019" s="19" t="str">
         <f>D1019&amp;"的描述"</f>
@@ -75744,7 +75744,7 @@
         <v>15403004</v>
       </c>
       <c r="D1020" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E1020" s="3">
         <v>15403004</v>
@@ -75789,7 +75789,7 @@
         <v>384</v>
       </c>
       <c r="U1020" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1020" s="19"/>
     </row>
@@ -75798,7 +75798,7 @@
         <v>15403005</v>
       </c>
       <c r="D1021" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E1021" s="3">
         <v>15403005</v>
@@ -75843,7 +75843,7 @@
         <v>384</v>
       </c>
       <c r="U1021" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1021" s="19" t="str">
         <f>D1021&amp;"的描述"</f>
@@ -75855,7 +75855,7 @@
         <v>15403006</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E1022" s="3">
         <v>15403006</v>
@@ -75900,7 +75900,7 @@
         <v>384</v>
       </c>
       <c r="U1022" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1022" s="19"/>
     </row>
@@ -75909,7 +75909,7 @@
         <v>15404001</v>
       </c>
       <c r="D1023" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E1023" s="3">
         <v>15404001</v>
@@ -75954,7 +75954,7 @@
         <v>384</v>
       </c>
       <c r="U1023" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1023" s="19" t="str">
         <f>D1023&amp;"的描述"</f>
@@ -75966,7 +75966,7 @@
         <v>15404002</v>
       </c>
       <c r="D1024" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E1024" s="3">
         <v>15404002</v>
@@ -76011,7 +76011,7 @@
         <v>384</v>
       </c>
       <c r="U1024" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1024" s="19"/>
     </row>
@@ -76020,7 +76020,7 @@
         <v>15404003</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E1025" s="3">
         <v>15404003</v>
@@ -76065,7 +76065,7 @@
         <v>384</v>
       </c>
       <c r="U1025" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1025" s="19" t="str">
         <f>D1025&amp;"的描述"</f>
@@ -76077,7 +76077,7 @@
         <v>15404004</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E1026" s="3">
         <v>15404004</v>
@@ -76122,7 +76122,7 @@
         <v>384</v>
       </c>
       <c r="U1026" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1026" s="19"/>
     </row>
@@ -76131,7 +76131,7 @@
         <v>15404005</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E1027" s="3">
         <v>15404005</v>
@@ -76176,7 +76176,7 @@
         <v>384</v>
       </c>
       <c r="U1027" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1027" s="19" t="str">
         <f>D1027&amp;"的描述"</f>
@@ -76188,7 +76188,7 @@
         <v>15404006</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E1028" s="3">
         <v>15404006</v>
@@ -76233,7 +76233,7 @@
         <v>384</v>
       </c>
       <c r="U1028" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1028" s="19"/>
     </row>
@@ -76242,7 +76242,7 @@
         <v>15405001</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E1029" s="3">
         <v>15405001</v>
@@ -76287,7 +76287,7 @@
         <v>384</v>
       </c>
       <c r="U1029" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1029" s="19" t="str">
         <f>D1029&amp;"的描述"</f>
@@ -76299,7 +76299,7 @@
         <v>15405002</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E1030" s="3">
         <v>15405002</v>
@@ -76344,7 +76344,7 @@
         <v>384</v>
       </c>
       <c r="U1030" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1030" s="19"/>
     </row>
@@ -76353,7 +76353,7 @@
         <v>15405003</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E1031" s="3">
         <v>15405003</v>
@@ -76398,7 +76398,7 @@
         <v>384</v>
       </c>
       <c r="U1031" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1031" s="19" t="str">
         <f>D1031&amp;"的描述"</f>
@@ -76410,7 +76410,7 @@
         <v>15405004</v>
       </c>
       <c r="D1032" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E1032" s="3">
         <v>15405004</v>
@@ -76455,7 +76455,7 @@
         <v>384</v>
       </c>
       <c r="U1032" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1032" s="19"/>
     </row>
@@ -76464,7 +76464,7 @@
         <v>15405005</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E1033" s="3">
         <v>15405005</v>
@@ -76509,7 +76509,7 @@
         <v>384</v>
       </c>
       <c r="U1033" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1033" s="19" t="str">
         <f>D1033&amp;"的描述"</f>
@@ -76521,7 +76521,7 @@
         <v>15405006</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E1034" s="3">
         <v>15405006</v>
@@ -76566,7 +76566,7 @@
         <v>384</v>
       </c>
       <c r="U1034" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1034" s="19"/>
     </row>
@@ -76575,7 +76575,7 @@
         <v>15406001</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E1035" s="3">
         <v>15406001</v>
@@ -76620,7 +76620,7 @@
         <v>384</v>
       </c>
       <c r="U1035" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1035" s="19" t="str">
         <f>D1035&amp;"的描述"</f>
@@ -76632,7 +76632,7 @@
         <v>15406002</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E1036" s="3">
         <v>15406002</v>
@@ -76677,7 +76677,7 @@
         <v>384</v>
       </c>
       <c r="U1036" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1036" s="19"/>
     </row>
@@ -76686,7 +76686,7 @@
         <v>15406003</v>
       </c>
       <c r="D1037" s="114" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E1037" s="114">
         <v>15406003</v>
@@ -76731,7 +76731,7 @@
         <v>384</v>
       </c>
       <c r="U1037" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1037" s="116"/>
     </row>
@@ -76740,7 +76740,7 @@
         <v>15407001</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E1038" s="3">
         <v>15407001</v>
@@ -76785,7 +76785,7 @@
         <v>384</v>
       </c>
       <c r="U1038" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1038" s="19" t="str">
         <f>D1038&amp;"的描述"</f>
@@ -76797,7 +76797,7 @@
         <v>15407002</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E1039" s="3">
         <v>15407002</v>
@@ -76842,7 +76842,7 @@
         <v>384</v>
       </c>
       <c r="U1039" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1039" s="19"/>
     </row>
@@ -76898,7 +76898,7 @@
         <v>384</v>
       </c>
       <c r="U1040" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1040" s="19" t="str">
         <f>D1040&amp;"的描述"</f>
@@ -76910,7 +76910,7 @@
         <v>15408002</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E1041" s="3">
         <v>15408002</v>
@@ -76957,7 +76957,7 @@
         <v>384</v>
       </c>
       <c r="U1041" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1041" s="19"/>
     </row>
@@ -76966,7 +76966,7 @@
         <v>15409001</v>
       </c>
       <c r="D1042" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E1042" s="3">
         <v>15409001</v>
@@ -77011,7 +77011,7 @@
         <v>384</v>
       </c>
       <c r="U1042" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1042" s="19" t="str">
         <f>D1042&amp;"的描述"</f>
@@ -77023,7 +77023,7 @@
         <v>15409002</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E1043" s="3">
         <v>15409002</v>
@@ -77068,7 +77068,7 @@
         <v>384</v>
       </c>
       <c r="U1043" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1043" s="19"/>
     </row>
@@ -77077,7 +77077,7 @@
         <v>15410001</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E1044" s="3">
         <v>15410001</v>
@@ -77122,7 +77122,7 @@
         <v>384</v>
       </c>
       <c r="U1044" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1044" s="19" t="str">
         <f>D1044&amp;"的描述"</f>
@@ -77134,7 +77134,7 @@
         <v>15410002</v>
       </c>
       <c r="D1045" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E1045" s="3">
         <v>15410002</v>
@@ -77179,7 +77179,7 @@
         <v>384</v>
       </c>
       <c r="U1045" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1045" s="19"/>
     </row>
@@ -77188,7 +77188,7 @@
         <v>15410003</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E1046" s="3">
         <v>15410003</v>
@@ -77233,7 +77233,7 @@
         <v>384</v>
       </c>
       <c r="U1046" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1046" s="19" t="str">
         <f>D1046&amp;"的描述"</f>
@@ -77245,7 +77245,7 @@
         <v>15410004</v>
       </c>
       <c r="D1047" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E1047" s="3">
         <v>15410004</v>
@@ -77290,7 +77290,7 @@
         <v>384</v>
       </c>
       <c r="U1047" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1047" s="19"/>
     </row>
@@ -77299,7 +77299,7 @@
         <v>15410011</v>
       </c>
       <c r="D1048" s="114" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E1048" s="114">
         <v>15410011</v>
@@ -77344,7 +77344,7 @@
         <v>384</v>
       </c>
       <c r="U1048" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1048" s="116"/>
     </row>
@@ -77353,7 +77353,7 @@
         <v>15410012</v>
       </c>
       <c r="D1049" s="114" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E1049" s="114">
         <v>15410012</v>
@@ -77398,7 +77398,7 @@
         <v>384</v>
       </c>
       <c r="U1049" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1049" s="116"/>
     </row>
@@ -77407,7 +77407,7 @@
         <v>15410101</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E1050" s="3">
         <v>15410101</v>
@@ -77452,7 +77452,7 @@
         <v>384</v>
       </c>
       <c r="U1050" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1050" s="19" t="str">
         <f>D1050&amp;"的描述"</f>
@@ -77464,7 +77464,7 @@
         <v>15410102</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E1051" s="3">
         <v>15410102</v>
@@ -77509,7 +77509,7 @@
         <v>384</v>
       </c>
       <c r="U1051" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1051" s="19"/>
     </row>
@@ -77518,7 +77518,7 @@
         <v>15410103</v>
       </c>
       <c r="D1052" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E1052" s="3">
         <v>15410103</v>
@@ -77563,7 +77563,7 @@
         <v>384</v>
       </c>
       <c r="U1052" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1052" s="19" t="str">
         <f>D1052&amp;"的描述"</f>
@@ -77575,7 +77575,7 @@
         <v>15410104</v>
       </c>
       <c r="D1053" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E1053" s="3">
         <v>15410104</v>
@@ -77620,7 +77620,7 @@
         <v>384</v>
       </c>
       <c r="U1053" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1053" s="19"/>
     </row>
@@ -77629,7 +77629,7 @@
         <v>15410111</v>
       </c>
       <c r="D1054" s="114" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E1054" s="114">
         <v>15410111</v>
@@ -77674,7 +77674,7 @@
         <v>384</v>
       </c>
       <c r="U1054" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1054" s="116"/>
     </row>
@@ -77683,7 +77683,7 @@
         <v>15410112</v>
       </c>
       <c r="D1055" s="114" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E1055" s="114">
         <v>15410112</v>
@@ -77728,7 +77728,7 @@
         <v>384</v>
       </c>
       <c r="U1055" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1055" s="116"/>
     </row>
@@ -77737,7 +77737,7 @@
         <v>15411001</v>
       </c>
       <c r="D1056" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E1056" s="3">
         <v>15411001</v>
@@ -77782,7 +77782,7 @@
         <v>384</v>
       </c>
       <c r="U1056" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1056" s="19" t="str">
         <f>D1056&amp;"的描述"</f>
@@ -77794,7 +77794,7 @@
         <v>15411002</v>
       </c>
       <c r="D1057" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E1057" s="3">
         <v>15411002</v>
@@ -77839,7 +77839,7 @@
         <v>384</v>
       </c>
       <c r="U1057" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1057" s="19"/>
     </row>
@@ -77848,7 +77848,7 @@
         <v>15411003</v>
       </c>
       <c r="D1058" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E1058" s="3">
         <v>15411003</v>
@@ -77893,7 +77893,7 @@
         <v>384</v>
       </c>
       <c r="U1058" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1058" s="19" t="str">
         <f>D1058&amp;"的描述"</f>
@@ -77905,7 +77905,7 @@
         <v>15411004</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E1059" s="3">
         <v>15411004</v>
@@ -77950,7 +77950,7 @@
         <v>384</v>
       </c>
       <c r="U1059" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1059" s="19"/>
     </row>
@@ -77959,7 +77959,7 @@
         <v>15411005</v>
       </c>
       <c r="D1060" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E1060" s="3">
         <v>15411005</v>
@@ -78004,7 +78004,7 @@
         <v>384</v>
       </c>
       <c r="U1060" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="V1060" s="19" t="str">
         <f>D1060&amp;"的描述"</f>
@@ -78016,7 +78016,7 @@
         <v>15411006</v>
       </c>
       <c r="D1061" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E1061" s="3">
         <v>15411006</v>
@@ -78061,7 +78061,7 @@
         <v>384</v>
       </c>
       <c r="U1061" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V1061" s="19"/>
     </row>
@@ -78070,7 +78070,7 @@
         <v>15411011</v>
       </c>
       <c r="D1062" s="114" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E1062" s="114">
         <v>15411011</v>
@@ -78115,7 +78115,7 @@
         <v>384</v>
       </c>
       <c r="U1062" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1062" s="116"/>
     </row>
@@ -78124,7 +78124,7 @@
         <v>15411012</v>
       </c>
       <c r="D1063" s="114" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E1063" s="114">
         <v>15411012</v>
@@ -78169,7 +78169,7 @@
         <v>384</v>
       </c>
       <c r="U1063" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1063" s="116"/>
     </row>
@@ -78178,7 +78178,7 @@
         <v>15411013</v>
       </c>
       <c r="D1064" s="114" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E1064" s="114">
         <v>15411013</v>
@@ -78223,7 +78223,7 @@
         <v>384</v>
       </c>
       <c r="U1064" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1064" s="116"/>
     </row>
@@ -78232,7 +78232,7 @@
         <v>15501001</v>
       </c>
       <c r="D1065" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E1065" s="3">
         <v>15501001</v>
@@ -78277,7 +78277,7 @@
         <v>384</v>
       </c>
       <c r="U1065" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1065" s="19" t="str">
         <f>D1065&amp;"的描述"</f>
@@ -78289,7 +78289,7 @@
         <v>15501002</v>
       </c>
       <c r="D1066" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E1066" s="3">
         <v>15501002</v>
@@ -78334,7 +78334,7 @@
         <v>384</v>
       </c>
       <c r="U1066" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1066" s="19"/>
     </row>
@@ -78343,7 +78343,7 @@
         <v>15501003</v>
       </c>
       <c r="D1067" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E1067" s="3">
         <v>15501003</v>
@@ -78388,7 +78388,7 @@
         <v>384</v>
       </c>
       <c r="U1067" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1067" s="19" t="str">
         <f>D1067&amp;"的描述"</f>
@@ -78400,7 +78400,7 @@
         <v>15501004</v>
       </c>
       <c r="D1068" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E1068" s="3">
         <v>15501004</v>
@@ -78445,7 +78445,7 @@
         <v>384</v>
       </c>
       <c r="U1068" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1068" s="19"/>
     </row>
@@ -78454,7 +78454,7 @@
         <v>15501005</v>
       </c>
       <c r="D1069" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E1069" s="3">
         <v>15501005</v>
@@ -78499,7 +78499,7 @@
         <v>384</v>
       </c>
       <c r="U1069" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1069" s="19" t="str">
         <f>D1069&amp;"的描述"</f>
@@ -78511,7 +78511,7 @@
         <v>15501006</v>
       </c>
       <c r="D1070" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E1070" s="3">
         <v>15501006</v>
@@ -78556,7 +78556,7 @@
         <v>384</v>
       </c>
       <c r="U1070" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1070" s="19"/>
     </row>
@@ -78565,7 +78565,7 @@
         <v>15502001</v>
       </c>
       <c r="D1071" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E1071" s="3">
         <v>15502001</v>
@@ -78610,7 +78610,7 @@
         <v>384</v>
       </c>
       <c r="U1071" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1071" s="19" t="str">
         <f>D1071&amp;"的描述"</f>
@@ -78622,7 +78622,7 @@
         <v>15502002</v>
       </c>
       <c r="D1072" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E1072" s="3">
         <v>15502002</v>
@@ -78667,7 +78667,7 @@
         <v>384</v>
       </c>
       <c r="U1072" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1072" s="19"/>
     </row>
@@ -78676,7 +78676,7 @@
         <v>15502003</v>
       </c>
       <c r="D1073" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E1073" s="3">
         <v>15502003</v>
@@ -78721,7 +78721,7 @@
         <v>384</v>
       </c>
       <c r="U1073" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1073" s="19" t="str">
         <f>D1073&amp;"的描述"</f>
@@ -78733,7 +78733,7 @@
         <v>15502004</v>
       </c>
       <c r="D1074" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E1074" s="3">
         <v>15502004</v>
@@ -78778,7 +78778,7 @@
         <v>384</v>
       </c>
       <c r="U1074" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1074" s="19"/>
     </row>
@@ -78787,7 +78787,7 @@
         <v>15502005</v>
       </c>
       <c r="D1075" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E1075" s="3">
         <v>15502005</v>
@@ -78832,7 +78832,7 @@
         <v>384</v>
       </c>
       <c r="U1075" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1075" s="19" t="str">
         <f>D1075&amp;"的描述"</f>
@@ -78844,7 +78844,7 @@
         <v>15502006</v>
       </c>
       <c r="D1076" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E1076" s="3">
         <v>15502006</v>
@@ -78889,7 +78889,7 @@
         <v>384</v>
       </c>
       <c r="U1076" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1076" s="19"/>
     </row>
@@ -78898,7 +78898,7 @@
         <v>15503001</v>
       </c>
       <c r="D1077" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E1077" s="3">
         <v>15503001</v>
@@ -78943,7 +78943,7 @@
         <v>384</v>
       </c>
       <c r="U1077" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1077" s="19" t="str">
         <f>D1077&amp;"的描述"</f>
@@ -78955,7 +78955,7 @@
         <v>15503002</v>
       </c>
       <c r="D1078" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E1078" s="3">
         <v>15503002</v>
@@ -79000,7 +79000,7 @@
         <v>384</v>
       </c>
       <c r="U1078" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1078" s="19"/>
     </row>
@@ -79009,7 +79009,7 @@
         <v>15503003</v>
       </c>
       <c r="D1079" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E1079" s="3">
         <v>15503003</v>
@@ -79054,7 +79054,7 @@
         <v>384</v>
       </c>
       <c r="U1079" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1079" s="19" t="str">
         <f>D1079&amp;"的描述"</f>
@@ -79066,7 +79066,7 @@
         <v>15503004</v>
       </c>
       <c r="D1080" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E1080" s="3">
         <v>15503004</v>
@@ -79111,7 +79111,7 @@
         <v>384</v>
       </c>
       <c r="U1080" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1080" s="19"/>
     </row>
@@ -79120,7 +79120,7 @@
         <v>15503005</v>
       </c>
       <c r="D1081" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E1081" s="3">
         <v>15503005</v>
@@ -79165,7 +79165,7 @@
         <v>384</v>
       </c>
       <c r="U1081" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1081" s="19" t="str">
         <f>D1081&amp;"的描述"</f>
@@ -79177,7 +79177,7 @@
         <v>15503006</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E1082" s="3">
         <v>15503006</v>
@@ -79222,7 +79222,7 @@
         <v>384</v>
       </c>
       <c r="U1082" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1082" s="19"/>
     </row>
@@ -79231,7 +79231,7 @@
         <v>15504001</v>
       </c>
       <c r="D1083" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E1083" s="3">
         <v>15504001</v>
@@ -79276,7 +79276,7 @@
         <v>384</v>
       </c>
       <c r="U1083" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1083" s="19" t="str">
         <f>D1083&amp;"的描述"</f>
@@ -79288,7 +79288,7 @@
         <v>15504002</v>
       </c>
       <c r="D1084" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E1084" s="3">
         <v>15504002</v>
@@ -79333,7 +79333,7 @@
         <v>384</v>
       </c>
       <c r="U1084" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1084" s="19"/>
     </row>
@@ -79342,7 +79342,7 @@
         <v>15504003</v>
       </c>
       <c r="D1085" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E1085" s="3">
         <v>15504003</v>
@@ -79387,7 +79387,7 @@
         <v>384</v>
       </c>
       <c r="U1085" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1085" s="19" t="str">
         <f>D1085&amp;"的描述"</f>
@@ -79399,7 +79399,7 @@
         <v>15504004</v>
       </c>
       <c r="D1086" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E1086" s="3">
         <v>15504004</v>
@@ -79444,7 +79444,7 @@
         <v>384</v>
       </c>
       <c r="U1086" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1086" s="19"/>
     </row>
@@ -79453,7 +79453,7 @@
         <v>15504005</v>
       </c>
       <c r="D1087" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E1087" s="3">
         <v>15504005</v>
@@ -79498,7 +79498,7 @@
         <v>384</v>
       </c>
       <c r="U1087" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1087" s="19" t="str">
         <f>D1087&amp;"的描述"</f>
@@ -79510,7 +79510,7 @@
         <v>15504006</v>
       </c>
       <c r="D1088" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E1088" s="3">
         <v>15504006</v>
@@ -79555,7 +79555,7 @@
         <v>384</v>
       </c>
       <c r="U1088" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1088" s="19"/>
     </row>
@@ -79564,7 +79564,7 @@
         <v>15505001</v>
       </c>
       <c r="D1089" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E1089" s="3">
         <v>15505001</v>
@@ -79609,7 +79609,7 @@
         <v>384</v>
       </c>
       <c r="U1089" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1089" s="19" t="str">
         <f>D1089&amp;"的描述"</f>
@@ -79621,7 +79621,7 @@
         <v>15505002</v>
       </c>
       <c r="D1090" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E1090" s="3">
         <v>15505002</v>
@@ -79666,7 +79666,7 @@
         <v>384</v>
       </c>
       <c r="U1090" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1090" s="19"/>
     </row>
@@ -79675,7 +79675,7 @@
         <v>15505003</v>
       </c>
       <c r="D1091" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E1091" s="3">
         <v>15505003</v>
@@ -79720,7 +79720,7 @@
         <v>384</v>
       </c>
       <c r="U1091" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1091" s="19" t="str">
         <f>D1091&amp;"的描述"</f>
@@ -79732,7 +79732,7 @@
         <v>15505004</v>
       </c>
       <c r="D1092" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E1092" s="3">
         <v>15505004</v>
@@ -79777,7 +79777,7 @@
         <v>384</v>
       </c>
       <c r="U1092" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1092" s="19"/>
     </row>
@@ -79786,7 +79786,7 @@
         <v>15505005</v>
       </c>
       <c r="D1093" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E1093" s="3">
         <v>15505005</v>
@@ -79831,7 +79831,7 @@
         <v>384</v>
       </c>
       <c r="U1093" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1093" s="19" t="str">
         <f>D1093&amp;"的描述"</f>
@@ -79843,7 +79843,7 @@
         <v>15505006</v>
       </c>
       <c r="D1094" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E1094" s="3">
         <v>15505006</v>
@@ -79888,7 +79888,7 @@
         <v>384</v>
       </c>
       <c r="U1094" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1094" s="19"/>
     </row>
@@ -79897,7 +79897,7 @@
         <v>15506001</v>
       </c>
       <c r="D1095" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E1095" s="3">
         <v>15506001</v>
@@ -79942,7 +79942,7 @@
         <v>384</v>
       </c>
       <c r="U1095" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1095" s="19" t="str">
         <f>D1095&amp;"的描述"</f>
@@ -79954,7 +79954,7 @@
         <v>15506002</v>
       </c>
       <c r="D1096" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E1096" s="3">
         <v>15506002</v>
@@ -79999,7 +79999,7 @@
         <v>384</v>
       </c>
       <c r="U1096" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1096" s="19"/>
     </row>
@@ -80008,7 +80008,7 @@
         <v>15506003</v>
       </c>
       <c r="D1097" s="114" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E1097" s="114">
         <v>15506003</v>
@@ -80053,7 +80053,7 @@
         <v>384</v>
       </c>
       <c r="U1097" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V1097" s="116"/>
     </row>
@@ -80062,7 +80062,7 @@
         <v>15507001</v>
       </c>
       <c r="D1098" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E1098" s="3">
         <v>15507001</v>
@@ -80107,7 +80107,7 @@
         <v>384</v>
       </c>
       <c r="U1098" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1098" s="19" t="str">
         <f>D1098&amp;"的描述"</f>
@@ -80119,7 +80119,7 @@
         <v>15507002</v>
       </c>
       <c r="D1099" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E1099" s="3">
         <v>15507002</v>
@@ -80164,7 +80164,7 @@
         <v>384</v>
       </c>
       <c r="U1099" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1099" s="19"/>
     </row>
@@ -80173,7 +80173,7 @@
         <v>15508001</v>
       </c>
       <c r="D1100" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E1100" s="3">
         <v>15508001</v>
@@ -80220,7 +80220,7 @@
         <v>384</v>
       </c>
       <c r="U1100" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1100" s="19" t="str">
         <f>D1100&amp;"的描述"</f>
@@ -80232,7 +80232,7 @@
         <v>15508002</v>
       </c>
       <c r="D1101" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E1101" s="3">
         <v>15508002</v>
@@ -80279,7 +80279,7 @@
         <v>384</v>
       </c>
       <c r="U1101" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1101" s="19"/>
     </row>
@@ -80288,7 +80288,7 @@
         <v>15509001</v>
       </c>
       <c r="D1102" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E1102" s="3">
         <v>15509001</v>
@@ -80333,7 +80333,7 @@
         <v>384</v>
       </c>
       <c r="U1102" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1102" s="19" t="str">
         <f>D1102&amp;"的描述"</f>
@@ -80345,7 +80345,7 @@
         <v>15509002</v>
       </c>
       <c r="D1103" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E1103" s="3">
         <v>15509002</v>
@@ -80390,7 +80390,7 @@
         <v>384</v>
       </c>
       <c r="U1103" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1103" s="19"/>
     </row>
@@ -80399,7 +80399,7 @@
         <v>15510001</v>
       </c>
       <c r="D1104" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E1104" s="3">
         <v>15510001</v>
@@ -80444,7 +80444,7 @@
         <v>384</v>
       </c>
       <c r="U1104" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1104" s="19" t="str">
         <f>D1104&amp;"的描述"</f>
@@ -80456,7 +80456,7 @@
         <v>15510002</v>
       </c>
       <c r="D1105" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E1105" s="3">
         <v>15510002</v>
@@ -80501,7 +80501,7 @@
         <v>384</v>
       </c>
       <c r="U1105" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1105" s="19"/>
     </row>
@@ -80510,7 +80510,7 @@
         <v>15510003</v>
       </c>
       <c r="D1106" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E1106" s="3">
         <v>15510003</v>
@@ -80555,7 +80555,7 @@
         <v>384</v>
       </c>
       <c r="U1106" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1106" s="19" t="str">
         <f>D1106&amp;"的描述"</f>
@@ -80567,7 +80567,7 @@
         <v>15510004</v>
       </c>
       <c r="D1107" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1107" s="3">
         <v>15510004</v>
@@ -80612,7 +80612,7 @@
         <v>384</v>
       </c>
       <c r="U1107" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1107" s="19"/>
     </row>
@@ -80621,7 +80621,7 @@
         <v>15510011</v>
       </c>
       <c r="D1108" s="114" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E1108" s="114">
         <v>15510011</v>
@@ -80666,7 +80666,7 @@
         <v>384</v>
       </c>
       <c r="U1108" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V1108" s="116"/>
     </row>
@@ -80675,7 +80675,7 @@
         <v>15510012</v>
       </c>
       <c r="D1109" s="114" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E1109" s="114">
         <v>15510012</v>
@@ -80720,7 +80720,7 @@
         <v>384</v>
       </c>
       <c r="U1109" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V1109" s="116"/>
     </row>
@@ -80729,7 +80729,7 @@
         <v>15510101</v>
       </c>
       <c r="D1110" s="21" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E1110" s="21">
         <v>15510101</v>
@@ -80774,7 +80774,7 @@
         <v>384</v>
       </c>
       <c r="U1110" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1110" s="27" t="str">
         <f>D1110&amp;"的描述"</f>
@@ -80786,7 +80786,7 @@
         <v>15510102</v>
       </c>
       <c r="D1111" s="21" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E1111" s="21">
         <v>15510102</v>
@@ -80831,7 +80831,7 @@
         <v>384</v>
       </c>
       <c r="U1111" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1111" s="27"/>
     </row>
@@ -80840,7 +80840,7 @@
         <v>15510103</v>
       </c>
       <c r="D1112" s="21" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E1112" s="21">
         <v>15510103</v>
@@ -80885,7 +80885,7 @@
         <v>384</v>
       </c>
       <c r="U1112" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1112" s="27" t="str">
         <f>D1112&amp;"的描述"</f>
@@ -80897,7 +80897,7 @@
         <v>15510104</v>
       </c>
       <c r="D1113" s="21" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E1113" s="21">
         <v>15510104</v>
@@ -80942,7 +80942,7 @@
         <v>384</v>
       </c>
       <c r="U1113" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1113" s="27"/>
     </row>
@@ -80951,7 +80951,7 @@
         <v>15510121</v>
       </c>
       <c r="D1114" s="114" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E1114" s="114">
         <v>15510121</v>
@@ -80996,7 +80996,7 @@
         <v>384</v>
       </c>
       <c r="U1114" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V1114" s="116"/>
     </row>
@@ -81005,7 +81005,7 @@
         <v>15510122</v>
       </c>
       <c r="D1115" s="114" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E1115" s="114">
         <v>15510122</v>
@@ -81050,7 +81050,7 @@
         <v>384</v>
       </c>
       <c r="U1115" s="114" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="V1115" s="116"/>
     </row>
@@ -81059,7 +81059,7 @@
         <v>15511001</v>
       </c>
       <c r="D1116" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E1116" s="3">
         <v>15511001</v>
@@ -81104,7 +81104,7 @@
         <v>384</v>
       </c>
       <c r="U1116" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1116" s="19" t="str">
         <f>D1116&amp;"的描述"</f>
@@ -81116,7 +81116,7 @@
         <v>15511002</v>
       </c>
       <c r="D1117" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E1117" s="3">
         <v>15511002</v>
@@ -81161,7 +81161,7 @@
         <v>384</v>
       </c>
       <c r="U1117" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1117" s="19"/>
     </row>
@@ -81170,7 +81170,7 @@
         <v>15511003</v>
       </c>
       <c r="D1118" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E1118" s="3">
         <v>15511003</v>
@@ -81215,7 +81215,7 @@
         <v>384</v>
       </c>
       <c r="U1118" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1118" s="19" t="str">
         <f>D1118&amp;"的描述"</f>
@@ -81227,7 +81227,7 @@
         <v>15511004</v>
       </c>
       <c r="D1119" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E1119" s="3">
         <v>15511004</v>
@@ -81272,7 +81272,7 @@
         <v>384</v>
       </c>
       <c r="U1119" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1119" s="19"/>
     </row>
@@ -81281,7 +81281,7 @@
         <v>15511005</v>
       </c>
       <c r="D1120" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E1120" s="3">
         <v>15511005</v>
@@ -81326,7 +81326,7 @@
         <v>384</v>
       </c>
       <c r="U1120" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1120" s="19" t="str">
         <f>D1120&amp;"的描述"</f>
@@ -81338,7 +81338,7 @@
         <v>15511006</v>
       </c>
       <c r="D1121" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E1121" s="3">
         <v>15511006</v>
@@ -81383,7 +81383,7 @@
         <v>384</v>
       </c>
       <c r="U1121" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V1121" s="19"/>
     </row>
@@ -81392,7 +81392,7 @@
         <v>15511011</v>
       </c>
       <c r="D1122" s="114" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E1122" s="114">
         <v>15511011</v>
@@ -81437,7 +81437,7 @@
         <v>384</v>
       </c>
       <c r="U1122" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V1122" s="116"/>
     </row>
@@ -81446,7 +81446,7 @@
         <v>15511012</v>
       </c>
       <c r="D1123" s="114" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E1123" s="114">
         <v>15511012</v>
@@ -81491,7 +81491,7 @@
         <v>384</v>
       </c>
       <c r="U1123" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V1123" s="116"/>
     </row>
@@ -81500,7 +81500,7 @@
         <v>15511013</v>
       </c>
       <c r="D1124" s="114" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E1124" s="114">
         <v>15511013</v>
@@ -81545,7 +81545,7 @@
         <v>384</v>
       </c>
       <c r="U1124" s="114" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V1124" s="116"/>
     </row>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED424AD-74AD-45D3-92B4-15556B86B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9051F6-08A3-48F0-ACC6-DFA2D3B846ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29685" yWindow="1155" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -15738,9 +15738,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9051F6-08A3-48F0-ACC6-DFA2D3B846ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E920AEC5-A60B-4023-A7AE-004CAD3FF379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29685" yWindow="1155" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="1" r:id="rId1"/>
@@ -6809,9 +6809,6 @@
     <t>无坚头盔</t>
   </si>
   <si>
-    <t>永恒之盔</t>
-  </si>
-  <si>
     <t>风鸣手套</t>
   </si>
   <si>
@@ -7930,6 +7927,10 @@
   <si>
     <t>50</t>
     <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒之盔</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15738,9 +15739,9 @@
   <dimension ref="B1:Y1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A758" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="G768" sqref="G768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17204,7 +17205,7 @@
         <v>10000135</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E27" s="20">
         <v>10000135</v>
@@ -17490,7 +17491,7 @@
       </c>
       <c r="U31" s="24"/>
       <c r="V31" s="102" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="W31" s="102"/>
     </row>
@@ -17549,7 +17550,7 @@
       </c>
       <c r="U32" s="24"/>
       <c r="V32" s="102" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="W32" s="102"/>
     </row>
@@ -17558,7 +17559,7 @@
         <v>10000141</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E33" s="20">
         <v>10000141</v>
@@ -17676,7 +17677,7 @@
         <v>10000143</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E35" s="20">
         <v>10000143</v>
@@ -17785,7 +17786,7 @@
       </c>
       <c r="U36" s="24"/>
       <c r="V36" s="72" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="W36" s="73" t="s">
         <v>1463</v>
@@ -17808,7 +17809,7 @@
         <v>363</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I37" s="23">
         <v>0</v>
@@ -17846,7 +17847,7 @@
       </c>
       <c r="U37" s="24"/>
       <c r="V37" s="72" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="W37" s="73" t="s">
         <v>1463</v>
@@ -17869,7 +17870,7 @@
         <v>363</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I38" s="23">
         <v>0</v>
@@ -17907,7 +17908,7 @@
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="72" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="W38" s="73" t="s">
         <v>1463</v>
@@ -17930,7 +17931,7 @@
         <v>363</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I39" s="23">
         <v>0</v>
@@ -17968,7 +17969,7 @@
       </c>
       <c r="U39" s="24"/>
       <c r="V39" s="72" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="W39" s="73" t="s">
         <v>1463</v>
@@ -17991,7 +17992,7 @@
         <v>363</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I40" s="23">
         <v>0</v>
@@ -18029,7 +18030,7 @@
       </c>
       <c r="U40" s="24"/>
       <c r="V40" s="72" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="W40" s="73" t="s">
         <v>1463</v>
@@ -18090,7 +18091,7 @@
       </c>
       <c r="U41" s="24"/>
       <c r="V41" s="72" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="W41" s="72" t="s">
         <v>796</v>
@@ -18113,7 +18114,7 @@
         <v>363</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I42" s="23">
         <v>0</v>
@@ -18151,7 +18152,7 @@
       </c>
       <c r="U42" s="24"/>
       <c r="V42" s="72" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="W42" s="72" t="s">
         <v>796</v>
@@ -18174,7 +18175,7 @@
         <v>363</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I43" s="23">
         <v>0</v>
@@ -18212,7 +18213,7 @@
       </c>
       <c r="U43" s="24"/>
       <c r="V43" s="72" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="W43" s="72" t="s">
         <v>796</v>
@@ -18235,7 +18236,7 @@
         <v>363</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I44" s="23">
         <v>0</v>
@@ -18273,7 +18274,7 @@
       </c>
       <c r="U44" s="24"/>
       <c r="V44" s="72" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="W44" s="72" t="s">
         <v>796</v>
@@ -18296,7 +18297,7 @@
         <v>363</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I45" s="23">
         <v>0</v>
@@ -18334,7 +18335,7 @@
       </c>
       <c r="U45" s="24"/>
       <c r="V45" s="72" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="W45" s="72" t="s">
         <v>796</v>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="U77" s="24"/>
       <c r="V77" s="72" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="W77" s="73" t="s">
         <v>486</v>
@@ -20919,7 +20920,7 @@
       </c>
       <c r="Q88" s="21"/>
       <c r="R88" s="29" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="S88" s="21">
         <v>0</v>
@@ -20978,7 +20979,7 @@
       </c>
       <c r="Q89" s="21"/>
       <c r="R89" s="29" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="S89" s="21">
         <v>0</v>
@@ -21037,7 +21038,7 @@
       </c>
       <c r="Q90" s="21"/>
       <c r="R90" s="29" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="S90" s="21">
         <v>0</v>
@@ -52766,7 +52767,7 @@
         <v>10051001</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E612" s="3">
         <v>10051001</v>
@@ -52814,7 +52815,7 @@
       <c r="T612" s="3"/>
       <c r="U612" s="3"/>
       <c r="V612" s="3" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="W612" s="19"/>
     </row>
@@ -52823,7 +52824,7 @@
         <v>10051002</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E613" s="3">
         <v>10051001</v>
@@ -52871,7 +52872,7 @@
       <c r="T613" s="3"/>
       <c r="U613" s="3"/>
       <c r="V613" s="3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="W613" s="19"/>
     </row>
@@ -52880,7 +52881,7 @@
         <v>10051003</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E614" s="3">
         <v>10051001</v>
@@ -52928,7 +52929,7 @@
       <c r="T614" s="3"/>
       <c r="U614" s="3"/>
       <c r="V614" s="3" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="W614" s="19"/>
     </row>
@@ -52937,7 +52938,7 @@
         <v>10051004</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E615" s="3">
         <v>10051001</v>
@@ -52985,7 +52986,7 @@
       <c r="T615" s="3"/>
       <c r="U615" s="3"/>
       <c r="V615" s="3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="W615" s="19"/>
     </row>
@@ -52994,7 +52995,7 @@
         <v>10051005</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E616" s="3">
         <v>10051001</v>
@@ -53042,7 +53043,7 @@
       <c r="T616" s="3"/>
       <c r="U616" s="3"/>
       <c r="V616" s="3" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="W616" s="19"/>
     </row>
@@ -53051,7 +53052,7 @@
         <v>10051006</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E617" s="3">
         <v>10051001</v>
@@ -53099,7 +53100,7 @@
       <c r="T617" s="3"/>
       <c r="U617" s="3"/>
       <c r="V617" s="3" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="W617" s="19"/>
     </row>
@@ -53108,7 +53109,7 @@
         <v>10051007</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E618" s="3">
         <v>10051001</v>
@@ -53156,7 +53157,7 @@
       <c r="T618" s="3"/>
       <c r="U618" s="3"/>
       <c r="V618" s="3" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="W618" s="19"/>
     </row>
@@ -53165,7 +53166,7 @@
         <v>10051008</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E619" s="3">
         <v>10051001</v>
@@ -53213,7 +53214,7 @@
       <c r="T619" s="3"/>
       <c r="U619" s="3"/>
       <c r="V619" s="3" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="W619" s="19"/>
     </row>
@@ -53222,7 +53223,7 @@
         <v>10051009</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E620" s="3">
         <v>10051001</v>
@@ -53270,7 +53271,7 @@
       <c r="T620" s="3"/>
       <c r="U620" s="3"/>
       <c r="V620" s="3" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="W620" s="19"/>
     </row>
@@ -53279,7 +53280,7 @@
         <v>10051010</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E621" s="3">
         <v>10051001</v>
@@ -53327,7 +53328,7 @@
       <c r="T621" s="3"/>
       <c r="U621" s="3"/>
       <c r="V621" s="3" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="W621" s="19"/>
     </row>
@@ -53336,7 +53337,7 @@
         <v>10051011</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E622" s="3">
         <v>10051001</v>
@@ -53384,7 +53385,7 @@
       <c r="T622" s="3"/>
       <c r="U622" s="3"/>
       <c r="V622" s="3" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="W622" s="19"/>
     </row>
@@ -53393,7 +53394,7 @@
         <v>10051012</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E623" s="3">
         <v>10051001</v>
@@ -53441,7 +53442,7 @@
       <c r="T623" s="3"/>
       <c r="U623" s="3"/>
       <c r="V623" s="3" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="W623" s="19"/>
     </row>
@@ -53450,7 +53451,7 @@
         <v>10051013</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E624" s="3">
         <v>10051001</v>
@@ -53498,7 +53499,7 @@
       <c r="T624" s="3"/>
       <c r="U624" s="3"/>
       <c r="V624" s="3" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="W624" s="19"/>
     </row>
@@ -53507,7 +53508,7 @@
         <v>10051014</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E625" s="3">
         <v>10051001</v>
@@ -53555,7 +53556,7 @@
       <c r="T625" s="3"/>
       <c r="U625" s="3"/>
       <c r="V625" s="3" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="W625" s="19"/>
     </row>
@@ -53564,7 +53565,7 @@
         <v>10051015</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E626" s="3">
         <v>10051001</v>
@@ -53612,7 +53613,7 @@
       <c r="T626" s="3"/>
       <c r="U626" s="3"/>
       <c r="V626" s="3" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="W626" s="19"/>
     </row>
@@ -53621,7 +53622,7 @@
         <v>10051016</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E627" s="3">
         <v>10051001</v>
@@ -53669,7 +53670,7 @@
       <c r="T627" s="3"/>
       <c r="U627" s="3"/>
       <c r="V627" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="W627" s="19"/>
     </row>
@@ -53678,7 +53679,7 @@
         <v>10051017</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E628" s="3">
         <v>10051001</v>
@@ -53726,7 +53727,7 @@
       <c r="T628" s="3"/>
       <c r="U628" s="3"/>
       <c r="V628" s="3" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="W628" s="19"/>
     </row>
@@ -53735,7 +53736,7 @@
         <v>10051018</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E629" s="3">
         <v>10051001</v>
@@ -53783,7 +53784,7 @@
       <c r="T629" s="3"/>
       <c r="U629" s="3"/>
       <c r="V629" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="W629" s="19"/>
     </row>
@@ -53792,7 +53793,7 @@
         <v>10051019</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E630" s="3">
         <v>10051001</v>
@@ -53840,7 +53841,7 @@
       <c r="T630" s="3"/>
       <c r="U630" s="3"/>
       <c r="V630" s="3" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="W630" s="19"/>
     </row>
@@ -53849,7 +53850,7 @@
         <v>10051020</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E631" s="3">
         <v>10051001</v>
@@ -53897,7 +53898,7 @@
       <c r="T631" s="3"/>
       <c r="U631" s="3"/>
       <c r="V631" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="W631" s="19"/>
     </row>
@@ -53906,7 +53907,7 @@
         <v>10052001</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E632" s="3">
         <v>10052001</v>
@@ -53954,7 +53955,7 @@
       <c r="T632" s="3"/>
       <c r="U632" s="3"/>
       <c r="V632" s="3" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="W632" s="19"/>
     </row>
@@ -53963,7 +53964,7 @@
         <v>10052002</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E633" s="3">
         <v>10052001</v>
@@ -54011,7 +54012,7 @@
       <c r="T633" s="3"/>
       <c r="U633" s="3"/>
       <c r="V633" s="3" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="W633" s="19"/>
     </row>
@@ -54020,7 +54021,7 @@
         <v>10052003</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E634" s="3">
         <v>10052001</v>
@@ -54068,7 +54069,7 @@
       <c r="T634" s="3"/>
       <c r="U634" s="3"/>
       <c r="V634" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="W634" s="19"/>
     </row>
@@ -54077,7 +54078,7 @@
         <v>10052004</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E635" s="3">
         <v>10052001</v>
@@ -54125,7 +54126,7 @@
       <c r="T635" s="3"/>
       <c r="U635" s="3"/>
       <c r="V635" s="3" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="W635" s="19"/>
     </row>
@@ -54134,7 +54135,7 @@
         <v>10052005</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E636" s="3">
         <v>10052001</v>
@@ -54182,7 +54183,7 @@
       <c r="T636" s="3"/>
       <c r="U636" s="3"/>
       <c r="V636" s="3" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="W636" s="19"/>
     </row>
@@ -54191,7 +54192,7 @@
         <v>10052006</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E637" s="3">
         <v>10052001</v>
@@ -54239,7 +54240,7 @@
       <c r="T637" s="3"/>
       <c r="U637" s="3"/>
       <c r="V637" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="W637" s="19"/>
     </row>
@@ -54248,7 +54249,7 @@
         <v>10052007</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E638" s="3">
         <v>10052001</v>
@@ -54296,7 +54297,7 @@
       <c r="T638" s="3"/>
       <c r="U638" s="3"/>
       <c r="V638" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="W638" s="19"/>
     </row>
@@ -54305,7 +54306,7 @@
         <v>10052008</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E639" s="3">
         <v>10052001</v>
@@ -54353,7 +54354,7 @@
       <c r="T639" s="3"/>
       <c r="U639" s="3"/>
       <c r="V639" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="W639" s="19"/>
     </row>
@@ -54362,7 +54363,7 @@
         <v>10052009</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E640" s="3">
         <v>10052001</v>
@@ -54410,7 +54411,7 @@
       <c r="T640" s="3"/>
       <c r="U640" s="3"/>
       <c r="V640" s="3" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="W640" s="19"/>
     </row>
@@ -54419,7 +54420,7 @@
         <v>10052010</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E641" s="3">
         <v>10052001</v>
@@ -54467,7 +54468,7 @@
       <c r="T641" s="3"/>
       <c r="U641" s="3"/>
       <c r="V641" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="W641" s="19"/>
     </row>
@@ -54476,7 +54477,7 @@
         <v>10052011</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E642" s="3">
         <v>10052001</v>
@@ -54524,7 +54525,7 @@
       <c r="T642" s="3"/>
       <c r="U642" s="3"/>
       <c r="V642" s="3" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="W642" s="19"/>
     </row>
@@ -54533,7 +54534,7 @@
         <v>10052012</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E643" s="3">
         <v>10052001</v>
@@ -54581,7 +54582,7 @@
       <c r="T643" s="3"/>
       <c r="U643" s="3"/>
       <c r="V643" s="3" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="W643" s="19"/>
     </row>
@@ -54590,7 +54591,7 @@
         <v>10052013</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E644" s="3">
         <v>10052001</v>
@@ -54638,7 +54639,7 @@
       <c r="T644" s="3"/>
       <c r="U644" s="3"/>
       <c r="V644" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="W644" s="19"/>
     </row>
@@ -54647,7 +54648,7 @@
         <v>10052014</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E645" s="3">
         <v>10052001</v>
@@ -54695,7 +54696,7 @@
       <c r="T645" s="3"/>
       <c r="U645" s="3"/>
       <c r="V645" s="3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="W645" s="19"/>
     </row>
@@ -54704,7 +54705,7 @@
         <v>10052015</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E646" s="3">
         <v>10052001</v>
@@ -54752,7 +54753,7 @@
       <c r="T646" s="3"/>
       <c r="U646" s="3"/>
       <c r="V646" s="3" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="W646" s="19"/>
     </row>
@@ -54761,7 +54762,7 @@
         <v>10052016</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E647" s="3">
         <v>10052001</v>
@@ -54809,7 +54810,7 @@
       <c r="T647" s="3"/>
       <c r="U647" s="3"/>
       <c r="V647" s="3" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="W647" s="19"/>
     </row>
@@ -54818,7 +54819,7 @@
         <v>10052017</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E648" s="3">
         <v>10052001</v>
@@ -54866,7 +54867,7 @@
       <c r="T648" s="3"/>
       <c r="U648" s="3"/>
       <c r="V648" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="W648" s="19"/>
     </row>
@@ -54875,7 +54876,7 @@
         <v>10052018</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E649" s="3">
         <v>10052001</v>
@@ -54923,7 +54924,7 @@
       <c r="T649" s="3"/>
       <c r="U649" s="3"/>
       <c r="V649" s="3" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="W649" s="19"/>
     </row>
@@ -54932,7 +54933,7 @@
         <v>10052019</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E650" s="3">
         <v>10052001</v>
@@ -54980,7 +54981,7 @@
       <c r="T650" s="3"/>
       <c r="U650" s="3"/>
       <c r="V650" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="W650" s="19"/>
     </row>
@@ -54989,7 +54990,7 @@
         <v>10052020</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E651" s="3">
         <v>10052001</v>
@@ -55037,7 +55038,7 @@
       <c r="T651" s="3"/>
       <c r="U651" s="3"/>
       <c r="V651" s="3" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="W651" s="19"/>
     </row>
@@ -55046,7 +55047,7 @@
         <v>10053001</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E652" s="3">
         <v>10051001</v>
@@ -55094,7 +55095,7 @@
       <c r="T652" s="3"/>
       <c r="U652" s="3"/>
       <c r="V652" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="W652" s="19"/>
     </row>
@@ -55103,7 +55104,7 @@
         <v>10053002</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E653" s="3">
         <v>10051001</v>
@@ -55151,7 +55152,7 @@
       <c r="T653" s="3"/>
       <c r="U653" s="3"/>
       <c r="V653" s="3" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="W653" s="19"/>
     </row>
@@ -55160,7 +55161,7 @@
         <v>10053003</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E654" s="3">
         <v>10051001</v>
@@ -55208,7 +55209,7 @@
       <c r="T654" s="3"/>
       <c r="U654" s="3"/>
       <c r="V654" s="3" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="W654" s="19"/>
     </row>
@@ -55217,7 +55218,7 @@
         <v>10053004</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E655" s="3">
         <v>10051001</v>
@@ -55265,7 +55266,7 @@
       <c r="T655" s="3"/>
       <c r="U655" s="3"/>
       <c r="V655" s="3" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="W655" s="19"/>
     </row>
@@ -55274,7 +55275,7 @@
         <v>10053005</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E656" s="3">
         <v>10051001</v>
@@ -55322,7 +55323,7 @@
       <c r="T656" s="3"/>
       <c r="U656" s="3"/>
       <c r="V656" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="W656" s="19"/>
     </row>
@@ -55331,7 +55332,7 @@
         <v>10053006</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E657" s="3">
         <v>10051001</v>
@@ -55379,7 +55380,7 @@
       <c r="T657" s="3"/>
       <c r="U657" s="3"/>
       <c r="V657" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="W657" s="19"/>
     </row>
@@ -55388,7 +55389,7 @@
         <v>10053007</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E658" s="3">
         <v>10051001</v>
@@ -55436,7 +55437,7 @@
       <c r="T658" s="3"/>
       <c r="U658" s="3"/>
       <c r="V658" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="W658" s="19"/>
     </row>
@@ -55445,7 +55446,7 @@
         <v>10053008</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E659" s="3">
         <v>10051001</v>
@@ -55493,7 +55494,7 @@
       <c r="T659" s="3"/>
       <c r="U659" s="3"/>
       <c r="V659" s="3" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="W659" s="19"/>
     </row>
@@ -55502,7 +55503,7 @@
         <v>10053009</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E660" s="3">
         <v>10051001</v>
@@ -55550,7 +55551,7 @@
       <c r="T660" s="3"/>
       <c r="U660" s="3"/>
       <c r="V660" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W660" s="19"/>
     </row>
@@ -55559,7 +55560,7 @@
         <v>10053010</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E661" s="3">
         <v>10051001</v>
@@ -55607,7 +55608,7 @@
       <c r="T661" s="3"/>
       <c r="U661" s="3"/>
       <c r="V661" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="W661" s="19"/>
     </row>
@@ -59739,7 +59740,7 @@
         <v>11200000</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E732" s="56">
         <v>11200000</v>
@@ -59786,7 +59787,7 @@
       <c r="S732" s="3"/>
       <c r="T732" s="3"/>
       <c r="V732" s="19" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="733" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59794,7 +59795,7 @@
         <v>11200001</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E733" s="39">
         <v>11200001</v>
@@ -59841,7 +59842,7 @@
       <c r="S733" s="3"/>
       <c r="T733" s="3"/>
       <c r="V733" s="19" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="734" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59849,7 +59850,7 @@
         <v>11200002</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E734" s="39">
         <v>11200002</v>
@@ -59896,7 +59897,7 @@
       <c r="S734" s="3"/>
       <c r="T734" s="3"/>
       <c r="V734" s="19" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="735" spans="3:23" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -59904,7 +59905,7 @@
         <v>11200003</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E735" s="39">
         <v>11200003</v>
@@ -59951,7 +59952,7 @@
       <c r="S735" s="3"/>
       <c r="T735" s="3"/>
       <c r="V735" s="19" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="736" spans="3:23" s="118" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -62104,7 +62105,7 @@
         <v>14010001</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E775" s="3">
         <v>14010001</v>
@@ -62149,7 +62150,7 @@
         <v>383</v>
       </c>
       <c r="U775" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V775" s="19" t="str">
         <f>D775&amp;"的描述"</f>
@@ -62161,7 +62162,7 @@
         <v>14010002</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E776" s="3">
         <v>14010002</v>
@@ -62206,7 +62207,7 @@
         <v>383</v>
       </c>
       <c r="U776" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V776" s="19" t="str">
         <f>D776&amp;"的描述"</f>
@@ -62218,7 +62219,7 @@
         <v>14010003</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E777" s="3">
         <v>14010003</v>
@@ -62263,7 +62264,7 @@
         <v>383</v>
       </c>
       <c r="U777" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V777" s="19" t="str">
         <f>D777&amp;"的描述"</f>
@@ -62275,7 +62276,7 @@
         <v>14010004</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E778" s="3">
         <v>14010004</v>
@@ -62320,7 +62321,7 @@
         <v>383</v>
       </c>
       <c r="U778" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V778" s="19"/>
     </row>
@@ -62329,7 +62330,7 @@
         <v>14010005</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E779" s="39">
         <v>14010005</v>
@@ -62374,7 +62375,7 @@
         <v>383</v>
       </c>
       <c r="U779" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V779" s="19" t="str">
         <f>D779&amp;"的描述"</f>
@@ -62386,7 +62387,7 @@
         <v>14010006</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E780" s="39">
         <v>14010006</v>
@@ -62431,7 +62432,7 @@
         <v>383</v>
       </c>
       <c r="U780" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V780" s="19" t="str">
         <f>D780&amp;"的描述"</f>
@@ -62443,7 +62444,7 @@
         <v>14010007</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E781" s="3">
         <v>14010007</v>
@@ -62488,7 +62489,7 @@
         <v>383</v>
       </c>
       <c r="U781" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V781" s="19" t="str">
         <f>D781&amp;"的描述"</f>
@@ -62500,7 +62501,7 @@
         <v>14010008</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E782" s="3">
         <v>14010008</v>
@@ -62545,7 +62546,7 @@
         <v>383</v>
       </c>
       <c r="U782" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V782" s="19"/>
     </row>
@@ -62554,7 +62555,7 @@
         <v>14010009</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E783" s="3">
         <v>14010009</v>
@@ -62599,7 +62600,7 @@
         <v>383</v>
       </c>
       <c r="U783" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V783" s="19" t="str">
         <f>D783&amp;"的描述"</f>
@@ -62656,7 +62657,7 @@
         <v>383</v>
       </c>
       <c r="U784" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V784" s="19" t="str">
         <f>D784&amp;"的描述"</f>
@@ -62668,7 +62669,7 @@
         <v>14010011</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E785" s="39">
         <v>14010011</v>
@@ -62713,7 +62714,7 @@
         <v>383</v>
       </c>
       <c r="U785" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V785" s="19" t="str">
         <f>D785&amp;"的描述"</f>
@@ -62725,7 +62726,7 @@
         <v>14010012</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E786" s="3">
         <v>14010012</v>
@@ -62770,7 +62771,7 @@
         <v>383</v>
       </c>
       <c r="U786" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V786" s="19"/>
     </row>
@@ -62779,7 +62780,7 @@
         <v>14020001</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E787" s="39">
         <v>14020001</v>
@@ -62824,7 +62825,7 @@
         <v>383</v>
       </c>
       <c r="U787" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V787" s="19" t="str">
         <f>D787&amp;"的描述"</f>
@@ -62836,7 +62837,7 @@
         <v>14020002</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="E788" s="39">
         <v>14020002</v>
@@ -62881,7 +62882,7 @@
         <v>383</v>
       </c>
       <c r="U788" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V788" s="19" t="str">
         <f>D788&amp;"的描述"</f>
@@ -62893,7 +62894,7 @@
         <v>14020003</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E789" s="39">
         <v>14020003</v>
@@ -62938,7 +62939,7 @@
         <v>383</v>
       </c>
       <c r="U789" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V789" s="19" t="str">
         <f>D789&amp;"的描述"</f>
@@ -62950,7 +62951,7 @@
         <v>14020004</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="E790" s="39">
         <v>14020004</v>
@@ -62995,7 +62996,7 @@
         <v>383</v>
       </c>
       <c r="U790" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V790" s="19"/>
     </row>
@@ -63004,7 +63005,7 @@
         <v>14020005</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E791" s="39">
         <v>14020005</v>
@@ -63049,7 +63050,7 @@
         <v>383</v>
       </c>
       <c r="U791" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V791" s="19" t="str">
         <f>D791&amp;"的描述"</f>
@@ -63061,7 +63062,7 @@
         <v>14020006</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E792" s="39">
         <v>14020006</v>
@@ -63106,7 +63107,7 @@
         <v>383</v>
       </c>
       <c r="U792" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V792" s="19" t="str">
         <f>D792&amp;"的描述"</f>
@@ -63118,7 +63119,7 @@
         <v>14020007</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="E793" s="39">
         <v>14020007</v>
@@ -63163,7 +63164,7 @@
         <v>383</v>
       </c>
       <c r="U793" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V793" s="19" t="str">
         <f>D793&amp;"的描述"</f>
@@ -63175,7 +63176,7 @@
         <v>14020008</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E794" s="39">
         <v>14020008</v>
@@ -63220,7 +63221,7 @@
         <v>383</v>
       </c>
       <c r="U794" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V794" s="19"/>
     </row>
@@ -63229,7 +63230,7 @@
         <v>14020009</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E795" s="39">
         <v>14020009</v>
@@ -63274,7 +63275,7 @@
         <v>383</v>
       </c>
       <c r="U795" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V795" s="19" t="str">
         <f>D795&amp;"的描述"</f>
@@ -63286,7 +63287,7 @@
         <v>14020010</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E796" s="39">
         <v>14020010</v>
@@ -63331,7 +63332,7 @@
         <v>383</v>
       </c>
       <c r="U796" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V796" s="19" t="str">
         <f>D796&amp;"的描述"</f>
@@ -63343,7 +63344,7 @@
         <v>14020011</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E797" s="39">
         <v>14020011</v>
@@ -63388,7 +63389,7 @@
         <v>383</v>
       </c>
       <c r="U797" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V797" s="19" t="str">
         <f>D797&amp;"的描述"</f>
@@ -63400,7 +63401,7 @@
         <v>14020012</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E798" s="39">
         <v>14020012</v>
@@ -63445,7 +63446,7 @@
         <v>383</v>
       </c>
       <c r="U798" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V798" s="19"/>
     </row>
@@ -63454,7 +63455,7 @@
         <v>14030001</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E799" s="39">
         <v>14030001</v>
@@ -63499,7 +63500,7 @@
         <v>383</v>
       </c>
       <c r="U799" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V799" s="19" t="str">
         <f>D799&amp;"的描述"</f>
@@ -63511,7 +63512,7 @@
         <v>14030002</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E800" s="39">
         <v>14030002</v>
@@ -63556,7 +63557,7 @@
         <v>383</v>
       </c>
       <c r="U800" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V800" s="19" t="str">
         <f>D800&amp;"的描述"</f>
@@ -63568,7 +63569,7 @@
         <v>14030003</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E801" s="39">
         <v>14030003</v>
@@ -63613,7 +63614,7 @@
         <v>383</v>
       </c>
       <c r="U801" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V801" s="19" t="str">
         <f>D801&amp;"的描述"</f>
@@ -63625,7 +63626,7 @@
         <v>14030004</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E802" s="39">
         <v>14030004</v>
@@ -63670,7 +63671,7 @@
         <v>383</v>
       </c>
       <c r="U802" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V802" s="19"/>
     </row>
@@ -63679,7 +63680,7 @@
         <v>14030005</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E803" s="39">
         <v>14030005</v>
@@ -63724,7 +63725,7 @@
         <v>383</v>
       </c>
       <c r="U803" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V803" s="19" t="str">
         <f>D803&amp;"的描述"</f>
@@ -63736,7 +63737,7 @@
         <v>14030006</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E804" s="39">
         <v>14030006</v>
@@ -63781,7 +63782,7 @@
         <v>383</v>
       </c>
       <c r="U804" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V804" s="19" t="str">
         <f>D804&amp;"的描述"</f>
@@ -63793,7 +63794,7 @@
         <v>14030007</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E805" s="39">
         <v>14030007</v>
@@ -63838,7 +63839,7 @@
         <v>383</v>
       </c>
       <c r="U805" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V805" s="19" t="str">
         <f>D805&amp;"的描述"</f>
@@ -63850,7 +63851,7 @@
         <v>14030008</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E806" s="39">
         <v>14030008</v>
@@ -63895,7 +63896,7 @@
         <v>383</v>
       </c>
       <c r="U806" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V806" s="19"/>
     </row>
@@ -63904,7 +63905,7 @@
         <v>14030009</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E807" s="39">
         <v>14030009</v>
@@ -63949,7 +63950,7 @@
         <v>383</v>
       </c>
       <c r="U807" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V807" s="19" t="str">
         <f>D807&amp;"的描述"</f>
@@ -63961,7 +63962,7 @@
         <v>14030010</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E808" s="39">
         <v>14030010</v>
@@ -64006,7 +64007,7 @@
         <v>383</v>
       </c>
       <c r="U808" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V808" s="19" t="str">
         <f>D808&amp;"的描述"</f>
@@ -64018,7 +64019,7 @@
         <v>14030011</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E809" s="39">
         <v>14030011</v>
@@ -64063,7 +64064,7 @@
         <v>383</v>
       </c>
       <c r="U809" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V809" s="19" t="str">
         <f>D809&amp;"的描述"</f>
@@ -64075,7 +64076,7 @@
         <v>14030012</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E810" s="39">
         <v>14030012</v>
@@ -64120,7 +64121,7 @@
         <v>383</v>
       </c>
       <c r="U810" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V810" s="19"/>
     </row>
@@ -64129,7 +64130,7 @@
         <v>14040001</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E811" s="39">
         <v>14040001</v>
@@ -64174,7 +64175,7 @@
         <v>383</v>
       </c>
       <c r="U811" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V811" s="19" t="str">
         <f>D811&amp;"的描述"</f>
@@ -64186,7 +64187,7 @@
         <v>14040002</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E812" s="39">
         <v>14040002</v>
@@ -64231,7 +64232,7 @@
         <v>383</v>
       </c>
       <c r="U812" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V812" s="19" t="str">
         <f>D812&amp;"的描述"</f>
@@ -64243,7 +64244,7 @@
         <v>14040003</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E813" s="3">
         <v>14040003</v>
@@ -64288,7 +64289,7 @@
         <v>383</v>
       </c>
       <c r="U813" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V813" s="19" t="str">
         <f>D813&amp;"的描述"</f>
@@ -64300,7 +64301,7 @@
         <v>14040004</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="E814" s="3">
         <v>14040004</v>
@@ -64345,7 +64346,7 @@
         <v>383</v>
       </c>
       <c r="U814" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V814" s="19"/>
     </row>
@@ -64354,7 +64355,7 @@
         <v>14040005</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E815" s="39">
         <v>14040005</v>
@@ -64399,7 +64400,7 @@
         <v>383</v>
       </c>
       <c r="U815" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V815" s="19" t="str">
         <f>D815&amp;"的描述"</f>
@@ -64411,7 +64412,7 @@
         <v>14040006</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E816" s="39">
         <v>14040006</v>
@@ -64456,7 +64457,7 @@
         <v>383</v>
       </c>
       <c r="U816" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V816" s="19" t="str">
         <f>D816&amp;"的描述"</f>
@@ -64468,7 +64469,7 @@
         <v>14040007</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E817" s="3">
         <v>14040007</v>
@@ -64513,7 +64514,7 @@
         <v>383</v>
       </c>
       <c r="U817" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V817" s="19" t="str">
         <f>D817&amp;"的描述"</f>
@@ -64525,7 +64526,7 @@
         <v>14040008</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E818" s="3">
         <v>14040008</v>
@@ -64570,7 +64571,7 @@
         <v>383</v>
       </c>
       <c r="U818" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V818" s="19"/>
     </row>
@@ -64579,7 +64580,7 @@
         <v>14040009</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E819" s="39">
         <v>14040009</v>
@@ -64624,7 +64625,7 @@
         <v>383</v>
       </c>
       <c r="U819" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V819" s="19" t="str">
         <f>D819&amp;"的描述"</f>
@@ -64636,7 +64637,7 @@
         <v>14040010</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E820" s="39">
         <v>14040010</v>
@@ -64681,7 +64682,7 @@
         <v>383</v>
       </c>
       <c r="U820" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V820" s="19" t="str">
         <f>D820&amp;"的描述"</f>
@@ -64693,7 +64694,7 @@
         <v>14040011</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E821" s="3">
         <v>14040011</v>
@@ -64738,7 +64739,7 @@
         <v>383</v>
       </c>
       <c r="U821" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V821" s="19" t="str">
         <f>D821&amp;"的描述"</f>
@@ -64750,7 +64751,7 @@
         <v>14040012</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E822" s="3">
         <v>14040012</v>
@@ -64795,7 +64796,7 @@
         <v>383</v>
       </c>
       <c r="U822" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V822" s="19"/>
     </row>
@@ -64804,7 +64805,7 @@
         <v>14050001</v>
       </c>
       <c r="D823" s="21" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E823" s="21">
         <v>14050001</v>
@@ -64849,7 +64850,7 @@
         <v>383</v>
       </c>
       <c r="U823" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V823" s="27" t="str">
         <f>D823&amp;"的描述"</f>
@@ -64906,7 +64907,7 @@
         <v>383</v>
       </c>
       <c r="U824" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V824" s="27" t="str">
         <f>D824&amp;"的描述"</f>
@@ -64963,7 +64964,7 @@
         <v>383</v>
       </c>
       <c r="U825" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V825" s="27" t="str">
         <f>D825&amp;"的描述"</f>
@@ -65020,7 +65021,7 @@
         <v>383</v>
       </c>
       <c r="U826" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V826" s="27"/>
     </row>
@@ -65029,7 +65030,7 @@
         <v>14050005</v>
       </c>
       <c r="D827" s="21" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E827" s="40">
         <v>14050005</v>
@@ -65074,7 +65075,7 @@
         <v>383</v>
       </c>
       <c r="U827" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V827" s="27" t="str">
         <f>D827&amp;"的描述"</f>
@@ -65131,7 +65132,7 @@
         <v>383</v>
       </c>
       <c r="U828" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V828" s="27" t="str">
         <f>D828&amp;"的描述"</f>
@@ -65143,7 +65144,7 @@
         <v>14050007</v>
       </c>
       <c r="D829" s="21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E829" s="40">
         <v>14050007</v>
@@ -65188,7 +65189,7 @@
         <v>383</v>
       </c>
       <c r="U829" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V829" s="27" t="str">
         <f>D829&amp;"的描述"</f>
@@ -65245,7 +65246,7 @@
         <v>383</v>
       </c>
       <c r="U830" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V830" s="27"/>
     </row>
@@ -65254,7 +65255,7 @@
         <v>14050009</v>
       </c>
       <c r="D831" s="21" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E831" s="40">
         <v>14050009</v>
@@ -65299,7 +65300,7 @@
         <v>383</v>
       </c>
       <c r="U831" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V831" s="27" t="str">
         <f>D831&amp;"的描述"</f>
@@ -65356,7 +65357,7 @@
         <v>383</v>
       </c>
       <c r="U832" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V832" s="27" t="str">
         <f>D832&amp;"的描述"</f>
@@ -65413,7 +65414,7 @@
         <v>383</v>
       </c>
       <c r="U833" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V833" s="27" t="str">
         <f>D833&amp;"的描述"</f>
@@ -65470,7 +65471,7 @@
         <v>383</v>
       </c>
       <c r="U834" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V834" s="27"/>
     </row>
@@ -65479,7 +65480,7 @@
         <v>14060001</v>
       </c>
       <c r="D835" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E835" s="39">
         <v>14060001</v>
@@ -65524,7 +65525,7 @@
         <v>383</v>
       </c>
       <c r="U835" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V835" s="19" t="str">
         <f>D835&amp;"的描述"</f>
@@ -65536,7 +65537,7 @@
         <v>14060002</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E836" s="3">
         <v>14060002</v>
@@ -65581,7 +65582,7 @@
         <v>383</v>
       </c>
       <c r="U836" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V836" s="19" t="str">
         <f>D836&amp;"的描述"</f>
@@ -65593,7 +65594,7 @@
         <v>14060003</v>
       </c>
       <c r="D837" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E837" s="39">
         <v>14060003</v>
@@ -65638,7 +65639,7 @@
         <v>383</v>
       </c>
       <c r="U837" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V837" s="19" t="str">
         <f>D837&amp;"的描述"</f>
@@ -65695,7 +65696,7 @@
         <v>383</v>
       </c>
       <c r="U838" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V838" s="19"/>
     </row>
@@ -65704,7 +65705,7 @@
         <v>14060005</v>
       </c>
       <c r="D839" s="114" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E839" s="113">
         <v>14060005</v>
@@ -65749,7 +65750,7 @@
         <v>383</v>
       </c>
       <c r="U839" s="114" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V839" s="116"/>
     </row>
@@ -65758,7 +65759,7 @@
         <v>14070001</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E840" s="39">
         <v>14070001</v>
@@ -65803,7 +65804,7 @@
         <v>383</v>
       </c>
       <c r="U840" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V840" s="19" t="str">
         <f>D840&amp;"的描述"</f>
@@ -65815,7 +65816,7 @@
         <v>14070002</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E841" s="39">
         <v>14070002</v>
@@ -65860,7 +65861,7 @@
         <v>383</v>
       </c>
       <c r="U841" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V841" s="19" t="str">
         <f>D841&amp;"的描述"</f>
@@ -65872,7 +65873,7 @@
         <v>14070003</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E842" s="39">
         <v>14070003</v>
@@ -65917,7 +65918,7 @@
         <v>383</v>
       </c>
       <c r="U842" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V842" s="19" t="str">
         <f>D842&amp;"的描述"</f>
@@ -65974,7 +65975,7 @@
         <v>383</v>
       </c>
       <c r="U843" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V843" s="19"/>
     </row>
@@ -65983,7 +65984,7 @@
         <v>14080001</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E844" s="39">
         <v>14080001</v>
@@ -66030,7 +66031,7 @@
         <v>383</v>
       </c>
       <c r="U844" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V844" s="19" t="str">
         <f>D844&amp;"的描述"</f>
@@ -66042,7 +66043,7 @@
         <v>14080002</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E845" s="39">
         <v>14080002</v>
@@ -66089,7 +66090,7 @@
         <v>383</v>
       </c>
       <c r="U845" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V845" s="19" t="str">
         <f>D845&amp;"的描述"</f>
@@ -66101,7 +66102,7 @@
         <v>14080003</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E846" s="39">
         <v>14080003</v>
@@ -66148,7 +66149,7 @@
         <v>383</v>
       </c>
       <c r="U846" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V846" s="19"/>
     </row>
@@ -66157,7 +66158,7 @@
         <v>14090001</v>
       </c>
       <c r="D847" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E847" s="39">
         <v>14090001</v>
@@ -66202,7 +66203,7 @@
         <v>383</v>
       </c>
       <c r="U847" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V847" s="19" t="str">
         <f>D847&amp;"的描述"</f>
@@ -66214,7 +66215,7 @@
         <v>14090002</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E848" s="39">
         <v>14090002</v>
@@ -66259,7 +66260,7 @@
         <v>383</v>
       </c>
       <c r="U848" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V848" s="19" t="str">
         <f>D848&amp;"的描述"</f>
@@ -66316,7 +66317,7 @@
         <v>383</v>
       </c>
       <c r="U849" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V849" s="19"/>
     </row>
@@ -66325,7 +66326,7 @@
         <v>14100001</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E850" s="39">
         <v>14100001</v>
@@ -66370,7 +66371,7 @@
         <v>383</v>
       </c>
       <c r="U850" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V850" s="19" t="str">
         <f>D850&amp;"的描述"</f>
@@ -66382,7 +66383,7 @@
         <v>14100002</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E851" s="39">
         <v>14100002</v>
@@ -66427,7 +66428,7 @@
         <v>383</v>
       </c>
       <c r="U851" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V851" s="19" t="str">
         <f>D851&amp;"的描述"</f>
@@ -66439,7 +66440,7 @@
         <v>14100003</v>
       </c>
       <c r="D852" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E852" s="39">
         <v>14100003</v>
@@ -66484,7 +66485,7 @@
         <v>383</v>
       </c>
       <c r="U852" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V852" s="19" t="str">
         <f>D852&amp;"的描述"</f>
@@ -66541,7 +66542,7 @@
         <v>383</v>
       </c>
       <c r="U853" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V853" s="19"/>
     </row>
@@ -66550,7 +66551,7 @@
         <v>14100005</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E854" s="39">
         <v>14100005</v>
@@ -66595,7 +66596,7 @@
         <v>383</v>
       </c>
       <c r="U854" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V854" s="19" t="str">
         <f>D854&amp;"的描述"</f>
@@ -66607,7 +66608,7 @@
         <v>14100006</v>
       </c>
       <c r="D855" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E855" s="39">
         <v>14100006</v>
@@ -66652,7 +66653,7 @@
         <v>383</v>
       </c>
       <c r="U855" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V855" s="19" t="str">
         <f>D855&amp;"的描述"</f>
@@ -66709,7 +66710,7 @@
         <v>383</v>
       </c>
       <c r="U856" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V856" s="19" t="str">
         <f>D856&amp;"的描述"</f>
@@ -66766,7 +66767,7 @@
         <v>383</v>
       </c>
       <c r="U857" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V857" s="19"/>
     </row>
@@ -66775,7 +66776,7 @@
         <v>14100011</v>
       </c>
       <c r="D858" s="114" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E858" s="39">
         <v>14100011</v>
@@ -66820,7 +66821,7 @@
         <v>383</v>
       </c>
       <c r="U858" s="114" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V858" s="116"/>
     </row>
@@ -66829,7 +66830,7 @@
         <v>14100012</v>
       </c>
       <c r="D859" s="114" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E859" s="39">
         <v>14100012</v>
@@ -66874,7 +66875,7 @@
         <v>383</v>
       </c>
       <c r="U859" s="114" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V859" s="116"/>
     </row>
@@ -66883,7 +66884,7 @@
         <v>14100101</v>
       </c>
       <c r="D860" s="21" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E860" s="40">
         <v>14100101</v>
@@ -66928,7 +66929,7 @@
         <v>383</v>
       </c>
       <c r="U860" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V860" s="27" t="str">
         <f>D860&amp;"的描述"</f>
@@ -66940,7 +66941,7 @@
         <v>14100102</v>
       </c>
       <c r="D861" s="21" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E861" s="40">
         <v>14100102</v>
@@ -66985,7 +66986,7 @@
         <v>383</v>
       </c>
       <c r="U861" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V861" s="27" t="str">
         <f>D861&amp;"的描述"</f>
@@ -66997,7 +66998,7 @@
         <v>14100103</v>
       </c>
       <c r="D862" s="21" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E862" s="40">
         <v>14100103</v>
@@ -67042,7 +67043,7 @@
         <v>383</v>
       </c>
       <c r="U862" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V862" s="27" t="str">
         <f>D862&amp;"的描述"</f>
@@ -67054,7 +67055,7 @@
         <v>14100104</v>
       </c>
       <c r="D863" s="21" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E863" s="40">
         <v>14100104</v>
@@ -67099,7 +67100,7 @@
         <v>383</v>
       </c>
       <c r="U863" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V863" s="27"/>
     </row>
@@ -67108,7 +67109,7 @@
         <v>14100105</v>
       </c>
       <c r="D864" s="21" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E864" s="40">
         <v>14100105</v>
@@ -67153,7 +67154,7 @@
         <v>383</v>
       </c>
       <c r="U864" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V864" s="27" t="str">
         <f>D864&amp;"的描述"</f>
@@ -67165,7 +67166,7 @@
         <v>14100106</v>
       </c>
       <c r="D865" s="21" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E865" s="40">
         <v>14100106</v>
@@ -67210,7 +67211,7 @@
         <v>383</v>
       </c>
       <c r="U865" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V865" s="27" t="str">
         <f>D865&amp;"的描述"</f>
@@ -67222,7 +67223,7 @@
         <v>14100107</v>
       </c>
       <c r="D866" s="21" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E866" s="40">
         <v>14100107</v>
@@ -67267,7 +67268,7 @@
         <v>383</v>
       </c>
       <c r="U866" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V866" s="27" t="str">
         <f>D866&amp;"的描述"</f>
@@ -67279,7 +67280,7 @@
         <v>14100108</v>
       </c>
       <c r="D867" s="21" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E867" s="40">
         <v>14100108</v>
@@ -67324,7 +67325,7 @@
         <v>383</v>
       </c>
       <c r="U867" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V867" s="27"/>
     </row>
@@ -67333,7 +67334,7 @@
         <v>14100111</v>
       </c>
       <c r="D868" s="114" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E868" s="113">
         <v>14100111</v>
@@ -67378,7 +67379,7 @@
         <v>383</v>
       </c>
       <c r="U868" s="114" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V868" s="116"/>
     </row>
@@ -67387,7 +67388,7 @@
         <v>14100112</v>
       </c>
       <c r="D869" s="114" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E869" s="113">
         <v>14100112</v>
@@ -67432,7 +67433,7 @@
         <v>383</v>
       </c>
       <c r="U869" s="114" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="V869" s="116"/>
     </row>
@@ -67441,7 +67442,7 @@
         <v>14110001</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E870" s="41">
         <v>14110001</v>
@@ -67486,7 +67487,7 @@
         <v>383</v>
       </c>
       <c r="U870" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V870" s="19" t="str">
         <f>D870&amp;"的描述"</f>
@@ -67498,7 +67499,7 @@
         <v>14110002</v>
       </c>
       <c r="D871" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E871" s="41">
         <v>14110002</v>
@@ -67543,7 +67544,7 @@
         <v>383</v>
       </c>
       <c r="U871" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V871" s="19" t="str">
         <f>D871&amp;"的描述"</f>
@@ -67600,7 +67601,7 @@
         <v>383</v>
       </c>
       <c r="U872" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V872" s="19" t="str">
         <f>D872&amp;"的描述"</f>
@@ -67612,7 +67613,7 @@
         <v>14110004</v>
       </c>
       <c r="D873" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E873" s="41">
         <v>14110004</v>
@@ -67657,7 +67658,7 @@
         <v>383</v>
       </c>
       <c r="U873" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V873" s="19"/>
     </row>
@@ -67666,7 +67667,7 @@
         <v>14110005</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E874" s="41">
         <v>14110005</v>
@@ -67711,7 +67712,7 @@
         <v>383</v>
       </c>
       <c r="U874" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V874" s="19" t="str">
         <f>D874&amp;"的描述"</f>
@@ -67723,7 +67724,7 @@
         <v>14110006</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E875" s="41">
         <v>14110006</v>
@@ -67768,7 +67769,7 @@
         <v>383</v>
       </c>
       <c r="U875" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V875" s="19" t="str">
         <f>D875&amp;"的描述"</f>
@@ -67780,7 +67781,7 @@
         <v>14110007</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E876" s="41">
         <v>14110007</v>
@@ -67825,7 +67826,7 @@
         <v>383</v>
       </c>
       <c r="U876" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V876" s="19" t="str">
         <f>D876&amp;"的描述"</f>
@@ -67837,7 +67838,7 @@
         <v>14110008</v>
       </c>
       <c r="D877" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E877" s="41">
         <v>14110008</v>
@@ -67882,7 +67883,7 @@
         <v>383</v>
       </c>
       <c r="U877" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V877" s="19"/>
     </row>
@@ -67891,7 +67892,7 @@
         <v>14110009</v>
       </c>
       <c r="D878" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E878" s="41">
         <v>14110009</v>
@@ -67936,7 +67937,7 @@
         <v>383</v>
       </c>
       <c r="U878" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V878" s="19" t="str">
         <f>D878&amp;"的描述"</f>
@@ -67948,7 +67949,7 @@
         <v>14110010</v>
       </c>
       <c r="D879" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E879" s="41">
         <v>14110010</v>
@@ -67993,7 +67994,7 @@
         <v>383</v>
       </c>
       <c r="U879" s="3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="V879" s="19" t="str">
         <f>D879&amp;"的描述"</f>
@@ -68005,7 +68006,7 @@
         <v>14110011</v>
       </c>
       <c r="D880" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E880" s="41">
         <v>14110011</v>
@@ -68050,7 +68051,7 @@
         <v>383</v>
       </c>
       <c r="U880" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="V880" s="19" t="str">
         <f>D880&amp;"的描述"</f>
@@ -68062,7 +68063,7 @@
         <v>14110012</v>
       </c>
       <c r="D881" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E881" s="41">
         <v>14110012</v>
@@ -68107,7 +68108,7 @@
         <v>383</v>
       </c>
       <c r="U881" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="V881" s="19"/>
     </row>
@@ -68116,7 +68117,7 @@
         <v>14110021</v>
       </c>
       <c r="D882" s="114" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E882" s="113">
         <v>14110021</v>
@@ -68161,7 +68162,7 @@
         <v>383</v>
       </c>
       <c r="U882" s="114" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V882" s="116"/>
     </row>
@@ -68170,7 +68171,7 @@
         <v>14110022</v>
       </c>
       <c r="D883" s="114" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E883" s="113">
         <v>14110022</v>
@@ -68215,7 +68216,7 @@
         <v>383</v>
       </c>
       <c r="U883" s="114" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V883" s="116"/>
     </row>
@@ -68224,7 +68225,7 @@
         <v>14110023</v>
       </c>
       <c r="D884" s="114" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E884" s="113">
         <v>14110023</v>
@@ -68269,7 +68270,7 @@
         <v>383</v>
       </c>
       <c r="U884" s="114" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="V884" s="116"/>
     </row>
@@ -68380,7 +68381,7 @@
         <v>383</v>
       </c>
       <c r="U886" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V886" s="19"/>
     </row>
@@ -68446,7 +68447,7 @@
         <v>15201004</v>
       </c>
       <c r="D888" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E888" s="3">
         <v>15201004</v>
@@ -68491,7 +68492,7 @@
         <v>383</v>
       </c>
       <c r="U888" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V888" s="19"/>
     </row>
@@ -68557,7 +68558,7 @@
         <v>15201006</v>
       </c>
       <c r="D890" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E890" s="3">
         <v>15201006</v>
@@ -68602,7 +68603,7 @@
         <v>383</v>
       </c>
       <c r="U890" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V890" s="19"/>
     </row>
@@ -68713,7 +68714,7 @@
         <v>383</v>
       </c>
       <c r="U892" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V892" s="19"/>
     </row>
@@ -68824,7 +68825,7 @@
         <v>383</v>
       </c>
       <c r="U894" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V894" s="19"/>
     </row>
@@ -68935,7 +68936,7 @@
         <v>383</v>
       </c>
       <c r="U896" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V896" s="19"/>
     </row>
@@ -69046,7 +69047,7 @@
         <v>383</v>
       </c>
       <c r="U898" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V898" s="19"/>
     </row>
@@ -69157,7 +69158,7 @@
         <v>383</v>
       </c>
       <c r="U900" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V900" s="19"/>
     </row>
@@ -69268,7 +69269,7 @@
         <v>383</v>
       </c>
       <c r="U902" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V902" s="19"/>
     </row>
@@ -69379,7 +69380,7 @@
         <v>383</v>
       </c>
       <c r="U904" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V904" s="19"/>
     </row>
@@ -69490,7 +69491,7 @@
         <v>383</v>
       </c>
       <c r="U906" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V906" s="19"/>
     </row>
@@ -69601,7 +69602,7 @@
         <v>383</v>
       </c>
       <c r="U908" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V908" s="19"/>
     </row>
@@ -69712,7 +69713,7 @@
         <v>383</v>
       </c>
       <c r="U910" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V910" s="19"/>
     </row>
@@ -69823,7 +69824,7 @@
         <v>383</v>
       </c>
       <c r="U912" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V912" s="19"/>
     </row>
@@ -69934,7 +69935,7 @@
         <v>383</v>
       </c>
       <c r="U914" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V914" s="19"/>
     </row>
@@ -69943,7 +69944,7 @@
         <v>15206001</v>
       </c>
       <c r="D915" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E915" s="3">
         <v>15206001</v>
@@ -70045,7 +70046,7 @@
         <v>383</v>
       </c>
       <c r="U916" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V916" s="19"/>
     </row>
@@ -70054,7 +70055,7 @@
         <v>15206003</v>
       </c>
       <c r="D917" s="114" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E917" s="114">
         <v>15206003</v>
@@ -70099,7 +70100,7 @@
         <v>383</v>
       </c>
       <c r="U917" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V917" s="116"/>
     </row>
@@ -70108,7 +70109,7 @@
         <v>15207001</v>
       </c>
       <c r="D918" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E918" s="3">
         <v>15207001</v>
@@ -70210,7 +70211,7 @@
         <v>383</v>
       </c>
       <c r="U919" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V919" s="19"/>
     </row>
@@ -70219,7 +70220,7 @@
         <v>15208001</v>
       </c>
       <c r="D920" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E920" s="3">
         <v>15208001</v>
@@ -70325,7 +70326,7 @@
         <v>383</v>
       </c>
       <c r="U921" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V921" s="19"/>
     </row>
@@ -70334,7 +70335,7 @@
         <v>15209001</v>
       </c>
       <c r="D922" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E922" s="3">
         <v>15209001</v>
@@ -70436,7 +70437,7 @@
         <v>383</v>
       </c>
       <c r="U923" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V923" s="19"/>
     </row>
@@ -70547,7 +70548,7 @@
         <v>383</v>
       </c>
       <c r="U925" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V925" s="19"/>
     </row>
@@ -70556,7 +70557,7 @@
         <v>15210003</v>
       </c>
       <c r="D926" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E926" s="3">
         <v>15210003</v>
@@ -70658,7 +70659,7 @@
         <v>383</v>
       </c>
       <c r="U927" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V927" s="19"/>
     </row>
@@ -70667,7 +70668,7 @@
         <v>15210011</v>
       </c>
       <c r="D928" s="114" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E928" s="114">
         <v>15210011</v>
@@ -70712,7 +70713,7 @@
         <v>383</v>
       </c>
       <c r="U928" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V928" s="116"/>
     </row>
@@ -70721,7 +70722,7 @@
         <v>15210012</v>
       </c>
       <c r="D929" s="114" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E929" s="114">
         <v>15210012</v>
@@ -70766,7 +70767,7 @@
         <v>383</v>
       </c>
       <c r="U929" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V929" s="116"/>
     </row>
@@ -70775,7 +70776,7 @@
         <v>15210101</v>
       </c>
       <c r="D930" s="21" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E930" s="21">
         <v>15210101</v>
@@ -70877,7 +70878,7 @@
         <v>383</v>
       </c>
       <c r="U931" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V931" s="27"/>
     </row>
@@ -70886,7 +70887,7 @@
         <v>15210103</v>
       </c>
       <c r="D932" s="21" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E932" s="21">
         <v>15210103</v>
@@ -70988,7 +70989,7 @@
         <v>383</v>
       </c>
       <c r="U933" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V933" s="27"/>
     </row>
@@ -70997,7 +70998,7 @@
         <v>15210111</v>
       </c>
       <c r="D934" s="114" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E934" s="114">
         <v>15210111</v>
@@ -71042,7 +71043,7 @@
         <v>383</v>
       </c>
       <c r="U934" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V934" s="116"/>
     </row>
@@ -71051,7 +71052,7 @@
         <v>15210112</v>
       </c>
       <c r="D935" s="114" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E935" s="114">
         <v>15210112</v>
@@ -71096,7 +71097,7 @@
         <v>383</v>
       </c>
       <c r="U935" s="114" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V935" s="116"/>
     </row>
@@ -71207,7 +71208,7 @@
         <v>383</v>
       </c>
       <c r="U937" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V937" s="19"/>
     </row>
@@ -71318,7 +71319,7 @@
         <v>383</v>
       </c>
       <c r="U939" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V939" s="19"/>
     </row>
@@ -71429,7 +71430,7 @@
         <v>383</v>
       </c>
       <c r="U941" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="V941" s="19"/>
     </row>
@@ -71438,7 +71439,7 @@
         <v>15211011</v>
       </c>
       <c r="D942" s="114" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E942" s="114">
         <v>15211011</v>
@@ -71483,7 +71484,7 @@
         <v>383</v>
       </c>
       <c r="U942" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V942" s="116"/>
     </row>
@@ -71492,7 +71493,7 @@
         <v>15211012</v>
       </c>
       <c r="D943" s="114" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E943" s="114">
         <v>15211012</v>
@@ -71537,7 +71538,7 @@
         <v>383</v>
       </c>
       <c r="U943" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V943" s="116"/>
     </row>
@@ -71546,7 +71547,7 @@
         <v>15211013</v>
       </c>
       <c r="D944" s="114" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E944" s="114">
         <v>15211013</v>
@@ -71591,7 +71592,7 @@
         <v>383</v>
       </c>
       <c r="U944" s="114" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="V944" s="116"/>
     </row>
@@ -71645,7 +71646,7 @@
         <v>383</v>
       </c>
       <c r="U945" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V945" s="19" t="str">
         <f>D945&amp;"的描述"</f>
@@ -71702,7 +71703,7 @@
         <v>383</v>
       </c>
       <c r="U946" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V946" s="19"/>
     </row>
@@ -71711,7 +71712,7 @@
         <v>15301003</v>
       </c>
       <c r="D947" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E947" s="3">
         <v>15301003</v>
@@ -71756,7 +71757,7 @@
         <v>383</v>
       </c>
       <c r="U947" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V947" s="19" t="str">
         <f>D947&amp;"的描述"</f>
@@ -71813,7 +71814,7 @@
         <v>383</v>
       </c>
       <c r="U948" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V948" s="19"/>
     </row>
@@ -71867,7 +71868,7 @@
         <v>383</v>
       </c>
       <c r="U949" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V949" s="19" t="str">
         <f>D949&amp;"的描述"</f>
@@ -71924,7 +71925,7 @@
         <v>383</v>
       </c>
       <c r="U950" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V950" s="19"/>
     </row>
@@ -71978,7 +71979,7 @@
         <v>383</v>
       </c>
       <c r="U951" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V951" s="19" t="str">
         <f>D951&amp;"的描述"</f>
@@ -72035,7 +72036,7 @@
         <v>383</v>
       </c>
       <c r="U952" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V952" s="19"/>
     </row>
@@ -72044,7 +72045,7 @@
         <v>15302003</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E953" s="3">
         <v>15302003</v>
@@ -72089,7 +72090,7 @@
         <v>383</v>
       </c>
       <c r="U953" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V953" s="19" t="str">
         <f>D953&amp;"的描述"</f>
@@ -72146,7 +72147,7 @@
         <v>383</v>
       </c>
       <c r="U954" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V954" s="19"/>
     </row>
@@ -72200,7 +72201,7 @@
         <v>383</v>
       </c>
       <c r="U955" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V955" s="19" t="str">
         <f>D955&amp;"的描述"</f>
@@ -72257,7 +72258,7 @@
         <v>383</v>
       </c>
       <c r="U956" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V956" s="19"/>
     </row>
@@ -72311,7 +72312,7 @@
         <v>383</v>
       </c>
       <c r="U957" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V957" s="19" t="str">
         <f>D957&amp;"的描述"</f>
@@ -72368,7 +72369,7 @@
         <v>383</v>
       </c>
       <c r="U958" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V958" s="19"/>
     </row>
@@ -72377,7 +72378,7 @@
         <v>15303003</v>
       </c>
       <c r="D959" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E959" s="3">
         <v>15303003</v>
@@ -72422,7 +72423,7 @@
         <v>383</v>
       </c>
       <c r="U959" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V959" s="19" t="str">
         <f>D959&amp;"的描述"</f>
@@ -72479,7 +72480,7 @@
         <v>383</v>
       </c>
       <c r="U960" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V960" s="19"/>
     </row>
@@ -72533,7 +72534,7 @@
         <v>383</v>
       </c>
       <c r="U961" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V961" s="19" t="str">
         <f>D961&amp;"的描述"</f>
@@ -72590,7 +72591,7 @@
         <v>383</v>
       </c>
       <c r="U962" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V962" s="19"/>
     </row>
@@ -72644,7 +72645,7 @@
         <v>383</v>
       </c>
       <c r="U963" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V963" s="19" t="str">
         <f>D963&amp;"的描述"</f>
@@ -72701,7 +72702,7 @@
         <v>383</v>
       </c>
       <c r="U964" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V964" s="19"/>
     </row>
@@ -72710,7 +72711,7 @@
         <v>15304003</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E965" s="3">
         <v>15304003</v>
@@ -72755,7 +72756,7 @@
         <v>383</v>
       </c>
       <c r="U965" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V965" s="19" t="str">
         <f>D965&amp;"的描述"</f>
@@ -72812,7 +72813,7 @@
         <v>383</v>
       </c>
       <c r="U966" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V966" s="19"/>
     </row>
@@ -72866,7 +72867,7 @@
         <v>383</v>
       </c>
       <c r="U967" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V967" s="19" t="str">
         <f>D967&amp;"的描述"</f>
@@ -72923,7 +72924,7 @@
         <v>383</v>
       </c>
       <c r="U968" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V968" s="19"/>
     </row>
@@ -72977,7 +72978,7 @@
         <v>383</v>
       </c>
       <c r="U969" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V969" s="19" t="str">
         <f>D969&amp;"的描述"</f>
@@ -72989,7 +72990,7 @@
         <v>15305002</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E970" s="3">
         <v>15305002</v>
@@ -73034,7 +73035,7 @@
         <v>383</v>
       </c>
       <c r="U970" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V970" s="19"/>
     </row>
@@ -73043,7 +73044,7 @@
         <v>15305003</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E971" s="3">
         <v>15305003</v>
@@ -73088,7 +73089,7 @@
         <v>383</v>
       </c>
       <c r="U971" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V971" s="19" t="str">
         <f>D971&amp;"的描述"</f>
@@ -73100,7 +73101,7 @@
         <v>15305004</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E972" s="3">
         <v>15305004</v>
@@ -73145,7 +73146,7 @@
         <v>383</v>
       </c>
       <c r="U972" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V972" s="19"/>
     </row>
@@ -73199,7 +73200,7 @@
         <v>383</v>
       </c>
       <c r="U973" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V973" s="19" t="str">
         <f>D973&amp;"的描述"</f>
@@ -73211,7 +73212,7 @@
         <v>15305006</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E974" s="3">
         <v>15305006</v>
@@ -73256,7 +73257,7 @@
         <v>383</v>
       </c>
       <c r="U974" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V974" s="19"/>
     </row>
@@ -73265,7 +73266,7 @@
         <v>15306001</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E975" s="3">
         <v>15306001</v>
@@ -73310,7 +73311,7 @@
         <v>383</v>
       </c>
       <c r="U975" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V975" s="19" t="str">
         <f>D975&amp;"的描述"</f>
@@ -73367,7 +73368,7 @@
         <v>383</v>
       </c>
       <c r="U976" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V976" s="19"/>
     </row>
@@ -73376,7 +73377,7 @@
         <v>15306003</v>
       </c>
       <c r="D977" s="114" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E977" s="114">
         <v>15306003</v>
@@ -73421,7 +73422,7 @@
         <v>383</v>
       </c>
       <c r="U977" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V977" s="116"/>
     </row>
@@ -73430,7 +73431,7 @@
         <v>15307001</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E978" s="3">
         <v>15307001</v>
@@ -73475,7 +73476,7 @@
         <v>383</v>
       </c>
       <c r="U978" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V978" s="19" t="str">
         <f>D978&amp;"的描述"</f>
@@ -73532,7 +73533,7 @@
         <v>383</v>
       </c>
       <c r="U979" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V979" s="19"/>
     </row>
@@ -73588,7 +73589,7 @@
         <v>383</v>
       </c>
       <c r="U980" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V980" s="19" t="str">
         <f>D980&amp;"的描述"</f>
@@ -73647,7 +73648,7 @@
         <v>383</v>
       </c>
       <c r="U981" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V981" s="19"/>
     </row>
@@ -73656,7 +73657,7 @@
         <v>15309001</v>
       </c>
       <c r="D982" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E982" s="3">
         <v>15309001</v>
@@ -73701,7 +73702,7 @@
         <v>383</v>
       </c>
       <c r="U982" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V982" s="19" t="str">
         <f>D982&amp;"的描述"</f>
@@ -73758,7 +73759,7 @@
         <v>383</v>
       </c>
       <c r="U983" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V983" s="19"/>
     </row>
@@ -73812,7 +73813,7 @@
         <v>383</v>
       </c>
       <c r="U984" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V984" s="19" t="str">
         <f>D984&amp;"的描述"</f>
@@ -73869,7 +73870,7 @@
         <v>383</v>
       </c>
       <c r="U985" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V985" s="19"/>
     </row>
@@ -73878,7 +73879,7 @@
         <v>15310003</v>
       </c>
       <c r="D986" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E986" s="3">
         <v>15310003</v>
@@ -73923,7 +73924,7 @@
         <v>383</v>
       </c>
       <c r="U986" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V986" s="19" t="str">
         <f>D986&amp;"的描述"</f>
@@ -73980,7 +73981,7 @@
         <v>383</v>
       </c>
       <c r="U987" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V987" s="19"/>
     </row>
@@ -73989,7 +73990,7 @@
         <v>15310011</v>
       </c>
       <c r="D988" s="114" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E988" s="114">
         <v>15310011</v>
@@ -74034,7 +74035,7 @@
         <v>383</v>
       </c>
       <c r="U988" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V988" s="116"/>
     </row>
@@ -74043,7 +74044,7 @@
         <v>15310012</v>
       </c>
       <c r="D989" s="114" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E989" s="114">
         <v>15310012</v>
@@ -74088,7 +74089,7 @@
         <v>383</v>
       </c>
       <c r="U989" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V989" s="116"/>
     </row>
@@ -74097,7 +74098,7 @@
         <v>15310101</v>
       </c>
       <c r="D990" s="21" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E990" s="21">
         <v>15310101</v>
@@ -74142,7 +74143,7 @@
         <v>383</v>
       </c>
       <c r="U990" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V990" s="27" t="str">
         <f>D990&amp;"的描述"</f>
@@ -74199,7 +74200,7 @@
         <v>383</v>
       </c>
       <c r="U991" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V991" s="27"/>
     </row>
@@ -74208,7 +74209,7 @@
         <v>15310103</v>
       </c>
       <c r="D992" s="21" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E992" s="21">
         <v>15310103</v>
@@ -74253,7 +74254,7 @@
         <v>383</v>
       </c>
       <c r="U992" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V992" s="27" t="str">
         <f>D992&amp;"的描述"</f>
@@ -74310,7 +74311,7 @@
         <v>383</v>
       </c>
       <c r="U993" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V993" s="27"/>
     </row>
@@ -74319,7 +74320,7 @@
         <v>15310111</v>
       </c>
       <c r="D994" s="114" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E994" s="114">
         <v>15310111</v>
@@ -74364,7 +74365,7 @@
         <v>383</v>
       </c>
       <c r="U994" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V994" s="116"/>
     </row>
@@ -74373,7 +74374,7 @@
         <v>15310112</v>
       </c>
       <c r="D995" s="114" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E995" s="114">
         <v>15310112</v>
@@ -74418,7 +74419,7 @@
         <v>383</v>
       </c>
       <c r="U995" s="114" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V995" s="116"/>
     </row>
@@ -74472,7 +74473,7 @@
         <v>383</v>
       </c>
       <c r="U996" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V996" s="19" t="str">
         <f>D996&amp;"的描述"</f>
@@ -74529,7 +74530,7 @@
         <v>383</v>
       </c>
       <c r="U997" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V997" s="19"/>
     </row>
@@ -74538,7 +74539,7 @@
         <v>15311003</v>
       </c>
       <c r="D998" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E998" s="3">
         <v>15311003</v>
@@ -74583,7 +74584,7 @@
         <v>383</v>
       </c>
       <c r="U998" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V998" s="19" t="str">
         <f>D998&amp;"的描述"</f>
@@ -74640,7 +74641,7 @@
         <v>383</v>
       </c>
       <c r="U999" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V999" s="19"/>
     </row>
@@ -74694,7 +74695,7 @@
         <v>383</v>
       </c>
       <c r="U1000" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="V1000" s="19" t="str">
         <f>D1000&amp;"的描述"</f>
@@ -74751,7 +74752,7 @@
         <v>383</v>
       </c>
       <c r="U1001" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="V1001" s="19"/>
     </row>
@@ -74760,7 +74761,7 @@
         <v>15311011</v>
       </c>
       <c r="D1002" s="114" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="E1002" s="114">
         <v>15311011</v>
@@ -74805,7 +74806,7 @@
         <v>383</v>
       </c>
       <c r="U1002" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V1002" s="116"/>
     </row>
@@ -74814,7 +74815,7 @@
         <v>15311012</v>
       </c>
       <c r="D1003" s="114" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E1003" s="114">
         <v>15311012</v>
@@ -74859,7 +74860,7 @@
         <v>383</v>
       </c>
       <c r="U1003" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V1003" s="116"/>
     </row>
@@ -74868,7 +74869,7 @@
         <v>15311013</v>
       </c>
       <c r="D1004" s="114" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E1004" s="114">
         <v>15311013</v>
@@ -74913,7 +74914,7 @@
         <v>383</v>
       </c>
       <c r="U1004" s="114" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="V1004" s="116"/>
     </row>
@@ -74967,7 +74968,7 @@
         <v>383</v>
       </c>
       <c r="U1005" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1005" s="19" t="str">
         <f>D1005&amp;"的描述"</f>
@@ -75024,7 +75025,7 @@
         <v>383</v>
       </c>
       <c r="U1006" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1006" s="19"/>
     </row>
@@ -75078,7 +75079,7 @@
         <v>383</v>
       </c>
       <c r="U1007" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1007" s="19" t="str">
         <f>D1007&amp;"的描述"</f>
@@ -75135,7 +75136,7 @@
         <v>383</v>
       </c>
       <c r="U1008" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1008" s="19"/>
     </row>
@@ -75189,7 +75190,7 @@
         <v>383</v>
       </c>
       <c r="U1009" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1009" s="19" t="str">
         <f>D1009&amp;"的描述"</f>
@@ -75246,7 +75247,7 @@
         <v>383</v>
       </c>
       <c r="U1010" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1010" s="19"/>
     </row>
@@ -75300,7 +75301,7 @@
         <v>383</v>
       </c>
       <c r="U1011" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1011" s="19" t="str">
         <f>D1011&amp;"的描述"</f>
@@ -75357,7 +75358,7 @@
         <v>383</v>
       </c>
       <c r="U1012" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1012" s="19"/>
     </row>
@@ -75411,7 +75412,7 @@
         <v>383</v>
       </c>
       <c r="U1013" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1013" s="19" t="str">
         <f>D1013&amp;"的描述"</f>
@@ -75468,7 +75469,7 @@
         <v>383</v>
       </c>
       <c r="U1014" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1014" s="19"/>
     </row>
@@ -75522,7 +75523,7 @@
         <v>383</v>
       </c>
       <c r="U1015" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1015" s="19" t="str">
         <f>D1015&amp;"的描述"</f>
@@ -75579,7 +75580,7 @@
         <v>383</v>
       </c>
       <c r="U1016" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1016" s="19"/>
     </row>
@@ -75633,7 +75634,7 @@
         <v>383</v>
       </c>
       <c r="U1017" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1017" s="19" t="str">
         <f>D1017&amp;"的描述"</f>
@@ -75690,7 +75691,7 @@
         <v>383</v>
       </c>
       <c r="U1018" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1018" s="19"/>
     </row>
@@ -75744,7 +75745,7 @@
         <v>383</v>
       </c>
       <c r="U1019" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1019" s="19" t="str">
         <f>D1019&amp;"的描述"</f>
@@ -75801,7 +75802,7 @@
         <v>383</v>
       </c>
       <c r="U1020" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1020" s="19"/>
     </row>
@@ -75855,7 +75856,7 @@
         <v>383</v>
       </c>
       <c r="U1021" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1021" s="19" t="str">
         <f>D1021&amp;"的描述"</f>
@@ -75912,7 +75913,7 @@
         <v>383</v>
       </c>
       <c r="U1022" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1022" s="19"/>
     </row>
@@ -75966,7 +75967,7 @@
         <v>383</v>
       </c>
       <c r="U1023" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1023" s="19" t="str">
         <f>D1023&amp;"的描述"</f>
@@ -76023,7 +76024,7 @@
         <v>383</v>
       </c>
       <c r="U1024" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1024" s="19"/>
     </row>
@@ -76077,7 +76078,7 @@
         <v>383</v>
       </c>
       <c r="U1025" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1025" s="19" t="str">
         <f>D1025&amp;"的描述"</f>
@@ -76134,7 +76135,7 @@
         <v>383</v>
       </c>
       <c r="U1026" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1026" s="19"/>
     </row>
@@ -76188,7 +76189,7 @@
         <v>383</v>
       </c>
       <c r="U1027" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1027" s="19" t="str">
         <f>D1027&amp;"的描述"</f>
@@ -76245,7 +76246,7 @@
         <v>383</v>
       </c>
       <c r="U1028" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1028" s="19"/>
     </row>
@@ -76299,7 +76300,7 @@
         <v>383</v>
       </c>
       <c r="U1029" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1029" s="19" t="str">
         <f>D1029&amp;"的描述"</f>
@@ -76356,7 +76357,7 @@
         <v>383</v>
       </c>
       <c r="U1030" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1030" s="19"/>
     </row>
@@ -76410,7 +76411,7 @@
         <v>383</v>
       </c>
       <c r="U1031" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1031" s="19" t="str">
         <f>D1031&amp;"的描述"</f>
@@ -76467,7 +76468,7 @@
         <v>383</v>
       </c>
       <c r="U1032" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1032" s="19"/>
     </row>
@@ -76521,7 +76522,7 @@
         <v>383</v>
       </c>
       <c r="U1033" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1033" s="19" t="str">
         <f>D1033&amp;"的描述"</f>
@@ -76578,7 +76579,7 @@
         <v>383</v>
       </c>
       <c r="U1034" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1034" s="19"/>
     </row>
@@ -76587,7 +76588,7 @@
         <v>15406001</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E1035" s="3">
         <v>15406001</v>
@@ -76632,7 +76633,7 @@
         <v>383</v>
       </c>
       <c r="U1035" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1035" s="19" t="str">
         <f>D1035&amp;"的描述"</f>
@@ -76689,7 +76690,7 @@
         <v>383</v>
       </c>
       <c r="U1036" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1036" s="19"/>
     </row>
@@ -76698,7 +76699,7 @@
         <v>15406003</v>
       </c>
       <c r="D1037" s="114" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E1037" s="114">
         <v>15406003</v>
@@ -76743,7 +76744,7 @@
         <v>383</v>
       </c>
       <c r="U1037" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1037" s="116"/>
     </row>
@@ -76752,7 +76753,7 @@
         <v>15407001</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E1038" s="3">
         <v>15407001</v>
@@ -76797,7 +76798,7 @@
         <v>383</v>
       </c>
       <c r="U1038" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1038" s="19" t="str">
         <f>D1038&amp;"的描述"</f>
@@ -76854,7 +76855,7 @@
         <v>383</v>
       </c>
       <c r="U1039" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1039" s="19"/>
     </row>
@@ -76910,7 +76911,7 @@
         <v>383</v>
       </c>
       <c r="U1040" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1040" s="19" t="str">
         <f>D1040&amp;"的描述"</f>
@@ -76969,7 +76970,7 @@
         <v>383</v>
       </c>
       <c r="U1041" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1041" s="19"/>
     </row>
@@ -76978,7 +76979,7 @@
         <v>15409001</v>
       </c>
       <c r="D1042" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E1042" s="3">
         <v>15409001</v>
@@ -77023,7 +77024,7 @@
         <v>383</v>
       </c>
       <c r="U1042" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1042" s="19" t="str">
         <f>D1042&amp;"的描述"</f>
@@ -77080,7 +77081,7 @@
         <v>383</v>
       </c>
       <c r="U1043" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1043" s="19"/>
     </row>
@@ -77134,7 +77135,7 @@
         <v>383</v>
       </c>
       <c r="U1044" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1044" s="19" t="str">
         <f>D1044&amp;"的描述"</f>
@@ -77191,7 +77192,7 @@
         <v>383</v>
       </c>
       <c r="U1045" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1045" s="19"/>
     </row>
@@ -77200,7 +77201,7 @@
         <v>15410003</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E1046" s="3">
         <v>15410003</v>
@@ -77245,7 +77246,7 @@
         <v>383</v>
       </c>
       <c r="U1046" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1046" s="19" t="str">
         <f>D1046&amp;"的描述"</f>
@@ -77302,7 +77303,7 @@
         <v>383</v>
       </c>
       <c r="U1047" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1047" s="19"/>
     </row>
@@ -77311,7 +77312,7 @@
         <v>15410011</v>
       </c>
       <c r="D1048" s="114" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E1048" s="114">
         <v>15410011</v>
@@ -77356,7 +77357,7 @@
         <v>383</v>
       </c>
       <c r="U1048" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V1048" s="116"/>
     </row>
@@ -77365,7 +77366,7 @@
         <v>15410012</v>
       </c>
       <c r="D1049" s="114" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E1049" s="114">
         <v>15410012</v>
@@ -77410,7 +77411,7 @@
         <v>383</v>
       </c>
       <c r="U1049" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V1049" s="116"/>
     </row>
@@ -77419,7 +77420,7 @@
         <v>15410101</v>
       </c>
       <c r="D1050" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E1050" s="3">
         <v>15410101</v>
@@ -77464,7 +77465,7 @@
         <v>383</v>
       </c>
       <c r="U1050" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1050" s="19" t="str">
         <f>D1050&amp;"的描述"</f>
@@ -77521,7 +77522,7 @@
         <v>383</v>
       </c>
       <c r="U1051" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1051" s="19"/>
     </row>
@@ -77530,7 +77531,7 @@
         <v>15410103</v>
       </c>
       <c r="D1052" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E1052" s="3">
         <v>15410103</v>
@@ -77575,7 +77576,7 @@
         <v>383</v>
       </c>
       <c r="U1052" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1052" s="19" t="str">
         <f>D1052&amp;"的描述"</f>
@@ -77632,7 +77633,7 @@
         <v>383</v>
       </c>
       <c r="U1053" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1053" s="19"/>
     </row>
@@ -77641,7 +77642,7 @@
         <v>15410111</v>
       </c>
       <c r="D1054" s="114" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E1054" s="114">
         <v>15410111</v>
@@ -77686,7 +77687,7 @@
         <v>383</v>
       </c>
       <c r="U1054" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V1054" s="116"/>
     </row>
@@ -77695,7 +77696,7 @@
         <v>15410112</v>
       </c>
       <c r="D1055" s="114" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E1055" s="114">
         <v>15410112</v>
@@ -77740,7 +77741,7 @@
         <v>383</v>
       </c>
       <c r="U1055" s="114" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="V1055" s="116"/>
     </row>
@@ -77794,7 +77795,7 @@
         <v>383</v>
       </c>
       <c r="U1056" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1056" s="19" t="str">
         <f>D1056&amp;"的描述"</f>
@@ -77806,7 +77807,7 @@
         <v>15411002</v>
       </c>
       <c r="D1057" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E1057" s="3">
         <v>15411002</v>
@@ -77851,7 +77852,7 @@
         <v>383</v>
       </c>
       <c r="U1057" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1057" s="19"/>
     </row>
@@ -77905,7 +77906,7 @@
         <v>383</v>
       </c>
       <c r="U1058" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1058" s="19" t="str">
         <f>D1058&amp;"的描述"</f>
@@ -77917,7 +77918,7 @@
         <v>15411004</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E1059" s="3">
         <v>15411004</v>
@@ -77962,7 +77963,7 @@
         <v>383</v>
       </c>
       <c r="U1059" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1059" s="19"/>
     </row>
@@ -78016,7 +78017,7 @@
         <v>383</v>
       </c>
       <c r="U1060" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V1060" s="19" t="str">
         <f>D1060&amp;"的描述"</f>
@@ -78028,7 +78029,7 @@
         <v>15411006</v>
       </c>
       <c r="D1061" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E1061" s="3">
         <v>15411006</v>
@@ -78073,7 +78074,7 @@
         <v>383</v>
       </c>
       <c r="U1061" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="V1061" s="19"/>
     </row>
@@ -78082,7 +78083,7 @@
         <v>15411011</v>
       </c>
       <c r="D1062" s="114" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E1062" s="114">
         <v>15411011</v>
@@ -78127,7 +78128,7 @@
         <v>383</v>
       </c>
       <c r="U1062" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1062" s="116"/>
     </row>
@@ -78136,7 +78137,7 @@
         <v>15411012</v>
       </c>
       <c r="D1063" s="114" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E1063" s="114">
         <v>15411012</v>
@@ -78181,7 +78182,7 @@
         <v>383</v>
       </c>
       <c r="U1063" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1063" s="116"/>
     </row>
@@ -78190,7 +78191,7 @@
         <v>15411013</v>
       </c>
       <c r="D1064" s="114" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E1064" s="114">
         <v>15411013</v>
@@ -78235,7 +78236,7 @@
         <v>383</v>
       </c>
       <c r="U1064" s="114" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="V1064" s="116"/>
     </row>
@@ -78289,7 +78290,7 @@
         <v>383</v>
       </c>
       <c r="U1065" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1065" s="19" t="str">
         <f>D1065&amp;"的描述"</f>
@@ -78346,7 +78347,7 @@
         <v>383</v>
       </c>
       <c r="U1066" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1066" s="19"/>
     </row>
@@ -78400,7 +78401,7 @@
         <v>383</v>
       </c>
       <c r="U1067" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1067" s="19" t="str">
         <f>D1067&amp;"的描述"</f>
@@ -78457,7 +78458,7 @@
         <v>383</v>
       </c>
       <c r="U1068" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1068" s="19"/>
     </row>
@@ -78511,7 +78512,7 @@
         <v>383</v>
       </c>
       <c r="U1069" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1069" s="19" t="str">
         <f>D1069&amp;"的描述"</f>
@@ -78523,7 +78524,7 @@
         <v>15501006</v>
       </c>
       <c r="D1070" s="3" t="s">
-        <v>1660</v>
+        <v>2015</v>
       </c>
       <c r="E1070" s="3">
         <v>15501006</v>
@@ -78568,7 +78569,7 @@
         <v>383</v>
       </c>
       <c r="U1070" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1070" s="19"/>
     </row>
@@ -78577,7 +78578,7 @@
         <v>15502001</v>
       </c>
       <c r="D1071" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E1071" s="3">
         <v>15502001</v>
@@ -78622,7 +78623,7 @@
         <v>383</v>
       </c>
       <c r="U1071" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1071" s="19" t="str">
         <f>D1071&amp;"的描述"</f>
@@ -78634,7 +78635,7 @@
         <v>15502002</v>
       </c>
       <c r="D1072" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E1072" s="3">
         <v>15502002</v>
@@ -78679,7 +78680,7 @@
         <v>383</v>
       </c>
       <c r="U1072" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1072" s="19"/>
     </row>
@@ -78688,7 +78689,7 @@
         <v>15502003</v>
       </c>
       <c r="D1073" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E1073" s="3">
         <v>15502003</v>
@@ -78733,7 +78734,7 @@
         <v>383</v>
       </c>
       <c r="U1073" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1073" s="19" t="str">
         <f>D1073&amp;"的描述"</f>
@@ -78745,7 +78746,7 @@
         <v>15502004</v>
       </c>
       <c r="D1074" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E1074" s="3">
         <v>15502004</v>
@@ -78790,7 +78791,7 @@
         <v>383</v>
       </c>
       <c r="U1074" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1074" s="19"/>
     </row>
@@ -78799,7 +78800,7 @@
         <v>15502005</v>
       </c>
       <c r="D1075" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E1075" s="3">
         <v>15502005</v>
@@ -78844,7 +78845,7 @@
         <v>383</v>
       </c>
       <c r="U1075" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1075" s="19" t="str">
         <f>D1075&amp;"的描述"</f>
@@ -78856,7 +78857,7 @@
         <v>15502006</v>
       </c>
       <c r="D1076" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E1076" s="3">
         <v>15502006</v>
@@ -78901,7 +78902,7 @@
         <v>383</v>
       </c>
       <c r="U1076" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1076" s="19"/>
     </row>
@@ -78910,7 +78911,7 @@
         <v>15503001</v>
       </c>
       <c r="D1077" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E1077" s="3">
         <v>15503001</v>
@@ -78955,7 +78956,7 @@
         <v>383</v>
       </c>
       <c r="U1077" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1077" s="19" t="str">
         <f>D1077&amp;"的描述"</f>
@@ -78967,7 +78968,7 @@
         <v>15503002</v>
       </c>
       <c r="D1078" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E1078" s="3">
         <v>15503002</v>
@@ -79012,7 +79013,7 @@
         <v>383</v>
       </c>
       <c r="U1078" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1078" s="19"/>
     </row>
@@ -79021,7 +79022,7 @@
         <v>15503003</v>
       </c>
       <c r="D1079" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E1079" s="3">
         <v>15503003</v>
@@ -79066,7 +79067,7 @@
         <v>383</v>
       </c>
       <c r="U1079" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1079" s="19" t="str">
         <f>D1079&amp;"的描述"</f>
@@ -79078,7 +79079,7 @@
         <v>15503004</v>
       </c>
       <c r="D1080" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E1080" s="3">
         <v>15503004</v>
@@ -79123,7 +79124,7 @@
         <v>383</v>
       </c>
       <c r="U1080" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1080" s="19"/>
     </row>
@@ -79132,7 +79133,7 @@
         <v>15503005</v>
       </c>
       <c r="D1081" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E1081" s="3">
         <v>15503005</v>
@@ -79177,7 +79178,7 @@
         <v>383</v>
       </c>
       <c r="U1081" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1081" s="19" t="str">
         <f>D1081&amp;"的描述"</f>
@@ -79189,7 +79190,7 @@
         <v>15503006</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E1082" s="3">
         <v>15503006</v>
@@ -79234,7 +79235,7 @@
         <v>383</v>
       </c>
       <c r="U1082" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1082" s="19"/>
     </row>
@@ -79243,7 +79244,7 @@
         <v>15504001</v>
       </c>
       <c r="D1083" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E1083" s="3">
         <v>15504001</v>
@@ -79288,7 +79289,7 @@
         <v>383</v>
       </c>
       <c r="U1083" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1083" s="19" t="str">
         <f>D1083&amp;"的描述"</f>
@@ -79300,7 +79301,7 @@
         <v>15504002</v>
       </c>
       <c r="D1084" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E1084" s="3">
         <v>15504002</v>
@@ -79345,7 +79346,7 @@
         <v>383</v>
       </c>
       <c r="U1084" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1084" s="19"/>
     </row>
@@ -79354,7 +79355,7 @@
         <v>15504003</v>
       </c>
       <c r="D1085" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E1085" s="3">
         <v>15504003</v>
@@ -79399,7 +79400,7 @@
         <v>383</v>
       </c>
       <c r="U1085" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1085" s="19" t="str">
         <f>D1085&amp;"的描述"</f>
@@ -79411,7 +79412,7 @@
         <v>15504004</v>
       </c>
       <c r="D1086" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E1086" s="3">
         <v>15504004</v>
@@ -79456,7 +79457,7 @@
         <v>383</v>
       </c>
       <c r="U1086" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1086" s="19"/>
     </row>
@@ -79465,7 +79466,7 @@
         <v>15504005</v>
       </c>
       <c r="D1087" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E1087" s="3">
         <v>15504005</v>
@@ -79510,7 +79511,7 @@
         <v>383</v>
       </c>
       <c r="U1087" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1087" s="19" t="str">
         <f>D1087&amp;"的描述"</f>
@@ -79522,7 +79523,7 @@
         <v>15504006</v>
       </c>
       <c r="D1088" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E1088" s="3">
         <v>15504006</v>
@@ -79567,7 +79568,7 @@
         <v>383</v>
       </c>
       <c r="U1088" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1088" s="19"/>
     </row>
@@ -79576,7 +79577,7 @@
         <v>15505001</v>
       </c>
       <c r="D1089" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E1089" s="3">
         <v>15505001</v>
@@ -79621,7 +79622,7 @@
         <v>383</v>
       </c>
       <c r="U1089" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1089" s="19" t="str">
         <f>D1089&amp;"的描述"</f>
@@ -79633,7 +79634,7 @@
         <v>15505002</v>
       </c>
       <c r="D1090" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E1090" s="3">
         <v>15505002</v>
@@ -79678,7 +79679,7 @@
         <v>383</v>
       </c>
       <c r="U1090" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1090" s="19"/>
     </row>
@@ -79687,7 +79688,7 @@
         <v>15505003</v>
       </c>
       <c r="D1091" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E1091" s="3">
         <v>15505003</v>
@@ -79732,7 +79733,7 @@
         <v>383</v>
       </c>
       <c r="U1091" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1091" s="19" t="str">
         <f>D1091&amp;"的描述"</f>
@@ -79744,7 +79745,7 @@
         <v>15505004</v>
       </c>
       <c r="D1092" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E1092" s="3">
         <v>15505004</v>
@@ -79789,7 +79790,7 @@
         <v>383</v>
       </c>
       <c r="U1092" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1092" s="19"/>
     </row>
@@ -79798,7 +79799,7 @@
         <v>15505005</v>
       </c>
       <c r="D1093" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E1093" s="3">
         <v>15505005</v>
@@ -79843,7 +79844,7 @@
         <v>383</v>
       </c>
       <c r="U1093" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1093" s="19" t="str">
         <f>D1093&amp;"的描述"</f>
@@ -79855,7 +79856,7 @@
         <v>15505006</v>
       </c>
       <c r="D1094" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E1094" s="3">
         <v>15505006</v>
@@ -79900,7 +79901,7 @@
         <v>383</v>
       </c>
       <c r="U1094" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1094" s="19"/>
     </row>
@@ -79909,7 +79910,7 @@
         <v>15506001</v>
       </c>
       <c r="D1095" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E1095" s="3">
         <v>15506001</v>
@@ -79954,7 +79955,7 @@
         <v>383</v>
       </c>
       <c r="U1095" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1095" s="19" t="str">
         <f>D1095&amp;"的描述"</f>
@@ -79966,7 +79967,7 @@
         <v>15506002</v>
       </c>
       <c r="D1096" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E1096" s="3">
         <v>15506002</v>
@@ -80011,7 +80012,7 @@
         <v>383</v>
       </c>
       <c r="U1096" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1096" s="19"/>
     </row>
@@ -80020,7 +80021,7 @@
         <v>15506003</v>
       </c>
       <c r="D1097" s="114" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E1097" s="114">
         <v>15506003</v>
@@ -80065,7 +80066,7 @@
         <v>383</v>
       </c>
       <c r="U1097" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1097" s="116"/>
     </row>
@@ -80074,7 +80075,7 @@
         <v>15507001</v>
       </c>
       <c r="D1098" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E1098" s="3">
         <v>15507001</v>
@@ -80119,7 +80120,7 @@
         <v>383</v>
       </c>
       <c r="U1098" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1098" s="19" t="str">
         <f>D1098&amp;"的描述"</f>
@@ -80131,7 +80132,7 @@
         <v>15507002</v>
       </c>
       <c r="D1099" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E1099" s="3">
         <v>15507002</v>
@@ -80176,7 +80177,7 @@
         <v>383</v>
       </c>
       <c r="U1099" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1099" s="19"/>
     </row>
@@ -80185,7 +80186,7 @@
         <v>15508001</v>
       </c>
       <c r="D1100" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E1100" s="3">
         <v>15508001</v>
@@ -80232,7 +80233,7 @@
         <v>383</v>
       </c>
       <c r="U1100" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1100" s="19" t="str">
         <f>D1100&amp;"的描述"</f>
@@ -80244,7 +80245,7 @@
         <v>15508002</v>
       </c>
       <c r="D1101" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E1101" s="3">
         <v>15508002</v>
@@ -80291,7 +80292,7 @@
         <v>383</v>
       </c>
       <c r="U1101" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1101" s="19"/>
     </row>
@@ -80300,7 +80301,7 @@
         <v>15509001</v>
       </c>
       <c r="D1102" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E1102" s="3">
         <v>15509001</v>
@@ -80345,7 +80346,7 @@
         <v>383</v>
       </c>
       <c r="U1102" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1102" s="19" t="str">
         <f>D1102&amp;"的描述"</f>
@@ -80357,7 +80358,7 @@
         <v>15509002</v>
       </c>
       <c r="D1103" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E1103" s="3">
         <v>15509002</v>
@@ -80402,7 +80403,7 @@
         <v>383</v>
       </c>
       <c r="U1103" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1103" s="19"/>
     </row>
@@ -80411,7 +80412,7 @@
         <v>15510001</v>
       </c>
       <c r="D1104" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E1104" s="3">
         <v>15510001</v>
@@ -80456,7 +80457,7 @@
         <v>383</v>
       </c>
       <c r="U1104" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1104" s="19" t="str">
         <f>D1104&amp;"的描述"</f>
@@ -80468,7 +80469,7 @@
         <v>15510002</v>
       </c>
       <c r="D1105" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E1105" s="3">
         <v>15510002</v>
@@ -80513,7 +80514,7 @@
         <v>383</v>
       </c>
       <c r="U1105" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1105" s="19"/>
     </row>
@@ -80522,7 +80523,7 @@
         <v>15510003</v>
       </c>
       <c r="D1106" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E1106" s="3">
         <v>15510003</v>
@@ -80567,7 +80568,7 @@
         <v>383</v>
       </c>
       <c r="U1106" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1106" s="19" t="str">
         <f>D1106&amp;"的描述"</f>
@@ -80579,7 +80580,7 @@
         <v>15510004</v>
       </c>
       <c r="D1107" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E1107" s="3">
         <v>15510004</v>
@@ -80624,7 +80625,7 @@
         <v>383</v>
       </c>
       <c r="U1107" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1107" s="19"/>
     </row>
@@ -80633,7 +80634,7 @@
         <v>15510011</v>
       </c>
       <c r="D1108" s="114" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="E1108" s="114">
         <v>15510011</v>
@@ -80678,7 +80679,7 @@
         <v>383</v>
       </c>
       <c r="U1108" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1108" s="116"/>
     </row>
@@ -80687,7 +80688,7 @@
         <v>15510012</v>
       </c>
       <c r="D1109" s="114" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="E1109" s="114">
         <v>15510012</v>
@@ -80732,7 +80733,7 @@
         <v>383</v>
       </c>
       <c r="U1109" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1109" s="116"/>
     </row>
@@ -80741,7 +80742,7 @@
         <v>15510101</v>
       </c>
       <c r="D1110" s="21" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E1110" s="21">
         <v>15510101</v>
@@ -80786,7 +80787,7 @@
         <v>383</v>
       </c>
       <c r="U1110" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1110" s="27" t="str">
         <f>D1110&amp;"的描述"</f>
@@ -80798,7 +80799,7 @@
         <v>15510102</v>
       </c>
       <c r="D1111" s="21" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E1111" s="21">
         <v>15510102</v>
@@ -80843,7 +80844,7 @@
         <v>383</v>
       </c>
       <c r="U1111" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1111" s="27"/>
     </row>
@@ -80852,7 +80853,7 @@
         <v>15510103</v>
       </c>
       <c r="D1112" s="21" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E1112" s="21">
         <v>15510103</v>
@@ -80897,7 +80898,7 @@
         <v>383</v>
       </c>
       <c r="U1112" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1112" s="27" t="str">
         <f>D1112&amp;"的描述"</f>
@@ -80909,7 +80910,7 @@
         <v>15510104</v>
       </c>
       <c r="D1113" s="21" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1113" s="21">
         <v>15510104</v>
@@ -80954,7 +80955,7 @@
         <v>383</v>
       </c>
       <c r="U1113" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1113" s="27"/>
     </row>
@@ -80963,7 +80964,7 @@
         <v>15510121</v>
       </c>
       <c r="D1114" s="114" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E1114" s="114">
         <v>15510121</v>
@@ -81008,7 +81009,7 @@
         <v>383</v>
       </c>
       <c r="U1114" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1114" s="116"/>
     </row>
@@ -81017,7 +81018,7 @@
         <v>15510122</v>
       </c>
       <c r="D1115" s="114" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E1115" s="114">
         <v>15510122</v>
@@ -81062,7 +81063,7 @@
         <v>383</v>
       </c>
       <c r="U1115" s="114" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V1115" s="116"/>
     </row>
@@ -81071,7 +81072,7 @@
         <v>15511001</v>
       </c>
       <c r="D1116" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E1116" s="3">
         <v>15511001</v>
@@ -81116,7 +81117,7 @@
         <v>383</v>
       </c>
       <c r="U1116" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1116" s="19" t="str">
         <f>D1116&amp;"的描述"</f>
@@ -81128,7 +81129,7 @@
         <v>15511002</v>
       </c>
       <c r="D1117" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E1117" s="3">
         <v>15511002</v>
@@ -81173,7 +81174,7 @@
         <v>383</v>
       </c>
       <c r="U1117" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1117" s="19"/>
     </row>
@@ -81182,7 +81183,7 @@
         <v>15511003</v>
       </c>
       <c r="D1118" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E1118" s="3">
         <v>15511003</v>
@@ -81227,7 +81228,7 @@
         <v>383</v>
       </c>
       <c r="U1118" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1118" s="19" t="str">
         <f>D1118&amp;"的描述"</f>
@@ -81239,7 +81240,7 @@
         <v>15511004</v>
       </c>
       <c r="D1119" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E1119" s="3">
         <v>15511004</v>
@@ -81284,7 +81285,7 @@
         <v>383</v>
       </c>
       <c r="U1119" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1119" s="19"/>
     </row>
@@ -81293,7 +81294,7 @@
         <v>15511005</v>
       </c>
       <c r="D1120" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E1120" s="3">
         <v>15511005</v>
@@ -81338,7 +81339,7 @@
         <v>383</v>
       </c>
       <c r="U1120" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V1120" s="19" t="str">
         <f>D1120&amp;"的描述"</f>
@@ -81350,7 +81351,7 @@
         <v>15511006</v>
       </c>
       <c r="D1121" s="3" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E1121" s="3">
         <v>15511006</v>
@@ -81395,7 +81396,7 @@
         <v>383</v>
       </c>
       <c r="U1121" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="V1121" s="19"/>
     </row>
@@ -81404,7 +81405,7 @@
         <v>15511011</v>
       </c>
       <c r="D1122" s="114" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="E1122" s="114">
         <v>15511011</v>
@@ -81449,7 +81450,7 @@
         <v>383</v>
       </c>
       <c r="U1122" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1122" s="116"/>
     </row>
@@ -81458,7 +81459,7 @@
         <v>15511012</v>
       </c>
       <c r="D1123" s="114" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="E1123" s="114">
         <v>15511012</v>
@@ -81503,7 +81504,7 @@
         <v>383</v>
       </c>
       <c r="U1123" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1123" s="116"/>
     </row>
@@ -81512,7 +81513,7 @@
         <v>15511013</v>
       </c>
       <c r="D1124" s="114" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E1124" s="114">
         <v>15511013</v>
@@ -81557,7 +81558,7 @@
         <v>383</v>
       </c>
       <c r="U1124" s="114" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="V1124" s="116"/>
     </row>
